--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B41001-31DF-4CF1-8362-0C66275E8D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DCC8B-1019-4D66-97E4-9FFBBC244E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="480" windowWidth="27525" windowHeight="20115" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="270">
   <si>
     <t>Humira</t>
   </si>
@@ -862,19 +862,31 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>1,336</t>
+  </si>
+  <si>
+    <t>Rinvoq y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1058,138 +1070,145 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1214,16 +1233,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>8335</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>8335</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1238,8 +1257,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27460575" y="9525"/>
-          <a:ext cx="0" cy="16211550"/>
+          <a:off x="27934444" y="57150"/>
+          <a:ext cx="0" cy="17699831"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1272,7 +1291,7 @@
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1783,7 +1802,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1824,7 +1843,7 @@
         <v>53</v>
       </c>
       <c r="K2" s="14">
-        <v>141.41999999999999</v>
+        <v>147.61000000000001</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1874,7 +1893,7 @@
       </c>
       <c r="K4" s="15">
         <f>+K3*K2</f>
-        <v>250044.20632289999</v>
+        <v>260988.72362695003</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -1951,7 +1970,7 @@
       </c>
       <c r="K7" s="15">
         <f>+K4-K5+K6</f>
-        <v>312771.20632290002</v>
+        <v>323715.72362695006</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -2409,13 +2428,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:GQ79"/>
+  <dimension ref="B1:GQ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AM54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV3" sqref="AV3"/>
+      <selection pane="bottomRight" activeCell="AP64" sqref="AP64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2737,8 +2756,7 @@
         <v>5363</v>
       </c>
       <c r="AS3" s="16">
-        <f>+AO3*1.01</f>
-        <v>5479.25</v>
+        <v>5559</v>
       </c>
       <c r="AT3" s="16">
         <f>+AP3*1.01</f>
@@ -2769,39 +2787,39 @@
       </c>
       <c r="BL3" s="16">
         <f>SUM(AQ3:AT3)</f>
-        <v>20965.59</v>
+        <v>21045.34</v>
       </c>
       <c r="BM3" s="16">
         <f>+BL3*0.8</f>
-        <v>16772.472000000002</v>
+        <v>16836.272000000001</v>
       </c>
       <c r="BN3" s="16">
         <f t="shared" ref="BN3:BO3" si="1">+BM3*0.8</f>
-        <v>13417.977600000002</v>
+        <v>13469.017600000001</v>
       </c>
       <c r="BO3" s="16">
         <f t="shared" si="1"/>
-        <v>10734.382080000003</v>
+        <v>10775.214080000002</v>
       </c>
       <c r="BP3" s="16">
         <f>+BO3*0.5</f>
-        <v>5367.1910400000015</v>
+        <v>5387.6070400000008</v>
       </c>
       <c r="BQ3" s="16">
         <f t="shared" ref="BQ3:BT3" si="2">+BP3*0.5</f>
-        <v>2683.5955200000008</v>
+        <v>2693.8035200000004</v>
       </c>
       <c r="BR3" s="16">
         <f t="shared" si="2"/>
-        <v>1341.7977600000004</v>
+        <v>1346.9017600000002</v>
       </c>
       <c r="BS3" s="16">
         <f t="shared" si="2"/>
-        <v>670.89888000000019</v>
+        <v>673.4508800000001</v>
       </c>
       <c r="BT3" s="16">
         <f t="shared" si="2"/>
-        <v>335.4494400000001</v>
+        <v>336.72544000000005</v>
       </c>
     </row>
     <row r="4" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2874,8 +2892,8 @@
       <c r="AR4" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="AS4" s="44" t="s">
-        <v>216</v>
+      <c r="AS4" s="61" t="s">
+        <v>268</v>
       </c>
       <c r="AT4" s="44" t="s">
         <v>216</v>
@@ -2983,8 +3001,7 @@
         <v>1145</v>
       </c>
       <c r="AS5" s="16">
-        <f>+AO5*0.9</f>
-        <v>1236.6000000000001</v>
+        <v>1135</v>
       </c>
       <c r="AT5" s="16">
         <f>+AP5*0.9</f>
@@ -3006,48 +3023,48 @@
       <c r="BH5" s="16"/>
       <c r="BI5" s="16"/>
       <c r="BJ5" s="16">
-        <f t="shared" ref="BJ4:BJ38" si="3">SUM(AI5:AL5)</f>
+        <f t="shared" ref="BJ5:BJ38" si="3">SUM(AI5:AL5)</f>
         <v>5314</v>
       </c>
       <c r="BK5" s="16">
-        <f t="shared" ref="BK4:BK39" si="4">SUM(AM5:AP5)</f>
+        <f t="shared" ref="BK5:BK39" si="4">SUM(AM5:AP5)</f>
         <v>5408</v>
       </c>
       <c r="BL5" s="16">
-        <f t="shared" ref="BL4:BL39" si="5">SUM(AQ5:AT5)</f>
-        <v>4801.1000000000004</v>
+        <f t="shared" ref="BL5:BL39" si="5">SUM(AQ5:AT5)</f>
+        <v>4699.5</v>
       </c>
       <c r="BM5" s="16">
         <f>+BL5*0.9</f>
-        <v>4320.9900000000007</v>
+        <v>4229.55</v>
       </c>
       <c r="BN5" s="16">
         <f t="shared" ref="BN5:BT5" si="6">+BM5*0.9</f>
-        <v>3888.8910000000005</v>
+        <v>3806.5950000000003</v>
       </c>
       <c r="BO5" s="16">
         <f t="shared" si="6"/>
-        <v>3500.0019000000007</v>
+        <v>3425.9355000000005</v>
       </c>
       <c r="BP5" s="16">
         <f t="shared" si="6"/>
-        <v>3150.0017100000005</v>
+        <v>3083.3419500000005</v>
       </c>
       <c r="BQ5" s="16">
         <f t="shared" si="6"/>
-        <v>2835.0015390000003</v>
+        <v>2775.0077550000005</v>
       </c>
       <c r="BR5" s="16">
         <f t="shared" si="6"/>
-        <v>2551.5013851000003</v>
+        <v>2497.5069795000004</v>
       </c>
       <c r="BS5" s="16">
         <f t="shared" si="6"/>
-        <v>2296.3512465900003</v>
+        <v>2247.7562815500005</v>
       </c>
       <c r="BT5" s="16">
         <f t="shared" si="6"/>
-        <v>2066.7161219310005</v>
+        <v>2022.9806533950004</v>
       </c>
     </row>
     <row r="6" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3121,8 +3138,7 @@
         <v>1252</v>
       </c>
       <c r="AS6" s="16">
-        <f>+AO6*1.7</f>
-        <v>1353.2</v>
+        <v>1397</v>
       </c>
       <c r="AT6" s="16">
         <f>+AP6*1.65</f>
@@ -3153,39 +3169,39 @@
       </c>
       <c r="BL6" s="16">
         <f t="shared" si="5"/>
-        <v>5021.95</v>
+        <v>5065.75</v>
       </c>
       <c r="BM6" s="16">
         <f>+BL6*1.3</f>
-        <v>6528.5349999999999</v>
+        <v>6585.4750000000004</v>
       </c>
       <c r="BN6" s="16">
         <f>+BM6*1.3</f>
-        <v>8487.0954999999994</v>
+        <v>8561.1175000000003</v>
       </c>
       <c r="BO6" s="16">
         <f>+BN6*1.3</f>
-        <v>11033.22415</v>
+        <v>11129.45275</v>
       </c>
       <c r="BP6" s="16">
         <f>+BO6*1.03</f>
-        <v>11364.220874500001</v>
+        <v>11463.336332500001</v>
       </c>
       <c r="BQ6" s="16">
         <f t="shared" ref="BQ6:BT6" si="7">+BP6*1.03</f>
-        <v>11705.147500735002</v>
+        <v>11807.236422475002</v>
       </c>
       <c r="BR6" s="16">
         <f t="shared" si="7"/>
-        <v>12056.301925757052</v>
+        <v>12161.453515149253</v>
       </c>
       <c r="BS6" s="16">
         <f t="shared" si="7"/>
-        <v>12417.990983529764</v>
+        <v>12526.297120603731</v>
       </c>
       <c r="BT6" s="16">
         <f t="shared" si="7"/>
-        <v>12790.530713035658</v>
+        <v>12902.086034221844</v>
       </c>
     </row>
     <row r="7" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3259,8 +3275,7 @@
         <v>695</v>
       </c>
       <c r="AS7" s="16">
-        <f>+AO7*1.15</f>
-        <v>626.75</v>
+        <v>637</v>
       </c>
       <c r="AT7" s="16">
         <f>+AP7*1.15</f>
@@ -3291,39 +3306,39 @@
       </c>
       <c r="BL7" s="16">
         <f t="shared" si="5"/>
-        <v>2682.65</v>
+        <v>2692.9</v>
       </c>
       <c r="BM7" s="16">
         <f>+BL7*1.05</f>
-        <v>2816.7825000000003</v>
+        <v>2827.5450000000001</v>
       </c>
       <c r="BN7" s="16">
         <f t="shared" ref="BN7:BT7" si="8">+BM7*1.05</f>
-        <v>2957.6216250000002</v>
+        <v>2968.9222500000001</v>
       </c>
       <c r="BO7" s="16">
         <f t="shared" si="8"/>
-        <v>3105.5027062500003</v>
+        <v>3117.3683625000003</v>
       </c>
       <c r="BP7" s="16">
         <f t="shared" si="8"/>
-        <v>3260.7778415625003</v>
+        <v>3273.2367806250004</v>
       </c>
       <c r="BQ7" s="16">
         <f t="shared" si="8"/>
-        <v>3423.8167336406254</v>
+        <v>3436.8986196562505</v>
       </c>
       <c r="BR7" s="16">
         <f t="shared" si="8"/>
-        <v>3595.0075703226566</v>
+        <v>3608.743550639063</v>
       </c>
       <c r="BS7" s="16">
         <f t="shared" si="8"/>
-        <v>3774.7579488387896</v>
+        <v>3789.1807281710162</v>
       </c>
       <c r="BT7" s="16">
         <f t="shared" si="8"/>
-        <v>3963.4958462807294</v>
+        <v>3978.6397645795673</v>
       </c>
     </row>
     <row r="8" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3397,8 +3412,7 @@
         <v>678</v>
       </c>
       <c r="AS8" s="16">
-        <f>+AO8*1.15</f>
-        <v>741.74999999999989</v>
+        <v>699</v>
       </c>
       <c r="AT8" s="16">
         <f>+AP8*1.15</f>
@@ -3429,39 +3443,39 @@
       </c>
       <c r="BL8" s="16">
         <f t="shared" si="5"/>
-        <v>2805.4</v>
+        <v>2762.65</v>
       </c>
       <c r="BM8" s="16">
         <f t="shared" ref="BM8:BT8" si="9">+BL8*1.05</f>
-        <v>2945.67</v>
+        <v>2900.7825000000003</v>
       </c>
       <c r="BN8" s="16">
         <f t="shared" si="9"/>
-        <v>3092.9535000000001</v>
+        <v>3045.8216250000005</v>
       </c>
       <c r="BO8" s="16">
         <f t="shared" si="9"/>
-        <v>3247.6011750000002</v>
+        <v>3198.1127062500004</v>
       </c>
       <c r="BP8" s="16">
         <f t="shared" si="9"/>
-        <v>3409.9812337500002</v>
+        <v>3358.0183415625006</v>
       </c>
       <c r="BQ8" s="16">
         <f t="shared" si="9"/>
-        <v>3580.4802954375004</v>
+        <v>3525.9192586406257</v>
       </c>
       <c r="BR8" s="16">
         <f t="shared" si="9"/>
-        <v>3759.5043102093755</v>
+        <v>3702.2152215726569</v>
       </c>
       <c r="BS8" s="16">
         <f t="shared" si="9"/>
-        <v>3947.4795257198443</v>
+        <v>3887.3259826512899</v>
       </c>
       <c r="BT8" s="16">
         <f t="shared" si="9"/>
-        <v>4144.8535020058371</v>
+        <v>4081.6922817838545</v>
       </c>
     </row>
     <row r="9" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3535,8 +3549,7 @@
         <v>505</v>
       </c>
       <c r="AS9" s="16">
-        <f>+AO9*1.05</f>
-        <v>516.6</v>
+        <v>515</v>
       </c>
       <c r="AT9" s="16">
         <f>+AP9*1.05</f>
@@ -3567,39 +3580,39 @@
       </c>
       <c r="BL9" s="16">
         <f t="shared" si="5"/>
-        <v>2007</v>
+        <v>2005.4</v>
       </c>
       <c r="BM9" s="16">
         <f>+BL9*1.03</f>
-        <v>2067.21</v>
+        <v>2065.5620000000004</v>
       </c>
       <c r="BN9" s="16">
         <f t="shared" ref="BN9:BS9" si="10">+BM9*1.03</f>
-        <v>2129.2263000000003</v>
+        <v>2127.5288600000003</v>
       </c>
       <c r="BO9" s="16">
         <f t="shared" si="10"/>
-        <v>2193.1030890000002</v>
+        <v>2191.3547258000003</v>
       </c>
       <c r="BP9" s="16">
         <f t="shared" si="10"/>
-        <v>2258.8961816700003</v>
+        <v>2257.0953675740002</v>
       </c>
       <c r="BQ9" s="16">
         <f t="shared" si="10"/>
-        <v>2326.6630671201005</v>
+        <v>2324.8082286012204</v>
       </c>
       <c r="BR9" s="16">
         <f t="shared" si="10"/>
-        <v>2396.4629591337034</v>
+        <v>2394.552475459257</v>
       </c>
       <c r="BS9" s="16">
         <f t="shared" si="10"/>
-        <v>2468.3568479077144</v>
+        <v>2466.389049723035</v>
       </c>
       <c r="BT9" s="15">
         <f>+BS9*0.1</f>
-        <v>246.83568479077144</v>
+        <v>246.63890497230352</v>
       </c>
     </row>
     <row r="10" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3673,8 +3686,7 @@
         <v>592</v>
       </c>
       <c r="AS10" s="16">
-        <f>+AO10*1.2</f>
-        <v>543.6</v>
+        <v>695</v>
       </c>
       <c r="AT10" s="16">
         <f>+AP10*1.2</f>
@@ -3705,39 +3717,39 @@
       </c>
       <c r="BL10" s="16">
         <f t="shared" si="5"/>
-        <v>2221</v>
+        <v>2372.4</v>
       </c>
       <c r="BM10" s="16">
         <f t="shared" ref="BM10:BS10" si="11">+BL10*1.03</f>
-        <v>2287.63</v>
+        <v>2443.5720000000001</v>
       </c>
       <c r="BN10" s="16">
         <f t="shared" si="11"/>
-        <v>2356.2589000000003</v>
+        <v>2516.8791600000004</v>
       </c>
       <c r="BO10" s="16">
         <f t="shared" si="11"/>
-        <v>2426.9466670000002</v>
+        <v>2592.3855348000006</v>
       </c>
       <c r="BP10" s="16">
         <f t="shared" si="11"/>
-        <v>2499.7550670100004</v>
+        <v>2670.1571008440005</v>
       </c>
       <c r="BQ10" s="16">
         <f t="shared" si="11"/>
-        <v>2574.7477190203003</v>
+        <v>2750.2618138693206</v>
       </c>
       <c r="BR10" s="16">
         <f t="shared" si="11"/>
-        <v>2651.9901505909093</v>
+        <v>2832.7696682854003</v>
       </c>
       <c r="BS10" s="16">
         <f t="shared" si="11"/>
-        <v>2731.5498551086366</v>
+        <v>2917.7527583339624</v>
       </c>
       <c r="BT10" s="15">
         <f t="shared" ref="BT10:BT11" si="12">+BS10*0.1</f>
-        <v>273.1549855108637</v>
+        <v>291.77527583339628</v>
       </c>
     </row>
     <row r="11" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3811,8 +3823,7 @@
         <v>492</v>
       </c>
       <c r="AS11" s="16">
-        <f>+AO11*1.01</f>
-        <v>465.61</v>
+        <v>554</v>
       </c>
       <c r="AT11" s="16">
         <f>+AP11*1.01</f>
@@ -3843,39 +3854,39 @@
       </c>
       <c r="BL11" s="16">
         <f t="shared" si="5"/>
-        <v>1878.5</v>
+        <v>1966.8899999999999</v>
       </c>
       <c r="BM11" s="16">
         <f t="shared" ref="BM11:BS11" si="13">+BL11*1.03</f>
-        <v>1934.855</v>
+        <v>2025.8967</v>
       </c>
       <c r="BN11" s="16">
         <f t="shared" si="13"/>
-        <v>1992.90065</v>
+        <v>2086.673601</v>
       </c>
       <c r="BO11" s="16">
         <f t="shared" si="13"/>
-        <v>2052.6876695000001</v>
+        <v>2149.2738090299999</v>
       </c>
       <c r="BP11" s="16">
         <f t="shared" si="13"/>
-        <v>2114.268299585</v>
+        <v>2213.7520233009</v>
       </c>
       <c r="BQ11" s="16">
         <f t="shared" si="13"/>
-        <v>2177.6963485725501</v>
+        <v>2280.1645839999269</v>
       </c>
       <c r="BR11" s="16">
         <f t="shared" si="13"/>
-        <v>2243.0272390297264</v>
+        <v>2348.5695215199248</v>
       </c>
       <c r="BS11" s="16">
         <f t="shared" si="13"/>
-        <v>2310.3180562006182</v>
+        <v>2419.0266071655228</v>
       </c>
       <c r="BT11" s="15">
         <f t="shared" si="12"/>
-        <v>231.03180562006185</v>
+        <v>241.9026607165523</v>
       </c>
     </row>
     <row r="12" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -3949,8 +3960,7 @@
         <v>344</v>
       </c>
       <c r="AS12" s="16">
-        <f>+AO12*1.01</f>
-        <v>357.54</v>
+        <v>352</v>
       </c>
       <c r="AT12" s="16">
         <f>+AP12*1.01</f>
@@ -3981,39 +3991,39 @@
       </c>
       <c r="BL12" s="16">
         <f t="shared" si="5"/>
-        <v>1366.06</v>
+        <v>1360.52</v>
       </c>
       <c r="BM12" s="16">
         <f>+BL12*1.05</f>
-        <v>1434.3630000000001</v>
+        <v>1428.546</v>
       </c>
       <c r="BN12" s="16">
         <f t="shared" ref="BN12:BT12" si="14">+BM12*1.05</f>
-        <v>1506.0811500000002</v>
+        <v>1499.9733000000001</v>
       </c>
       <c r="BO12" s="16">
         <f t="shared" si="14"/>
-        <v>1581.3852075000002</v>
+        <v>1574.9719650000002</v>
       </c>
       <c r="BP12" s="16">
         <f t="shared" si="14"/>
-        <v>1660.4544678750003</v>
+        <v>1653.7205632500002</v>
       </c>
       <c r="BQ12" s="16">
         <f t="shared" si="14"/>
-        <v>1743.4771912687504</v>
+        <v>1736.4065914125003</v>
       </c>
       <c r="BR12" s="16">
         <f t="shared" si="14"/>
-        <v>1830.651050832188</v>
+        <v>1823.2269209831254</v>
       </c>
       <c r="BS12" s="16">
         <f t="shared" si="14"/>
-        <v>1922.1836033737975</v>
+        <v>1914.3882670322819</v>
       </c>
       <c r="BT12" s="16">
         <f t="shared" si="14"/>
-        <v>2018.2927835424875</v>
+        <v>2010.107680383896</v>
       </c>
     </row>
     <row r="13" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4087,8 +4097,7 @@
         <v>398</v>
       </c>
       <c r="AS13" s="16">
-        <f>+AO13*0.9</f>
-        <v>383.40000000000003</v>
+        <v>383</v>
       </c>
       <c r="AT13" s="16">
         <f>+AP13*0.9</f>
@@ -4119,39 +4128,39 @@
       </c>
       <c r="BL13" s="16">
         <f t="shared" si="5"/>
-        <v>1545.7</v>
+        <v>1545.3</v>
       </c>
       <c r="BM13" s="16">
         <f>+BL13*0.7</f>
-        <v>1081.99</v>
+        <v>1081.7099999999998</v>
       </c>
       <c r="BN13" s="16">
         <f t="shared" ref="BN13:BT13" si="15">+BM13*0.7</f>
-        <v>757.39299999999992</v>
+        <v>757.19699999999978</v>
       </c>
       <c r="BO13" s="16">
         <f t="shared" si="15"/>
-        <v>530.17509999999993</v>
+        <v>530.03789999999981</v>
       </c>
       <c r="BP13" s="16">
         <f t="shared" si="15"/>
-        <v>371.12256999999994</v>
+        <v>371.02652999999987</v>
       </c>
       <c r="BQ13" s="16">
         <f t="shared" si="15"/>
-        <v>259.78579899999994</v>
+        <v>259.71857099999988</v>
       </c>
       <c r="BR13" s="16">
         <f t="shared" si="15"/>
-        <v>181.85005929999994</v>
+        <v>181.8029996999999</v>
       </c>
       <c r="BS13" s="16">
         <f t="shared" si="15"/>
-        <v>127.29504150999995</v>
+        <v>127.26209978999992</v>
       </c>
       <c r="BT13" s="16">
         <f t="shared" si="15"/>
-        <v>89.10652905699996</v>
+        <v>89.08346985299994</v>
       </c>
     </row>
     <row r="14" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4225,8 +4234,7 @@
         <v>332</v>
       </c>
       <c r="AS14" s="16">
-        <f>+AO14*0.95</f>
-        <v>334.4</v>
+        <v>312</v>
       </c>
       <c r="AT14" s="16">
         <f>+AP14*0.95</f>
@@ -4257,39 +4265,39 @@
       </c>
       <c r="BL14" s="16">
         <f t="shared" si="5"/>
-        <v>1320.95</v>
+        <v>1298.55</v>
       </c>
       <c r="BM14" s="16">
         <f>+BL14*0.9</f>
-        <v>1188.855</v>
+        <v>1168.6949999999999</v>
       </c>
       <c r="BN14" s="16">
         <f t="shared" ref="BN14:BT14" si="16">+BM14*0.9</f>
-        <v>1069.9695000000002</v>
+        <v>1051.8254999999999</v>
       </c>
       <c r="BO14" s="16">
         <f t="shared" si="16"/>
-        <v>962.97255000000018</v>
+        <v>946.64294999999993</v>
       </c>
       <c r="BP14" s="16">
         <f t="shared" si="16"/>
-        <v>866.67529500000023</v>
+        <v>851.978655</v>
       </c>
       <c r="BQ14" s="16">
         <f t="shared" si="16"/>
-        <v>780.00776550000023</v>
+        <v>766.78078949999997</v>
       </c>
       <c r="BR14" s="16">
         <f t="shared" si="16"/>
-        <v>702.00698895000028</v>
+        <v>690.10271054999998</v>
       </c>
       <c r="BS14" s="16">
         <f t="shared" si="16"/>
-        <v>631.80629005500032</v>
+        <v>621.09243949500001</v>
       </c>
       <c r="BT14" s="16">
         <f t="shared" si="16"/>
-        <v>568.62566104950031</v>
+        <v>558.98319554550005</v>
       </c>
     </row>
     <row r="15" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4371,8 +4379,7 @@
         <v>318</v>
       </c>
       <c r="AS15" s="16">
-        <f>+AO15</f>
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="AT15" s="16">
         <f>+AP15</f>
@@ -4403,39 +4410,39 @@
       </c>
       <c r="BL15" s="16">
         <f t="shared" si="5"/>
-        <v>1242</v>
+        <v>1268</v>
       </c>
       <c r="BM15" s="16">
         <f>+BL15*1.03</f>
-        <v>1279.26</v>
+        <v>1306.04</v>
       </c>
       <c r="BN15" s="16">
         <f t="shared" ref="BN15:BT15" si="17">+BM15*1.03</f>
-        <v>1317.6378</v>
+        <v>1345.2212</v>
       </c>
       <c r="BO15" s="16">
         <f t="shared" si="17"/>
-        <v>1357.1669340000001</v>
+        <v>1385.5778359999999</v>
       </c>
       <c r="BP15" s="16">
         <f t="shared" si="17"/>
-        <v>1397.8819420200002</v>
+        <v>1427.14517108</v>
       </c>
       <c r="BQ15" s="16">
         <f t="shared" si="17"/>
-        <v>1439.8184002806004</v>
+        <v>1469.9595262124001</v>
       </c>
       <c r="BR15" s="16">
         <f t="shared" si="17"/>
-        <v>1483.0129522890184</v>
+        <v>1514.0583119987721</v>
       </c>
       <c r="BS15" s="16">
         <f t="shared" si="17"/>
-        <v>1527.503340857689</v>
+        <v>1559.4800613587354</v>
       </c>
       <c r="BT15" s="16">
         <f t="shared" si="17"/>
-        <v>1573.3284410834196</v>
+        <v>1606.2644631994974</v>
       </c>
     </row>
     <row r="16" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4509,8 +4516,7 @@
         <v>327</v>
       </c>
       <c r="AS16" s="16">
-        <f>+AO16*0.95</f>
-        <v>271.7</v>
+        <v>287</v>
       </c>
       <c r="AT16" s="16">
         <f>+AP16*0.95</f>
@@ -4541,39 +4547,39 @@
       </c>
       <c r="BL16" s="16">
         <f t="shared" si="5"/>
-        <v>1167.4000000000001</v>
+        <v>1182.7</v>
       </c>
       <c r="BM16" s="16">
         <f>+BL16*0.9</f>
-        <v>1050.6600000000001</v>
+        <v>1064.43</v>
       </c>
       <c r="BN16" s="16">
         <f t="shared" ref="BN16:BT16" si="18">+BM16*0.9</f>
-        <v>945.59400000000005</v>
+        <v>957.98700000000008</v>
       </c>
       <c r="BO16" s="16">
         <f t="shared" si="18"/>
-        <v>851.03460000000007</v>
+        <v>862.18830000000014</v>
       </c>
       <c r="BP16" s="16">
         <f t="shared" si="18"/>
-        <v>765.93114000000003</v>
+        <v>775.96947000000011</v>
       </c>
       <c r="BQ16" s="16">
         <f t="shared" si="18"/>
-        <v>689.33802600000001</v>
+        <v>698.37252300000011</v>
       </c>
       <c r="BR16" s="16">
         <f t="shared" si="18"/>
-        <v>620.40422339999998</v>
+        <v>628.53527070000007</v>
       </c>
       <c r="BS16" s="16">
         <f t="shared" si="18"/>
-        <v>558.36380106000001</v>
+        <v>565.68174363000003</v>
       </c>
       <c r="BT16" s="16">
         <f t="shared" si="18"/>
-        <v>502.52742095400004</v>
+        <v>509.11356926700006</v>
       </c>
     </row>
     <row r="17" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4647,12 +4653,11 @@
         <v>168</v>
       </c>
       <c r="AS17" s="16">
-        <f>+AR17-10</f>
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="AT17" s="16">
         <f>+AS17-10</f>
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="AU17" s="16"/>
       <c r="AV17" s="16"/>
@@ -4679,39 +4684,39 @@
       </c>
       <c r="BL17" s="16">
         <f t="shared" si="5"/>
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="BM17" s="16">
         <f t="shared" ref="BM17:BT17" si="19">+BL17*0.9</f>
-        <v>648</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="BN17" s="16">
         <f t="shared" si="19"/>
-        <v>583.20000000000005</v>
+        <v>557.28000000000009</v>
       </c>
       <c r="BO17" s="16">
         <f t="shared" si="19"/>
-        <v>524.88000000000011</v>
+        <v>501.55200000000008</v>
       </c>
       <c r="BP17" s="16">
         <f t="shared" si="19"/>
-        <v>472.39200000000011</v>
+        <v>451.3968000000001</v>
       </c>
       <c r="BQ17" s="16">
         <f t="shared" si="19"/>
-        <v>425.15280000000013</v>
+        <v>406.2571200000001</v>
       </c>
       <c r="BR17" s="16">
         <f t="shared" si="19"/>
-        <v>382.63752000000011</v>
+        <v>365.63140800000008</v>
       </c>
       <c r="BS17" s="16">
         <f t="shared" si="19"/>
-        <v>344.3737680000001</v>
+        <v>329.06826720000009</v>
       </c>
       <c r="BT17" s="16">
         <f t="shared" si="19"/>
-        <v>309.93639120000012</v>
+        <v>296.16144048000007</v>
       </c>
     </row>
     <row r="18" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4785,8 +4790,7 @@
         <v>255</v>
       </c>
       <c r="AS18" s="16">
-        <f>+AO18*0.95</f>
-        <v>247.95</v>
+        <v>271</v>
       </c>
       <c r="AT18" s="16">
         <f>+AP18*0.95</f>
@@ -4817,39 +4821,39 @@
       </c>
       <c r="BL18" s="16">
         <f t="shared" si="5"/>
-        <v>1015.6</v>
+        <v>1038.6500000000001</v>
       </c>
       <c r="BM18" s="16">
         <f>+BL18*0.5</f>
-        <v>507.8</v>
+        <v>519.32500000000005</v>
       </c>
       <c r="BN18" s="16">
         <f t="shared" ref="BN18:BT18" si="20">+BM18*0.5</f>
-        <v>253.9</v>
+        <v>259.66250000000002</v>
       </c>
       <c r="BO18" s="16">
         <f t="shared" si="20"/>
-        <v>126.95</v>
+        <v>129.83125000000001</v>
       </c>
       <c r="BP18" s="16">
         <f t="shared" si="20"/>
-        <v>63.475000000000001</v>
+        <v>64.915625000000006</v>
       </c>
       <c r="BQ18" s="16">
         <f t="shared" si="20"/>
-        <v>31.737500000000001</v>
+        <v>32.457812500000003</v>
       </c>
       <c r="BR18" s="16">
         <f t="shared" si="20"/>
-        <v>15.86875</v>
+        <v>16.228906250000001</v>
       </c>
       <c r="BS18" s="16">
         <f t="shared" si="20"/>
-        <v>7.9343750000000002</v>
+        <v>8.1144531250000007</v>
       </c>
       <c r="BT18" s="16">
         <f t="shared" si="20"/>
-        <v>3.9671875000000001</v>
+        <v>4.0572265625000004</v>
       </c>
     </row>
     <row r="19" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4923,8 +4927,7 @@
         <v>150</v>
       </c>
       <c r="AS19" s="16">
-        <f>+AO19*0.95</f>
-        <v>162.44999999999999</v>
+        <v>87</v>
       </c>
       <c r="AT19" s="16">
         <f>+AP19*0.95</f>
@@ -4955,39 +4958,39 @@
       </c>
       <c r="BL19" s="16">
         <f t="shared" si="5"/>
-        <v>663.3</v>
+        <v>587.85</v>
       </c>
       <c r="BM19" s="16">
-        <f>+BL19*0.9</f>
-        <v>596.97</v>
+        <f t="shared" ref="BM19:BT19" si="21">+BL19*0.9</f>
+        <v>529.06500000000005</v>
       </c>
       <c r="BN19" s="16">
-        <f>+BM19*0.9</f>
-        <v>537.27300000000002</v>
+        <f t="shared" si="21"/>
+        <v>476.15850000000006</v>
       </c>
       <c r="BO19" s="16">
-        <f>+BN19*0.9</f>
-        <v>483.54570000000001</v>
+        <f t="shared" si="21"/>
+        <v>428.54265000000004</v>
       </c>
       <c r="BP19" s="16">
-        <f>+BO19*0.9</f>
-        <v>435.19113000000004</v>
+        <f t="shared" si="21"/>
+        <v>385.68838500000004</v>
       </c>
       <c r="BQ19" s="16">
-        <f>+BP19*0.9</f>
-        <v>391.67201700000004</v>
+        <f t="shared" si="21"/>
+        <v>347.11954650000007</v>
       </c>
       <c r="BR19" s="16">
-        <f>+BQ19*0.9</f>
-        <v>352.50481530000002</v>
+        <f t="shared" si="21"/>
+        <v>312.40759185000007</v>
       </c>
       <c r="BS19" s="16">
-        <f>+BR19*0.9</f>
-        <v>317.25433377000002</v>
+        <f t="shared" si="21"/>
+        <v>281.16683266500007</v>
       </c>
       <c r="BT19" s="16">
-        <f>+BS19*0.9</f>
-        <v>285.52890039300001</v>
+        <f t="shared" si="21"/>
+        <v>253.05014939850008</v>
       </c>
     </row>
     <row r="20" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5061,8 +5064,7 @@
         <v>130</v>
       </c>
       <c r="AS20" s="16">
-        <f>+AO20</f>
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="AT20" s="16">
         <f>+AP20</f>
@@ -5093,39 +5095,39 @@
       </c>
       <c r="BL20" s="16">
         <f t="shared" si="5"/>
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="BM20" s="16">
         <f>+BL20*0.9</f>
-        <v>501.3</v>
+        <v>486</v>
       </c>
       <c r="BN20" s="16">
-        <f t="shared" ref="BN20:BT20" si="21">+BM20*0.9</f>
-        <v>451.17</v>
+        <f t="shared" ref="BN20:BT20" si="22">+BM20*0.9</f>
+        <v>437.40000000000003</v>
       </c>
       <c r="BO20" s="16">
-        <f t="shared" si="21"/>
-        <v>406.053</v>
+        <f t="shared" si="22"/>
+        <v>393.66</v>
       </c>
       <c r="BP20" s="16">
-        <f t="shared" si="21"/>
-        <v>365.4477</v>
+        <f t="shared" si="22"/>
+        <v>354.29400000000004</v>
       </c>
       <c r="BQ20" s="16">
-        <f t="shared" si="21"/>
-        <v>328.90293000000003</v>
+        <f t="shared" si="22"/>
+        <v>318.86460000000005</v>
       </c>
       <c r="BR20" s="16">
-        <f t="shared" si="21"/>
-        <v>296.01263700000004</v>
+        <f t="shared" si="22"/>
+        <v>286.97814000000005</v>
       </c>
       <c r="BS20" s="16">
-        <f t="shared" si="21"/>
-        <v>266.41137330000004</v>
+        <f t="shared" si="22"/>
+        <v>258.28032600000006</v>
       </c>
       <c r="BT20" s="16">
-        <f t="shared" si="21"/>
-        <v>239.77023597000004</v>
+        <f t="shared" si="22"/>
+        <v>232.45229340000006</v>
       </c>
     </row>
     <row r="21" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5199,12 +5201,11 @@
         <v>185</v>
       </c>
       <c r="AS21" s="16">
-        <f>+AR21+10</f>
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="AT21" s="16">
         <f>+AS21+10</f>
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="AU21" s="16"/>
       <c r="AV21" s="16"/>
@@ -5231,39 +5232,39 @@
       </c>
       <c r="BL21" s="16">
         <f t="shared" si="5"/>
-        <v>723</v>
+        <v>653</v>
       </c>
       <c r="BM21" s="16">
         <f>+BL21*1.2</f>
-        <v>867.6</v>
+        <v>783.6</v>
       </c>
       <c r="BN21" s="16">
         <f>+BM21*1.2</f>
-        <v>1041.1199999999999</v>
+        <v>940.31999999999994</v>
       </c>
       <c r="BO21" s="16">
         <f>+BN21*1.2</f>
-        <v>1249.3439999999998</v>
+        <v>1128.3839999999998</v>
       </c>
       <c r="BP21" s="16">
         <f>+BO21*1.2</f>
-        <v>1499.2127999999998</v>
+        <v>1354.0607999999997</v>
       </c>
       <c r="BQ21" s="16">
         <f>+BP21*1.1</f>
-        <v>1649.1340799999998</v>
+        <v>1489.4668799999999</v>
       </c>
       <c r="BR21" s="16">
         <f>+BQ21*1.1</f>
-        <v>1814.0474879999999</v>
+        <v>1638.4135680000002</v>
       </c>
       <c r="BS21" s="16">
         <f>+BR21*1.03</f>
-        <v>1868.4689126399999</v>
+        <v>1687.5659750400002</v>
       </c>
       <c r="BT21" s="15">
         <f>+BS21*0.1</f>
-        <v>186.84689126399999</v>
+        <v>168.75659750400004</v>
       </c>
     </row>
     <row r="22" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5345,8 +5346,7 @@
         <v>120</v>
       </c>
       <c r="AS22" s="16">
-        <f>+AO22</f>
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="AT22" s="16">
         <f>+AP22</f>
@@ -5377,39 +5377,39 @@
       </c>
       <c r="BL22" s="16">
         <f t="shared" si="5"/>
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="BM22" s="16">
         <f>+BL22*0.9</f>
-        <v>446.40000000000003</v>
+        <v>431.1</v>
       </c>
       <c r="BN22" s="16">
-        <f t="shared" ref="BN22:BT22" si="22">+BM22*0.9</f>
-        <v>401.76000000000005</v>
+        <f t="shared" ref="BN22:BT22" si="23">+BM22*0.9</f>
+        <v>387.99</v>
       </c>
       <c r="BO22" s="16">
-        <f t="shared" si="22"/>
-        <v>361.58400000000006</v>
+        <f t="shared" si="23"/>
+        <v>349.19100000000003</v>
       </c>
       <c r="BP22" s="16">
-        <f t="shared" si="22"/>
-        <v>325.42560000000009</v>
+        <f t="shared" si="23"/>
+        <v>314.27190000000002</v>
       </c>
       <c r="BQ22" s="16">
-        <f t="shared" si="22"/>
-        <v>292.88304000000011</v>
+        <f t="shared" si="23"/>
+        <v>282.84471000000002</v>
       </c>
       <c r="BR22" s="16">
-        <f t="shared" si="22"/>
-        <v>263.59473600000013</v>
+        <f t="shared" si="23"/>
+        <v>254.56023900000002</v>
       </c>
       <c r="BS22" s="16">
-        <f t="shared" si="22"/>
-        <v>237.23526240000012</v>
+        <f t="shared" si="23"/>
+        <v>229.10421510000003</v>
       </c>
       <c r="BT22" s="16">
-        <f t="shared" si="22"/>
-        <v>213.51173616000011</v>
+        <f t="shared" si="23"/>
+        <v>206.19379359000004</v>
       </c>
     </row>
     <row r="23" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5483,12 +5483,11 @@
         <v>92</v>
       </c>
       <c r="AS23" s="16">
-        <f>+AR23-3</f>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AT23" s="16">
         <f>+AS23-3</f>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="AU23" s="16"/>
       <c r="AV23" s="16"/>
@@ -5515,39 +5514,39 @@
       </c>
       <c r="BL23" s="16">
         <f t="shared" si="5"/>
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="BM23" s="16">
-        <f t="shared" ref="BM23:BT23" si="23">+BL23*0.9</f>
-        <v>336.6</v>
+        <f t="shared" ref="BM23:BT23" si="24">+BL23*0.9</f>
+        <v>307.8</v>
       </c>
       <c r="BN23" s="16">
-        <f t="shared" si="23"/>
-        <v>302.94000000000005</v>
+        <f t="shared" si="24"/>
+        <v>277.02000000000004</v>
       </c>
       <c r="BO23" s="16">
-        <f t="shared" si="23"/>
-        <v>272.64600000000007</v>
+        <f t="shared" si="24"/>
+        <v>249.31800000000004</v>
       </c>
       <c r="BP23" s="16">
-        <f t="shared" si="23"/>
-        <v>245.38140000000007</v>
+        <f t="shared" si="24"/>
+        <v>224.38620000000003</v>
       </c>
       <c r="BQ23" s="16">
-        <f t="shared" si="23"/>
-        <v>220.84326000000007</v>
+        <f t="shared" si="24"/>
+        <v>201.94758000000004</v>
       </c>
       <c r="BR23" s="16">
-        <f t="shared" si="23"/>
-        <v>198.75893400000007</v>
+        <f t="shared" si="24"/>
+        <v>181.75282200000004</v>
       </c>
       <c r="BS23" s="16">
-        <f t="shared" si="23"/>
-        <v>178.88304060000007</v>
+        <f t="shared" si="24"/>
+        <v>163.57753980000004</v>
       </c>
       <c r="BT23" s="16">
-        <f t="shared" si="23"/>
-        <v>160.99473654000008</v>
+        <f t="shared" si="24"/>
+        <v>147.21978582000003</v>
       </c>
     </row>
     <row r="24" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5621,12 +5620,11 @@
         <v>33</v>
       </c>
       <c r="AS24" s="16">
-        <f>+AR24+10</f>
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AT24" s="16">
         <f>+AS24+10</f>
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="AU24" s="16"/>
       <c r="AV24" s="16"/>
@@ -5653,39 +5651,39 @@
       </c>
       <c r="BL24" s="16">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="BM24" s="16">
         <f>+BL24*1.2</f>
-        <v>168</v>
+        <v>213.6</v>
       </c>
       <c r="BN24" s="16">
         <f>+BM24*1.2</f>
-        <v>201.6</v>
+        <v>256.32</v>
       </c>
       <c r="BO24" s="16">
         <f>+BN24*1.2</f>
-        <v>241.92</v>
+        <v>307.584</v>
       </c>
       <c r="BP24" s="16">
         <f>+BO24*1.2</f>
-        <v>290.30399999999997</v>
+        <v>369.10079999999999</v>
       </c>
       <c r="BQ24" s="16">
         <f>+BP24*1.1</f>
-        <v>319.33440000000002</v>
+        <v>406.01088000000004</v>
       </c>
       <c r="BR24" s="16">
         <f>+BQ24*1.1</f>
-        <v>351.26784000000004</v>
+        <v>446.6119680000001</v>
       </c>
       <c r="BS24" s="16">
         <f>+BR24*1.03</f>
-        <v>361.80587520000006</v>
+        <v>460.01032704000011</v>
       </c>
       <c r="BT24" s="15">
         <f>+BS24*0.1</f>
-        <v>36.18058752000001</v>
+        <v>46.001032704000011</v>
       </c>
     </row>
     <row r="25" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7095,8 +7093,7 @@
         <v>1009</v>
       </c>
       <c r="AS39" s="16">
-        <f>+AO39*0.9</f>
-        <v>1005.3000000000001</v>
+        <v>925</v>
       </c>
       <c r="AT39" s="16">
         <f>+AP39*0.9</f>
@@ -7124,39 +7121,39 @@
       </c>
       <c r="BL39" s="16">
         <f t="shared" si="5"/>
-        <v>4471.8</v>
+        <v>4391.5</v>
       </c>
       <c r="BM39" s="16">
         <f>+BL39*0.9</f>
-        <v>4024.6200000000003</v>
+        <v>3952.35</v>
       </c>
       <c r="BN39" s="16">
-        <f t="shared" ref="BN39:BT39" si="24">+BM39*0.9</f>
-        <v>3622.1580000000004</v>
+        <f t="shared" ref="BN39:BT39" si="25">+BM39*0.9</f>
+        <v>3557.1149999999998</v>
       </c>
       <c r="BO39" s="16">
-        <f t="shared" si="24"/>
-        <v>3259.9422000000004</v>
+        <f t="shared" si="25"/>
+        <v>3201.4034999999999</v>
       </c>
       <c r="BP39" s="16">
-        <f t="shared" si="24"/>
-        <v>2933.9479800000004</v>
+        <f t="shared" si="25"/>
+        <v>2881.2631499999998</v>
       </c>
       <c r="BQ39" s="16">
-        <f t="shared" si="24"/>
-        <v>2640.5531820000006</v>
+        <f t="shared" si="25"/>
+        <v>2593.1368349999998</v>
       </c>
       <c r="BR39" s="16">
-        <f t="shared" si="24"/>
-        <v>2376.4978638000007</v>
+        <f t="shared" si="25"/>
+        <v>2333.8231514999998</v>
       </c>
       <c r="BS39" s="16">
-        <f t="shared" si="24"/>
-        <v>2138.8480774200007</v>
+        <f t="shared" si="25"/>
+        <v>2100.4408363499997</v>
       </c>
       <c r="BT39" s="16">
-        <f t="shared" si="24"/>
-        <v>1924.9632696780006</v>
+        <f t="shared" si="25"/>
+        <v>1890.3967527149998</v>
       </c>
     </row>
     <row r="40" spans="2:72" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -7213,75 +7210,75 @@
         <v>8255</v>
       </c>
       <c r="AG40" s="56">
-        <f>SUM(AG3:AG39)</f>
+        <f t="shared" ref="AG40:AT40" si="26">SUM(AG3:AG39)</f>
         <v>8479</v>
       </c>
       <c r="AH40" s="56">
-        <f>SUM(AH3:AH39)</f>
+        <f t="shared" si="26"/>
         <v>8704</v>
       </c>
       <c r="AI40" s="56">
-        <f>SUM(AI3:AI39)</f>
+        <f t="shared" si="26"/>
         <v>8619</v>
       </c>
       <c r="AJ40" s="18">
-        <f>SUM(AJ3:AJ39)</f>
+        <f t="shared" si="26"/>
         <v>10425</v>
       </c>
       <c r="AK40" s="18">
-        <f>SUM(AK3:AK39)</f>
+        <f t="shared" si="26"/>
         <v>12882</v>
       </c>
       <c r="AL40" s="18">
-        <f>SUM(AL3:AL39)</f>
+        <f t="shared" si="26"/>
         <v>13858</v>
       </c>
       <c r="AM40" s="18">
-        <f>SUM(AM3:AM39)</f>
+        <f t="shared" si="26"/>
         <v>12935</v>
       </c>
       <c r="AN40" s="18">
-        <f>SUM(AN3:AN39)</f>
+        <f t="shared" si="26"/>
         <v>13959</v>
       </c>
       <c r="AO40" s="18">
-        <f>SUM(AO3:AO39)</f>
+        <f t="shared" si="26"/>
         <v>14342</v>
       </c>
       <c r="AP40" s="18">
-        <f>SUM(AP3:AP39)</f>
+        <f t="shared" si="26"/>
         <v>14886</v>
       </c>
       <c r="AQ40" s="18">
-        <f>SUM(AQ3:AQ39)</f>
+        <f t="shared" si="26"/>
         <v>13538</v>
       </c>
       <c r="AR40" s="18">
-        <f>SUM(AR3:AR39)</f>
+        <f t="shared" si="26"/>
         <v>14583</v>
       </c>
       <c r="AS40" s="18">
-        <f>SUM(AS3:AS39)</f>
-        <v>14786.100000000002</v>
+        <f t="shared" si="26"/>
+        <v>14812</v>
       </c>
       <c r="AT40" s="18">
-        <f>SUM(AT3:AT39)</f>
-        <v>15278.899999999998</v>
+        <f t="shared" si="26"/>
+        <v>15230.899999999998</v>
       </c>
       <c r="AU40" s="18">
-        <f t="shared" ref="AU40:AX40" si="25">SUM(AU3:AU39)</f>
+        <f t="shared" ref="AU40:AX40" si="27">SUM(AU3:AU39)</f>
         <v>0</v>
       </c>
       <c r="AV40" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AW40" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AX40" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AY40" s="18"/>
@@ -7302,39 +7299,39 @@
       </c>
       <c r="BL40" s="18">
         <f>SUM(BL3:BL39)</f>
-        <v>58186</v>
+        <v>58163.9</v>
       </c>
       <c r="BM40" s="18">
-        <f t="shared" ref="BM40:BT40" si="26">SUM(BM3:BM39)</f>
-        <v>53806.562500000015</v>
+        <f t="shared" ref="BM40:BT40" si="28">SUM(BM3:BM39)</f>
+        <v>53806.116199999989</v>
       </c>
       <c r="BN40" s="18">
-        <f t="shared" si="26"/>
-        <v>51314.721525000001</v>
+        <f t="shared" si="28"/>
+        <v>51344.025595999992</v>
       </c>
       <c r="BO40" s="18">
-        <f t="shared" si="26"/>
-        <v>50503.048728250003</v>
+        <f t="shared" si="28"/>
+        <v>50567.982819380013</v>
       </c>
       <c r="BP40" s="18">
-        <f t="shared" si="26"/>
-        <v>45117.9352729725</v>
+        <f t="shared" si="28"/>
+        <v>45185.762985736408</v>
       </c>
       <c r="BQ40" s="18">
-        <f t="shared" si="26"/>
-        <v>42519.789114575426</v>
+        <f t="shared" si="28"/>
+        <v>42603.444167367234</v>
       </c>
       <c r="BR40" s="18">
-        <f t="shared" si="26"/>
-        <v>41464.70915901463</v>
+        <f t="shared" si="28"/>
+        <v>41566.846700657457</v>
       </c>
       <c r="BS40" s="18">
-        <f t="shared" si="26"/>
-        <v>41106.070439081828</v>
+        <f t="shared" si="28"/>
+        <v>41232.412791824572</v>
       </c>
       <c r="BT40" s="18">
-        <f t="shared" si="26"/>
-        <v>32165.64887108633</v>
+        <f t="shared" si="28"/>
+        <v>32120.282465925411</v>
       </c>
     </row>
     <row r="41" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7420,15 +7417,15 @@
         <v>2103</v>
       </c>
       <c r="AR41" s="16">
-        <v>2232</v>
+        <v>2167</v>
       </c>
       <c r="AS41" s="16">
         <f>+AS40-AS42</f>
-        <v>2217.9150000000009</v>
+        <v>2221.8000000000011</v>
       </c>
       <c r="AT41" s="16">
         <f>+AT40-AT42</f>
-        <v>2291.8349999999991</v>
+        <v>2284.6350000000002</v>
       </c>
       <c r="AU41" s="16"/>
       <c r="AV41" s="16"/>
@@ -7447,44 +7444,44 @@
       <c r="BI41" s="16"/>
       <c r="BJ41" s="16"/>
       <c r="BK41" s="16">
-        <f t="shared" ref="BK41" si="27">SUM(AM41:AP41)</f>
+        <f t="shared" ref="BK41" si="29">SUM(AM41:AP41)</f>
         <v>9425</v>
       </c>
       <c r="BL41" s="16">
-        <f t="shared" ref="BL41" si="28">SUM(AQ41:AT41)</f>
-        <v>8844.75</v>
+        <f t="shared" ref="BL41" si="30">SUM(AQ41:AT41)</f>
+        <v>8776.4350000000013</v>
       </c>
       <c r="BM41" s="16">
         <f>+BM40-BM42</f>
-        <v>8070.984375</v>
+        <v>8070.9174300000013</v>
       </c>
       <c r="BN41" s="16">
-        <f t="shared" ref="BN41:BT41" si="29">+BN40-BN42</f>
-        <v>7697.2082287500016</v>
+        <f t="shared" ref="BN41:BT41" si="31">+BN40-BN42</f>
+        <v>7701.6038393999988</v>
       </c>
       <c r="BO41" s="16">
-        <f t="shared" si="29"/>
-        <v>7575.4573092374994</v>
+        <f t="shared" si="31"/>
+        <v>7585.1974229070038</v>
       </c>
       <c r="BP41" s="16">
-        <f t="shared" si="29"/>
-        <v>6767.6902909458731</v>
+        <f t="shared" si="31"/>
+        <v>6777.864447860462</v>
       </c>
       <c r="BQ41" s="16">
-        <f t="shared" si="29"/>
-        <v>6377.9683671863168</v>
+        <f t="shared" si="31"/>
+        <v>6390.5166251050832</v>
       </c>
       <c r="BR41" s="16">
-        <f t="shared" si="29"/>
-        <v>6219.7063738521974</v>
+        <f t="shared" si="31"/>
+        <v>6235.0270050986219</v>
       </c>
       <c r="BS41" s="16">
-        <f t="shared" si="29"/>
-        <v>6165.9105658622721</v>
+        <f t="shared" si="31"/>
+        <v>6184.861918773684</v>
       </c>
       <c r="BT41" s="16">
-        <f t="shared" si="29"/>
-        <v>4824.8473306629494</v>
+        <f t="shared" si="31"/>
+        <v>4818.0423698888117</v>
       </c>
     </row>
     <row r="42" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7543,60 +7540,60 @@
         <v>6828</v>
       </c>
       <c r="AG42" s="16">
-        <f t="shared" ref="AG42:AH42" si="30">AG40-AG41</f>
+        <f t="shared" ref="AG42:AH42" si="32">AG40-AG41</f>
         <v>6954</v>
       </c>
       <c r="AH42" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7099</v>
       </c>
       <c r="AI42" s="16">
-        <f t="shared" ref="AI42:AJ42" si="31">AI40-AI41</f>
+        <f t="shared" ref="AI42:AJ42" si="33">AI40-AI41</f>
         <v>7125</v>
       </c>
       <c r="AJ42" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8629</v>
       </c>
       <c r="AK42" s="16">
-        <f t="shared" ref="AK42:AQ42" si="32">AK40-AK41</f>
+        <f t="shared" ref="AK42:AQ42" si="34">AK40-AK41</f>
         <v>10520</v>
       </c>
       <c r="AL42" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11335</v>
       </c>
       <c r="AM42" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10850</v>
       </c>
       <c r="AN42" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11480</v>
       </c>
       <c r="AO42" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11929</v>
       </c>
       <c r="AP42" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>12438</v>
       </c>
       <c r="AQ42" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>11435</v>
       </c>
       <c r="AR42" s="16">
-        <f t="shared" ref="AR42" si="33">AR40-AR41</f>
-        <v>12351</v>
+        <f t="shared" ref="AR42" si="35">AR40-AR41</f>
+        <v>12416</v>
       </c>
       <c r="AS42" s="16">
         <f>+AS40*0.85</f>
-        <v>12568.185000000001</v>
+        <v>12590.199999999999</v>
       </c>
       <c r="AT42" s="16">
         <f>+AT40*0.85</f>
-        <v>12987.064999999999</v>
+        <v>12946.264999999998</v>
       </c>
       <c r="AU42" s="16"/>
       <c r="AV42" s="16"/>
@@ -7620,39 +7617,39 @@
       </c>
       <c r="BL42" s="16">
         <f>+BL40-BL41</f>
-        <v>49341.25</v>
+        <v>49387.464999999997</v>
       </c>
       <c r="BM42" s="16">
         <f>+BM40*0.85</f>
-        <v>45735.578125000015</v>
+        <v>45735.198769999988</v>
       </c>
       <c r="BN42" s="16">
-        <f t="shared" ref="BN42:BT42" si="34">+BN40*0.85</f>
-        <v>43617.513296249999</v>
+        <f t="shared" ref="BN42:BT42" si="36">+BN40*0.85</f>
+        <v>43642.421756599993</v>
       </c>
       <c r="BO42" s="16">
-        <f t="shared" si="34"/>
-        <v>42927.591419012504</v>
+        <f t="shared" si="36"/>
+        <v>42982.785396473009</v>
       </c>
       <c r="BP42" s="16">
-        <f t="shared" si="34"/>
-        <v>38350.244982026627</v>
+        <f t="shared" si="36"/>
+        <v>38407.898537875946</v>
       </c>
       <c r="BQ42" s="16">
-        <f t="shared" si="34"/>
-        <v>36141.820747389109</v>
+        <f t="shared" si="36"/>
+        <v>36212.92754226215</v>
       </c>
       <c r="BR42" s="16">
-        <f t="shared" si="34"/>
-        <v>35245.002785162433</v>
+        <f t="shared" si="36"/>
+        <v>35331.819695558836</v>
       </c>
       <c r="BS42" s="16">
-        <f t="shared" si="34"/>
-        <v>34940.159873219556</v>
+        <f t="shared" si="36"/>
+        <v>35047.550873050888</v>
       </c>
       <c r="BT42" s="16">
-        <f t="shared" si="34"/>
-        <v>27340.801540423381</v>
+        <f t="shared" si="36"/>
+        <v>27302.240096036599</v>
       </c>
     </row>
     <row r="43" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7738,7 +7735,7 @@
         <v>2852</v>
       </c>
       <c r="AR43" s="16">
-        <v>3035</v>
+        <v>3089</v>
       </c>
       <c r="AS43" s="16">
         <f>+AO43*1.01</f>
@@ -7765,44 +7762,44 @@
       <c r="BI43" s="16"/>
       <c r="BJ43" s="16"/>
       <c r="BK43" s="16">
-        <f t="shared" ref="BK43:BK44" si="35">SUM(AM43:AP43)</f>
+        <f t="shared" ref="BK43:BK44" si="37">SUM(AM43:AP43)</f>
         <v>11964</v>
       </c>
       <c r="BL43" s="16">
-        <f t="shared" ref="BL43:BL44" si="36">SUM(AQ43:AT43)</f>
-        <v>12217.68</v>
+        <f t="shared" ref="BL43:BL44" si="38">SUM(AQ43:AT43)</f>
+        <v>12271.68</v>
       </c>
       <c r="BM43" s="16">
         <f>+BM40*0.2</f>
-        <v>10761.312500000004</v>
+        <v>10761.223239999999</v>
       </c>
       <c r="BN43" s="16">
-        <f t="shared" ref="BN43:BT43" si="37">+BN40*0.2</f>
-        <v>10262.944305000001</v>
+        <f t="shared" ref="BN43:BT43" si="39">+BN40*0.2</f>
+        <v>10268.805119199998</v>
       </c>
       <c r="BO43" s="16">
-        <f t="shared" si="37"/>
-        <v>10100.609745650001</v>
+        <f t="shared" si="39"/>
+        <v>10113.596563876003</v>
       </c>
       <c r="BP43" s="16">
-        <f t="shared" si="37"/>
-        <v>9023.5870545944999</v>
+        <f t="shared" si="39"/>
+        <v>9037.152597147282</v>
       </c>
       <c r="BQ43" s="16">
-        <f t="shared" si="37"/>
-        <v>8503.9578229150848</v>
+        <f t="shared" si="39"/>
+        <v>8520.6888334734467</v>
       </c>
       <c r="BR43" s="16">
-        <f t="shared" si="37"/>
-        <v>8292.9418318029257</v>
+        <f t="shared" si="39"/>
+        <v>8313.3693401314922</v>
       </c>
       <c r="BS43" s="16">
-        <f t="shared" si="37"/>
-        <v>8221.2140878163664</v>
+        <f t="shared" si="39"/>
+        <v>8246.4825583649144</v>
       </c>
       <c r="BT43" s="16">
-        <f t="shared" si="37"/>
-        <v>6433.1297742172665</v>
+        <f t="shared" si="39"/>
+        <v>6424.0564931850822</v>
       </c>
     </row>
     <row r="44" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7915,11 +7912,11 @@
       <c r="BI44" s="16"/>
       <c r="BJ44" s="16"/>
       <c r="BK44" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6518</v>
       </c>
       <c r="BL44" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>6551.2999999999993</v>
       </c>
       <c r="BM44" s="16"/>
@@ -7986,59 +7983,59 @@
         <v>2852</v>
       </c>
       <c r="AG45" s="16">
-        <f t="shared" ref="AG45:AH45" si="38">AG44+AG43</f>
+        <f t="shared" ref="AG45:AH45" si="40">AG44+AG43</f>
         <v>2848</v>
       </c>
       <c r="AH45" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3214</v>
       </c>
       <c r="AI45" s="16">
-        <f t="shared" ref="AI45:AJ45" si="39">AI44+AI43</f>
+        <f t="shared" ref="AI45:AJ45" si="41">AI44+AI43</f>
         <v>2833</v>
       </c>
       <c r="AJ45" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3724</v>
       </c>
       <c r="AK45" s="16">
-        <f t="shared" ref="AK45:AQ45" si="40">AK44+AK43</f>
+        <f t="shared" ref="AK45:AQ45" si="42">AK44+AK43</f>
         <v>4236</v>
       </c>
       <c r="AL45" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4840</v>
       </c>
       <c r="AM45" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4248</v>
       </c>
       <c r="AN45" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4536</v>
       </c>
       <c r="AO45" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4593</v>
       </c>
       <c r="AP45" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5105</v>
       </c>
       <c r="AQ45" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4332</v>
       </c>
       <c r="AR45" s="16">
-        <f t="shared" ref="AR45:AT45" si="41">AR44+AR43</f>
-        <v>4642</v>
+        <f t="shared" ref="AR45:AT45" si="43">AR44+AR43</f>
+        <v>4696</v>
       </c>
       <c r="AS45" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4638.93</v>
       </c>
       <c r="AT45" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5156.05</v>
       </c>
       <c r="AU45" s="16"/>
@@ -8063,39 +8060,39 @@
       </c>
       <c r="BL45" s="16">
         <f>+BL43+BL44</f>
-        <v>18768.98</v>
+        <v>18822.98</v>
       </c>
       <c r="BM45" s="16">
-        <f t="shared" ref="BM45:BT45" si="42">+BM43+BM44</f>
-        <v>10761.312500000004</v>
+        <f t="shared" ref="BM45:BT45" si="44">+BM43+BM44</f>
+        <v>10761.223239999999</v>
       </c>
       <c r="BN45" s="16">
-        <f t="shared" si="42"/>
-        <v>10262.944305000001</v>
+        <f t="shared" si="44"/>
+        <v>10268.805119199998</v>
       </c>
       <c r="BO45" s="16">
-        <f t="shared" si="42"/>
-        <v>10100.609745650001</v>
+        <f t="shared" si="44"/>
+        <v>10113.596563876003</v>
       </c>
       <c r="BP45" s="16">
-        <f t="shared" si="42"/>
-        <v>9023.5870545944999</v>
+        <f t="shared" si="44"/>
+        <v>9037.152597147282</v>
       </c>
       <c r="BQ45" s="16">
-        <f t="shared" si="42"/>
-        <v>8503.9578229150848</v>
+        <f t="shared" si="44"/>
+        <v>8520.6888334734467</v>
       </c>
       <c r="BR45" s="16">
-        <f t="shared" si="42"/>
-        <v>8292.9418318029257</v>
+        <f t="shared" si="44"/>
+        <v>8313.3693401314922</v>
       </c>
       <c r="BS45" s="16">
-        <f t="shared" si="42"/>
-        <v>8221.2140878163664</v>
+        <f t="shared" si="44"/>
+        <v>8246.4825583649144</v>
       </c>
       <c r="BT45" s="16">
-        <f t="shared" si="42"/>
-        <v>6433.1297742172665</v>
+        <f t="shared" si="44"/>
+        <v>6424.0564931850822</v>
       </c>
     </row>
     <row r="46" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -8154,60 +8151,60 @@
         <v>3976</v>
       </c>
       <c r="AG46" s="16">
-        <f t="shared" ref="AG46:AH46" si="43">AG42-AG45</f>
+        <f t="shared" ref="AG46:AH46" si="45">AG42-AG45</f>
         <v>4106</v>
       </c>
       <c r="AH46" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>3885</v>
       </c>
       <c r="AI46" s="16">
-        <f t="shared" ref="AI46:AJ46" si="44">AI42-AI45</f>
+        <f t="shared" ref="AI46:AJ46" si="46">AI42-AI45</f>
         <v>4292</v>
       </c>
       <c r="AJ46" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>4905</v>
       </c>
       <c r="AK46" s="16">
-        <f t="shared" ref="AK46:AQ46" si="45">AK42-AK45</f>
+        <f t="shared" ref="AK46:AQ46" si="47">AK42-AK45</f>
         <v>6284</v>
       </c>
       <c r="AL46" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>6495</v>
       </c>
       <c r="AM46" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>6602</v>
       </c>
       <c r="AN46" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>6944</v>
       </c>
       <c r="AO46" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>7336</v>
       </c>
       <c r="AP46" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>7333</v>
       </c>
       <c r="AQ46" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>7103</v>
       </c>
       <c r="AR46" s="16">
-        <f t="shared" ref="AR46:AT46" si="46">AR42-AR45</f>
-        <v>7709</v>
+        <f t="shared" ref="AR46:AT46" si="48">AR42-AR45</f>
+        <v>7720</v>
       </c>
       <c r="AS46" s="16">
-        <f t="shared" si="46"/>
-        <v>7929.255000000001</v>
+        <f t="shared" si="48"/>
+        <v>7951.2699999999986</v>
       </c>
       <c r="AT46" s="16">
-        <f t="shared" si="46"/>
-        <v>7831.0149999999985</v>
+        <f t="shared" si="48"/>
+        <v>7790.2149999999974</v>
       </c>
       <c r="AU46" s="16"/>
       <c r="AV46" s="16"/>
@@ -8231,39 +8228,39 @@
       </c>
       <c r="BL46" s="16">
         <f>+BL42-BL45</f>
-        <v>30572.27</v>
+        <v>30564.484999999997</v>
       </c>
       <c r="BM46" s="16">
-        <f t="shared" ref="BM46:BT46" si="47">+BM42-BM45</f>
-        <v>34974.265625000015</v>
+        <f t="shared" ref="BM46:BT46" si="49">+BM42-BM45</f>
+        <v>34973.975529999989</v>
       </c>
       <c r="BN46" s="16">
-        <f t="shared" si="47"/>
-        <v>33354.568991249995</v>
+        <f t="shared" si="49"/>
+        <v>33373.616637399995</v>
       </c>
       <c r="BO46" s="16">
-        <f t="shared" si="47"/>
-        <v>32826.981673362505</v>
+        <f t="shared" si="49"/>
+        <v>32869.188832597007</v>
       </c>
       <c r="BP46" s="16">
-        <f t="shared" si="47"/>
-        <v>29326.657927432127</v>
+        <f t="shared" si="49"/>
+        <v>29370.745940728666</v>
       </c>
       <c r="BQ46" s="16">
-        <f t="shared" si="47"/>
-        <v>27637.862924474022</v>
+        <f t="shared" si="49"/>
+        <v>27692.238708788704</v>
       </c>
       <c r="BR46" s="16">
-        <f t="shared" si="47"/>
-        <v>26952.060953359505</v>
+        <f t="shared" si="49"/>
+        <v>27018.450355427343</v>
       </c>
       <c r="BS46" s="16">
-        <f t="shared" si="47"/>
-        <v>26718.94578540319</v>
+        <f t="shared" si="49"/>
+        <v>26801.068314685974</v>
       </c>
       <c r="BT46" s="16">
-        <f t="shared" si="47"/>
-        <v>20907.671766206113</v>
+        <f t="shared" si="49"/>
+        <v>20878.183602851517</v>
       </c>
     </row>
     <row r="47" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -8359,15 +8356,16 @@
         <v>-511</v>
       </c>
       <c r="AR47" s="16">
-        <v>-532</v>
+        <f>-497+210</f>
+        <v>-287</v>
       </c>
       <c r="AS47" s="16">
         <f>+AR47</f>
-        <v>-532</v>
+        <v>-287</v>
       </c>
       <c r="AT47" s="16">
         <f>+AS47</f>
-        <v>-532</v>
+        <v>-287</v>
       </c>
       <c r="AU47" s="16"/>
       <c r="AV47" s="16"/>
@@ -8386,44 +8384,44 @@
       <c r="BI47" s="16"/>
       <c r="BJ47" s="16"/>
       <c r="BK47" s="16">
-        <f t="shared" ref="BK47" si="48">SUM(AM47:AP47)</f>
+        <f t="shared" ref="BK47" si="50">SUM(AM47:AP47)</f>
         <v>-2384</v>
       </c>
       <c r="BL47" s="16">
-        <f t="shared" ref="BL47" si="49">SUM(AQ47:AT47)</f>
-        <v>-2107</v>
+        <f t="shared" ref="BL47" si="51">SUM(AQ47:AT47)</f>
+        <v>-1372</v>
       </c>
       <c r="BM47" s="16">
         <f>+BL47+300</f>
-        <v>-1807</v>
+        <v>-1072</v>
       </c>
       <c r="BN47" s="16">
-        <f t="shared" ref="BN47:BT47" si="50">+BM47+300</f>
-        <v>-1507</v>
+        <f t="shared" ref="BN47:BT47" si="52">+BM47+300</f>
+        <v>-772</v>
       </c>
       <c r="BO47" s="16">
-        <f t="shared" si="50"/>
-        <v>-1207</v>
+        <f t="shared" si="52"/>
+        <v>-472</v>
       </c>
       <c r="BP47" s="16">
-        <f t="shared" si="50"/>
-        <v>-907</v>
+        <f t="shared" si="52"/>
+        <v>-172</v>
       </c>
       <c r="BQ47" s="16">
-        <f t="shared" si="50"/>
-        <v>-607</v>
+        <f t="shared" si="52"/>
+        <v>128</v>
       </c>
       <c r="BR47" s="16">
-        <f t="shared" si="50"/>
-        <v>-307</v>
+        <f t="shared" si="52"/>
+        <v>428</v>
       </c>
       <c r="BS47" s="16">
-        <f t="shared" si="50"/>
-        <v>-7</v>
+        <f t="shared" si="52"/>
+        <v>728</v>
       </c>
       <c r="BT47" s="16">
-        <f t="shared" si="50"/>
-        <v>293</v>
+        <f t="shared" si="52"/>
+        <v>1028</v>
       </c>
     </row>
     <row r="48" spans="2:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -8482,60 +8480,60 @@
         <v>3700</v>
       </c>
       <c r="AG48" s="16">
-        <f t="shared" ref="AG48:AH48" si="51">AG46+AG47</f>
+        <f t="shared" ref="AG48:AH48" si="53">AG46+AG47</f>
         <v>3802</v>
       </c>
       <c r="AH48" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3614</v>
       </c>
       <c r="AI48" s="16">
-        <f t="shared" ref="AI48:AJ48" si="52">AI46+AI47</f>
+        <f t="shared" ref="AI48:AJ48" si="54">AI46+AI47</f>
         <v>4003</v>
       </c>
       <c r="AJ48" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4395</v>
       </c>
       <c r="AK48" s="16">
-        <f t="shared" ref="AK48:AQ48" si="53">AK46+AK47</f>
+        <f t="shared" ref="AK48:AQ48" si="55">AK46+AK47</f>
         <v>6904</v>
       </c>
       <c r="AL48" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>7113</v>
       </c>
       <c r="AM48" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5980</v>
       </c>
       <c r="AN48" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6338</v>
       </c>
       <c r="AO48" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6751</v>
       </c>
       <c r="AP48" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6762</v>
       </c>
       <c r="AQ48" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6592</v>
       </c>
       <c r="AR48" s="16">
-        <f t="shared" ref="AR48:AT48" si="54">AR46+AR47</f>
-        <v>7177</v>
+        <f t="shared" ref="AR48:AT48" si="56">AR46+AR47</f>
+        <v>7433</v>
       </c>
       <c r="AS48" s="16">
-        <f t="shared" si="54"/>
-        <v>7397.255000000001</v>
+        <f t="shared" si="56"/>
+        <v>7664.2699999999986</v>
       </c>
       <c r="AT48" s="16">
-        <f t="shared" si="54"/>
-        <v>7299.0149999999985</v>
+        <f t="shared" si="56"/>
+        <v>7503.2149999999974</v>
       </c>
       <c r="AU48" s="16"/>
       <c r="AV48" s="16"/>
@@ -8559,39 +8557,39 @@
       </c>
       <c r="BL48" s="16">
         <f>+BL46+BL47</f>
-        <v>28465.27</v>
+        <v>29192.484999999997</v>
       </c>
       <c r="BM48" s="16">
-        <f t="shared" ref="BM48:BT48" si="55">+BM46+BM47</f>
-        <v>33167.265625000015</v>
+        <f t="shared" ref="BM48:BT48" si="57">+BM46+BM47</f>
+        <v>33901.975529999989</v>
       </c>
       <c r="BN48" s="16">
-        <f t="shared" si="55"/>
-        <v>31847.568991249995</v>
+        <f t="shared" si="57"/>
+        <v>32601.616637399995</v>
       </c>
       <c r="BO48" s="16">
-        <f t="shared" si="55"/>
-        <v>31619.981673362505</v>
+        <f t="shared" si="57"/>
+        <v>32397.188832597007</v>
       </c>
       <c r="BP48" s="16">
-        <f t="shared" si="55"/>
-        <v>28419.657927432127</v>
+        <f t="shared" si="57"/>
+        <v>29198.745940728666</v>
       </c>
       <c r="BQ48" s="16">
-        <f t="shared" si="55"/>
-        <v>27030.862924474022</v>
+        <f t="shared" si="57"/>
+        <v>27820.238708788704</v>
       </c>
       <c r="BR48" s="16">
-        <f t="shared" si="55"/>
-        <v>26645.060953359505</v>
+        <f t="shared" si="57"/>
+        <v>27446.450355427343</v>
       </c>
       <c r="BS48" s="16">
-        <f t="shared" si="55"/>
-        <v>26711.94578540319</v>
+        <f t="shared" si="57"/>
+        <v>27529.068314685974</v>
       </c>
       <c r="BT48" s="16">
-        <f t="shared" si="55"/>
-        <v>21200.671766206113</v>
+        <f t="shared" si="57"/>
+        <v>21906.183602851517</v>
       </c>
     </row>
     <row r="49" spans="2:199" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -8679,15 +8677,15 @@
         <v>778</v>
       </c>
       <c r="AR49" s="16">
-        <v>930</v>
+        <v>965</v>
       </c>
       <c r="AS49" s="16">
         <f>+AS48*0.15</f>
-        <v>1109.58825</v>
+        <v>1149.6404999999997</v>
       </c>
       <c r="AT49" s="16">
         <f>+AT48*0.15</f>
-        <v>1094.8522499999997</v>
+        <v>1125.4822499999996</v>
       </c>
       <c r="AU49" s="16"/>
       <c r="AV49" s="16"/>
@@ -8706,44 +8704,44 @@
       <c r="BI49" s="16"/>
       <c r="BJ49" s="16"/>
       <c r="BK49" s="16">
-        <f t="shared" ref="BK49" si="56">SUM(AM49:AP49)</f>
+        <f t="shared" ref="BK49" si="58">SUM(AM49:AP49)</f>
         <v>3248</v>
       </c>
       <c r="BL49" s="16">
-        <f t="shared" ref="BL49" si="57">SUM(AQ49:AT49)</f>
-        <v>3912.4404999999997</v>
+        <f t="shared" ref="BL49" si="59">SUM(AQ49:AT49)</f>
+        <v>4018.1227499999991</v>
       </c>
       <c r="BM49" s="16">
         <f>+BM48*0.15</f>
-        <v>4975.0898437500018</v>
+        <v>5085.2963294999981</v>
       </c>
       <c r="BN49" s="16">
-        <f t="shared" ref="BN49:BT49" si="58">+BN48*0.15</f>
-        <v>4777.1353486874987</v>
+        <f t="shared" ref="BN49:BT49" si="60">+BN48*0.15</f>
+        <v>4890.2424956099994</v>
       </c>
       <c r="BO49" s="16">
-        <f t="shared" si="58"/>
-        <v>4742.9972510043754</v>
+        <f t="shared" si="60"/>
+        <v>4859.5783248895505</v>
       </c>
       <c r="BP49" s="16">
-        <f t="shared" si="58"/>
-        <v>4262.948689114819</v>
+        <f t="shared" si="60"/>
+        <v>4379.8118911092997</v>
       </c>
       <c r="BQ49" s="16">
-        <f t="shared" si="58"/>
-        <v>4054.6294386711033</v>
+        <f t="shared" si="60"/>
+        <v>4173.0358063183057</v>
       </c>
       <c r="BR49" s="16">
-        <f t="shared" si="58"/>
-        <v>3996.7591430039256</v>
+        <f t="shared" si="60"/>
+        <v>4116.9675533141017</v>
       </c>
       <c r="BS49" s="16">
-        <f t="shared" si="58"/>
-        <v>4006.7918678104784</v>
+        <f t="shared" si="60"/>
+        <v>4129.3602472028961</v>
       </c>
       <c r="BT49" s="16">
-        <f t="shared" si="58"/>
-        <v>3180.1007649309167</v>
+        <f t="shared" si="60"/>
+        <v>3285.9275404277273</v>
       </c>
     </row>
     <row r="50" spans="2:199" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -8802,60 +8800,60 @@
         <v>3376</v>
       </c>
       <c r="AG50" s="16">
-        <f t="shared" ref="AG50:AH50" si="59">AG48-AG49</f>
+        <f t="shared" ref="AG50:AH50" si="61">AG48-AG49</f>
         <v>3468</v>
       </c>
       <c r="AH50" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3294</v>
       </c>
       <c r="AI50" s="16">
-        <f t="shared" ref="AI50:AJ50" si="60">AI48-AI49</f>
+        <f t="shared" ref="AI50:AJ50" si="62">AI48-AI49</f>
         <v>3613</v>
       </c>
       <c r="AJ50" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>3894</v>
       </c>
       <c r="AK50" s="16">
-        <f t="shared" ref="AK50:AQ50" si="61">AK48-AK49</f>
+        <f t="shared" ref="AK50:AQ50" si="63">AK48-AK49</f>
         <v>6236</v>
       </c>
       <c r="AL50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>6427</v>
       </c>
       <c r="AM50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5242</v>
       </c>
       <c r="AN50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5536</v>
       </c>
       <c r="AO50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5888</v>
       </c>
       <c r="AP50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5917</v>
       </c>
       <c r="AQ50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>5814</v>
       </c>
       <c r="AR50" s="16">
-        <f t="shared" ref="AR50:AT50" si="62">AR48-AR49</f>
-        <v>6247</v>
+        <f t="shared" ref="AR50:AT50" si="64">AR48-AR49</f>
+        <v>6468</v>
       </c>
       <c r="AS50" s="16">
-        <f t="shared" si="62"/>
-        <v>6287.6667500000012</v>
+        <f t="shared" si="64"/>
+        <v>6514.6294999999991</v>
       </c>
       <c r="AT50" s="16">
-        <f t="shared" si="62"/>
-        <v>6204.1627499999986</v>
+        <f t="shared" si="64"/>
+        <v>6377.7327499999974</v>
       </c>
       <c r="AU50" s="16"/>
       <c r="AV50" s="16"/>
@@ -8879,547 +8877,547 @@
       </c>
       <c r="BL50" s="16">
         <f>+BL48-BL49</f>
-        <v>24552.8295</v>
+        <v>25174.362249999998</v>
       </c>
       <c r="BM50" s="16">
         <f>+BM48-BM49</f>
-        <v>28192.175781250015</v>
+        <v>28816.679200499992</v>
       </c>
       <c r="BN50" s="16">
-        <f t="shared" ref="BN50:BT50" si="63">+BN48-BN49</f>
-        <v>27070.433642562497</v>
+        <f t="shared" ref="BN50:BT50" si="65">+BN48-BN49</f>
+        <v>27711.374141789995</v>
       </c>
       <c r="BO50" s="16">
-        <f t="shared" si="63"/>
-        <v>26876.984422358131</v>
+        <f t="shared" si="65"/>
+        <v>27537.610507707457</v>
       </c>
       <c r="BP50" s="16">
-        <f t="shared" si="63"/>
-        <v>24156.709238317308</v>
+        <f t="shared" si="65"/>
+        <v>24818.934049619365</v>
       </c>
       <c r="BQ50" s="16">
-        <f t="shared" si="63"/>
-        <v>22976.233485802921</v>
+        <f t="shared" si="65"/>
+        <v>23647.202902470399</v>
       </c>
       <c r="BR50" s="16">
-        <f t="shared" si="63"/>
-        <v>22648.301810355581</v>
+        <f t="shared" si="65"/>
+        <v>23329.482802113242</v>
       </c>
       <c r="BS50" s="16">
-        <f t="shared" si="63"/>
-        <v>22705.15391759271</v>
+        <f t="shared" si="65"/>
+        <v>23399.70806748308</v>
       </c>
       <c r="BT50" s="16">
-        <f t="shared" si="63"/>
-        <v>18020.571001275195</v>
+        <f t="shared" si="65"/>
+        <v>18620.256062423789</v>
       </c>
       <c r="BU50" s="15">
         <f>BT50*(1+$BW$53)</f>
-        <v>17840.365291262442</v>
+        <v>18434.05350179955</v>
       </c>
       <c r="BV50" s="15">
-        <f t="shared" ref="BV50:EG50" si="64">BU50*(1+$BW$53)</f>
-        <v>17661.961638349818</v>
+        <f t="shared" ref="BV50:EG50" si="66">BU50*(1+$BW$53)</f>
+        <v>18249.712966781553</v>
       </c>
       <c r="BW50" s="15">
-        <f t="shared" si="64"/>
-        <v>17485.34202196632</v>
+        <f t="shared" si="66"/>
+        <v>18067.215837113738</v>
       </c>
       <c r="BX50" s="15">
-        <f t="shared" si="64"/>
-        <v>17310.488601746656</v>
+        <f t="shared" si="66"/>
+        <v>17886.543678742601</v>
       </c>
       <c r="BY50" s="15">
-        <f t="shared" si="64"/>
-        <v>17137.383715729189</v>
+        <f t="shared" si="66"/>
+        <v>17707.678241955175</v>
       </c>
       <c r="BZ50" s="15">
-        <f t="shared" si="64"/>
-        <v>16966.009878571898</v>
+        <f t="shared" si="66"/>
+        <v>17530.601459535621</v>
       </c>
       <c r="CA50" s="15">
-        <f t="shared" si="64"/>
-        <v>16796.349779786178</v>
+        <f t="shared" si="66"/>
+        <v>17355.295444940264</v>
       </c>
       <c r="CB50" s="15">
-        <f t="shared" si="64"/>
-        <v>16628.386281988318</v>
+        <f t="shared" si="66"/>
+        <v>17181.742490490862</v>
       </c>
       <c r="CC50" s="15">
-        <f t="shared" si="64"/>
-        <v>16462.102419168434</v>
+        <f t="shared" si="66"/>
+        <v>17009.925065585954</v>
       </c>
       <c r="CD50" s="15">
-        <f t="shared" si="64"/>
-        <v>16297.481394976749</v>
+        <f t="shared" si="66"/>
+        <v>16839.825814930093</v>
       </c>
       <c r="CE50" s="15">
-        <f t="shared" si="64"/>
-        <v>16134.506581026981</v>
+        <f t="shared" si="66"/>
+        <v>16671.427556780793</v>
       </c>
       <c r="CF50" s="15">
-        <f t="shared" si="64"/>
-        <v>15973.161515216711</v>
+        <f t="shared" si="66"/>
+        <v>16504.713281212986</v>
       </c>
       <c r="CG50" s="15">
-        <f t="shared" si="64"/>
-        <v>15813.429900064544</v>
+        <f t="shared" si="66"/>
+        <v>16339.666148400856</v>
       </c>
       <c r="CH50" s="15">
-        <f t="shared" si="64"/>
-        <v>15655.295601063899</v>
+        <f t="shared" si="66"/>
+        <v>16176.269486916848</v>
       </c>
       <c r="CI50" s="15">
-        <f t="shared" si="64"/>
-        <v>15498.74264505326</v>
+        <f t="shared" si="66"/>
+        <v>16014.506792047679</v>
       </c>
       <c r="CJ50" s="15">
-        <f t="shared" si="64"/>
-        <v>15343.755218602728</v>
+        <f t="shared" si="66"/>
+        <v>15854.361724127202</v>
       </c>
       <c r="CK50" s="15">
-        <f t="shared" si="64"/>
-        <v>15190.3176664167</v>
+        <f t="shared" si="66"/>
+        <v>15695.81810688593</v>
       </c>
       <c r="CL50" s="15">
-        <f t="shared" si="64"/>
-        <v>15038.414489752533</v>
+        <f t="shared" si="66"/>
+        <v>15538.859925817071</v>
       </c>
       <c r="CM50" s="15">
-        <f t="shared" si="64"/>
-        <v>14888.030344855008</v>
+        <f t="shared" si="66"/>
+        <v>15383.4713265589</v>
       </c>
       <c r="CN50" s="15">
-        <f t="shared" si="64"/>
-        <v>14739.150041406458</v>
+        <f t="shared" si="66"/>
+        <v>15229.636613293311</v>
       </c>
       <c r="CO50" s="15">
-        <f t="shared" si="64"/>
-        <v>14591.758540992392</v>
+        <f t="shared" si="66"/>
+        <v>15077.340247160377</v>
       </c>
       <c r="CP50" s="15">
-        <f t="shared" si="64"/>
-        <v>14445.840955582467</v>
+        <f t="shared" si="66"/>
+        <v>14926.566844688772</v>
       </c>
       <c r="CQ50" s="15">
-        <f t="shared" si="64"/>
-        <v>14301.382546026642</v>
+        <f t="shared" si="66"/>
+        <v>14777.301176241885</v>
       </c>
       <c r="CR50" s="15">
-        <f t="shared" si="64"/>
-        <v>14158.368720566375</v>
+        <f t="shared" si="66"/>
+        <v>14629.528164479465</v>
       </c>
       <c r="CS50" s="15">
-        <f t="shared" si="64"/>
-        <v>14016.785033360711</v>
+        <f t="shared" si="66"/>
+        <v>14483.232882834671</v>
       </c>
       <c r="CT50" s="15">
-        <f t="shared" si="64"/>
-        <v>13876.617183027103</v>
+        <f t="shared" si="66"/>
+        <v>14338.400554006324</v>
       </c>
       <c r="CU50" s="15">
-        <f t="shared" si="64"/>
-        <v>13737.851011196832</v>
+        <f t="shared" si="66"/>
+        <v>14195.016548466261</v>
       </c>
       <c r="CV50" s="15">
-        <f t="shared" si="64"/>
-        <v>13600.472501084863</v>
+        <f t="shared" si="66"/>
+        <v>14053.066382981599</v>
       </c>
       <c r="CW50" s="15">
-        <f t="shared" si="64"/>
-        <v>13464.467776074014</v>
+        <f t="shared" si="66"/>
+        <v>13912.535719151783</v>
       </c>
       <c r="CX50" s="15">
-        <f t="shared" si="64"/>
-        <v>13329.823098313274</v>
+        <f t="shared" si="66"/>
+        <v>13773.410361960265</v>
       </c>
       <c r="CY50" s="15">
-        <f t="shared" si="64"/>
-        <v>13196.524867330141</v>
+        <f t="shared" si="66"/>
+        <v>13635.676258340662</v>
       </c>
       <c r="CZ50" s="15">
-        <f t="shared" si="64"/>
-        <v>13064.55961865684</v>
+        <f t="shared" si="66"/>
+        <v>13499.319495757254</v>
       </c>
       <c r="DA50" s="15">
-        <f t="shared" si="64"/>
-        <v>12933.914022470271</v>
+        <f t="shared" si="66"/>
+        <v>13364.326300799681</v>
       </c>
       <c r="DB50" s="15">
-        <f t="shared" si="64"/>
-        <v>12804.574882245568</v>
+        <f t="shared" si="66"/>
+        <v>13230.683037791685</v>
       </c>
       <c r="DC50" s="15">
-        <f t="shared" si="64"/>
-        <v>12676.529133423111</v>
+        <f t="shared" si="66"/>
+        <v>13098.376207413768</v>
       </c>
       <c r="DD50" s="15">
-        <f t="shared" si="64"/>
-        <v>12549.76384208888</v>
+        <f t="shared" si="66"/>
+        <v>12967.39244533963</v>
       </c>
       <c r="DE50" s="15">
-        <f t="shared" si="64"/>
-        <v>12424.26620366799</v>
+        <f t="shared" si="66"/>
+        <v>12837.718520886234</v>
       </c>
       <c r="DF50" s="15">
-        <f t="shared" si="64"/>
-        <v>12300.02354163131</v>
+        <f t="shared" si="66"/>
+        <v>12709.341335677371</v>
       </c>
       <c r="DG50" s="15">
-        <f t="shared" si="64"/>
-        <v>12177.023306214996</v>
+        <f t="shared" si="66"/>
+        <v>12582.247922320597</v>
       </c>
       <c r="DH50" s="15">
-        <f t="shared" si="64"/>
-        <v>12055.253073152846</v>
+        <f t="shared" si="66"/>
+        <v>12456.425443097391</v>
       </c>
       <c r="DI50" s="15">
-        <f t="shared" si="64"/>
-        <v>11934.700542421317</v>
+        <f t="shared" si="66"/>
+        <v>12331.861188666417</v>
       </c>
       <c r="DJ50" s="15">
-        <f t="shared" si="64"/>
-        <v>11815.353536997103</v>
+        <f t="shared" si="66"/>
+        <v>12208.542576779751</v>
       </c>
       <c r="DK50" s="15">
-        <f t="shared" si="64"/>
-        <v>11697.200001627132</v>
+        <f t="shared" si="66"/>
+        <v>12086.457151011953</v>
       </c>
       <c r="DL50" s="15">
-        <f t="shared" si="64"/>
-        <v>11580.228001610862</v>
+        <f t="shared" si="66"/>
+        <v>11965.592579501834</v>
       </c>
       <c r="DM50" s="15">
-        <f t="shared" si="64"/>
-        <v>11464.425721594753</v>
+        <f t="shared" si="66"/>
+        <v>11845.936653706816</v>
       </c>
       <c r="DN50" s="15">
-        <f t="shared" si="64"/>
-        <v>11349.781464378804</v>
+        <f t="shared" si="66"/>
+        <v>11727.477287169748</v>
       </c>
       <c r="DO50" s="15">
-        <f t="shared" si="64"/>
-        <v>11236.283649735016</v>
+        <f t="shared" si="66"/>
+        <v>11610.202514298051</v>
       </c>
       <c r="DP50" s="15">
-        <f t="shared" si="64"/>
-        <v>11123.920813237666</v>
+        <f t="shared" si="66"/>
+        <v>11494.100489155071</v>
       </c>
       <c r="DQ50" s="15">
-        <f t="shared" si="64"/>
-        <v>11012.68160510529</v>
+        <f t="shared" si="66"/>
+        <v>11379.15948426352</v>
       </c>
       <c r="DR50" s="15">
-        <f t="shared" si="64"/>
-        <v>10902.554789054237</v>
+        <f t="shared" si="66"/>
+        <v>11265.367889420884</v>
       </c>
       <c r="DS50" s="15">
-        <f t="shared" si="64"/>
-        <v>10793.529241163695</v>
+        <f t="shared" si="66"/>
+        <v>11152.714210526676</v>
       </c>
       <c r="DT50" s="15">
-        <f t="shared" si="64"/>
-        <v>10685.593948752057</v>
+        <f t="shared" si="66"/>
+        <v>11041.187068421408</v>
       </c>
       <c r="DU50" s="15">
-        <f t="shared" si="64"/>
-        <v>10578.738009264536</v>
+        <f t="shared" si="66"/>
+        <v>10930.775197737194</v>
       </c>
       <c r="DV50" s="15">
-        <f t="shared" si="64"/>
-        <v>10472.95062917189</v>
+        <f t="shared" si="66"/>
+        <v>10821.467445759821</v>
       </c>
       <c r="DW50" s="15">
-        <f t="shared" si="64"/>
-        <v>10368.221122880172</v>
+        <f t="shared" si="66"/>
+        <v>10713.252771302223</v>
       </c>
       <c r="DX50" s="15">
-        <f t="shared" si="64"/>
-        <v>10264.538911651371</v>
+        <f t="shared" si="66"/>
+        <v>10606.120243589201</v>
       </c>
       <c r="DY50" s="15">
-        <f t="shared" si="64"/>
-        <v>10161.893522534858</v>
+        <f t="shared" si="66"/>
+        <v>10500.059041153308</v>
       </c>
       <c r="DZ50" s="15">
-        <f t="shared" si="64"/>
-        <v>10060.274587309508</v>
+        <f t="shared" si="66"/>
+        <v>10395.058450741775</v>
       </c>
       <c r="EA50" s="15">
-        <f t="shared" si="64"/>
-        <v>9959.6718414364132</v>
+        <f t="shared" si="66"/>
+        <v>10291.107866234357</v>
       </c>
       <c r="EB50" s="15">
-        <f t="shared" si="64"/>
-        <v>9860.0751230220485</v>
+        <f t="shared" si="66"/>
+        <v>10188.196787572013</v>
       </c>
       <c r="EC50" s="15">
-        <f t="shared" si="64"/>
-        <v>9761.4743717918282</v>
+        <f t="shared" si="66"/>
+        <v>10086.314819696292</v>
       </c>
       <c r="ED50" s="15">
-        <f t="shared" si="64"/>
-        <v>9663.8596280739093</v>
+        <f t="shared" si="66"/>
+        <v>9985.4516714993297</v>
       </c>
       <c r="EE50" s="15">
-        <f t="shared" si="64"/>
-        <v>9567.2210317931695</v>
+        <f t="shared" si="66"/>
+        <v>9885.5971547843365</v>
       </c>
       <c r="EF50" s="15">
-        <f t="shared" si="64"/>
-        <v>9471.5488214752386</v>
+        <f t="shared" si="66"/>
+        <v>9786.7411832364924</v>
       </c>
       <c r="EG50" s="15">
-        <f t="shared" si="64"/>
-        <v>9376.8333332604852</v>
+        <f t="shared" si="66"/>
+        <v>9688.8737714041272</v>
       </c>
       <c r="EH50" s="15">
-        <f t="shared" ref="EH50:GQ50" si="65">EG50*(1+$BW$53)</f>
-        <v>9283.0649999278794</v>
+        <f t="shared" ref="EH50:GQ50" si="67">EG50*(1+$BW$53)</f>
+        <v>9591.9850336900854</v>
       </c>
       <c r="EI50" s="15">
-        <f t="shared" si="65"/>
-        <v>9190.2343499285998</v>
+        <f t="shared" si="67"/>
+        <v>9496.0651833531847</v>
       </c>
       <c r="EJ50" s="15">
-        <f t="shared" si="65"/>
-        <v>9098.332006429313</v>
+        <f t="shared" si="67"/>
+        <v>9401.1045315196534</v>
       </c>
       <c r="EK50" s="15">
-        <f t="shared" si="65"/>
-        <v>9007.3486863650196</v>
+        <f t="shared" si="67"/>
+        <v>9307.093486204456</v>
       </c>
       <c r="EL50" s="15">
-        <f t="shared" si="65"/>
-        <v>8917.2751995013696</v>
+        <f t="shared" si="67"/>
+        <v>9214.022551342412</v>
       </c>
       <c r="EM50" s="15">
-        <f t="shared" si="65"/>
-        <v>8828.102447506355</v>
+        <f t="shared" si="67"/>
+        <v>9121.8823258289885</v>
       </c>
       <c r="EN50" s="15">
-        <f t="shared" si="65"/>
-        <v>8739.8214230312915</v>
+        <f t="shared" si="67"/>
+        <v>9030.6635025706983</v>
       </c>
       <c r="EO50" s="15">
-        <f t="shared" si="65"/>
-        <v>8652.4232088009776</v>
+        <f t="shared" si="67"/>
+        <v>8940.3568675449915</v>
       </c>
       <c r="EP50" s="15">
-        <f t="shared" si="65"/>
-        <v>8565.8989767129679</v>
+        <f t="shared" si="67"/>
+        <v>8850.953298869541</v>
       </c>
       <c r="EQ50" s="15">
-        <f t="shared" si="65"/>
-        <v>8480.2399869458386</v>
+        <f t="shared" si="67"/>
+        <v>8762.4437658808456</v>
       </c>
       <c r="ER50" s="15">
-        <f t="shared" si="65"/>
-        <v>8395.4375870763797</v>
+        <f t="shared" si="67"/>
+        <v>8674.8193282220363</v>
       </c>
       <c r="ES50" s="15">
-        <f t="shared" si="65"/>
-        <v>8311.4832112056156</v>
+        <f t="shared" si="67"/>
+        <v>8588.0711349398152</v>
       </c>
       <c r="ET50" s="15">
-        <f t="shared" si="65"/>
-        <v>8228.3683790935593</v>
+        <f t="shared" si="67"/>
+        <v>8502.1904235904167</v>
       </c>
       <c r="EU50" s="15">
-        <f t="shared" si="65"/>
-        <v>8146.0846953026239</v>
+        <f t="shared" si="67"/>
+        <v>8417.1685193545127</v>
       </c>
       <c r="EV50" s="15">
-        <f t="shared" si="65"/>
-        <v>8064.6238483495972</v>
+        <f t="shared" si="67"/>
+        <v>8332.9968341609674</v>
       </c>
       <c r="EW50" s="15">
-        <f t="shared" si="65"/>
-        <v>7983.9776098661014</v>
+        <f t="shared" si="67"/>
+        <v>8249.6668658193576</v>
       </c>
       <c r="EX50" s="15">
-        <f t="shared" si="65"/>
-        <v>7904.1378337674405</v>
+        <f t="shared" si="67"/>
+        <v>8167.1701971611637</v>
       </c>
       <c r="EY50" s="15">
-        <f t="shared" si="65"/>
-        <v>7825.0964554297661</v>
+        <f t="shared" si="67"/>
+        <v>8085.4984951895522</v>
       </c>
       <c r="EZ50" s="15">
-        <f t="shared" si="65"/>
-        <v>7746.8454908754684</v>
+        <f t="shared" si="67"/>
+        <v>8004.6435102376563</v>
       </c>
       <c r="FA50" s="15">
-        <f t="shared" si="65"/>
-        <v>7669.3770359667133</v>
+        <f t="shared" si="67"/>
+        <v>7924.5970751352797</v>
       </c>
       <c r="FB50" s="15">
-        <f t="shared" si="65"/>
-        <v>7592.6832656070465</v>
+        <f t="shared" si="67"/>
+        <v>7845.3511043839271</v>
       </c>
       <c r="FC50" s="15">
-        <f t="shared" si="65"/>
-        <v>7516.756432950976</v>
+        <f t="shared" si="67"/>
+        <v>7766.897593340088</v>
       </c>
       <c r="FD50" s="15">
-        <f t="shared" si="65"/>
-        <v>7441.5888686214657</v>
+        <f t="shared" si="67"/>
+        <v>7689.2286174066867</v>
       </c>
       <c r="FE50" s="15">
-        <f t="shared" si="65"/>
-        <v>7367.1729799352506</v>
+        <f t="shared" si="67"/>
+        <v>7612.3363312326201</v>
       </c>
       <c r="FF50" s="15">
-        <f t="shared" si="65"/>
-        <v>7293.5012501358979</v>
+        <f t="shared" si="67"/>
+        <v>7536.2129679202935</v>
       </c>
       <c r="FG50" s="15">
-        <f t="shared" si="65"/>
-        <v>7220.566237634539</v>
+        <f t="shared" si="67"/>
+        <v>7460.850838241091</v>
       </c>
       <c r="FH50" s="15">
-        <f t="shared" si="65"/>
-        <v>7148.3605752581934</v>
+        <f t="shared" si="67"/>
+        <v>7386.24232985868</v>
       </c>
       <c r="FI50" s="15">
-        <f t="shared" si="65"/>
-        <v>7076.8769695056117</v>
+        <f t="shared" si="67"/>
+        <v>7312.3799065600933</v>
       </c>
       <c r="FJ50" s="15">
-        <f t="shared" si="65"/>
-        <v>7006.1081998105556</v>
+        <f t="shared" si="67"/>
+        <v>7239.2561074944924</v>
       </c>
       <c r="FK50" s="15">
-        <f t="shared" si="65"/>
-        <v>6936.0471178124499</v>
+        <f t="shared" si="67"/>
+        <v>7166.8635464195477</v>
       </c>
       <c r="FL50" s="15">
-        <f t="shared" si="65"/>
-        <v>6866.6866466343254</v>
+        <f t="shared" si="67"/>
+        <v>7095.1949109553525</v>
       </c>
       <c r="FM50" s="15">
-        <f t="shared" si="65"/>
-        <v>6798.0197801679824</v>
+        <f t="shared" si="67"/>
+        <v>7024.2429618457991</v>
       </c>
       <c r="FN50" s="15">
-        <f t="shared" si="65"/>
-        <v>6730.0395823663021</v>
+        <f t="shared" si="67"/>
+        <v>6954.000532227341</v>
       </c>
       <c r="FO50" s="15">
-        <f t="shared" si="65"/>
-        <v>6662.7391865426389</v>
+        <f t="shared" si="67"/>
+        <v>6884.4605269050671</v>
       </c>
       <c r="FP50" s="15">
-        <f t="shared" si="65"/>
-        <v>6596.1117946772129</v>
+        <f t="shared" si="67"/>
+        <v>6815.6159216360165</v>
       </c>
       <c r="FQ50" s="15">
-        <f t="shared" si="65"/>
-        <v>6530.1506767304409</v>
+        <f t="shared" si="67"/>
+        <v>6747.4597624196567</v>
       </c>
       <c r="FR50" s="15">
-        <f t="shared" si="65"/>
-        <v>6464.8491699631368</v>
+        <f t="shared" si="67"/>
+        <v>6679.9851647954602</v>
       </c>
       <c r="FS50" s="15">
-        <f t="shared" si="65"/>
-        <v>6400.2006782635053</v>
+        <f t="shared" si="67"/>
+        <v>6613.1853131475054</v>
       </c>
       <c r="FT50" s="15">
-        <f t="shared" si="65"/>
-        <v>6336.19867148087</v>
+        <f t="shared" si="67"/>
+        <v>6547.0534600160299</v>
       </c>
       <c r="FU50" s="15">
-        <f t="shared" si="65"/>
-        <v>6272.8366847660609</v>
+        <f t="shared" si="67"/>
+        <v>6481.5829254158698</v>
       </c>
       <c r="FV50" s="15">
-        <f t="shared" si="65"/>
-        <v>6210.1083179184006</v>
+        <f t="shared" si="67"/>
+        <v>6416.7670961617114</v>
       </c>
       <c r="FW50" s="15">
-        <f t="shared" si="65"/>
-        <v>6148.007234739217</v>
+        <f t="shared" si="67"/>
+        <v>6352.5994252000946</v>
       </c>
       <c r="FX50" s="15">
-        <f t="shared" si="65"/>
-        <v>6086.5271623918252</v>
+        <f t="shared" si="67"/>
+        <v>6289.073430948094</v>
       </c>
       <c r="FY50" s="15">
-        <f t="shared" si="65"/>
-        <v>6025.6618907679067</v>
+        <f t="shared" si="67"/>
+        <v>6226.1826966386134</v>
       </c>
       <c r="FZ50" s="15">
-        <f t="shared" si="65"/>
-        <v>5965.4052718602279</v>
+        <f t="shared" si="67"/>
+        <v>6163.9208696722271</v>
       </c>
       <c r="GA50" s="15">
-        <f t="shared" si="65"/>
-        <v>5905.7512191416254</v>
+        <f t="shared" si="67"/>
+        <v>6102.2816609755046</v>
       </c>
       <c r="GB50" s="15">
-        <f t="shared" si="65"/>
-        <v>5846.6937069502092</v>
+        <f t="shared" si="67"/>
+        <v>6041.2588443657496</v>
       </c>
       <c r="GC50" s="15">
-        <f t="shared" si="65"/>
-        <v>5788.2267698807073</v>
+        <f t="shared" si="67"/>
+        <v>5980.8462559220925</v>
       </c>
       <c r="GD50" s="15">
-        <f t="shared" si="65"/>
-        <v>5730.3445021818998</v>
+        <f t="shared" si="67"/>
+        <v>5921.0377933628715</v>
       </c>
       <c r="GE50" s="15">
-        <f t="shared" si="65"/>
-        <v>5673.0410571600805</v>
+        <f t="shared" si="67"/>
+        <v>5861.827415429243</v>
       </c>
       <c r="GF50" s="15">
-        <f t="shared" si="65"/>
-        <v>5616.3106465884794</v>
+        <f t="shared" si="67"/>
+        <v>5803.2091412749505</v>
       </c>
       <c r="GG50" s="15">
-        <f t="shared" si="65"/>
-        <v>5560.1475401225944</v>
+        <f t="shared" si="67"/>
+        <v>5745.1770498622009</v>
       </c>
       <c r="GH50" s="15">
-        <f t="shared" si="65"/>
-        <v>5504.5460647213686</v>
+        <f t="shared" si="67"/>
+        <v>5687.7252793635789</v>
       </c>
       <c r="GI50" s="15">
-        <f t="shared" si="65"/>
-        <v>5449.5006040741546</v>
+        <f t="shared" si="67"/>
+        <v>5630.8480265699427</v>
       </c>
       <c r="GJ50" s="15">
-        <f t="shared" si="65"/>
-        <v>5395.0055980334128</v>
+        <f t="shared" si="67"/>
+        <v>5574.5395463042432</v>
       </c>
       <c r="GK50" s="15">
-        <f t="shared" si="65"/>
-        <v>5341.0555420530782</v>
+        <f t="shared" si="67"/>
+        <v>5518.7941508412005</v>
       </c>
       <c r="GL50" s="15">
-        <f t="shared" si="65"/>
-        <v>5287.6449866325474</v>
+        <f t="shared" si="67"/>
+        <v>5463.6062093327882</v>
       </c>
       <c r="GM50" s="15">
-        <f t="shared" si="65"/>
-        <v>5234.7685367662216</v>
+        <f t="shared" si="67"/>
+        <v>5408.9701472394599</v>
       </c>
       <c r="GN50" s="15">
-        <f t="shared" si="65"/>
-        <v>5182.4208513985595</v>
+        <f t="shared" si="67"/>
+        <v>5354.8804457670649</v>
       </c>
       <c r="GO50" s="15">
-        <f t="shared" si="65"/>
-        <v>5130.5966428845741</v>
+        <f t="shared" si="67"/>
+        <v>5301.3316413093944</v>
       </c>
       <c r="GP50" s="15">
-        <f t="shared" si="65"/>
-        <v>5079.2906764557283</v>
+        <f t="shared" si="67"/>
+        <v>5248.3183248963005</v>
       </c>
       <c r="GQ50" s="15">
-        <f t="shared" si="65"/>
-        <v>5028.497769691171</v>
+        <f t="shared" si="67"/>
+        <v>5195.8351416473379</v>
       </c>
     </row>
     <row r="51" spans="2:199" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -9462,76 +9460,76 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3">
-        <f t="shared" ref="AC51" si="66">AC50/AC52</f>
+        <f t="shared" ref="AC51" si="68">AC50/AC52</f>
         <v>2.1485148514851486</v>
       </c>
       <c r="AD51" s="3">
-        <f t="shared" ref="AD51:AH51" si="67">AD50/AD52</f>
+        <f t="shared" ref="AD51:AH51" si="69">AD50/AD52</f>
         <v>1.9131016042780749</v>
       </c>
       <c r="AE51" s="3" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF51" s="3" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AG51" s="3">
-        <f t="shared" ref="AG51" si="68">AG50/AG52</f>
+        <f t="shared" ref="AG51" si="70">AG50/AG52</f>
         <v>2.3385030343897504</v>
       </c>
       <c r="AH51" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>2.2181818181818183</v>
       </c>
       <c r="AI51" s="3">
-        <f t="shared" ref="AI51:AJ51" si="69">AI50/AI52</f>
+        <f t="shared" ref="AI51:AJ51" si="71">AI50/AI52</f>
         <v>2.4346361185983829</v>
       </c>
       <c r="AJ51" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>2.3642987249544625</v>
       </c>
       <c r="AK51" s="3">
-        <f t="shared" ref="AK51:AQ51" si="70">AK50/AK52</f>
+        <f t="shared" ref="AK51:AQ51" si="72">AK50/AK52</f>
         <v>3.5152198421645999</v>
       </c>
       <c r="AL51" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>3.6188063063063063</v>
       </c>
       <c r="AM51" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>2.9532394366197181</v>
       </c>
       <c r="AN51" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>3.1171171171171173</v>
       </c>
       <c r="AO51" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>3.3134496342149689</v>
       </c>
       <c r="AP51" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>3.3278965129358831</v>
       </c>
       <c r="AQ51" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>3.2699662542182226</v>
       </c>
       <c r="AR51" s="3">
-        <f t="shared" ref="AR51:AT51" si="71">AR50/AR52</f>
-        <v>3.517454954954955</v>
+        <f t="shared" ref="AR51:AT51" si="73">AR50/AR52</f>
+        <v>3.6418918918918921</v>
       </c>
       <c r="AS51" s="3">
-        <f t="shared" si="71"/>
-        <v>3.5403528997747755</v>
+        <f t="shared" si="73"/>
+        <v>3.6681472409909905</v>
       </c>
       <c r="AT51" s="3">
-        <f t="shared" si="71"/>
-        <v>3.493334881756756</v>
+        <f t="shared" si="73"/>
+        <v>3.5910657376126109</v>
       </c>
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
@@ -9555,39 +9553,39 @@
       </c>
       <c r="BL51" s="3">
         <f>+BL50/BL52</f>
-        <v>13.820900365887981</v>
+        <v>14.170764002251618</v>
       </c>
       <c r="BM51" s="3">
         <f>+BM50/BM52</f>
-        <v>15.869505083732065</v>
+        <v>16.221040923444971</v>
       </c>
       <c r="BN51" s="3">
-        <f t="shared" ref="BN51:BT51" si="72">+BN50/BN52</f>
-        <v>15.238071287679425</v>
+        <f t="shared" ref="BN51:BT51" si="74">+BN50/BN52</f>
+        <v>15.598859635119615</v>
       </c>
       <c r="BO51" s="3">
-        <f t="shared" si="72"/>
-        <v>15.129177834144741</v>
+        <f t="shared" si="74"/>
+        <v>15.501047288323928</v>
       </c>
       <c r="BP51" s="3">
-        <f t="shared" si="72"/>
-        <v>13.597922453316807</v>
+        <f t="shared" si="74"/>
+        <v>13.970691837669218</v>
       </c>
       <c r="BQ51" s="3">
-        <f t="shared" si="72"/>
-        <v>12.933427236590441</v>
+        <f t="shared" si="74"/>
+        <v>13.311118999420433</v>
       </c>
       <c r="BR51" s="3">
-        <f t="shared" si="72"/>
-        <v>12.748832992038041</v>
+        <f t="shared" si="74"/>
+        <v>13.132272897333657</v>
       </c>
       <c r="BS51" s="3">
-        <f t="shared" si="72"/>
-        <v>12.780835304020664</v>
+        <f t="shared" si="74"/>
+        <v>13.17180302138085</v>
       </c>
       <c r="BT51" s="3">
-        <f t="shared" si="72"/>
-        <v>10.143862089093833</v>
+        <f t="shared" si="74"/>
+        <v>10.481427561172975</v>
       </c>
     </row>
     <row r="52" spans="2:199" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -9707,31 +9705,31 @@
         <v>1776.5</v>
       </c>
       <c r="BN52" s="16">
-        <f t="shared" ref="BN52:BT52" si="73">BM52</f>
+        <f t="shared" ref="BN52:BT52" si="75">BM52</f>
         <v>1776.5</v>
       </c>
       <c r="BO52" s="16">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1776.5</v>
       </c>
       <c r="BP52" s="16">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1776.5</v>
       </c>
       <c r="BQ52" s="16">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1776.5</v>
       </c>
       <c r="BR52" s="16">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1776.5</v>
       </c>
       <c r="BS52" s="16">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1776.5</v>
       </c>
       <c r="BT52" s="16">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1776.5</v>
       </c>
       <c r="BV52" s="50" t="s">
@@ -9784,60 +9782,60 @@
       <c r="AE54" s="34"/>
       <c r="AF54" s="34"/>
       <c r="AG54" s="34">
-        <f t="shared" ref="AG54:AK54" si="74">+AG40/AC40-1</f>
+        <f t="shared" ref="AG54:AK54" si="76">+AG40/AC40-1</f>
         <v>2.9504613890237952E-2</v>
       </c>
       <c r="AH54" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>4.8043347381095725E-2</v>
       </c>
       <c r="AI54" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>0.10104752171691356</v>
       </c>
       <c r="AJ54" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>0.26287098728043601</v>
       </c>
       <c r="AK54" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>0.51928293430829098</v>
       </c>
       <c r="AL54" s="34">
-        <f>+AL40/AH40-1</f>
+        <f t="shared" ref="AL54:AQ54" si="77">+AL40/AH40-1</f>
         <v>0.59214154411764697</v>
       </c>
       <c r="AM54" s="34">
-        <f>+AM40/AI40-1</f>
+        <f t="shared" si="77"/>
         <v>0.50075414781297134</v>
       </c>
       <c r="AN54" s="34">
-        <f>+AN40/AJ40-1</f>
+        <f t="shared" si="77"/>
         <v>0.3389928057553957</v>
       </c>
       <c r="AO54" s="34">
-        <f>+AO40/AK40-1</f>
+        <f t="shared" si="77"/>
         <v>0.11333643844123586</v>
       </c>
       <c r="AP54" s="34">
-        <f>+AP40/AL40-1</f>
+        <f t="shared" si="77"/>
         <v>7.4180978496175554E-2</v>
       </c>
       <c r="AQ54" s="34">
-        <f>+AQ40/AM40-1</f>
+        <f t="shared" si="77"/>
         <v>4.6617703904135999E-2</v>
       </c>
       <c r="AR54" s="34">
-        <f t="shared" ref="AR54" si="75">+AR40/AN40-1</f>
+        <f t="shared" ref="AR54" si="78">+AR40/AN40-1</f>
         <v>4.4702342574683085E-2</v>
       </c>
       <c r="AS54" s="34">
-        <f t="shared" ref="AS54" si="76">+AS40/AO40-1</f>
-        <v>3.0964997908241587E-2</v>
+        <f>+AS40/AO40-1</f>
+        <v>3.2770882722074957E-2</v>
       </c>
       <c r="AT54" s="34">
-        <f t="shared" ref="AT54" si="77">+AT40/AP40-1</f>
-        <v>2.6393927179900523E-2</v>
+        <f t="shared" ref="AT54" si="79">+AT40/AP40-1</f>
+        <v>2.3169420932419582E-2</v>
       </c>
       <c r="AU54" s="34"/>
       <c r="AV54" s="34"/>
@@ -9858,39 +9856,39 @@
       <c r="BK54" s="34"/>
       <c r="BL54" s="34">
         <f>+BL40/BK40-1</f>
-        <v>3.6777021488899164E-2</v>
+        <v>3.6383236520437734E-2</v>
       </c>
       <c r="BM54" s="34">
-        <f t="shared" ref="BM54:BT54" si="78">+BM40/BL40-1</f>
-        <v>-7.5266172275117449E-2</v>
+        <f t="shared" ref="BM54:BT54" si="80">+BM40/BL40-1</f>
+        <v>-7.4922482845889093E-2</v>
       </c>
       <c r="BN54" s="34">
-        <f t="shared" si="78"/>
-        <v>-4.631109774016906E-2</v>
+        <f t="shared" si="80"/>
+        <v>-4.5758563856352019E-2</v>
       </c>
       <c r="BO54" s="34">
-        <f t="shared" si="78"/>
-        <v>-1.5817542658875361E-2</v>
+        <f t="shared" si="80"/>
+        <v>-1.5114568201688439E-2</v>
       </c>
       <c r="BP54" s="34">
-        <f t="shared" si="78"/>
-        <v>-0.10662947269290735</v>
+        <f t="shared" si="80"/>
+        <v>-0.10643532792019705</v>
       </c>
       <c r="BQ54" s="34">
-        <f t="shared" si="78"/>
-        <v>-5.7585661725825243E-2</v>
+        <f t="shared" si="80"/>
+        <v>-5.7148947981343623E-2</v>
       </c>
       <c r="BR54" s="34">
-        <f t="shared" si="78"/>
-        <v>-2.4813856736630058E-2</v>
+        <f t="shared" si="80"/>
+        <v>-2.4331306704629574E-2</v>
       </c>
       <c r="BS54" s="34">
-        <f t="shared" si="78"/>
-        <v>-8.6492520315877286E-3</v>
+        <f t="shared" si="80"/>
+        <v>-8.0456887009328071E-3</v>
       </c>
       <c r="BT54" s="34">
-        <f t="shared" si="78"/>
-        <v>-0.21749638125213111</v>
+        <f t="shared" si="80"/>
+        <v>-0.22099435150459801</v>
       </c>
       <c r="BV54" s="59" t="s">
         <v>266</v>
@@ -9938,43 +9936,43 @@
       <c r="AI55" s="57"/>
       <c r="AJ55" s="31"/>
       <c r="AK55" s="31">
-        <f t="shared" ref="AK55" si="79">+AK3/AG3-1</f>
+        <f t="shared" ref="AK55" si="81">+AK3/AG3-1</f>
         <v>4.1329011345218714E-2</v>
       </c>
       <c r="AL55" s="31">
-        <f>+AL3/AH3-1</f>
+        <f t="shared" ref="AL55:AT55" si="82">+AL3/AH3-1</f>
         <v>4.7793369941020902E-2</v>
       </c>
       <c r="AM55" s="31">
-        <f>+AM3/AI3-1</f>
+        <f t="shared" si="82"/>
         <v>3.4871358707208255E-2</v>
       </c>
       <c r="AN55" s="31">
-        <f>+AN3/AJ3-1</f>
+        <f t="shared" si="82"/>
         <v>4.7756874095513657E-2</v>
       </c>
       <c r="AO55" s="31">
-        <f>+AO3/AK3-1</f>
+        <f t="shared" si="82"/>
         <v>5.5447470817120648E-2</v>
       </c>
       <c r="AP55" s="31">
-        <f>+AP3/AL3-1</f>
+        <f t="shared" si="82"/>
         <v>3.5326086956521729E-2</v>
       </c>
       <c r="AQ55" s="31">
-        <f>+AQ3/AM3-1</f>
+        <f t="shared" si="82"/>
         <v>-2.6915964659954827E-2</v>
       </c>
       <c r="AR55" s="31">
-        <f>+AR3/AN3-1</f>
+        <f t="shared" si="82"/>
         <v>5.8208366219415941E-2</v>
       </c>
       <c r="AS55" s="31">
         <f>+AS3/AO3-1</f>
-        <v>1.0000000000000009E-2</v>
+        <v>2.4700460829493176E-2</v>
       </c>
       <c r="AT55" s="31">
-        <f>+AT3/AP3-1</f>
+        <f t="shared" si="82"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AU55" s="31"/>
@@ -10007,7 +10005,7 @@
       </c>
       <c r="BW55" s="17">
         <f>NPV(BW52,BM50:GQ50)+Main!K5-Main!K6</f>
-        <v>249081.21174052812</v>
+        <v>258460.12031434907</v>
       </c>
     </row>
     <row r="56" spans="2:199" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -10049,43 +10047,43 @@
       <c r="AI56" s="57"/>
       <c r="AJ56" s="31"/>
       <c r="AK56" s="31">
-        <f t="shared" ref="AK56" si="80">+AK5/AG5-1</f>
+        <f t="shared" ref="AK56" si="83">+AK5/AG5-1</f>
         <v>8.9896579156722334E-2</v>
       </c>
       <c r="AL56" s="31">
-        <f>+AL5/AH5-1</f>
+        <f t="shared" ref="AL56:AT57" si="84">+AL5/AH5-1</f>
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="AM56" s="31">
-        <f>+AM5/AI5-1</f>
+        <f t="shared" si="84"/>
         <v>2.9220779220779258E-2</v>
       </c>
       <c r="AN56" s="31">
-        <f>+AN5/AJ5-1</f>
+        <f t="shared" si="84"/>
         <v>7.2204968944099335E-2</v>
       </c>
       <c r="AO56" s="31">
-        <f>+AO5/AK5-1</f>
+        <f t="shared" si="84"/>
         <v>2.9197080291971655E-3</v>
       </c>
       <c r="AP56" s="31">
-        <f>+AP5/AL5-1</f>
+        <f t="shared" si="84"/>
         <v>-2.73876404494382E-2</v>
       </c>
       <c r="AQ56" s="31">
-        <f>+AQ5/AM5-1</f>
+        <f t="shared" si="84"/>
         <v>-7.4921135646687675E-2</v>
       </c>
       <c r="AR56" s="31">
-        <f>+AR5/AN5-1</f>
+        <f t="shared" si="84"/>
         <v>-0.17089065894279509</v>
       </c>
       <c r="AS56" s="31">
         <f>+AS5/AO5-1</f>
-        <v>-9.9999999999999867E-2</v>
+        <v>-0.17394468704512378</v>
       </c>
       <c r="AT56" s="31">
-        <f>+AT5/AP5-1</f>
+        <f t="shared" si="84"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="AU56" s="31"/>
@@ -10118,7 +10116,7 @@
       </c>
       <c r="BW56" s="14">
         <f>BW55/Main!K3</f>
-        <v>140.87534953262158</v>
+        <v>146.17987256082935</v>
       </c>
     </row>
     <row r="57" spans="2:199" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -10160,43 +10158,43 @@
       <c r="AI57" s="57"/>
       <c r="AJ57" s="31"/>
       <c r="AK57" s="31">
-        <f t="shared" ref="AK57" si="81">+AK6/AG6-1</f>
+        <f t="shared" ref="AK57" si="85">+AK6/AG6-1</f>
         <v>3.7802197802197801</v>
       </c>
       <c r="AL57" s="31">
-        <f>+AL6/AH6-1</f>
+        <f t="shared" si="84"/>
         <v>1.4305555555555554</v>
       </c>
       <c r="AM57" s="31">
-        <f>+AM6/AI6-1</f>
+        <f t="shared" si="84"/>
         <v>0.91333333333333333</v>
       </c>
       <c r="AN57" s="31">
-        <f>+AN6/AJ6-1</f>
+        <f t="shared" si="84"/>
         <v>1.0424242424242425</v>
       </c>
       <c r="AO57" s="31">
-        <f>+AO6/AK6-1</f>
+        <f t="shared" si="84"/>
         <v>0.8298850574712644</v>
       </c>
       <c r="AP57" s="31">
-        <f>+AP6/AL6-1</f>
+        <f t="shared" si="84"/>
         <v>0.7047619047619047</v>
       </c>
       <c r="AQ57" s="31">
-        <f>+AQ6/AM6-1</f>
+        <f t="shared" si="84"/>
         <v>0.63763066202090601</v>
       </c>
       <c r="AR57" s="31">
-        <f>+AR6/AN6-1</f>
+        <f t="shared" si="84"/>
         <v>0.85756676557863498</v>
       </c>
       <c r="AS57" s="31">
         <f>+AS6/AO6-1</f>
-        <v>0.7</v>
+        <v>0.75502512562814061</v>
       </c>
       <c r="AT57" s="31">
-        <f>+AT6/AP6-1</f>
+        <f t="shared" si="84"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="AU57" s="31"/>
@@ -10283,31 +10281,31 @@
         <v>216</v>
       </c>
       <c r="AN58" s="31">
-        <f>AN7/AJ7-1</f>
+        <f t="shared" ref="AN58:AT59" si="86">AN7/AJ7-1</f>
         <v>1.584070796460177</v>
       </c>
       <c r="AO58" s="31">
-        <f>AO7/AK7-1</f>
+        <f t="shared" si="86"/>
         <v>0.38676844783715003</v>
       </c>
       <c r="AP58" s="31">
-        <f>AP7/AL7-1</f>
+        <f t="shared" si="86"/>
         <v>0.26977687626774838</v>
       </c>
       <c r="AQ58" s="31">
-        <f>AQ7/AM7-1</f>
+        <f t="shared" si="86"/>
         <v>0.34381551362683438</v>
       </c>
       <c r="AR58" s="31">
-        <f>AR7/AN7-1</f>
+        <f t="shared" si="86"/>
         <v>0.19006849315068486</v>
       </c>
       <c r="AS58" s="31">
         <f>AS7/AO7-1</f>
-        <v>0.14999999999999991</v>
+        <v>0.16880733944954129</v>
       </c>
       <c r="AT58" s="31">
-        <f>AT7/AP7-1</f>
+        <f t="shared" si="86"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AU58" s="31"/>
@@ -10394,31 +10392,31 @@
         <v>216</v>
       </c>
       <c r="AN59" s="31">
-        <f>AN8/AJ8-1</f>
+        <f t="shared" si="86"/>
         <v>1.0303030303030303</v>
       </c>
       <c r="AO59" s="31">
-        <f>AO8/AK8-1</f>
+        <f t="shared" si="86"/>
         <v>0.23326959847036322</v>
       </c>
       <c r="AP59" s="31">
-        <f>AP8/AL8-1</f>
+        <f t="shared" si="86"/>
         <v>0.18342151675485008</v>
       </c>
       <c r="AQ59" s="31">
-        <f>AQ8/AM8-1</f>
+        <f t="shared" si="86"/>
         <v>0.15413533834586457</v>
       </c>
       <c r="AR59" s="31">
-        <f>AR8/AN8-1</f>
+        <f t="shared" si="86"/>
         <v>0.12437810945273631</v>
       </c>
       <c r="AS59" s="31">
         <f>AS8/AO8-1</f>
-        <v>0.14999999999999991</v>
+        <v>8.3720930232558111E-2</v>
       </c>
       <c r="AT59" s="31">
-        <f>AT8/AP8-1</f>
+        <f t="shared" si="86"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AU59" s="31"/>
@@ -10448,7 +10446,9 @@
       <c r="BS59" s="31"/>
     </row>
     <row r="60" spans="2:199" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="45"/>
+      <c r="B60" s="62" t="s">
+        <v>269</v>
+      </c>
       <c r="C60" s="31"/>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
@@ -10478,21 +10478,59 @@
       <c r="AC60" s="31"/>
       <c r="AD60" s="31"/>
       <c r="AE60" s="31"/>
-      <c r="AF60" s="31"/>
-      <c r="AG60" s="31"/>
-      <c r="AH60" s="31"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="31"/>
-      <c r="AK60" s="31"/>
-      <c r="AL60" s="31"/>
-      <c r="AM60" s="31"/>
-      <c r="AN60" s="31"/>
-      <c r="AO60" s="31"/>
-      <c r="AP60" s="31"/>
-      <c r="AQ60" s="31"/>
-      <c r="AR60" s="31"/>
-      <c r="AS60" s="31"/>
-      <c r="AT60" s="31"/>
+      <c r="AF60" s="58"/>
+      <c r="AG60" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH60" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI60" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ60" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK60" s="31">
+        <f>AK10/AG10-1</f>
+        <v>14.357142857142858</v>
+      </c>
+      <c r="AL60" s="31">
+        <f>AL10/AH10-1</f>
+        <v>7.5151515151515156</v>
+      </c>
+      <c r="AM60" s="31">
+        <f>AM10/AI10-1</f>
+        <v>2.5232558139534884</v>
+      </c>
+      <c r="AN60" s="31">
+        <f>AN10/AJ10-1</f>
+        <v>1.5369127516778525</v>
+      </c>
+      <c r="AO60" s="31">
+        <f>AO10/AK10-1</f>
+        <v>1.1069767441860465</v>
+      </c>
+      <c r="AP60" s="31">
+        <f>AP10/AL10-1</f>
+        <v>0.83985765124555156</v>
+      </c>
+      <c r="AQ60" s="31">
+        <f>AQ10/AM10-1</f>
+        <v>0.53465346534653468</v>
+      </c>
+      <c r="AR60" s="31">
+        <f>AR10/AN10-1</f>
+        <v>0.56613756613756605</v>
+      </c>
+      <c r="AS60" s="31">
+        <f>AS10/AO10-1</f>
+        <v>0.53421633554083892</v>
+      </c>
+      <c r="AT60" s="31">
+        <f>AT10/AP10-1</f>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="AU60" s="31"/>
       <c r="AV60" s="31"/>
       <c r="AW60" s="31"/>
@@ -10520,9 +10558,7 @@
       <c r="BS60" s="31"/>
     </row>
     <row r="61" spans="2:199" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="45" t="s">
-        <v>217</v>
-      </c>
+      <c r="B61" s="45"/>
       <c r="C61" s="31"/>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
@@ -10554,58 +10590,19 @@
       <c r="AE61" s="31"/>
       <c r="AF61" s="31"/>
       <c r="AG61" s="31"/>
-      <c r="AH61" s="31">
-        <f>+AH42/AH40</f>
-        <v>0.81560202205882348</v>
-      </c>
-      <c r="AI61" s="31">
-        <f>+AI42/AI40</f>
-        <v>0.82666202575704839</v>
-      </c>
-      <c r="AJ61" s="31">
-        <f>+AJ42/AJ40</f>
-        <v>0.82772182254196647</v>
-      </c>
-      <c r="AK61" s="31">
-        <f>+AK42/AK40</f>
-        <v>0.81664337835739786</v>
-      </c>
-      <c r="AL61" s="31">
-        <f t="shared" ref="AL61:AT61" si="82">+AL42/AL40</f>
-        <v>0.81793909655072883</v>
-      </c>
-      <c r="AM61" s="31">
-        <f t="shared" si="82"/>
-        <v>0.83880943177425593</v>
-      </c>
-      <c r="AN61" s="31">
-        <f t="shared" si="82"/>
-        <v>0.82240848198295002</v>
-      </c>
-      <c r="AO61" s="31">
-        <f t="shared" si="82"/>
-        <v>0.83175289359921911</v>
-      </c>
-      <c r="AP61" s="31">
-        <f t="shared" si="82"/>
-        <v>0.83555018137847648</v>
-      </c>
-      <c r="AQ61" s="31">
-        <f t="shared" si="82"/>
-        <v>0.84465947702762589</v>
-      </c>
-      <c r="AR61" s="31">
-        <f t="shared" si="82"/>
-        <v>0.84694507303024069</v>
-      </c>
-      <c r="AS61" s="31">
-        <f t="shared" si="82"/>
-        <v>0.85</v>
-      </c>
-      <c r="AT61" s="31">
-        <f t="shared" si="82"/>
-        <v>0.85000000000000009</v>
-      </c>
+      <c r="AH61" s="31"/>
+      <c r="AI61" s="57"/>
+      <c r="AJ61" s="31"/>
+      <c r="AK61" s="31"/>
+      <c r="AL61" s="31"/>
+      <c r="AM61" s="31"/>
+      <c r="AN61" s="31"/>
+      <c r="AO61" s="31"/>
+      <c r="AP61" s="31"/>
+      <c r="AQ61" s="31"/>
+      <c r="AR61" s="31"/>
+      <c r="AS61" s="31"/>
+      <c r="AT61" s="31"/>
       <c r="AU61" s="31"/>
       <c r="AV61" s="31"/>
       <c r="AW61" s="31"/>
@@ -10622,14 +10619,8 @@
       <c r="BH61" s="31"/>
       <c r="BI61" s="31"/>
       <c r="BJ61" s="31"/>
-      <c r="BK61" s="31">
-        <f>+BK42/BK40</f>
-        <v>0.8320622928619793</v>
-      </c>
-      <c r="BL61" s="31">
-        <f>+BL42/BL40</f>
-        <v>0.84799178496545558</v>
-      </c>
+      <c r="BK61" s="31"/>
+      <c r="BL61" s="31"/>
       <c r="BM61" s="31"/>
       <c r="BN61" s="31"/>
       <c r="BO61" s="31"/>
@@ -10640,7 +10631,7 @@
     </row>
     <row r="62" spans="2:199" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C62" s="31"/>
       <c r="D62" s="31"/>
@@ -10674,56 +10665,56 @@
       <c r="AF62" s="31"/>
       <c r="AG62" s="31"/>
       <c r="AH62" s="31">
-        <f>+AH49/AH48</f>
-        <v>8.8544548976203646E-2</v>
+        <f>+AH42/AH40</f>
+        <v>0.81560202205882348</v>
       </c>
       <c r="AI62" s="31">
-        <f>+AI49/AI48</f>
-        <v>9.7426929802648013E-2</v>
+        <f>+AI42/AI40</f>
+        <v>0.82666202575704839</v>
       </c>
       <c r="AJ62" s="31">
-        <f>+AJ49/AJ48</f>
-        <v>0.11399317406143344</v>
+        <f>+AJ42/AJ40</f>
+        <v>0.82772182254196647</v>
       </c>
       <c r="AK62" s="31">
-        <f>+AK49/AK48</f>
-        <v>9.6755504055619931E-2</v>
+        <f>+AK42/AK40</f>
+        <v>0.81664337835739786</v>
       </c>
       <c r="AL62" s="31">
-        <f t="shared" ref="AL62:AT62" si="83">+AL49/AL48</f>
-        <v>9.6443132292984679E-2</v>
+        <f t="shared" ref="AL62:AT62" si="87">+AL42/AL40</f>
+        <v>0.81793909655072883</v>
       </c>
       <c r="AM62" s="31">
-        <f t="shared" si="83"/>
-        <v>0.1234113712374582</v>
+        <f t="shared" si="87"/>
+        <v>0.83880943177425593</v>
       </c>
       <c r="AN62" s="31">
-        <f t="shared" si="83"/>
-        <v>0.12653834017040075</v>
+        <f t="shared" si="87"/>
+        <v>0.82240848198295002</v>
       </c>
       <c r="AO62" s="31">
-        <f t="shared" si="83"/>
-        <v>0.12783291364242336</v>
+        <f t="shared" si="87"/>
+        <v>0.83175289359921911</v>
       </c>
       <c r="AP62" s="31">
-        <f t="shared" si="83"/>
-        <v>0.12496302868973676</v>
+        <f t="shared" si="87"/>
+        <v>0.83555018137847648</v>
       </c>
       <c r="AQ62" s="31">
-        <f t="shared" si="83"/>
-        <v>0.11802184466019418</v>
+        <f t="shared" si="87"/>
+        <v>0.84465947702762589</v>
       </c>
       <c r="AR62" s="31">
-        <f t="shared" si="83"/>
-        <v>0.12958060470948865</v>
+        <f t="shared" si="87"/>
+        <v>0.85140231776726327</v>
       </c>
       <c r="AS62" s="31">
-        <f t="shared" si="83"/>
-        <v>0.15</v>
+        <f t="shared" si="87"/>
+        <v>0.85</v>
       </c>
       <c r="AT62" s="31">
-        <f t="shared" si="83"/>
-        <v>0.15</v>
+        <f t="shared" si="87"/>
+        <v>0.85</v>
       </c>
       <c r="AU62" s="31"/>
       <c r="AV62" s="31"/>
@@ -10741,8 +10732,14 @@
       <c r="BH62" s="31"/>
       <c r="BI62" s="31"/>
       <c r="BJ62" s="31"/>
-      <c r="BK62" s="31"/>
-      <c r="BL62" s="31"/>
+      <c r="BK62" s="31">
+        <f>+BK42/BK40</f>
+        <v>0.8320622928619793</v>
+      </c>
+      <c r="BL62" s="31">
+        <f>+BL42/BL40</f>
+        <v>0.84910855358736248</v>
+      </c>
       <c r="BM62" s="31"/>
       <c r="BN62" s="31"/>
       <c r="BO62" s="31"/>
@@ -10751,102 +10748,135 @@
       <c r="BR62" s="31"/>
       <c r="BS62" s="31"/>
     </row>
-    <row r="64" spans="2:199" x14ac:dyDescent="0.2">
-      <c r="B64" s="25" t="s">
+    <row r="63" spans="2:199" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="31"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="31"/>
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="31"/>
+      <c r="AB63" s="31"/>
+      <c r="AC63" s="31"/>
+      <c r="AD63" s="31"/>
+      <c r="AE63" s="31"/>
+      <c r="AF63" s="31"/>
+      <c r="AG63" s="31"/>
+      <c r="AH63" s="31">
+        <f>+AH49/AH48</f>
+        <v>8.8544548976203646E-2</v>
+      </c>
+      <c r="AI63" s="31">
+        <f>+AI49/AI48</f>
+        <v>9.7426929802648013E-2</v>
+      </c>
+      <c r="AJ63" s="31">
+        <f>+AJ49/AJ48</f>
+        <v>0.11399317406143344</v>
+      </c>
+      <c r="AK63" s="31">
+        <f>+AK49/AK48</f>
+        <v>9.6755504055619931E-2</v>
+      </c>
+      <c r="AL63" s="31">
+        <f t="shared" ref="AL63:AT63" si="88">+AL49/AL48</f>
+        <v>9.6443132292984679E-2</v>
+      </c>
+      <c r="AM63" s="31">
+        <f t="shared" si="88"/>
+        <v>0.1234113712374582</v>
+      </c>
+      <c r="AN63" s="31">
+        <f t="shared" si="88"/>
+        <v>0.12653834017040075</v>
+      </c>
+      <c r="AO63" s="31">
+        <f t="shared" si="88"/>
+        <v>0.12783291364242336</v>
+      </c>
+      <c r="AP63" s="31">
+        <f t="shared" si="88"/>
+        <v>0.12496302868973676</v>
+      </c>
+      <c r="AQ63" s="31">
+        <f t="shared" si="88"/>
+        <v>0.11802184466019418</v>
+      </c>
+      <c r="AR63" s="31">
+        <f t="shared" si="88"/>
+        <v>0.12982644961657475</v>
+      </c>
+      <c r="AS63" s="31">
+        <f t="shared" si="88"/>
+        <v>0.15</v>
+      </c>
+      <c r="AT63" s="31">
+        <f t="shared" si="88"/>
+        <v>0.15</v>
+      </c>
+      <c r="AU63" s="31"/>
+      <c r="AV63" s="31"/>
+      <c r="AW63" s="31"/>
+      <c r="AX63" s="31"/>
+      <c r="AY63" s="31"/>
+      <c r="AZ63" s="31"/>
+      <c r="BA63" s="31"/>
+      <c r="BB63" s="31"/>
+      <c r="BC63" s="31"/>
+      <c r="BD63" s="31"/>
+      <c r="BE63" s="31"/>
+      <c r="BF63" s="31"/>
+      <c r="BG63" s="31"/>
+      <c r="BH63" s="31"/>
+      <c r="BI63" s="31"/>
+      <c r="BJ63" s="31"/>
+      <c r="BK63" s="31"/>
+      <c r="BL63" s="31"/>
+      <c r="BM63" s="31"/>
+      <c r="BN63" s="31"/>
+      <c r="BO63" s="31"/>
+      <c r="BP63" s="31"/>
+      <c r="BQ63" s="31"/>
+      <c r="BR63" s="31"/>
+      <c r="BS63" s="31"/>
+    </row>
+    <row r="65" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="B65" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="AQ64" s="16">
-        <f>AQ65-AQ74</f>
+      <c r="AQ65" s="16">
+        <f>AQ66-AQ75</f>
         <v>-65642</v>
       </c>
-      <c r="AR64" s="16">
-        <f>AR65-AR74</f>
+      <c r="AR65" s="16">
+        <f>AR66-AR75</f>
         <v>-62727</v>
       </c>
-    </row>
-    <row r="65" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="16"/>
-      <c r="AC65" s="16"/>
-      <c r="AD65" s="16"/>
-      <c r="AE65" s="16"/>
-      <c r="AF65" s="16"/>
-      <c r="AG65" s="16"/>
-      <c r="AH65" s="16"/>
-      <c r="AI65" s="54"/>
-      <c r="AJ65" s="16"/>
-      <c r="AK65" s="16"/>
-      <c r="AL65" s="16"/>
-      <c r="AM65" s="16"/>
-      <c r="AN65" s="16"/>
-      <c r="AO65" s="16"/>
-      <c r="AP65" s="16"/>
-      <c r="AQ65" s="16">
-        <f>6098+1474+260</f>
-        <v>7832</v>
-      </c>
-      <c r="AR65" s="16">
-        <f>8521+1440+244</f>
-        <v>10205</v>
-      </c>
-      <c r="AS65" s="16"/>
-      <c r="AT65" s="16"/>
-      <c r="AU65" s="16"/>
-      <c r="AV65" s="16"/>
-      <c r="AW65" s="16"/>
-      <c r="AX65" s="16"/>
-      <c r="AY65" s="16"/>
-      <c r="AZ65" s="16"/>
-      <c r="BA65" s="16"/>
-      <c r="BB65" s="16"/>
-      <c r="BC65" s="16"/>
-      <c r="BD65" s="16"/>
-      <c r="BE65" s="16"/>
-      <c r="BF65" s="16"/>
-      <c r="BG65" s="16"/>
-      <c r="BH65" s="16"/>
-      <c r="BI65" s="16"/>
-      <c r="BJ65" s="16"/>
-      <c r="BK65" s="16"/>
-      <c r="BL65" s="16"/>
-      <c r="BM65" s="16"/>
-      <c r="BN65" s="16"/>
-      <c r="BO65" s="16"/>
-      <c r="BP65" s="16"/>
-      <c r="BQ65" s="16"/>
-      <c r="BR65" s="16"/>
-      <c r="BS65" s="16"/>
     </row>
     <row r="66" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="23" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -10889,10 +10919,12 @@
       <c r="AO66" s="16"/>
       <c r="AP66" s="16"/>
       <c r="AQ66" s="16">
-        <v>10733</v>
+        <f>6098+1474+260</f>
+        <v>7832</v>
       </c>
       <c r="AR66" s="16">
-        <v>11237</v>
+        <f>8521+1440+244</f>
+        <v>10205</v>
       </c>
       <c r="AS66" s="16"/>
       <c r="AT66" s="16"/>
@@ -10924,7 +10956,7 @@
     </row>
     <row r="67" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -10967,10 +10999,10 @@
       <c r="AO67" s="16"/>
       <c r="AP67" s="16"/>
       <c r="AQ67" s="16">
-        <v>3483</v>
+        <v>10733</v>
       </c>
       <c r="AR67" s="16">
-        <v>3396</v>
+        <v>11237</v>
       </c>
       <c r="AS67" s="16"/>
       <c r="AT67" s="16"/>
@@ -11002,7 +11034,7 @@
     </row>
     <row r="68" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -11045,10 +11077,10 @@
       <c r="AO68" s="16"/>
       <c r="AP68" s="16"/>
       <c r="AQ68" s="16">
-        <v>4721</v>
+        <v>3483</v>
       </c>
       <c r="AR68" s="16">
-        <v>4506</v>
+        <v>3396</v>
       </c>
       <c r="AS68" s="16"/>
       <c r="AT68" s="16"/>
@@ -11080,7 +11112,7 @@
     </row>
     <row r="69" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -11123,10 +11155,10 @@
       <c r="AO69" s="16"/>
       <c r="AP69" s="16"/>
       <c r="AQ69" s="16">
-        <v>5075</v>
+        <v>4721</v>
       </c>
       <c r="AR69" s="16">
-        <v>4958</v>
+        <v>4506</v>
       </c>
       <c r="AS69" s="16"/>
       <c r="AT69" s="16"/>
@@ -11158,7 +11190,7 @@
     </row>
     <row r="70" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -11201,12 +11233,10 @@
       <c r="AO70" s="16"/>
       <c r="AP70" s="16"/>
       <c r="AQ70" s="16">
-        <f>73986+32298</f>
-        <v>106284</v>
+        <v>5075</v>
       </c>
       <c r="AR70" s="16">
-        <f>71823+32028</f>
-        <v>103851</v>
+        <v>4958</v>
       </c>
       <c r="AS70" s="16"/>
       <c r="AT70" s="16"/>
@@ -11238,7 +11268,7 @@
     </row>
     <row r="71" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="23" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -11281,10 +11311,12 @@
       <c r="AO71" s="16"/>
       <c r="AP71" s="16"/>
       <c r="AQ71" s="16">
-        <v>5083</v>
+        <f>73986+32298</f>
+        <v>106284</v>
       </c>
       <c r="AR71" s="16">
-        <v>5033</v>
+        <f>71823+32028</f>
+        <v>103851</v>
       </c>
       <c r="AS71" s="16"/>
       <c r="AT71" s="16"/>
@@ -11316,7 +11348,7 @@
     </row>
     <row r="72" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="23" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -11359,12 +11391,10 @@
       <c r="AO72" s="16"/>
       <c r="AP72" s="16"/>
       <c r="AQ72" s="16">
-        <f>SUM(AQ65:AQ71)</f>
-        <v>143211</v>
+        <v>5083</v>
       </c>
       <c r="AR72" s="16">
-        <f>SUM(AR65:AR71)</f>
-        <v>143186</v>
+        <v>5033</v>
       </c>
       <c r="AS72" s="16"/>
       <c r="AT72" s="16"/>
@@ -11394,89 +11424,89 @@
       <c r="BR72" s="16"/>
       <c r="BS72" s="16"/>
     </row>
-    <row r="74" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="16"/>
-      <c r="Y74" s="16"/>
-      <c r="Z74" s="16"/>
-      <c r="AA74" s="16"/>
-      <c r="AB74" s="16"/>
-      <c r="AC74" s="16"/>
-      <c r="AD74" s="16"/>
-      <c r="AE74" s="16"/>
-      <c r="AF74" s="16"/>
-      <c r="AG74" s="16"/>
-      <c r="AH74" s="16"/>
-      <c r="AI74" s="54"/>
-      <c r="AJ74" s="16"/>
-      <c r="AK74" s="16"/>
-      <c r="AL74" s="16"/>
-      <c r="AM74" s="16"/>
-      <c r="AN74" s="16"/>
-      <c r="AO74" s="16"/>
-      <c r="AP74" s="16"/>
-      <c r="AQ74" s="16">
-        <f>12+9940+63522</f>
-        <v>73474</v>
-      </c>
-      <c r="AR74" s="16">
-        <f>17+61002+11913</f>
-        <v>72932</v>
-      </c>
-      <c r="AS74" s="16"/>
-      <c r="AT74" s="16"/>
-      <c r="AU74" s="16"/>
-      <c r="AV74" s="16"/>
-      <c r="AW74" s="16"/>
-      <c r="AX74" s="16"/>
-      <c r="AY74" s="16"/>
-      <c r="AZ74" s="16"/>
-      <c r="BA74" s="16"/>
-      <c r="BB74" s="16"/>
-      <c r="BC74" s="16"/>
-      <c r="BD74" s="16"/>
-      <c r="BE74" s="16"/>
-      <c r="BF74" s="16"/>
-      <c r="BG74" s="16"/>
-      <c r="BH74" s="16"/>
-      <c r="BI74" s="16"/>
-      <c r="BJ74" s="16"/>
-      <c r="BK74" s="16"/>
-      <c r="BL74" s="16"/>
-      <c r="BM74" s="16"/>
-      <c r="BN74" s="16"/>
-      <c r="BO74" s="16"/>
-      <c r="BP74" s="16"/>
-      <c r="BQ74" s="16"/>
-      <c r="BR74" s="16"/>
-      <c r="BS74" s="16"/>
+    <row r="73" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="16"/>
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="16"/>
+      <c r="AH73" s="16"/>
+      <c r="AI73" s="54"/>
+      <c r="AJ73" s="16"/>
+      <c r="AK73" s="16"/>
+      <c r="AL73" s="16"/>
+      <c r="AM73" s="16"/>
+      <c r="AN73" s="16"/>
+      <c r="AO73" s="16"/>
+      <c r="AP73" s="16"/>
+      <c r="AQ73" s="16">
+        <f>SUM(AQ66:AQ72)</f>
+        <v>143211</v>
+      </c>
+      <c r="AR73" s="16">
+        <f>SUM(AR66:AR72)</f>
+        <v>143186</v>
+      </c>
+      <c r="AS73" s="16"/>
+      <c r="AT73" s="16"/>
+      <c r="AU73" s="16"/>
+      <c r="AV73" s="16"/>
+      <c r="AW73" s="16"/>
+      <c r="AX73" s="16"/>
+      <c r="AY73" s="16"/>
+      <c r="AZ73" s="16"/>
+      <c r="BA73" s="16"/>
+      <c r="BB73" s="16"/>
+      <c r="BC73" s="16"/>
+      <c r="BD73" s="16"/>
+      <c r="BE73" s="16"/>
+      <c r="BF73" s="16"/>
+      <c r="BG73" s="16"/>
+      <c r="BH73" s="16"/>
+      <c r="BI73" s="16"/>
+      <c r="BJ73" s="16"/>
+      <c r="BK73" s="16"/>
+      <c r="BL73" s="16"/>
+      <c r="BM73" s="16"/>
+      <c r="BN73" s="16"/>
+      <c r="BO73" s="16"/>
+      <c r="BP73" s="16"/>
+      <c r="BQ73" s="16"/>
+      <c r="BR73" s="16"/>
+      <c r="BS73" s="16"/>
     </row>
     <row r="75" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="23" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -11519,10 +11549,12 @@
       <c r="AO75" s="16"/>
       <c r="AP75" s="16"/>
       <c r="AQ75" s="16">
-        <v>22569</v>
+        <f>12+9940+63522</f>
+        <v>73474</v>
       </c>
       <c r="AR75" s="16">
-        <v>22543</v>
+        <f>17+61002+11913</f>
+        <v>72932</v>
       </c>
       <c r="AS75" s="16"/>
       <c r="AT75" s="16"/>
@@ -11554,7 +11586,7 @@
     </row>
     <row r="76" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -11597,10 +11629,10 @@
       <c r="AO76" s="16"/>
       <c r="AP76" s="16"/>
       <c r="AQ76" s="16">
-        <v>2831</v>
+        <v>22569</v>
       </c>
       <c r="AR76" s="16">
-        <v>2255</v>
+        <v>22543</v>
       </c>
       <c r="AS76" s="16"/>
       <c r="AT76" s="16"/>
@@ -11632,7 +11664,7 @@
     </row>
     <row r="77" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
@@ -11675,10 +11707,10 @@
       <c r="AO77" s="16"/>
       <c r="AP77" s="16"/>
       <c r="AQ77" s="16">
-        <v>28023</v>
+        <v>2831</v>
       </c>
       <c r="AR77" s="16">
-        <v>30768</v>
+        <v>2255</v>
       </c>
       <c r="AS77" s="16"/>
       <c r="AT77" s="16"/>
@@ -11710,7 +11742,7 @@
     </row>
     <row r="78" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -11753,10 +11785,10 @@
       <c r="AO78" s="16"/>
       <c r="AP78" s="16"/>
       <c r="AQ78" s="16">
-        <v>16314</v>
+        <v>28023</v>
       </c>
       <c r="AR78" s="16">
-        <v>14688</v>
+        <v>30768</v>
       </c>
       <c r="AS78" s="16"/>
       <c r="AT78" s="16"/>
@@ -11788,7 +11820,7 @@
     </row>
     <row r="79" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
@@ -11831,12 +11863,10 @@
       <c r="AO79" s="16"/>
       <c r="AP79" s="16"/>
       <c r="AQ79" s="16">
-        <f>SUM(AQ74:AQ78)</f>
-        <v>143211</v>
+        <v>16314</v>
       </c>
       <c r="AR79" s="16">
-        <f>SUM(AR74:AR78)</f>
-        <v>143186</v>
+        <v>14688</v>
       </c>
       <c r="AS79" s="16"/>
       <c r="AT79" s="16"/>
@@ -11866,6 +11896,86 @@
       <c r="BR79" s="16"/>
       <c r="BS79" s="16"/>
     </row>
+    <row r="80" spans="2:71" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="16"/>
+      <c r="AB80" s="16"/>
+      <c r="AC80" s="16"/>
+      <c r="AD80" s="16"/>
+      <c r="AE80" s="16"/>
+      <c r="AF80" s="16"/>
+      <c r="AG80" s="16"/>
+      <c r="AH80" s="16"/>
+      <c r="AI80" s="54"/>
+      <c r="AJ80" s="16"/>
+      <c r="AK80" s="16"/>
+      <c r="AL80" s="16"/>
+      <c r="AM80" s="16"/>
+      <c r="AN80" s="16"/>
+      <c r="AO80" s="16"/>
+      <c r="AP80" s="16"/>
+      <c r="AQ80" s="16">
+        <f>SUM(AQ75:AQ79)</f>
+        <v>143211</v>
+      </c>
+      <c r="AR80" s="16">
+        <f>SUM(AR75:AR79)</f>
+        <v>143186</v>
+      </c>
+      <c r="AS80" s="16"/>
+      <c r="AT80" s="16"/>
+      <c r="AU80" s="16"/>
+      <c r="AV80" s="16"/>
+      <c r="AW80" s="16"/>
+      <c r="AX80" s="16"/>
+      <c r="AY80" s="16"/>
+      <c r="AZ80" s="16"/>
+      <c r="BA80" s="16"/>
+      <c r="BB80" s="16"/>
+      <c r="BC80" s="16"/>
+      <c r="BD80" s="16"/>
+      <c r="BE80" s="16"/>
+      <c r="BF80" s="16"/>
+      <c r="BG80" s="16"/>
+      <c r="BH80" s="16"/>
+      <c r="BI80" s="16"/>
+      <c r="BJ80" s="16"/>
+      <c r="BK80" s="16"/>
+      <c r="BL80" s="16"/>
+      <c r="BM80" s="16"/>
+      <c r="BN80" s="16"/>
+      <c r="BO80" s="16"/>
+      <c r="BP80" s="16"/>
+      <c r="BQ80" s="16"/>
+      <c r="BR80" s="16"/>
+      <c r="BS80" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57C3DA-AEEC-42DE-8192-1CA0E8BB5E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44960056-7ABC-43A4-802D-E8018BF3951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26115" yWindow="765" windowWidth="25470" windowHeight="20325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32850" yWindow="780" windowWidth="33270" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -1120,13 +1120,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1346,167 +1352,169 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1584,15 +1592,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>86915</xdr:colOff>
+      <xdr:colOff>27384</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>86915</xdr:colOff>
+      <xdr:colOff>27384</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>54768</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1607,8 +1615,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39371587" y="35718"/>
-          <a:ext cx="0" cy="18211800"/>
+          <a:off x="39312056" y="23812"/>
+          <a:ext cx="0" cy="18533269"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2243,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2419,7 +2427,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="79" t="s">
         <v>168</v>
       </c>
       <c r="C7" s="36" t="s">
@@ -2508,7 +2516,7 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="79" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="59" t="s">
@@ -3020,11 +3028,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GQ111"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AR6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV6" sqref="AV6"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4428,7 +4436,7 @@
       </c>
     </row>
     <row r="11" spans="1:72" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="16"/>
@@ -5179,7 +5187,7 @@
         <v>364</v>
       </c>
       <c r="AV15" s="16">
-        <f t="shared" ref="AU15:AX15" si="27">+AR15*0.9</f>
+        <f t="shared" ref="AV15:AX15" si="27">+AR15*0.9</f>
         <v>358.2</v>
       </c>
       <c r="AW15" s="16">
@@ -5517,7 +5525,7 @@
         <v>305</v>
       </c>
       <c r="AV17" s="16">
-        <f t="shared" ref="AU17:AX17" si="31">+AR17</f>
+        <f t="shared" ref="AV17:AX17" si="31">+AR17</f>
         <v>318</v>
       </c>
       <c r="AW17" s="16">
@@ -5682,7 +5690,7 @@
         <v>200</v>
       </c>
       <c r="AV18" s="16">
-        <f t="shared" ref="AU18:AX18" si="33">+AR18*0.95</f>
+        <f t="shared" ref="AV18:AX18" si="33">+AR18*0.95</f>
         <v>310.64999999999998</v>
       </c>
       <c r="AW18" s="16">
@@ -5847,7 +5855,7 @@
         <v>92</v>
       </c>
       <c r="AV19" s="16">
-        <f t="shared" ref="AU19:AX19" si="35">+AU19-10</f>
+        <f t="shared" ref="AV19:AX19" si="35">+AU19-10</f>
         <v>82</v>
       </c>
       <c r="AW19" s="16">
@@ -6012,7 +6020,7 @@
         <v>259</v>
       </c>
       <c r="AV20" s="16">
-        <f t="shared" ref="AU20:AX21" si="37">+AR20*0.95</f>
+        <f t="shared" ref="AV20:AX21" si="37">+AR20*0.95</f>
         <v>242.25</v>
       </c>
       <c r="AW20" s="16">
@@ -6342,7 +6350,7 @@
         <v>130</v>
       </c>
       <c r="AV22" s="16">
-        <f t="shared" ref="AU22:AX22" si="40">+AR22</f>
+        <f t="shared" ref="AV22:AX22" si="40">+AR22</f>
         <v>130</v>
       </c>
       <c r="AW22" s="16">
@@ -6845,7 +6853,7 @@
         <v>71</v>
       </c>
       <c r="AV25" s="16">
-        <f t="shared" ref="AU25:AX25" si="45">+AU25-3</f>
+        <f t="shared" ref="AV25:AX25" si="45">+AU25-3</f>
         <v>68</v>
       </c>
       <c r="AW25" s="16">
@@ -8854,7 +8862,7 @@
         <v>691</v>
       </c>
       <c r="AV42" s="16">
-        <f t="shared" ref="AU42:AX42" si="48">+AR42*0.9</f>
+        <f t="shared" ref="AV42:AX42" si="48">+AR42*0.9</f>
         <v>908.1</v>
       </c>
       <c r="AW42" s="16">
@@ -10769,7 +10777,7 @@
         <v>781</v>
       </c>
       <c r="AV52" s="16">
-        <f t="shared" ref="AU52:AX52" si="115">+AV51*0.15</f>
+        <f t="shared" ref="AV52:AX52" si="115">+AV51*0.15</f>
         <v>1199.289</v>
       </c>
       <c r="AW52" s="16">
@@ -11871,7 +11879,7 @@
         <v>1776</v>
       </c>
       <c r="AV55" s="16">
-        <f t="shared" ref="AU55:AX55" si="146">+AU55</f>
+        <f t="shared" ref="AV55:AX55" si="146">+AU55</f>
         <v>1776</v>
       </c>
       <c r="AW55" s="16">
@@ -12487,55 +12495,55 @@
         <v>8.9896579156722334E-2</v>
       </c>
       <c r="AL60" s="30">
-        <f>+AL7/AH7-1</f>
+        <f t="shared" ref="AL60:AX61" si="167">+AL7/AH7-1</f>
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="AM60" s="30">
-        <f>+AM7/AI7-1</f>
+        <f t="shared" si="167"/>
         <v>2.9220779220779258E-2</v>
       </c>
       <c r="AN60" s="30">
-        <f>+AN7/AJ7-1</f>
+        <f t="shared" si="167"/>
         <v>7.2204968944099335E-2</v>
       </c>
       <c r="AO60" s="30">
-        <f>+AO7/AK7-1</f>
+        <f t="shared" si="167"/>
         <v>2.9197080291971655E-3</v>
       </c>
       <c r="AP60" s="30">
-        <f>+AP7/AL7-1</f>
+        <f t="shared" si="167"/>
         <v>-2.73876404494382E-2</v>
       </c>
       <c r="AQ60" s="30">
-        <f>+AQ7/AM7-1</f>
+        <f t="shared" si="167"/>
         <v>-7.4921135646687675E-2</v>
       </c>
       <c r="AR60" s="30">
-        <f>+AR7/AN7-1</f>
+        <f t="shared" si="167"/>
         <v>-0.17089065894279509</v>
       </c>
       <c r="AS60" s="30">
-        <f>+AS7/AO7-1</f>
+        <f t="shared" si="167"/>
         <v>-0.17394468704512378</v>
       </c>
       <c r="AT60" s="30">
-        <f>+AT7/AP7-1</f>
+        <f t="shared" si="167"/>
         <v>-0.19494584837545126</v>
       </c>
       <c r="AU60" s="30">
-        <f>+AU7/AQ7-1</f>
+        <f t="shared" si="167"/>
         <v>-0.25149190110826936</v>
       </c>
       <c r="AV60" s="30">
-        <f>+AV7/AR7-1</f>
+        <f t="shared" si="167"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="AW60" s="30">
-        <f>+AW7/AS7-1</f>
+        <f t="shared" si="167"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="AX60" s="30">
-        <f>+AX7/AT7-1</f>
+        <f t="shared" si="167"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="AY60" s="30"/>
@@ -12557,43 +12565,43 @@
         <v>0.13692768506632436</v>
       </c>
       <c r="BK60" s="30">
-        <f t="shared" ref="BK60:BT60" si="167">+BK7/BJ7-1</f>
+        <f t="shared" ref="BK60:BT60" si="168">+BK7/BJ7-1</f>
         <v>1.7689123071132906E-2</v>
       </c>
       <c r="BL60" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>-0.15532544378698221</v>
       </c>
       <c r="BM60" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="BN60" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BO60" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BP60" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BQ60" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BR60" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BS60" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="BT60" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BV60" s="51" t="s">
@@ -12668,63 +12676,63 @@
         <v>212</v>
       </c>
       <c r="AJ61" s="30">
-        <f t="shared" ref="AJ61:AK61" si="168">+AJ8/AF8-1</f>
+        <f t="shared" ref="AJ61:AK61" si="169">+AJ8/AF8-1</f>
         <v>5.875</v>
       </c>
       <c r="AK61" s="30">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>3.7802197802197801</v>
       </c>
       <c r="AL61" s="30">
-        <f>+AL8/AH8-1</f>
+        <f t="shared" si="167"/>
         <v>1.4305555555555554</v>
       </c>
       <c r="AM61" s="30">
-        <f>+AM8/AI8-1</f>
+        <f t="shared" si="167"/>
         <v>0.91333333333333333</v>
       </c>
       <c r="AN61" s="30">
-        <f>+AN8/AJ8-1</f>
+        <f t="shared" si="167"/>
         <v>1.0424242424242425</v>
       </c>
       <c r="AO61" s="30">
-        <f>+AO8/AK8-1</f>
+        <f t="shared" si="167"/>
         <v>0.8298850574712644</v>
       </c>
       <c r="AP61" s="30">
-        <f>+AP8/AL8-1</f>
+        <f t="shared" si="167"/>
         <v>0.7047619047619047</v>
       </c>
       <c r="AQ61" s="30">
-        <f>+AQ8/AM8-1</f>
+        <f t="shared" si="167"/>
         <v>0.63763066202090601</v>
       </c>
       <c r="AR61" s="30">
-        <f>+AR8/AN8-1</f>
+        <f t="shared" si="167"/>
         <v>0.85756676557863498</v>
       </c>
       <c r="AS61" s="30">
-        <f>+AS8/AO8-1</f>
+        <f t="shared" si="167"/>
         <v>0.75502512562814061</v>
       </c>
       <c r="AT61" s="30">
-        <f>+AT8/AP8-1</f>
+        <f t="shared" si="167"/>
         <v>0.76089385474860327</v>
       </c>
       <c r="AU61" s="30">
-        <f>+AU8/AQ8-1</f>
+        <f t="shared" si="167"/>
         <v>0.44680851063829796</v>
       </c>
       <c r="AV61" s="30">
-        <f>+AV8/AR8-1</f>
+        <f t="shared" si="167"/>
         <v>0.5</v>
       </c>
       <c r="AW61" s="30">
-        <f>+AW8/AS8-1</f>
+        <f t="shared" si="167"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AX61" s="30">
-        <f>+AX8/AT8-1</f>
+        <f t="shared" si="167"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AY61" s="30"/>
@@ -12745,43 +12753,43 @@
         <v>3.47887323943662</v>
       </c>
       <c r="BK61" s="30">
-        <f t="shared" ref="BK61:BT61" si="169">+BK8/BJ8-1</f>
+        <f t="shared" ref="BK61:BT61" si="170">+BK8/BJ8-1</f>
         <v>0.84842767295597477</v>
       </c>
       <c r="BL61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.75740047635250085</v>
       </c>
       <c r="BM61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BN61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BO61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BP61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BQ61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BR61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BS61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BT61" s="30">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -12818,7 +12826,7 @@
       <c r="AC62" s="30"/>
       <c r="AD62" s="30"/>
       <c r="AE62" s="30">
-        <f t="shared" ref="AE62" si="170">+AE3/AA3-1</f>
+        <f t="shared" ref="AE62" si="171">+AE3/AA3-1</f>
         <v>-5.5850499044383106E-2</v>
       </c>
       <c r="AF62" s="30">
@@ -12826,75 +12834,75 @@
         <v>-5.1494696239151372E-2</v>
       </c>
       <c r="AG62" s="30">
-        <f t="shared" ref="AG62:AL62" si="171">+AG3/AC3-1</f>
+        <f t="shared" ref="AG62:AL62" si="172">+AG3/AC3-1</f>
         <v>-1.6198282591725177E-2</v>
       </c>
       <c r="AH62" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>5.0427002846685554E-2</v>
       </c>
       <c r="AI62" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.14462438146648671</v>
       </c>
       <c r="AJ62" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>8.0927206181374611E-2</v>
       </c>
       <c r="AK62" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.14858163062884344</v>
       </c>
       <c r="AL62" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.1533101045296168</v>
       </c>
       <c r="AM62" s="30">
-        <f t="shared" ref="AM62" si="172">+AM3/AI3-1</f>
+        <f t="shared" ref="AM62" si="173">+AM3/AI3-1</f>
         <v>0.1287089801532717</v>
       </c>
       <c r="AN62" s="30">
-        <f t="shared" ref="AN62" si="173">+AN3/AJ3-1</f>
+        <f t="shared" ref="AN62" si="174">+AN3/AJ3-1</f>
         <v>0.15124153498871329</v>
       </c>
       <c r="AO62" s="30">
-        <f t="shared" ref="AO62" si="174">+AO3/AK3-1</f>
+        <f t="shared" ref="AO62" si="175">+AO3/AK3-1</f>
         <v>0.15267702936096716</v>
       </c>
       <c r="AP62" s="30">
-        <f t="shared" ref="AP62" si="175">+AP3/AL3-1</f>
+        <f t="shared" ref="AP62" si="176">+AP3/AL3-1</f>
         <v>0.13225914736488753</v>
       </c>
       <c r="AQ62" s="30">
-        <f t="shared" ref="AQ62" si="176">+AQ3/AM3-1</f>
+        <f t="shared" ref="AQ62" si="177">+AQ3/AM3-1</f>
         <v>6.9115598885793883E-2</v>
       </c>
       <c r="AR62" s="30">
-        <f t="shared" ref="AR62" si="177">+AR3/AN3-1</f>
+        <f t="shared" ref="AR62" si="178">+AR3/AN3-1</f>
         <v>0.17761437908496736</v>
       </c>
       <c r="AS62" s="30">
-        <f t="shared" ref="AS62" si="178">+AS3/AO3-1</f>
+        <f t="shared" ref="AS62" si="179">+AS3/AO3-1</f>
         <v>0.14638897213065638</v>
       </c>
       <c r="AT62" s="30">
-        <f t="shared" ref="AT62" si="179">+AT3/AP3-1</f>
+        <f t="shared" ref="AT62" si="180">+AT3/AP3-1</f>
         <v>0.17477023421286697</v>
       </c>
       <c r="AU62" s="30">
-        <f t="shared" ref="AU62" si="180">+AU3/AQ3-1</f>
+        <f t="shared" ref="AU62" si="181">+AU3/AQ3-1</f>
         <v>-9.0213320306139044E-2</v>
       </c>
       <c r="AV62" s="30">
-        <f t="shared" ref="AV62" si="181">+AV3/AR3-1</f>
+        <f t="shared" ref="AV62" si="182">+AV3/AR3-1</f>
         <v>-0.19436658803940632</v>
       </c>
       <c r="AW62" s="30">
-        <f t="shared" ref="AW62" si="182">+AW3/AS3-1</f>
+        <f t="shared" ref="AW62" si="183">+AW3/AS3-1</f>
         <v>-0.27208208077375506</v>
       </c>
       <c r="AX62" s="30">
-        <f t="shared" ref="AX62" si="183">+AX3/AT3-1</f>
+        <f t="shared" ref="AX62" si="184">+AX3/AT3-1</f>
         <v>-0.34329337539432181</v>
       </c>
       <c r="AY62" s="30"/>
@@ -13032,47 +13040,47 @@
         <v>212</v>
       </c>
       <c r="AN63" s="30">
-        <f>AN9/AJ9-1</f>
+        <f t="shared" ref="AN63:AX64" si="185">AN9/AJ9-1</f>
         <v>1.584070796460177</v>
       </c>
       <c r="AO63" s="30">
-        <f>AO9/AK9-1</f>
+        <f t="shared" si="185"/>
         <v>0.38676844783715003</v>
       </c>
       <c r="AP63" s="30">
-        <f>AP9/AL9-1</f>
+        <f t="shared" si="185"/>
         <v>0.26977687626774838</v>
       </c>
       <c r="AQ63" s="30">
-        <f>AQ9/AM9-1</f>
+        <f t="shared" si="185"/>
         <v>0.34381551362683438</v>
       </c>
       <c r="AR63" s="30">
-        <f>AR9/AN9-1</f>
+        <f t="shared" si="185"/>
         <v>0.19006849315068486</v>
       </c>
       <c r="AS63" s="30">
-        <f>AS9/AO9-1</f>
+        <f t="shared" si="185"/>
         <v>0.16880733944954129</v>
       </c>
       <c r="AT63" s="30">
-        <f>AT9/AP9-1</f>
+        <f t="shared" si="185"/>
         <v>2.5559105431310014E-2</v>
       </c>
       <c r="AU63" s="30">
-        <f>AU9/AQ9-1</f>
+        <f t="shared" si="185"/>
         <v>2.808112324492984E-2</v>
       </c>
       <c r="AV63" s="30">
-        <f>AV9/AR9-1</f>
+        <f t="shared" si="185"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AW63" s="30">
-        <f>AW9/AS9-1</f>
+        <f t="shared" si="185"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AX63" s="30">
-        <f>AX9/AT9-1</f>
+        <f t="shared" si="185"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AY63" s="30"/>
@@ -13173,47 +13181,47 @@
         <v>212</v>
       </c>
       <c r="AN64" s="30">
-        <f>AN10/AJ10-1</f>
+        <f t="shared" si="185"/>
         <v>1.0303030303030303</v>
       </c>
       <c r="AO64" s="30">
-        <f>AO10/AK10-1</f>
+        <f t="shared" si="185"/>
         <v>0.23326959847036322</v>
       </c>
       <c r="AP64" s="30">
-        <f>AP10/AL10-1</f>
+        <f t="shared" si="185"/>
         <v>0.18342151675485008</v>
       </c>
       <c r="AQ64" s="30">
-        <f>AQ10/AM10-1</f>
+        <f t="shared" si="185"/>
         <v>0.15413533834586457</v>
       </c>
       <c r="AR64" s="30">
-        <f>AR10/AN10-1</f>
+        <f t="shared" si="185"/>
         <v>0.12437810945273631</v>
       </c>
       <c r="AS64" s="30">
-        <f>AS10/AO10-1</f>
+        <f t="shared" si="185"/>
         <v>8.3720930232558111E-2</v>
       </c>
       <c r="AT64" s="30">
-        <f>AT10/AP10-1</f>
+        <f t="shared" si="185"/>
         <v>8.4947839046199736E-2</v>
       </c>
       <c r="AU64" s="30">
-        <f>AU10/AQ10-1</f>
+        <f t="shared" si="185"/>
         <v>0.17100977198697076</v>
       </c>
       <c r="AV64" s="30">
-        <f>AV10/AR10-1</f>
+        <f t="shared" si="185"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AW64" s="30">
-        <f>AW10/AS10-1</f>
+        <f t="shared" si="185"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AX64" s="30">
-        <f>AX10/AT10-1</f>
+        <f t="shared" si="185"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AY64" s="30"/>
@@ -13305,35 +13313,35 @@
         <v>212</v>
       </c>
       <c r="AK65" s="30">
-        <f t="shared" ref="AK65:AT65" si="184">AK12/AG12-1</f>
+        <f t="shared" ref="AK65:AT65" si="186">AK12/AG12-1</f>
         <v>14.357142857142858</v>
       </c>
       <c r="AL65" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>7.5151515151515156</v>
       </c>
       <c r="AM65" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>2.5232558139534884</v>
       </c>
       <c r="AN65" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>1.5369127516778525</v>
       </c>
       <c r="AO65" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>1.1069767441860465</v>
       </c>
       <c r="AP65" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.83985765124555156</v>
       </c>
       <c r="AQ65" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.53465346534653468</v>
       </c>
       <c r="AR65" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.56613756613756605</v>
       </c>
       <c r="AS65" s="30">
@@ -13341,23 +13349,23 @@
         <v>0.53421633554083892</v>
       </c>
       <c r="AT65" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.4893617021276595</v>
       </c>
       <c r="AU65" s="30">
-        <f t="shared" ref="AU65" si="185">AU12/AQ12-1</f>
+        <f t="shared" ref="AU65" si="187">AU12/AQ12-1</f>
         <v>0.47526881720430114</v>
       </c>
       <c r="AV65" s="30">
-        <f t="shared" ref="AV65" si="186">AV12/AR12-1</f>
+        <f t="shared" ref="AV65" si="188">AV12/AR12-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="AW65" s="30">
-        <f t="shared" ref="AW65" si="187">AW12/AS12-1</f>
+        <f t="shared" ref="AW65" si="189">AW12/AS12-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="AX65" s="30">
-        <f t="shared" ref="AX65" si="188">AX12/AT12-1</f>
+        <f t="shared" ref="AX65" si="190">AX12/AT12-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="AY65" s="30"/>
@@ -13481,39 +13489,39 @@
       <c r="W67" s="30"/>
       <c r="X67" s="30"/>
       <c r="Y67" s="30">
-        <f t="shared" ref="Y67" si="189">+Y45/Y43</f>
+        <f t="shared" ref="Y67" si="191">+Y45/Y43</f>
         <v>0.80814867762687637</v>
       </c>
       <c r="Z67" s="30">
-        <f t="shared" ref="Z67" si="190">+Z45/Z43</f>
+        <f t="shared" ref="Z67" si="192">+Z45/Z43</f>
         <v>0.78989533531464018</v>
       </c>
       <c r="AA67" s="30">
-        <f t="shared" ref="AA67" si="191">+AA45/AA43</f>
+        <f t="shared" ref="AA67" si="193">+AA45/AA43</f>
         <v>0.80186538946307029</v>
       </c>
       <c r="AB67" s="30">
-        <f t="shared" ref="AB67:AG67" si="192">+AB45/AB43</f>
+        <f t="shared" ref="AB67:AG67" si="194">+AB45/AB43</f>
         <v>0.80540082344393316</v>
       </c>
       <c r="AC67" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.81677999028654691</v>
       </c>
       <c r="AD67" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.79843467790487654</v>
       </c>
       <c r="AE67" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.83354624425140522</v>
       </c>
       <c r="AF67" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.8271350696547547</v>
       </c>
       <c r="AG67" s="30">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.82014388489208634</v>
       </c>
       <c r="AH67" s="30">
@@ -13533,31 +13541,31 @@
         <v>0.81664337835739786</v>
       </c>
       <c r="AL67" s="30">
-        <f t="shared" ref="AL67:AT67" si="193">+AL45/AL43</f>
+        <f t="shared" ref="AL67:AT67" si="195">+AL45/AL43</f>
         <v>0.81793909655072883</v>
       </c>
       <c r="AM67" s="30">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.83880943177425593</v>
       </c>
       <c r="AN67" s="30">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.82240848198295002</v>
       </c>
       <c r="AO67" s="30">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.83175289359921911</v>
       </c>
       <c r="AP67" s="30">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.83555018137847648</v>
       </c>
       <c r="AQ67" s="30">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.84465947702762589</v>
       </c>
       <c r="AR67" s="30">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.85140231776726327</v>
       </c>
       <c r="AS67" s="30">
@@ -13565,23 +13573,23 @@
         <v>0.85369970294355924</v>
       </c>
       <c r="AT67" s="30">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.85</v>
       </c>
       <c r="AU67" s="30">
-        <f t="shared" ref="AU67:AX67" si="194">+AU45/AU43</f>
+        <f t="shared" ref="AU67:AX67" si="196">+AU45/AU43</f>
         <v>0.84204498977505116</v>
       </c>
       <c r="AV67" s="30">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>0.85</v>
       </c>
       <c r="AW67" s="30">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>0.85</v>
       </c>
       <c r="AX67" s="30">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>0.85</v>
       </c>
       <c r="AY67" s="30"/>
@@ -13614,23 +13622,23 @@
         <v>0.85005081475867295</v>
       </c>
       <c r="BM67" s="30">
-        <f t="shared" ref="BM67:BQ67" si="195">+BM45/BM43</f>
+        <f t="shared" ref="BM67:BQ67" si="197">+BM45/BM43</f>
         <v>0.85</v>
       </c>
       <c r="BN67" s="30">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>0.85</v>
       </c>
       <c r="BO67" s="30">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>0.84999999999999987</v>
       </c>
       <c r="BP67" s="30">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>0.85</v>
       </c>
       <c r="BQ67" s="30">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>0.85</v>
       </c>
       <c r="BR67" s="30"/>
@@ -13663,39 +13671,39 @@
       <c r="W68" s="30"/>
       <c r="X68" s="30"/>
       <c r="Y68" s="30">
-        <f t="shared" ref="Y68" si="196">+Y52/Y51</f>
+        <f t="shared" ref="Y68" si="198">+Y52/Y51</f>
         <v>0.18934280639431617</v>
       </c>
       <c r="Z68" s="30">
-        <f t="shared" ref="Z68" si="197">+Z52/Z51</f>
+        <f t="shared" ref="Z68" si="199">+Z52/Z51</f>
         <v>0.18853848762292302</v>
       </c>
       <c r="AA68" s="30">
-        <f t="shared" ref="AA68" si="198">+AA52/AA51</f>
+        <f t="shared" ref="AA68" si="200">+AA52/AA51</f>
         <v>7.6450721522873813E-2</v>
       </c>
       <c r="AB68" s="30">
-        <f t="shared" ref="AB68:AG68" si="199">+AB52/AB51</f>
+        <f t="shared" ref="AB68:AG68" si="201">+AB52/AB51</f>
         <v>9.0040532715691957E-2</v>
       </c>
       <c r="AC68" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>9.1036023457134879E-2</v>
       </c>
       <c r="AD68" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>9.1716915264995244E-2</v>
       </c>
       <c r="AE68" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>7.8917050691244245E-2</v>
       </c>
       <c r="AF68" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>8.7567567567567561E-2</v>
       </c>
       <c r="AG68" s="30">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>8.7848500789058384E-2</v>
       </c>
       <c r="AH68" s="30">
@@ -13715,31 +13723,31 @@
         <v>9.6755504055619931E-2</v>
       </c>
       <c r="AL68" s="30">
-        <f t="shared" ref="AL68:AT68" si="200">+AL52/AL51</f>
+        <f t="shared" ref="AL68:AT68" si="202">+AL52/AL51</f>
         <v>9.6443132292984679E-2</v>
       </c>
       <c r="AM68" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.1234113712374582</v>
       </c>
       <c r="AN68" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.12653834017040075</v>
       </c>
       <c r="AO68" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.12783291364242336</v>
       </c>
       <c r="AP68" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.12496302868973676</v>
       </c>
       <c r="AQ68" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.11802184466019418</v>
       </c>
       <c r="AR68" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.12982644961657475</v>
       </c>
       <c r="AS68" s="30">
@@ -13747,23 +13755,23 @@
         <v>0.1274432118330692</v>
       </c>
       <c r="AT68" s="30">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.15</v>
       </c>
       <c r="AU68" s="30">
-        <f t="shared" ref="AU68:AX68" si="201">+AU52/AU51</f>
+        <f t="shared" ref="AU68:AX68" si="203">+AU52/AU51</f>
         <v>0.1364907375043691</v>
       </c>
       <c r="AV68" s="30">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0.15</v>
       </c>
       <c r="AW68" s="30">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0.15</v>
       </c>
       <c r="AX68" s="30">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0.15</v>
       </c>
       <c r="AY68" s="30"/>
@@ -13776,43 +13784,43 @@
       <c r="BF68" s="30"/>
       <c r="BG68" s="30"/>
       <c r="BH68" s="30">
-        <f t="shared" ref="BH68" si="202">+BH52/BH51</f>
+        <f t="shared" ref="BH68" si="204">+BH52/BH51</f>
         <v>8.7406084951275761E-2</v>
       </c>
       <c r="BI68" s="30">
-        <f t="shared" ref="BI68:BQ68" si="203">+BI52/BI51</f>
+        <f t="shared" ref="BI68:BQ68" si="205">+BI52/BI51</f>
         <v>8.5823964902659713E-2</v>
       </c>
       <c r="BJ68" s="30">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.10015614543832255</v>
       </c>
       <c r="BK68" s="30">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.12574038945453136</v>
       </c>
       <c r="BL68" s="30">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.13161795219388039</v>
       </c>
       <c r="BM68" s="30">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.15</v>
       </c>
       <c r="BN68" s="30">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.15</v>
       </c>
       <c r="BO68" s="30">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.15</v>
       </c>
       <c r="BP68" s="30">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.15</v>
       </c>
       <c r="BQ68" s="30">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.15</v>
       </c>
       <c r="BR68" s="30"/>

--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C33B254-29E0-4DC9-A670-5B4D4BCB89DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0B7A3-07B2-41AE-B306-5566C2622E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39555" yWindow="705" windowWidth="33960" windowHeight="19260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51360" yWindow="1125" windowWidth="22860" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -1323,6 +1323,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1449,12 +1455,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="10"/>
@@ -1574,193 +1574,194 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2498,8 +2499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2866,7 +2867,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
         <v>340</v>
       </c>
@@ -2881,7 +2882,7 @@
       <c r="G17" s="38"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>213</v>
       </c>
@@ -2896,7 +2897,7 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="84" t="s">
         <v>342</v>
       </c>
@@ -2913,7 +2914,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="62" t="s">
         <v>292</v>
       </c>
@@ -2928,7 +2929,7 @@
       <c r="G20" s="58"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
         <v>215</v>
       </c>
@@ -2942,8 +2943,9 @@
         <v>288</v>
       </c>
       <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J21" s="90"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="39" t="s">
         <v>212</v>
       </c>
@@ -2958,7 +2960,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
@@ -2969,7 +2971,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="39" t="s">
         <v>208</v>
       </c>
@@ -2988,7 +2990,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="67" t="s">
         <v>321</v>
       </c>
@@ -3005,7 +3007,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="84" t="s">
         <v>355</v>
       </c>
@@ -3022,7 +3024,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="67" t="s">
         <v>323</v>
       </c>
@@ -3037,7 +3039,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="35" t="s">
         <v>168</v>
       </c>
@@ -3056,7 +3058,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="35" t="s">
         <v>175</v>
       </c>
@@ -3075,7 +3077,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="76" t="s">
         <v>330</v>
       </c>
@@ -3094,7 +3096,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="84" t="s">
         <v>386</v>
       </c>
@@ -3107,7 +3109,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="39" t="s">
         <v>181</v>
       </c>
@@ -4510,35 +4512,35 @@
         <v>4568</v>
       </c>
       <c r="BR7" s="16">
-        <f>SUM(AU7:AX7)</f>
+        <f t="shared" ref="BR7:BR26" si="12">SUM(AU7:AX7)</f>
         <v>3596</v>
       </c>
       <c r="BS7" s="16">
-        <f>SUM(AY7:BB7)</f>
+        <f t="shared" ref="BS7:BS29" si="13">SUM(AY7:BB7)</f>
         <v>3420.1</v>
       </c>
       <c r="BT7" s="16">
-        <f t="shared" ref="BS7:BY7" si="12">+BS7*0.9</f>
+        <f t="shared" ref="BT7:BY7" si="14">+BS7*0.9</f>
         <v>3078.09</v>
       </c>
       <c r="BU7" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2770.2810000000004</v>
       </c>
       <c r="BV7" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2493.2529000000004</v>
       </c>
       <c r="BW7" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2243.9276100000006</v>
       </c>
       <c r="BX7" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2019.5348490000006</v>
       </c>
       <c r="BY7" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1817.5813641000007</v>
       </c>
     </row>
@@ -4688,11 +4690,11 @@
         <v>5165</v>
       </c>
       <c r="BR8" s="16">
-        <f>SUM(AU8:AX8)</f>
+        <f t="shared" si="12"/>
         <v>7763</v>
       </c>
       <c r="BS8" s="16">
-        <f>SUM(AY8:BB8)</f>
+        <f t="shared" si="13"/>
         <v>9986.1999999999989</v>
       </c>
       <c r="BT8" s="16">
@@ -4704,19 +4706,19 @@
         <v>13371.5218</v>
       </c>
       <c r="BV8" s="16">
-        <f t="shared" ref="BV8:BY8" si="13">+BU8*1.03</f>
+        <f t="shared" ref="BV8:BY8" si="15">+BU8*1.03</f>
         <v>13772.667454</v>
       </c>
       <c r="BW8" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14185.84747762</v>
       </c>
       <c r="BX8" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>14611.422901948601</v>
       </c>
       <c r="BY8" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>15049.76558900706</v>
       </c>
     </row>
@@ -4867,35 +4869,35 @@
         <v>2615</v>
       </c>
       <c r="BR9" s="16">
-        <f>SUM(AU9:AX9)</f>
+        <f t="shared" si="12"/>
         <v>2682</v>
       </c>
       <c r="BS9" s="16">
-        <f>SUM(AY9:BB9)</f>
+        <f t="shared" si="13"/>
         <v>2595.31</v>
       </c>
       <c r="BT9" s="16">
-        <f t="shared" ref="BS9:BY9" si="14">+BS9*1.05</f>
+        <f t="shared" ref="BT9:BY9" si="16">+BS9*1.05</f>
         <v>2725.0754999999999</v>
       </c>
       <c r="BU9" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2861.3292750000001</v>
       </c>
       <c r="BV9" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3004.39573875</v>
       </c>
       <c r="BW9" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3154.6155256874999</v>
       </c>
       <c r="BX9" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3312.3463019718752</v>
       </c>
       <c r="BY9" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3477.9636170704689</v>
       </c>
     </row>
@@ -5046,35 +5048,35 @@
         <v>2719</v>
       </c>
       <c r="BR10" s="16">
-        <f>SUM(AU10:AX10)</f>
+        <f t="shared" si="12"/>
         <v>2991</v>
       </c>
       <c r="BS10" s="16">
-        <f>SUM(AY10:BB10)</f>
+        <f t="shared" si="13"/>
         <v>3088.16</v>
       </c>
       <c r="BT10" s="16">
-        <f t="shared" ref="BR10:BY10" si="15">+BS10*1.05</f>
+        <f t="shared" ref="BT10:BY10" si="17">+BS10*1.05</f>
         <v>3242.5680000000002</v>
       </c>
       <c r="BU10" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3404.6964000000003</v>
       </c>
       <c r="BV10" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3574.9312200000004</v>
       </c>
       <c r="BW10" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3753.6777810000008</v>
       </c>
       <c r="BX10" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3941.3616700500011</v>
       </c>
       <c r="BY10" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4138.4297535525011</v>
       </c>
     </row>
@@ -5224,31 +5226,31 @@
         <v>2009</v>
       </c>
       <c r="BR11" s="16">
-        <f>SUM(AU11:AX11)</f>
+        <f t="shared" si="12"/>
         <v>2288</v>
       </c>
       <c r="BS11" s="16">
-        <f>SUM(AY11:BB11)</f>
+        <f t="shared" si="13"/>
         <v>2539</v>
       </c>
       <c r="BT11" s="16">
-        <f t="shared" ref="BS11:BX11" si="16">+BS11*1.03</f>
+        <f t="shared" ref="BT11:BX11" si="18">+BS11*1.03</f>
         <v>2615.17</v>
       </c>
       <c r="BU11" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2693.6251000000002</v>
       </c>
       <c r="BV11" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2774.4338530000005</v>
       </c>
       <c r="BW11" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2857.6668685900004</v>
       </c>
       <c r="BX11" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2943.3968746477003</v>
       </c>
       <c r="BY11" s="15">
@@ -5402,35 +5404,35 @@
         <v>2522</v>
       </c>
       <c r="BR12" s="16">
-        <f>SUM(AU12:AX12)</f>
+        <f t="shared" si="12"/>
         <v>3969</v>
       </c>
       <c r="BS12" s="16">
-        <f>SUM(AY12:BB12)</f>
+        <f t="shared" si="13"/>
         <v>5032.6000000000004</v>
       </c>
       <c r="BT12" s="16">
-        <f t="shared" ref="BR12:BX12" si="17">+BS12*1.03</f>
+        <f t="shared" ref="BT12:BX12" si="19">+BS12*1.03</f>
         <v>5183.5780000000004</v>
       </c>
       <c r="BU12" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5339.0853400000005</v>
       </c>
       <c r="BV12" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5499.2579002000011</v>
       </c>
       <c r="BW12" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5664.2356372060012</v>
       </c>
       <c r="BX12" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5834.1627063221813</v>
       </c>
       <c r="BY12" s="15">
-        <f t="shared" ref="BY12:BY13" si="18">+BX12*0.1</f>
+        <f t="shared" ref="BY12:BY13" si="20">+BX12*0.1</f>
         <v>583.41627063221813</v>
       </c>
     </row>
@@ -5580,35 +5582,35 @@
         <v>2038</v>
       </c>
       <c r="BR13" s="16">
-        <f>SUM(AU13:AX13)</f>
+        <f t="shared" si="12"/>
         <v>2759</v>
       </c>
       <c r="BS13" s="16">
-        <f>SUM(AY13:BB13)</f>
+        <f t="shared" si="13"/>
         <v>3001.9000000000005</v>
       </c>
       <c r="BT13" s="16">
-        <f t="shared" ref="BR13:BX13" si="19">+BS13*1.03</f>
+        <f t="shared" ref="BT13:BX13" si="21">+BS13*1.03</f>
         <v>3091.9570000000008</v>
       </c>
       <c r="BU13" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3184.7157100000009</v>
       </c>
       <c r="BV13" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3280.2571813000009</v>
       </c>
       <c r="BW13" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3378.6648967390011</v>
       </c>
       <c r="BX13" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3480.0248436411712</v>
       </c>
       <c r="BY13" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>348.00248436411715</v>
       </c>
     </row>
@@ -5758,35 +5760,35 @@
         <v>1428</v>
       </c>
       <c r="BR14" s="16">
-        <f>SUM(AU14:AX14)</f>
+        <f t="shared" si="12"/>
         <v>1378</v>
       </c>
       <c r="BS14" s="16">
-        <f>SUM(AY14:BB14)</f>
+        <f t="shared" si="13"/>
         <v>1217.7000000000003</v>
       </c>
       <c r="BT14" s="16">
-        <f t="shared" ref="BS14:BY14" si="20">+BS14*1.05</f>
+        <f t="shared" ref="BT14:BY14" si="22">+BS14*1.05</f>
         <v>1278.5850000000003</v>
       </c>
       <c r="BU14" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1342.5142500000004</v>
       </c>
       <c r="BV14" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1409.6399625000006</v>
       </c>
       <c r="BW14" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1480.1219606250006</v>
       </c>
       <c r="BX14" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1554.1280586562507</v>
       </c>
       <c r="BY14" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1631.8344615890633</v>
       </c>
     </row>
@@ -5894,15 +5896,15 @@
         <v>349</v>
       </c>
       <c r="AZ15" s="16">
-        <f t="shared" ref="AZ15:BB15" si="21">+AV15*0.9</f>
+        <f t="shared" ref="AZ15:BB15" si="23">+AV15*0.9</f>
         <v>348.3</v>
       </c>
       <c r="BA15" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>333</v>
       </c>
       <c r="BB15" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>278.10000000000002</v>
       </c>
       <c r="BC15" s="16"/>
@@ -5936,35 +5938,35 @@
         <v>1541</v>
       </c>
       <c r="BR15" s="16">
-        <f>SUM(AU15:AX15)</f>
+        <f t="shared" si="12"/>
         <v>1430</v>
       </c>
       <c r="BS15" s="16">
-        <f>SUM(AY15:BB15)</f>
+        <f t="shared" si="13"/>
         <v>1308.4000000000001</v>
       </c>
       <c r="BT15" s="16">
-        <f t="shared" ref="BS15:BY15" si="22">+BS15*0.7</f>
+        <f t="shared" ref="BT15:BY15" si="24">+BS15*0.7</f>
         <v>915.88</v>
       </c>
       <c r="BU15" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>641.11599999999999</v>
       </c>
       <c r="BV15" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>448.78119999999996</v>
       </c>
       <c r="BW15" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>314.14683999999994</v>
       </c>
       <c r="BX15" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>219.90278799999996</v>
       </c>
       <c r="BY15" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>153.93195159999996</v>
       </c>
     </row>
@@ -6072,15 +6074,15 @@
         <v>319</v>
       </c>
       <c r="AZ16" s="16">
-        <f>+AV16</f>
+        <f t="shared" ref="AZ16:BB18" si="25">+AV16</f>
         <v>331</v>
       </c>
       <c r="BA16" s="16">
-        <f>+AW16</f>
+        <f t="shared" si="25"/>
         <v>298</v>
       </c>
       <c r="BB16" s="16">
-        <f>+AX16</f>
+        <f t="shared" si="25"/>
         <v>319</v>
       </c>
       <c r="BC16" s="16"/>
@@ -6114,35 +6116,35 @@
         <v>1290</v>
       </c>
       <c r="BR16" s="16">
-        <f>SUM(AU16:AX16)</f>
+        <f t="shared" si="12"/>
         <v>1234</v>
       </c>
       <c r="BS16" s="16">
-        <f>SUM(AY16:BB16)</f>
+        <f t="shared" si="13"/>
         <v>1267</v>
       </c>
       <c r="BT16" s="16">
-        <f t="shared" ref="BS16:BY16" si="23">+BS16*0.9</f>
+        <f t="shared" ref="BT16:BY16" si="26">+BS16*0.9</f>
         <v>1140.3</v>
       </c>
       <c r="BU16" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1026.27</v>
       </c>
       <c r="BV16" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>923.64300000000003</v>
       </c>
       <c r="BW16" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>831.27870000000007</v>
       </c>
       <c r="BX16" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>748.15083000000004</v>
       </c>
       <c r="BY16" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>673.33574700000008</v>
       </c>
     </row>
@@ -6258,15 +6260,15 @@
         <v>285</v>
       </c>
       <c r="AZ17" s="16">
-        <f>+AV17</f>
+        <f t="shared" si="25"/>
         <v>282</v>
       </c>
       <c r="BA17" s="16">
-        <f>+AW17</f>
+        <f t="shared" si="25"/>
         <v>305</v>
       </c>
       <c r="BB17" s="16">
-        <f>+AX17</f>
+        <f t="shared" si="25"/>
         <v>376</v>
       </c>
       <c r="BC17" s="16"/>
@@ -6300,35 +6302,35 @@
         <v>1278</v>
       </c>
       <c r="BR17" s="16">
-        <f>SUM(AU17:AX17)</f>
+        <f t="shared" si="12"/>
         <v>1268</v>
       </c>
       <c r="BS17" s="16">
-        <f>SUM(AY17:BB17)</f>
+        <f t="shared" si="13"/>
         <v>1248</v>
       </c>
       <c r="BT17" s="16">
-        <f t="shared" ref="BS17:BY17" si="24">+BS17*1.03</f>
+        <f t="shared" ref="BT17:BY17" si="27">+BS17*1.03</f>
         <v>1285.44</v>
       </c>
       <c r="BU17" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1324.0032000000001</v>
       </c>
       <c r="BV17" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1363.7232960000001</v>
       </c>
       <c r="BW17" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1404.6349948800002</v>
       </c>
       <c r="BX17" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1446.7740447264002</v>
       </c>
       <c r="BY17" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1490.1772660681922</v>
       </c>
     </row>
@@ -6437,15 +6439,15 @@
         <v>200</v>
       </c>
       <c r="AZ18" s="16">
-        <f>+AV18</f>
+        <f t="shared" si="25"/>
         <v>215</v>
       </c>
       <c r="BA18" s="16">
-        <f>+AW18</f>
+        <f t="shared" si="25"/>
         <v>207</v>
       </c>
       <c r="BB18" s="16">
-        <f>+AX18</f>
+        <f t="shared" si="25"/>
         <v>181</v>
       </c>
       <c r="BC18" s="16"/>
@@ -6479,35 +6481,35 @@
         <v>959</v>
       </c>
       <c r="BR18" s="16">
-        <f>SUM(AU18:AX18)</f>
+        <f t="shared" si="12"/>
         <v>803</v>
       </c>
       <c r="BS18" s="16">
-        <f>SUM(AY18:BB18)</f>
+        <f t="shared" si="13"/>
         <v>803</v>
       </c>
       <c r="BT18" s="16">
-        <f t="shared" ref="BS18:BY18" si="25">+BS18*0.9</f>
+        <f t="shared" ref="BT18:BY18" si="28">+BS18*0.9</f>
         <v>722.7</v>
       </c>
       <c r="BU18" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>650.43000000000006</v>
       </c>
       <c r="BV18" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>585.38700000000006</v>
       </c>
       <c r="BW18" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>526.84830000000011</v>
       </c>
       <c r="BX18" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>474.16347000000013</v>
       </c>
       <c r="BY18" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>426.7471230000001</v>
       </c>
     </row>
@@ -6657,35 +6659,35 @@
         <v>666</v>
       </c>
       <c r="BR19" s="16">
-        <f>SUM(AU19:AX19)</f>
+        <f t="shared" si="12"/>
         <v>436</v>
       </c>
       <c r="BS19" s="16">
-        <f>SUM(AY19:BB19)</f>
+        <f t="shared" si="13"/>
         <v>210</v>
       </c>
       <c r="BT19" s="16">
-        <f t="shared" ref="BR19:BY19" si="26">+BS19*0.9</f>
+        <f t="shared" ref="BT19:BY19" si="29">+BS19*0.9</f>
         <v>189</v>
       </c>
       <c r="BU19" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>170.1</v>
       </c>
       <c r="BV19" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>153.09</v>
       </c>
       <c r="BW19" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>137.78100000000001</v>
       </c>
       <c r="BX19" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>124.00290000000001</v>
       </c>
       <c r="BY19" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>111.60261000000001</v>
       </c>
     </row>
@@ -6793,15 +6795,15 @@
         <v>266</v>
       </c>
       <c r="AZ20" s="16">
-        <f>+AV20</f>
+        <f t="shared" ref="AZ20:BB21" si="30">+AV20</f>
         <v>278</v>
       </c>
       <c r="BA20" s="16">
-        <f>+AW20</f>
+        <f t="shared" si="30"/>
         <v>288</v>
       </c>
       <c r="BB20" s="16">
-        <f>+AX20</f>
+        <f t="shared" si="30"/>
         <v>283</v>
       </c>
       <c r="BC20" s="16"/>
@@ -6835,35 +6837,35 @@
         <v>1035</v>
       </c>
       <c r="BR20" s="16">
-        <f>SUM(AU20:AX20)</f>
+        <f t="shared" si="12"/>
         <v>1108</v>
       </c>
       <c r="BS20" s="16">
-        <f>SUM(AY20:BB20)</f>
+        <f t="shared" si="13"/>
         <v>1115</v>
       </c>
       <c r="BT20" s="16">
-        <f t="shared" ref="BS20:BY20" si="27">+BS20*0.5</f>
+        <f t="shared" ref="BT20:BY20" si="31">+BS20*0.5</f>
         <v>557.5</v>
       </c>
       <c r="BU20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>278.75</v>
       </c>
       <c r="BV20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>139.375</v>
       </c>
       <c r="BW20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>69.6875</v>
       </c>
       <c r="BX20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>34.84375</v>
       </c>
       <c r="BY20" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>17.421875</v>
       </c>
     </row>
@@ -6971,15 +6973,15 @@
         <v>74</v>
       </c>
       <c r="AZ21" s="16">
-        <f>+AV21</f>
+        <f t="shared" si="30"/>
         <v>70</v>
       </c>
       <c r="BA21" s="16">
-        <f>+AW21</f>
+        <f t="shared" si="30"/>
         <v>61</v>
       </c>
       <c r="BB21" s="16">
-        <f>+AX21</f>
+        <f t="shared" si="30"/>
         <v>66</v>
       </c>
       <c r="BC21" s="16"/>
@@ -7013,35 +7015,35 @@
         <v>475</v>
       </c>
       <c r="BR21" s="16">
-        <f>SUM(AU21:AX21)</f>
+        <f t="shared" si="12"/>
         <v>276</v>
       </c>
       <c r="BS21" s="16">
-        <f>SUM(AY21:BB21)</f>
+        <f t="shared" si="13"/>
         <v>271</v>
       </c>
       <c r="BT21" s="16">
-        <f t="shared" ref="BR21:BY21" si="28">+BS21*0.9</f>
+        <f t="shared" ref="BT21:BY21" si="32">+BS21*0.9</f>
         <v>243.9</v>
       </c>
       <c r="BU21" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>219.51000000000002</v>
       </c>
       <c r="BV21" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>197.55900000000003</v>
       </c>
       <c r="BW21" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>177.80310000000003</v>
       </c>
       <c r="BX21" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>160.02279000000004</v>
       </c>
       <c r="BY21" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>144.02051100000006</v>
       </c>
     </row>
@@ -7191,35 +7193,35 @@
         <v>514</v>
       </c>
       <c r="BR22" s="16">
-        <f>SUM(AU22:AX22)</f>
+        <f t="shared" si="12"/>
         <v>432</v>
       </c>
       <c r="BS22" s="16">
-        <f>SUM(AY22:BB22)</f>
+        <f t="shared" si="13"/>
         <v>358</v>
       </c>
       <c r="BT22" s="16">
-        <f t="shared" ref="BS22:BY22" si="29">+BS22*0.9</f>
+        <f t="shared" ref="BT22:BY22" si="33">+BS22*0.9</f>
         <v>322.2</v>
       </c>
       <c r="BU22" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>289.98</v>
       </c>
       <c r="BV22" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>260.98200000000003</v>
       </c>
       <c r="BW22" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>234.88380000000004</v>
       </c>
       <c r="BX22" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>211.39542000000003</v>
       </c>
       <c r="BY22" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>190.25587800000002</v>
       </c>
     </row>
@@ -7369,11 +7371,11 @@
         <v>680</v>
       </c>
       <c r="BR23" s="16">
-        <f>SUM(AU23:AX23)</f>
+        <f t="shared" si="12"/>
         <v>815</v>
       </c>
       <c r="BS23" s="16">
-        <f>SUM(AY23:BB23)</f>
+        <f t="shared" si="13"/>
         <v>932.30000000000018</v>
       </c>
       <c r="BT23" s="16">
@@ -7555,35 +7557,35 @@
         <v>458</v>
       </c>
       <c r="BR24" s="16">
-        <f>SUM(AU24:AX24)</f>
+        <f t="shared" si="12"/>
         <v>468</v>
       </c>
       <c r="BS24" s="16">
-        <f>SUM(AY24:BB24)</f>
+        <f t="shared" si="13"/>
         <v>465</v>
       </c>
       <c r="BT24" s="16">
-        <f t="shared" ref="BS24:BY24" si="30">+BS24*0.9</f>
+        <f t="shared" ref="BT24:BY24" si="34">+BS24*0.9</f>
         <v>418.5</v>
       </c>
       <c r="BU24" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>376.65000000000003</v>
       </c>
       <c r="BV24" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>338.98500000000001</v>
       </c>
       <c r="BW24" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>305.0865</v>
       </c>
       <c r="BX24" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>274.57785000000001</v>
       </c>
       <c r="BY24" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>247.12006500000001</v>
       </c>
     </row>
@@ -7733,35 +7735,35 @@
         <v>346</v>
       </c>
       <c r="BR25" s="16">
-        <f>SUM(AU25:AX25)</f>
+        <f t="shared" si="12"/>
         <v>272</v>
       </c>
       <c r="BS25" s="16">
-        <f>SUM(AY25:BB25)</f>
+        <f t="shared" si="13"/>
         <v>230</v>
       </c>
       <c r="BT25" s="16">
-        <f t="shared" ref="BR25:BY25" si="31">+BS25*0.9</f>
+        <f t="shared" ref="BT25:BY25" si="35">+BS25*0.9</f>
         <v>207</v>
       </c>
       <c r="BU25" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>186.3</v>
       </c>
       <c r="BV25" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>167.67000000000002</v>
       </c>
       <c r="BW25" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>150.90300000000002</v>
       </c>
       <c r="BX25" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>135.81270000000004</v>
       </c>
       <c r="BY25" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>122.23143000000003</v>
       </c>
     </row>
@@ -7911,11 +7913,11 @@
         <v>158</v>
       </c>
       <c r="BR26" s="16">
-        <f>SUM(AU26:AX26)</f>
+        <f t="shared" si="12"/>
         <v>408</v>
       </c>
       <c r="BS26" s="16">
-        <f>SUM(AY26:BB26)</f>
+        <f t="shared" si="13"/>
         <v>575.6</v>
       </c>
       <c r="BT26" s="16">
@@ -8026,7 +8028,7 @@
       <c r="BQ27" s="16"/>
       <c r="BR27" s="16"/>
       <c r="BS27" s="16">
-        <f>SUM(AY27:BB27)</f>
+        <f t="shared" si="13"/>
         <v>445</v>
       </c>
       <c r="BT27" s="16">
@@ -8141,11 +8143,11 @@
       <c r="BP28" s="16"/>
       <c r="BQ28" s="16"/>
       <c r="BR28" s="16">
-        <f t="shared" ref="BR27:BR38" si="32">SUM(AU28:AX28)</f>
+        <f t="shared" ref="BR28:BR29" si="36">SUM(AU28:AX28)</f>
         <v>31</v>
       </c>
       <c r="BS28" s="16">
-        <f>SUM(AY28:BB28)</f>
+        <f t="shared" si="13"/>
         <v>126</v>
       </c>
       <c r="BT28" s="16"/>
@@ -8249,11 +8251,11 @@
       <c r="BP29" s="16"/>
       <c r="BQ29" s="16"/>
       <c r="BR29" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>472</v>
       </c>
       <c r="BS29" s="16">
-        <f>SUM(AY29:BB29)</f>
+        <f t="shared" si="13"/>
         <v>503</v>
       </c>
       <c r="BT29" s="16"/>
@@ -9994,11 +9996,11 @@
         <v>423</v>
       </c>
       <c r="BN44" s="16">
-        <f t="shared" ref="BN44" si="33">SUM(AE44:AH44)</f>
+        <f t="shared" ref="BN44" si="37">SUM(AE44:AH44)</f>
         <v>524</v>
       </c>
       <c r="BO44" s="16">
-        <f t="shared" ref="BO44" si="34">SUM(AI44:AL44)</f>
+        <f t="shared" ref="BO44" si="38">SUM(AI44:AL44)</f>
         <v>3647</v>
       </c>
       <c r="BP44" s="16">
@@ -10018,27 +10020,27 @@
         <v>3088</v>
       </c>
       <c r="BT44" s="16">
-        <f t="shared" ref="BS44:BY44" si="35">+BS44*0.9</f>
+        <f t="shared" ref="BT44:BY44" si="39">+BS44*0.9</f>
         <v>2779.2000000000003</v>
       </c>
       <c r="BU44" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2501.2800000000002</v>
       </c>
       <c r="BV44" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2251.152</v>
       </c>
       <c r="BW44" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2026.0368000000001</v>
       </c>
       <c r="BX44" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1823.4331200000001</v>
       </c>
       <c r="BY44" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1641.0898080000002</v>
       </c>
     </row>
@@ -10093,111 +10095,111 @@
         <v>7934</v>
       </c>
       <c r="AB45" s="18">
-        <f t="shared" ref="AB45:BB45" si="36">SUM(AB5:AB44)</f>
+        <f t="shared" ref="AB45:BB45" si="40">SUM(AB5:AB44)</f>
         <v>8258</v>
       </c>
       <c r="AC45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8236</v>
       </c>
       <c r="AD45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8305</v>
       </c>
       <c r="AE45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>7828</v>
       </c>
       <c r="AF45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8255</v>
       </c>
       <c r="AG45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8479</v>
       </c>
       <c r="AH45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8704</v>
       </c>
       <c r="AI45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8619</v>
       </c>
       <c r="AJ45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>10425</v>
       </c>
       <c r="AK45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>12882</v>
       </c>
       <c r="AL45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13858</v>
       </c>
       <c r="AM45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>12935</v>
       </c>
       <c r="AN45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13959</v>
       </c>
       <c r="AO45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>14342</v>
       </c>
       <c r="AP45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>14886</v>
       </c>
       <c r="AQ45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13538</v>
       </c>
       <c r="AR45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>14583</v>
       </c>
       <c r="AS45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>14812</v>
       </c>
       <c r="AT45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>15121</v>
       </c>
       <c r="AU45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>12225</v>
       </c>
       <c r="AV45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13865</v>
       </c>
       <c r="AW45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13927</v>
       </c>
       <c r="AX45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>14301</v>
       </c>
       <c r="AY45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>12310</v>
       </c>
       <c r="AZ45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>12705.94</v>
       </c>
       <c r="BA45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13380.489999999998</v>
       </c>
       <c r="BB45" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13816.44</v>
       </c>
       <c r="BC45" s="18"/>
@@ -10211,55 +10213,55 @@
       <c r="BK45" s="18"/>
       <c r="BL45" s="18"/>
       <c r="BM45" s="18">
-        <f t="shared" ref="BM45:BY45" si="37">SUM(BM5:BM44)</f>
+        <f t="shared" ref="BM45:BY45" si="41">SUM(BM5:BM44)</f>
         <v>32733</v>
       </c>
       <c r="BN45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>33266</v>
       </c>
       <c r="BO45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>45784</v>
       </c>
       <c r="BP45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>56122</v>
       </c>
       <c r="BQ45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>57838</v>
       </c>
       <c r="BR45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>54318</v>
       </c>
       <c r="BS45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>52212.87</v>
       </c>
       <c r="BT45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>52825.623500000002</v>
       </c>
       <c r="BU45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>51380.336075000014</v>
       </c>
       <c r="BV45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>50450.673905749994</v>
       </c>
       <c r="BW45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>48592.078552347499</v>
       </c>
       <c r="BX45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>47979.991127764188</v>
       </c>
       <c r="BY45" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>34222.065928328389</v>
       </c>
     </row>
@@ -10409,19 +10411,19 @@
         <v>6362</v>
       </c>
       <c r="BN46" s="16">
-        <f t="shared" ref="BN46" si="38">SUM(AE46:AH46)</f>
+        <f t="shared" ref="BN46" si="42">SUM(AE46:AH46)</f>
         <v>5860</v>
       </c>
       <c r="BO46" s="16">
-        <f t="shared" ref="BO46" si="39">SUM(AI46:AL46)</f>
+        <f t="shared" ref="BO46" si="43">SUM(AI46:AL46)</f>
         <v>8175</v>
       </c>
       <c r="BP46" s="16">
-        <f t="shared" ref="BP46" si="40">SUM(AM46:AP46)</f>
+        <f t="shared" ref="BP46" si="44">SUM(AM46:AP46)</f>
         <v>9425</v>
       </c>
       <c r="BQ46" s="16">
-        <f t="shared" ref="BQ46" si="41">SUM(AQ46:AT46)</f>
+        <f t="shared" ref="BQ46" si="45">SUM(AQ46:AT46)</f>
         <v>8705.15</v>
       </c>
       <c r="BR46" s="16">
@@ -10429,31 +10431,31 @@
         <v>8646</v>
       </c>
       <c r="BS46" s="16">
-        <f t="shared" ref="BS46:BY46" si="42">+BS45-BS47</f>
+        <f t="shared" ref="BS46:BY46" si="46">+BS45-BS47</f>
         <v>7831.9305000000022</v>
       </c>
       <c r="BT46" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>7923.8435250000039</v>
       </c>
       <c r="BU46" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>7707.0504112500057</v>
       </c>
       <c r="BV46" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>7567.6010858625013</v>
       </c>
       <c r="BW46" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>7288.8117828521281</v>
       </c>
       <c r="BX46" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>7196.9986691646263</v>
       </c>
       <c r="BY46" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5133.3098892492599</v>
       </c>
     </row>
@@ -10491,91 +10493,91 @@
       <c r="U47" s="16"/>
       <c r="V47" s="16"/>
       <c r="W47" s="16">
-        <f t="shared" ref="W47" si="43">+W45-W46</f>
+        <f t="shared" ref="W47" si="47">+W45-W46</f>
         <v>5225</v>
       </c>
       <c r="X47" s="16">
-        <f t="shared" ref="X47:Y47" si="44">+X45-X46</f>
+        <f t="shared" ref="X47:Y47" si="48">+X45-X46</f>
         <v>5415</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>5653</v>
       </c>
       <c r="Z47" s="16">
-        <f t="shared" ref="Z47" si="45">+Z45-Z46</f>
+        <f t="shared" ref="Z47" si="49">+Z45-Z46</f>
         <v>6113</v>
       </c>
       <c r="AA47" s="16">
-        <f t="shared" ref="AA47:AF47" si="46">+AA45-AA46</f>
+        <f t="shared" ref="AA47:AF47" si="50">+AA45-AA46</f>
         <v>6362</v>
       </c>
       <c r="AB47" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>6651</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>6727</v>
       </c>
       <c r="AD47" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>6631</v>
       </c>
       <c r="AE47" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>6525</v>
       </c>
       <c r="AF47" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>6828</v>
       </c>
       <c r="AG47" s="16">
-        <f t="shared" ref="AG47:AH47" si="47">AG45-AG46</f>
+        <f t="shared" ref="AG47:AH47" si="51">AG45-AG46</f>
         <v>6954</v>
       </c>
       <c r="AH47" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>7099</v>
       </c>
       <c r="AI47" s="16">
-        <f t="shared" ref="AI47:AJ47" si="48">AI45-AI46</f>
+        <f t="shared" ref="AI47:AJ47" si="52">AI45-AI46</f>
         <v>7125</v>
       </c>
       <c r="AJ47" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>8629</v>
       </c>
       <c r="AK47" s="16">
-        <f t="shared" ref="AK47:AQ47" si="49">AK45-AK46</f>
+        <f t="shared" ref="AK47:AQ47" si="53">AK45-AK46</f>
         <v>10520</v>
       </c>
       <c r="AL47" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>11335</v>
       </c>
       <c r="AM47" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>10850</v>
       </c>
       <c r="AN47" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>11480</v>
       </c>
       <c r="AO47" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>11929</v>
       </c>
       <c r="AP47" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>12438</v>
       </c>
       <c r="AQ47" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>11435</v>
       </c>
       <c r="AR47" s="16">
-        <f t="shared" ref="AR47" si="50">AR45-AR46</f>
+        <f t="shared" ref="AR47" si="54">AR45-AR46</f>
         <v>12416</v>
       </c>
       <c r="AS47" s="16">
@@ -10629,15 +10631,15 @@
       <c r="BK47" s="16"/>
       <c r="BL47" s="16"/>
       <c r="BM47" s="16">
-        <f t="shared" ref="BM47:BO47" si="51">+BM45-BM46</f>
+        <f t="shared" ref="BM47:BO47" si="55">+BM45-BM46</f>
         <v>26371</v>
       </c>
       <c r="BN47" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>27406</v>
       </c>
       <c r="BO47" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>37609</v>
       </c>
       <c r="BP47" s="16">
@@ -10653,31 +10655,31 @@
         <v>45672</v>
       </c>
       <c r="BS47" s="16">
-        <f t="shared" ref="BS47:BY47" si="52">+BS45*0.85</f>
+        <f t="shared" ref="BS47:BY47" si="56">+BS45*0.85</f>
         <v>44380.9395</v>
       </c>
       <c r="BT47" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>44901.779974999998</v>
       </c>
       <c r="BU47" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>43673.285663750008</v>
       </c>
       <c r="BV47" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>42883.072819887493</v>
       </c>
       <c r="BW47" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>41303.266769495371</v>
       </c>
       <c r="BX47" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>40782.992458599561</v>
       </c>
       <c r="BY47" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>29088.75603907913</v>
       </c>
     </row>
@@ -10827,19 +10829,19 @@
         <v>6685</v>
       </c>
       <c r="BN48" s="16">
-        <f t="shared" ref="BN48:BN49" si="53">SUM(AE48:AH48)</f>
+        <f t="shared" ref="BN48:BN49" si="57">SUM(AE48:AH48)</f>
         <v>6687</v>
       </c>
       <c r="BO48" s="16">
-        <f t="shared" ref="BO48:BO49" si="54">SUM(AI48:AL48)</f>
+        <f t="shared" ref="BO48:BO49" si="58">SUM(AI48:AL48)</f>
         <v>9803</v>
       </c>
       <c r="BP48" s="16">
-        <f t="shared" ref="BP48:BP49" si="55">SUM(AM48:AP48)</f>
+        <f t="shared" ref="BP48:BP49" si="59">SUM(AM48:AP48)</f>
         <v>11964</v>
       </c>
       <c r="BQ48" s="16">
-        <f t="shared" ref="BQ48:BQ49" si="56">SUM(AQ48:AT48)</f>
+        <f t="shared" ref="BQ48:BQ49" si="60">SUM(AQ48:AT48)</f>
         <v>12370.07</v>
       </c>
       <c r="BR48" s="16">
@@ -10851,27 +10853,27 @@
         <v>12941.28</v>
       </c>
       <c r="BT48" s="16">
-        <f t="shared" ref="BS48:BY48" si="57">+BT45*0.2</f>
+        <f t="shared" ref="BT48:BY48" si="61">+BT45*0.2</f>
         <v>10565.1247</v>
       </c>
       <c r="BU48" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>10276.067215000003</v>
       </c>
       <c r="BV48" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>10090.13478115</v>
       </c>
       <c r="BW48" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>9718.4157104695005</v>
       </c>
       <c r="BX48" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>9595.9982255528375</v>
       </c>
       <c r="BY48" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>6844.4131856656786</v>
       </c>
     </row>
@@ -11021,19 +11023,19 @@
         <v>5093</v>
       </c>
       <c r="BN49" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>4989</v>
       </c>
       <c r="BO49" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>5830</v>
       </c>
       <c r="BP49" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>6518</v>
       </c>
       <c r="BQ49" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>6509.98</v>
       </c>
       <c r="BR49" s="16">
@@ -11084,115 +11086,115 @@
       <c r="U50" s="16"/>
       <c r="V50" s="16"/>
       <c r="W50" s="16">
-        <f t="shared" ref="W50" si="58">+W48+W49</f>
+        <f t="shared" ref="W50" si="62">+W48+W49</f>
         <v>2472</v>
       </c>
       <c r="X50" s="16">
-        <f t="shared" ref="X50:Y50" si="59">+X48+X49</f>
+        <f t="shared" ref="X50:Y50" si="63">+X48+X49</f>
         <v>2738</v>
       </c>
       <c r="Y50" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>2649</v>
       </c>
       <c r="Z50" s="16">
-        <f t="shared" ref="Z50" si="60">+Z48+Z49</f>
+        <f t="shared" ref="Z50" si="64">+Z48+Z49</f>
         <v>2974</v>
       </c>
       <c r="AA50" s="16">
-        <f t="shared" ref="AA50:AF50" si="61">+AA48+AA49</f>
+        <f t="shared" ref="AA50:AF50" si="65">+AA48+AA49</f>
         <v>2859</v>
       </c>
       <c r="AB50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2910</v>
       </c>
       <c r="AC50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2843</v>
       </c>
       <c r="AD50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>3166</v>
       </c>
       <c r="AE50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2762</v>
       </c>
       <c r="AF50" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2852</v>
       </c>
       <c r="AG50" s="16">
-        <f t="shared" ref="AG50:AH50" si="62">AG49+AG48</f>
+        <f t="shared" ref="AG50:AH50" si="66">AG49+AG48</f>
         <v>2848</v>
       </c>
       <c r="AH50" s="16">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>3214</v>
       </c>
       <c r="AI50" s="16">
-        <f t="shared" ref="AI50:AJ50" si="63">AI49+AI48</f>
+        <f t="shared" ref="AI50:AJ50" si="67">AI49+AI48</f>
         <v>2833</v>
       </c>
       <c r="AJ50" s="16">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>3724</v>
       </c>
       <c r="AK50" s="16">
-        <f t="shared" ref="AK50:AQ50" si="64">AK49+AK48</f>
+        <f t="shared" ref="AK50:AQ50" si="68">AK49+AK48</f>
         <v>4236</v>
       </c>
       <c r="AL50" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>4840</v>
       </c>
       <c r="AM50" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>4248</v>
       </c>
       <c r="AN50" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>4536</v>
       </c>
       <c r="AO50" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>4593</v>
       </c>
       <c r="AP50" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>5105</v>
       </c>
       <c r="AQ50" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>4332</v>
       </c>
       <c r="AR50" s="16">
-        <f t="shared" ref="AR50:AT50" si="65">AR49+AR48</f>
+        <f t="shared" ref="AR50:AT50" si="69">AR49+AR48</f>
         <v>4696</v>
       </c>
       <c r="AS50" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>4696</v>
       </c>
       <c r="AT50" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>5156.05</v>
       </c>
       <c r="AU50" s="16">
-        <f t="shared" ref="AU50:AX50" si="66">AU49+AU48</f>
+        <f t="shared" ref="AU50:AX50" si="70">AU49+AU48</f>
         <v>4641</v>
       </c>
       <c r="AV50" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>4948</v>
       </c>
       <c r="AW50" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>5050</v>
       </c>
       <c r="AX50" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>5532</v>
       </c>
       <c r="AY50" s="16">
@@ -11200,15 +11202,15 @@
         <v>4843</v>
       </c>
       <c r="AZ50" s="16">
-        <f t="shared" ref="AZ50:BB50" si="67">+AZ48+AZ49</f>
+        <f t="shared" ref="AZ50:BB50" si="71">+AZ48+AZ49</f>
         <v>4883.6399999999994</v>
       </c>
       <c r="BA50" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>4983.3999999999996</v>
       </c>
       <c r="BB50" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>5461.2</v>
       </c>
       <c r="BC50" s="16"/>
@@ -11222,15 +11224,15 @@
       <c r="BK50" s="16"/>
       <c r="BL50" s="16"/>
       <c r="BM50" s="16">
-        <f t="shared" ref="BM50" si="68">+BM48+BM49</f>
+        <f t="shared" ref="BM50" si="72">+BM48+BM49</f>
         <v>11778</v>
       </c>
       <c r="BN50" s="16">
-        <f t="shared" ref="BN50:BO50" si="69">+BN48+BN49</f>
+        <f t="shared" ref="BN50:BO50" si="73">+BN48+BN49</f>
         <v>11676</v>
       </c>
       <c r="BO50" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>15633</v>
       </c>
       <c r="BP50" s="16">
@@ -11242,35 +11244,35 @@
         <v>18880.05</v>
       </c>
       <c r="BR50" s="16">
-        <f t="shared" ref="BR50:BY50" si="70">+BR48+BR49</f>
+        <f t="shared" ref="BR50:BY50" si="74">+BR48+BR49</f>
         <v>20171</v>
       </c>
       <c r="BS50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>19969.29</v>
       </c>
       <c r="BT50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10565.1247</v>
       </c>
       <c r="BU50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10276.067215000003</v>
       </c>
       <c r="BV50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>10090.13478115</v>
       </c>
       <c r="BW50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>9718.4157104695005</v>
       </c>
       <c r="BX50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>9595.9982255528375</v>
       </c>
       <c r="BY50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>6844.4131856656786</v>
       </c>
     </row>
@@ -11308,115 +11310,115 @@
       <c r="U51" s="16"/>
       <c r="V51" s="16"/>
       <c r="W51" s="16">
-        <f t="shared" ref="W51" si="71">+W47-W50</f>
+        <f t="shared" ref="W51" si="75">+W47-W50</f>
         <v>2753</v>
       </c>
       <c r="X51" s="16">
-        <f t="shared" ref="X51:Y51" si="72">+X47-X50</f>
+        <f t="shared" ref="X51:Y51" si="76">+X47-X50</f>
         <v>2677</v>
       </c>
       <c r="Y51" s="16">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>3004</v>
       </c>
       <c r="Z51" s="16">
-        <f t="shared" ref="Z51" si="73">+Z47-Z50</f>
+        <f t="shared" ref="Z51" si="77">+Z47-Z50</f>
         <v>3139</v>
       </c>
       <c r="AA51" s="16">
-        <f t="shared" ref="AA51:AF51" si="74">+AA47-AA50</f>
+        <f t="shared" ref="AA51:AF51" si="78">+AA47-AA50</f>
         <v>3503</v>
       </c>
       <c r="AB51" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>3741</v>
       </c>
       <c r="AC51" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>3884</v>
       </c>
       <c r="AD51" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>3465</v>
       </c>
       <c r="AE51" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>3763</v>
       </c>
       <c r="AF51" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>3976</v>
       </c>
       <c r="AG51" s="16">
-        <f t="shared" ref="AG51:AH51" si="75">AG47-AG50</f>
+        <f t="shared" ref="AG51:AH51" si="79">AG47-AG50</f>
         <v>4106</v>
       </c>
       <c r="AH51" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>3885</v>
       </c>
       <c r="AI51" s="16">
-        <f t="shared" ref="AI51:AJ51" si="76">AI47-AI50</f>
+        <f t="shared" ref="AI51:AJ51" si="80">AI47-AI50</f>
         <v>4292</v>
       </c>
       <c r="AJ51" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>4905</v>
       </c>
       <c r="AK51" s="16">
-        <f t="shared" ref="AK51:AQ51" si="77">AK47-AK50</f>
+        <f t="shared" ref="AK51:AQ51" si="81">AK47-AK50</f>
         <v>6284</v>
       </c>
       <c r="AL51" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>6495</v>
       </c>
       <c r="AM51" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>6602</v>
       </c>
       <c r="AN51" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>6944</v>
       </c>
       <c r="AO51" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>7336</v>
       </c>
       <c r="AP51" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>7333</v>
       </c>
       <c r="AQ51" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>7103</v>
       </c>
       <c r="AR51" s="16">
-        <f t="shared" ref="AR51:AT51" si="78">AR47-AR50</f>
+        <f t="shared" ref="AR51:AT51" si="82">AR47-AR50</f>
         <v>7720</v>
       </c>
       <c r="AS51" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>7949</v>
       </c>
       <c r="AT51" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>7696.8</v>
       </c>
       <c r="AU51" s="16">
-        <f t="shared" ref="AU51:AX51" si="79">AU47-AU50</f>
+        <f t="shared" ref="AU51:AX51" si="83">AU47-AU50</f>
         <v>5653</v>
       </c>
       <c r="AV51" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>6800</v>
       </c>
       <c r="AW51" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>6576</v>
       </c>
       <c r="AX51" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="83"/>
         <v>6472</v>
       </c>
       <c r="AY51" s="16">
@@ -11424,15 +11426,15 @@
         <v>5359</v>
       </c>
       <c r="AZ51" s="16">
-        <f t="shared" ref="AZ51:BB51" si="80">+AZ47-AZ50</f>
+        <f t="shared" ref="AZ51:BB51" si="84">+AZ47-AZ50</f>
         <v>5662.2902000000013</v>
       </c>
       <c r="BA51" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>6122.4066999999977</v>
       </c>
       <c r="BB51" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>6006.4451999999992</v>
       </c>
       <c r="BC51" s="16"/>
@@ -11446,15 +11448,15 @@
       <c r="BK51" s="16"/>
       <c r="BL51" s="16"/>
       <c r="BM51" s="16">
-        <f t="shared" ref="BM51" si="81">+BM47-BM50</f>
+        <f t="shared" ref="BM51" si="85">+BM47-BM50</f>
         <v>14593</v>
       </c>
       <c r="BN51" s="16">
-        <f t="shared" ref="BN51:BO51" si="82">+BN47-BN50</f>
+        <f t="shared" ref="BN51:BO51" si="86">+BN47-BN50</f>
         <v>15730</v>
       </c>
       <c r="BO51" s="16">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>21976</v>
       </c>
       <c r="BP51" s="16">
@@ -11466,35 +11468,35 @@
         <v>30252.799999999999</v>
       </c>
       <c r="BR51" s="16">
-        <f t="shared" ref="BR51:BY51" si="83">+BR47-BR50</f>
+        <f t="shared" ref="BR51:BY51" si="87">+BR47-BR50</f>
         <v>25501</v>
       </c>
       <c r="BS51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>24411.6495</v>
       </c>
       <c r="BT51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>34336.655274999997</v>
       </c>
       <c r="BU51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>33397.218448750005</v>
       </c>
       <c r="BV51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>32792.938038737491</v>
       </c>
       <c r="BW51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>31584.85105902587</v>
       </c>
       <c r="BX51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>31186.994233046724</v>
       </c>
       <c r="BY51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>22244.342853413451</v>
       </c>
     </row>
@@ -11662,23 +11664,23 @@
       <c r="BK52" s="16"/>
       <c r="BL52" s="16"/>
       <c r="BM52" s="16">
-        <f t="shared" ref="BM52:BM54" si="84">SUM(AA52:AD52)</f>
+        <f t="shared" ref="BM52:BM54" si="88">SUM(AA52:AD52)</f>
         <v>-1150</v>
       </c>
       <c r="BN52" s="16">
-        <f t="shared" ref="BN52" si="85">SUM(AE52:AH52)</f>
+        <f t="shared" ref="BN52" si="89">SUM(AE52:AH52)</f>
         <v>-1142</v>
       </c>
       <c r="BO52" s="16">
-        <f t="shared" ref="BO52" si="86">SUM(AI52:AL52)</f>
+        <f t="shared" ref="BO52" si="90">SUM(AI52:AL52)</f>
         <v>439</v>
       </c>
       <c r="BP52" s="16">
-        <f t="shared" ref="BP52" si="87">SUM(AM52:AP52)</f>
+        <f t="shared" ref="BP52" si="91">SUM(AM52:AP52)</f>
         <v>-2384</v>
       </c>
       <c r="BQ52" s="16">
-        <f t="shared" ref="BQ52" si="88">SUM(AQ52:AT52)</f>
+        <f t="shared" ref="BQ52" si="92">SUM(AQ52:AT52)</f>
         <v>-1552</v>
       </c>
       <c r="BR52" s="16">
@@ -11686,31 +11688,31 @@
         <v>-977</v>
       </c>
       <c r="BS52" s="16">
-        <f t="shared" ref="BS52:BY52" si="89">+BR52+300</f>
+        <f t="shared" ref="BS52:BY52" si="93">+BR52+300</f>
         <v>-677</v>
       </c>
       <c r="BT52" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>-377</v>
       </c>
       <c r="BU52" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>-77</v>
       </c>
       <c r="BV52" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>223</v>
       </c>
       <c r="BW52" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>523</v>
       </c>
       <c r="BX52" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>823</v>
       </c>
       <c r="BY52" s="16">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>1123</v>
       </c>
     </row>
@@ -11748,115 +11750,115 @@
       <c r="U53" s="16"/>
       <c r="V53" s="16"/>
       <c r="W53" s="16">
-        <f t="shared" ref="W53" si="90">+W51+W52</f>
+        <f t="shared" ref="W53" si="94">+W51+W52</f>
         <v>2531</v>
       </c>
       <c r="X53" s="16">
-        <f t="shared" ref="X53:Y53" si="91">+X51+X52</f>
+        <f t="shared" ref="X53:Y53" si="95">+X51+X52</f>
         <v>2424</v>
       </c>
       <c r="Y53" s="16">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>2815</v>
       </c>
       <c r="Z53" s="16">
-        <f t="shared" ref="Z53:AF53" si="92">+Z51+Z52</f>
+        <f t="shared" ref="Z53:AF53" si="96">+Z51+Z52</f>
         <v>2949</v>
       </c>
       <c r="AA53" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>3257</v>
       </c>
       <c r="AB53" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>3454</v>
       </c>
       <c r="AC53" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>3581</v>
       </c>
       <c r="AD53" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>3151</v>
       </c>
       <c r="AE53" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>3472</v>
       </c>
       <c r="AF53" s="16">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>3700</v>
       </c>
       <c r="AG53" s="16">
-        <f t="shared" ref="AG53:AH53" si="93">AG51+AG52</f>
+        <f t="shared" ref="AG53:AH53" si="97">AG51+AG52</f>
         <v>3802</v>
       </c>
       <c r="AH53" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>3614</v>
       </c>
       <c r="AI53" s="16">
-        <f t="shared" ref="AI53:AJ53" si="94">AI51+AI52</f>
+        <f t="shared" ref="AI53:AJ53" si="98">AI51+AI52</f>
         <v>4003</v>
       </c>
       <c r="AJ53" s="16">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>4395</v>
       </c>
       <c r="AK53" s="16">
-        <f t="shared" ref="AK53:AQ53" si="95">AK51+AK52</f>
+        <f t="shared" ref="AK53:AQ53" si="99">AK51+AK52</f>
         <v>6904</v>
       </c>
       <c r="AL53" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>7113</v>
       </c>
       <c r="AM53" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>5980</v>
       </c>
       <c r="AN53" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>6338</v>
       </c>
       <c r="AO53" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>6751</v>
       </c>
       <c r="AP53" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>6762</v>
       </c>
       <c r="AQ53" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>6592</v>
       </c>
       <c r="AR53" s="16">
-        <f t="shared" ref="AR53:AT53" si="96">AR51+AR52</f>
+        <f t="shared" ref="AR53:AT53" si="100">AR51+AR52</f>
         <v>7433</v>
       </c>
       <c r="AS53" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>7572</v>
       </c>
       <c r="AT53" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>7319.8</v>
       </c>
       <c r="AU53" s="16">
-        <f t="shared" ref="AU53:AX53" si="97">AU51+AU52</f>
+        <f t="shared" ref="AU53:AX53" si="101">AU51+AU52</f>
         <v>5722</v>
       </c>
       <c r="AV53" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>6227</v>
       </c>
       <c r="AW53" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>6324</v>
       </c>
       <c r="AX53" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>6251</v>
       </c>
       <c r="AY53" s="16">
@@ -11886,15 +11888,15 @@
       <c r="BK53" s="16"/>
       <c r="BL53" s="16"/>
       <c r="BM53" s="16">
-        <f t="shared" ref="BM53:BO53" si="98">+BM51+BM52</f>
+        <f t="shared" ref="BM53:BO53" si="102">+BM51+BM52</f>
         <v>13443</v>
       </c>
       <c r="BN53" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>14588</v>
       </c>
       <c r="BO53" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>22415</v>
       </c>
       <c r="BP53" s="16">
@@ -11906,35 +11908,35 @@
         <v>28700.799999999999</v>
       </c>
       <c r="BR53" s="16">
-        <f t="shared" ref="BR53:BY53" si="99">+BR51+BR52</f>
+        <f t="shared" ref="BR53:BY53" si="103">+BR51+BR52</f>
         <v>24524</v>
       </c>
       <c r="BS53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>23734.6495</v>
       </c>
       <c r="BT53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>33959.655274999997</v>
       </c>
       <c r="BU53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>33320.218448750005</v>
       </c>
       <c r="BV53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>33015.938038737491</v>
       </c>
       <c r="BW53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>32107.85105902587</v>
       </c>
       <c r="BX53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>32009.994233046724</v>
       </c>
       <c r="BY53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>23367.342853413451</v>
       </c>
     </row>
@@ -12086,23 +12088,23 @@
       <c r="BK54" s="16"/>
       <c r="BL54" s="16"/>
       <c r="BM54" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>1175</v>
       </c>
       <c r="BN54" s="16">
-        <f t="shared" ref="BN54" si="100">SUM(AE54:AH54)</f>
+        <f t="shared" ref="BN54" si="104">SUM(AE54:AH54)</f>
         <v>1252</v>
       </c>
       <c r="BO54" s="16">
-        <f t="shared" ref="BO54" si="101">SUM(AI54:AL54)</f>
+        <f t="shared" ref="BO54" si="105">SUM(AI54:AL54)</f>
         <v>2245</v>
       </c>
       <c r="BP54" s="16">
-        <f t="shared" ref="BP54" si="102">SUM(AM54:AP54)</f>
+        <f t="shared" ref="BP54" si="106">SUM(AM54:AP54)</f>
         <v>3248</v>
       </c>
       <c r="BQ54" s="16">
-        <f t="shared" ref="BQ54" si="103">SUM(AQ54:AT54)</f>
+        <f t="shared" ref="BQ54" si="107">SUM(AQ54:AT54)</f>
         <v>3805.9700000000003</v>
       </c>
       <c r="BR54" s="16">
@@ -12110,31 +12112,31 @@
         <v>1932</v>
       </c>
       <c r="BS54" s="16">
-        <f t="shared" ref="BS54:BY54" si="104">+BS53*0.15</f>
+        <f t="shared" ref="BS54:BY54" si="108">+BS53*0.15</f>
         <v>3560.1974249999998</v>
       </c>
       <c r="BT54" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>5093.9482912499998</v>
       </c>
       <c r="BU54" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>4998.0327673125003</v>
       </c>
       <c r="BV54" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>4952.3907058106233</v>
       </c>
       <c r="BW54" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>4816.1776588538805</v>
       </c>
       <c r="BX54" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>4801.4991349570082</v>
       </c>
       <c r="BY54" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>3505.1014280120175</v>
       </c>
     </row>
@@ -12172,131 +12174,131 @@
       <c r="U55" s="16"/>
       <c r="V55" s="16"/>
       <c r="W55" s="16">
-        <f t="shared" ref="W55" si="105">+W53-W54</f>
+        <f t="shared" ref="W55" si="109">+W53-W54</f>
         <v>2073</v>
       </c>
       <c r="X55" s="16">
-        <f t="shared" ref="X55:Y55" si="106">+X53-X54</f>
+        <f t="shared" ref="X55:Y55" si="110">+X53-X54</f>
         <v>1986</v>
       </c>
       <c r="Y55" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>2282</v>
       </c>
       <c r="Z55" s="16">
-        <f t="shared" ref="Z55" si="107">+Z53-Z54</f>
+        <f t="shared" ref="Z55" si="111">+Z53-Z54</f>
         <v>2393</v>
       </c>
       <c r="AA55" s="16">
-        <f t="shared" ref="AA55:AF55" si="108">+AA53-AA54</f>
+        <f t="shared" ref="AA55:AF55" si="112">+AA53-AA54</f>
         <v>3008</v>
       </c>
       <c r="AB55" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>3143</v>
       </c>
       <c r="AC55" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>3255</v>
       </c>
       <c r="AD55" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>2862</v>
       </c>
       <c r="AE55" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>3198</v>
       </c>
       <c r="AF55" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>3376</v>
       </c>
       <c r="AG55" s="16">
-        <f t="shared" ref="AG55:AH55" si="109">AG53-AG54</f>
+        <f t="shared" ref="AG55:AH55" si="113">AG53-AG54</f>
         <v>3468</v>
       </c>
       <c r="AH55" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>3294</v>
       </c>
       <c r="AI55" s="16">
-        <f t="shared" ref="AI55:AJ55" si="110">AI53-AI54</f>
+        <f t="shared" ref="AI55:AJ55" si="114">AI53-AI54</f>
         <v>3613</v>
       </c>
       <c r="AJ55" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>3894</v>
       </c>
       <c r="AK55" s="16">
-        <f t="shared" ref="AK55:AQ55" si="111">AK53-AK54</f>
+        <f t="shared" ref="AK55:AQ55" si="115">AK53-AK54</f>
         <v>6236</v>
       </c>
       <c r="AL55" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>6427</v>
       </c>
       <c r="AM55" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>5242</v>
       </c>
       <c r="AN55" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>5536</v>
       </c>
       <c r="AO55" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>5888</v>
       </c>
       <c r="AP55" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>5917</v>
       </c>
       <c r="AQ55" s="16">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>5814</v>
       </c>
       <c r="AR55" s="16">
-        <f t="shared" ref="AR55:AT55" si="112">AR53-AR54</f>
+        <f t="shared" ref="AR55:AT55" si="116">AR53-AR54</f>
         <v>6468</v>
       </c>
       <c r="AS55" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>6607</v>
       </c>
       <c r="AT55" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>6221.83</v>
       </c>
       <c r="AU55" s="16">
-        <f t="shared" ref="AU55:AZ55" si="113">AU53-AU54</f>
+        <f t="shared" ref="AU55:AZ55" si="117">AU53-AU54</f>
         <v>4941</v>
       </c>
       <c r="AV55" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>5641</v>
       </c>
       <c r="AW55" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>6149</v>
       </c>
       <c r="AX55" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>5861</v>
       </c>
       <c r="AY55" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>4291</v>
       </c>
       <c r="AZ55" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>4778.3611800000008</v>
       </c>
       <c r="BA55" s="16">
-        <f t="shared" ref="BA55:BB55" si="114">BA53-BA54</f>
+        <f t="shared" ref="BA55:BB55" si="118">BA53-BA54</f>
         <v>5192.4660299999978</v>
       </c>
       <c r="BB55" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>5088.1006799999996</v>
       </c>
       <c r="BC55" s="16"/>
@@ -12310,15 +12312,15 @@
       <c r="BK55" s="16"/>
       <c r="BL55" s="16"/>
       <c r="BM55" s="16">
-        <f t="shared" ref="BM55:BO55" si="115">+BM53-BM54</f>
+        <f t="shared" ref="BM55:BO55" si="119">+BM53-BM54</f>
         <v>12268</v>
       </c>
       <c r="BN55" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>13336</v>
       </c>
       <c r="BO55" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>20170</v>
       </c>
       <c r="BP55" s="16">
@@ -12334,31 +12336,31 @@
         <v>22592</v>
       </c>
       <c r="BS55" s="16">
-        <f t="shared" ref="BS55:BY55" si="116">+BS53-BS54</f>
+        <f t="shared" ref="BS55:BY55" si="120">+BS53-BS54</f>
         <v>20174.452075000001</v>
       </c>
       <c r="BT55" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>28865.706983749998</v>
       </c>
       <c r="BU55" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>28322.185681437506</v>
       </c>
       <c r="BV55" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>28063.547332926868</v>
       </c>
       <c r="BW55" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>27291.673400171989</v>
       </c>
       <c r="BX55" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>27208.495098089716</v>
       </c>
       <c r="BY55" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>19862.241425401433</v>
       </c>
       <c r="BZ55" s="15">
@@ -12366,507 +12368,507 @@
         <v>19663.619011147417</v>
       </c>
       <c r="CA55" s="15">
-        <f t="shared" ref="CA55:EL55" si="117">BZ55*(1+$CB$58)</f>
+        <f t="shared" ref="CA55:EL55" si="121">BZ55*(1+$CB$58)</f>
         <v>19466.982821035941</v>
       </c>
       <c r="CB55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>19272.31299282558</v>
       </c>
       <c r="CC55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>19079.589862897323</v>
       </c>
       <c r="CD55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>18888.793964268349</v>
       </c>
       <c r="CE55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>18699.906024625667</v>
       </c>
       <c r="CF55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>18512.90696437941</v>
       </c>
       <c r="CG55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>18327.777894735616</v>
       </c>
       <c r="CH55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>18144.500115788262</v>
       </c>
       <c r="CI55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>17963.055114630381</v>
       </c>
       <c r="CJ55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>17783.424563484077</v>
       </c>
       <c r="CK55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>17605.590317849237</v>
       </c>
       <c r="CL55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>17429.534414670743</v>
       </c>
       <c r="CM55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>17255.239070524036</v>
       </c>
       <c r="CN55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>17082.686679818795</v>
       </c>
       <c r="CO55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>16911.859813020608</v>
       </c>
       <c r="CP55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>16742.7412148904</v>
       </c>
       <c r="CQ55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>16575.313802741497</v>
       </c>
       <c r="CR55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>16409.560664714081</v>
       </c>
       <c r="CS55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>16245.46505806694</v>
       </c>
       <c r="CT55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>16083.01040748627</v>
       </c>
       <c r="CU55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>15922.180303411407</v>
       </c>
       <c r="CV55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>15762.958500377294</v>
       </c>
       <c r="CW55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>15605.32891537352</v>
       </c>
       <c r="CX55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>15449.275626219785</v>
       </c>
       <c r="CY55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>15294.782869957588</v>
       </c>
       <c r="CZ55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>15141.835041258011</v>
       </c>
       <c r="DA55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>14990.416690845432</v>
       </c>
       <c r="DB55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>14840.512523936977</v>
       </c>
       <c r="DC55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>14692.107398697608</v>
       </c>
       <c r="DD55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>14545.186324710632</v>
       </c>
       <c r="DE55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>14399.734461463526</v>
       </c>
       <c r="DF55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>14255.73711684889</v>
       </c>
       <c r="DG55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>14113.179745680402</v>
       </c>
       <c r="DH55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>13972.047948223597</v>
       </c>
       <c r="DI55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>13832.327468741361</v>
       </c>
       <c r="DJ55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>13694.004194053947</v>
       </c>
       <c r="DK55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>13557.064152113408</v>
       </c>
       <c r="DL55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>13421.493510592274</v>
       </c>
       <c r="DM55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>13287.278575486351</v>
       </c>
       <c r="DN55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>13154.405789731487</v>
       </c>
       <c r="DO55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>13022.861731834171</v>
       </c>
       <c r="DP55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>12892.633114515829</v>
       </c>
       <c r="DQ55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>12763.706783370671</v>
       </c>
       <c r="DR55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>12636.069715536965</v>
       </c>
       <c r="DS55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>12509.709018381596</v>
       </c>
       <c r="DT55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>12384.611928197781</v>
       </c>
       <c r="DU55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>12260.765808915803</v>
       </c>
       <c r="DV55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>12138.158150826644</v>
       </c>
       <c r="DW55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>12016.776569318377</v>
       </c>
       <c r="DX55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11896.608803625193</v>
       </c>
       <c r="DY55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11777.642715588941</v>
       </c>
       <c r="DZ55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11659.866288433052</v>
       </c>
       <c r="EA55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11543.26762554872</v>
       </c>
       <c r="EB55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11427.834949293234</v>
       </c>
       <c r="EC55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11313.556599800302</v>
       </c>
       <c r="ED55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11200.421033802299</v>
       </c>
       <c r="EE55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>11088.416823464275</v>
       </c>
       <c r="EF55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>10977.532655229632</v>
       </c>
       <c r="EG55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>10867.757328677335</v>
       </c>
       <c r="EH55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>10759.079755390561</v>
       </c>
       <c r="EI55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>10651.488957836656</v>
       </c>
       <c r="EJ55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>10544.974068258291</v>
       </c>
       <c r="EK55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>10439.524327575708</v>
       </c>
       <c r="EL55" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>10335.12908429995</v>
       </c>
       <c r="EM55" s="15">
-        <f t="shared" ref="EM55:GV55" si="118">EL55*(1+$CB$58)</f>
+        <f t="shared" ref="EM55:GV55" si="122">EL55*(1+$CB$58)</f>
         <v>10231.777793456949</v>
       </c>
       <c r="EN55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>10129.46001552238</v>
       </c>
       <c r="EO55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>10028.165415367155</v>
       </c>
       <c r="EP55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9927.883761213483</v>
       </c>
       <c r="EQ55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9828.6049236013478</v>
       </c>
       <c r="ER55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9730.3188743653336</v>
       </c>
       <c r="ES55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9633.0156856216799</v>
       </c>
       <c r="ET55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9536.6855287654635</v>
       </c>
       <c r="EU55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9441.3186734778083</v>
       </c>
       <c r="EV55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9346.9054867430295</v>
       </c>
       <c r="EW55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9253.4364318755997</v>
       </c>
       <c r="EX55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9160.9020675568445</v>
       </c>
       <c r="EY55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>9069.2930468812756</v>
       </c>
       <c r="EZ55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8978.6001164124627</v>
       </c>
       <c r="FA55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8888.8141152483386</v>
       </c>
       <c r="FB55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8799.9259740958551</v>
       </c>
       <c r="FC55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8711.9267143548968</v>
       </c>
       <c r="FD55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8624.8074472113476</v>
       </c>
       <c r="FE55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8538.5593727392334</v>
       </c>
       <c r="FF55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8453.1737790118405</v>
       </c>
       <c r="FG55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8368.6420412217212</v>
       </c>
       <c r="FH55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8284.9556208095037</v>
       </c>
       <c r="FI55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8202.1060646014084</v>
       </c>
       <c r="FJ55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8120.0850039553943</v>
       </c>
       <c r="FK55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>8038.8841539158402</v>
       </c>
       <c r="FL55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7958.4953123766818</v>
       </c>
       <c r="FM55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7878.9103592529145</v>
       </c>
       <c r="FN55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7800.121255660385</v>
       </c>
       <c r="FO55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7722.1200431037814</v>
       </c>
       <c r="FP55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7644.8988426727437</v>
       </c>
       <c r="FQ55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7568.449854246016</v>
       </c>
       <c r="FR55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7492.7653557035555</v>
       </c>
       <c r="FS55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7417.8377021465203</v>
       </c>
       <c r="FT55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7343.6593251250551</v>
       </c>
       <c r="FU55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7270.2227318738042</v>
       </c>
       <c r="FV55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7197.5205045550656</v>
       </c>
       <c r="FW55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7125.5452995095147</v>
       </c>
       <c r="FX55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7054.2898465144199</v>
       </c>
       <c r="FY55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6983.7469480492755</v>
       </c>
       <c r="FZ55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6913.909478568783</v>
       </c>
       <c r="GA55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6844.770383783095</v>
       </c>
       <c r="GB55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6776.3226799452641</v>
       </c>
       <c r="GC55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6708.5594531458109</v>
       </c>
       <c r="GD55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6641.473858614353</v>
       </c>
       <c r="GE55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6575.0591200282097</v>
       </c>
       <c r="GF55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6509.3085288279271</v>
       </c>
       <c r="GG55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6444.2154435396478</v>
       </c>
       <c r="GH55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6379.7732891042515</v>
       </c>
       <c r="GI55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6315.9755562132086</v>
       </c>
       <c r="GJ55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6252.8158006510766</v>
       </c>
       <c r="GK55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6190.2876426445655</v>
       </c>
       <c r="GL55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6128.3847662181197</v>
       </c>
       <c r="GM55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6067.1009185559387</v>
       </c>
       <c r="GN55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>6006.4299093703794</v>
       </c>
       <c r="GO55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>5946.3656102766754</v>
       </c>
       <c r="GP55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>5886.901954173909</v>
       </c>
       <c r="GQ55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>5828.0329346321696</v>
       </c>
       <c r="GR55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>5769.7526052858475</v>
       </c>
       <c r="GS55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>5712.0550792329886</v>
       </c>
       <c r="GT55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>5654.9345284406591</v>
       </c>
       <c r="GU55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>5598.3851831562524</v>
       </c>
       <c r="GV55" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>5542.4013313246896</v>
       </c>
     </row>
@@ -12904,131 +12906,131 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3">
-        <f t="shared" ref="W56:X56" si="119">W55/W57</f>
+        <f t="shared" ref="W56:X56" si="123">W55/W57</f>
         <v>1.2932002495321273</v>
       </c>
       <c r="X56" s="3">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>1.24125</v>
       </c>
       <c r="Y56" s="3">
-        <f t="shared" ref="Y56" si="120">Y55/Y57</f>
+        <f t="shared" ref="Y56" si="124">Y55/Y57</f>
         <v>1.4235807860262009</v>
       </c>
       <c r="Z56" s="3">
-        <f t="shared" ref="Z56:AA56" si="121">Z55/Z57</f>
+        <f t="shared" ref="Z56:AA56" si="125">Z55/Z57</f>
         <v>1.4937578027465668</v>
       </c>
       <c r="AA56" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>1.8847117794486214</v>
       </c>
       <c r="AB56" s="3">
-        <f t="shared" ref="AB56:AC56" si="122">AB55/AB57</f>
+        <f t="shared" ref="AB56:AC56" si="126">AB55/AB57</f>
         <v>1.9993638676844783</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>2.1485148514851486</v>
       </c>
       <c r="AD56" s="3">
-        <f t="shared" ref="AD56:AH56" si="123">AD55/AD57</f>
+        <f t="shared" ref="AD56:AH56" si="127">AD55/AD57</f>
         <v>1.9067288474350432</v>
       </c>
       <c r="AE56" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>2.1564396493594065</v>
       </c>
       <c r="AF56" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>2.2749326145552562</v>
       </c>
       <c r="AG56" s="3">
-        <f t="shared" ref="AG56" si="124">AG55/AG57</f>
+        <f t="shared" ref="AG56" si="128">AG55/AG57</f>
         <v>2.3385030343897504</v>
       </c>
       <c r="AH56" s="3">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>2.2181818181818183</v>
       </c>
       <c r="AI56" s="3">
-        <f t="shared" ref="AI56:AJ56" si="125">AI55/AI57</f>
+        <f t="shared" ref="AI56:AJ56" si="129">AI55/AI57</f>
         <v>2.4346361185983829</v>
       </c>
       <c r="AJ56" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2.3642987249544625</v>
       </c>
       <c r="AK56" s="3">
-        <f t="shared" ref="AK56:AQ56" si="126">AK55/AK57</f>
+        <f t="shared" ref="AK56:AQ56" si="130">AK55/AK57</f>
         <v>3.5152198421645999</v>
       </c>
       <c r="AL56" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>3.6188063063063063</v>
       </c>
       <c r="AM56" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>2.9532394366197181</v>
       </c>
       <c r="AN56" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>3.1171171171171173</v>
       </c>
       <c r="AO56" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>3.3134496342149689</v>
       </c>
       <c r="AP56" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>3.3278965129358831</v>
       </c>
       <c r="AQ56" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>3.2699662542182226</v>
       </c>
       <c r="AR56" s="3">
-        <f t="shared" ref="AR56:AT56" si="127">AR55/AR57</f>
+        <f t="shared" ref="AR56:AT56" si="131">AR55/AR57</f>
         <v>3.6418918918918921</v>
       </c>
       <c r="AS56" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>3.7201576576576576</v>
       </c>
       <c r="AT56" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>3.5032826576576577</v>
       </c>
       <c r="AU56" s="3">
-        <f t="shared" ref="AU56:AZ56" si="128">AU55/AU57</f>
+        <f t="shared" ref="AU56:AZ56" si="132">AU55/AU57</f>
         <v>2.7820945945945947</v>
       </c>
       <c r="AV56" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>3.1852060982495765</v>
       </c>
       <c r="AW56" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>3.4720496894409938</v>
       </c>
       <c r="AX56" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>3.3075620767494356</v>
       </c>
       <c r="AY56" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>2.4215575620767495</v>
       </c>
       <c r="AZ56" s="3">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>2.6965920880361178</v>
       </c>
       <c r="BA56" s="3">
-        <f t="shared" ref="BA56:BB56" si="129">BA55/BA57</f>
+        <f t="shared" ref="BA56:BB56" si="133">BA55/BA57</f>
         <v>2.9302855699774253</v>
       </c>
       <c r="BB56" s="3">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>2.8713886455981941</v>
       </c>
       <c r="BC56" s="3"/>
@@ -13042,15 +13044,15 @@
       <c r="BK56" s="3"/>
       <c r="BL56" s="3"/>
       <c r="BM56" s="3">
-        <f t="shared" ref="BM56:BO56" si="130">+BM55/BM57</f>
+        <f t="shared" ref="BM56:BO56" si="134">+BM55/BM57</f>
         <v>7.9353169469598965</v>
       </c>
       <c r="BN56" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="134"/>
         <v>8.9880370682392581</v>
       </c>
       <c r="BO56" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="134"/>
         <v>12.076036521478821</v>
       </c>
       <c r="BP56" s="3">
@@ -13066,31 +13068,31 @@
         <v>12.745839210155149</v>
       </c>
       <c r="BS56" s="3">
-        <f t="shared" ref="BS56:BY56" si="131">+BS55/BS57</f>
+        <f t="shared" ref="BS56:BY56" si="135">+BS55/BS57</f>
         <v>11.385130967832957</v>
       </c>
       <c r="BT56" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>16.28990236103273</v>
       </c>
       <c r="BU56" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>15.983174763790917</v>
       </c>
       <c r="BV56" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>15.837216327836833</v>
       </c>
       <c r="BW56" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>15.401621557659135</v>
       </c>
       <c r="BX56" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>15.354681206596904</v>
       </c>
       <c r="BY56" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>11.208939856321351</v>
       </c>
     </row>
@@ -13217,11 +13219,11 @@
         <v>1772</v>
       </c>
       <c r="BA57" s="16">
-        <f t="shared" ref="BA57:BB57" si="132">+AZ57</f>
+        <f t="shared" ref="BA57:BB57" si="136">+AZ57</f>
         <v>1772</v>
       </c>
       <c r="BB57" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>1772</v>
       </c>
       <c r="BC57" s="16"/>
@@ -13263,27 +13265,27 @@
         <v>1772</v>
       </c>
       <c r="BT57" s="16">
-        <f t="shared" ref="BS57:BY57" si="133">BS57</f>
+        <f t="shared" ref="BT57:BY57" si="137">BS57</f>
         <v>1772</v>
       </c>
       <c r="BU57" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>1772</v>
       </c>
       <c r="BV57" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>1772</v>
       </c>
       <c r="BW57" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>1772</v>
       </c>
       <c r="BX57" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>1772</v>
       </c>
       <c r="BY57" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>1772</v>
       </c>
       <c r="CA57" s="48" t="s">
@@ -13330,67 +13332,67 @@
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
       <c r="AA59" s="33">
-        <f t="shared" ref="AA59:AK59" si="134">+AA45/W45-1</f>
+        <f t="shared" ref="AA59:AK59" si="138">+AA45/W45-1</f>
         <v>0.21352095442031205</v>
       </c>
       <c r="AB59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>0.18922811059907829</v>
       </c>
       <c r="AC59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>0.1774124374553252</v>
       </c>
       <c r="AD59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>7.3136064090967734E-2</v>
       </c>
       <c r="AE59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>-1.3360221830098329E-2</v>
       </c>
       <c r="AF59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>-3.6328408815688995E-4</v>
       </c>
       <c r="AG59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>2.9504613890237952E-2</v>
       </c>
       <c r="AH59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>4.8043347381095725E-2</v>
       </c>
       <c r="AI59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>0.10104752171691356</v>
       </c>
       <c r="AJ59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>0.26287098728043601</v>
       </c>
       <c r="AK59" s="33">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>0.51928293430829098</v>
       </c>
       <c r="AL59" s="33">
-        <f t="shared" ref="AL59:AP59" si="135">+AL45/AH45-1</f>
+        <f t="shared" ref="AL59:AP59" si="139">+AL45/AH45-1</f>
         <v>0.59214154411764697</v>
       </c>
       <c r="AM59" s="33">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>0.50075414781297134</v>
       </c>
       <c r="AN59" s="33">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>0.3389928057553957</v>
       </c>
       <c r="AO59" s="33">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>0.11333643844123586</v>
       </c>
       <c r="AP59" s="33">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>7.4180978496175554E-2</v>
       </c>
       <c r="AQ59" s="33">
@@ -13398,7 +13400,7 @@
         <v>4.6617703904135999E-2</v>
       </c>
       <c r="AR59" s="33">
-        <f t="shared" ref="AR59" si="136">+AR45/AN45-1</f>
+        <f t="shared" ref="AR59" si="140">+AR45/AN45-1</f>
         <v>4.4702342574683085E-2</v>
       </c>
       <c r="AS59" s="33">
@@ -13406,39 +13408,39 @@
         <v>3.2770882722074957E-2</v>
       </c>
       <c r="AT59" s="33">
-        <f t="shared" ref="AT59" si="137">+AT45/AP45-1</f>
+        <f t="shared" ref="AT59" si="141">+AT45/AP45-1</f>
         <v>1.5786645169958424E-2</v>
       </c>
       <c r="AU59" s="33">
-        <f t="shared" ref="AU59" si="138">+AU45/AQ45-1</f>
+        <f t="shared" ref="AU59" si="142">+AU45/AQ45-1</f>
         <v>-9.6986260895257748E-2</v>
       </c>
       <c r="AV59" s="33">
-        <f t="shared" ref="AV59" si="139">+AV45/AR45-1</f>
+        <f t="shared" ref="AV59" si="143">+AV45/AR45-1</f>
         <v>-4.9235411095110759E-2</v>
       </c>
       <c r="AW59" s="33">
-        <f t="shared" ref="AW59" si="140">+AW45/AS45-1</f>
+        <f t="shared" ref="AW59" si="144">+AW45/AS45-1</f>
         <v>-5.9748852281933607E-2</v>
       </c>
       <c r="AX59" s="33">
-        <f t="shared" ref="AX59:BB59" si="141">+AX45/AT45-1</f>
+        <f t="shared" ref="AX59:BB59" si="145">+AX45/AT45-1</f>
         <v>-5.4229217644335637E-2</v>
       </c>
       <c r="AY59" s="33">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>6.952965235173858E-3</v>
       </c>
       <c r="AZ59" s="33">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>-8.359610530111794E-2</v>
       </c>
       <c r="BA59" s="33">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>-3.9241042579162944E-2</v>
       </c>
       <c r="BB59" s="33">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>-3.3882945248583929E-2</v>
       </c>
       <c r="BC59" s="33"/>
@@ -13469,35 +13471,35 @@
         <v>3.0576244609956893E-2</v>
       </c>
       <c r="BR59" s="33">
-        <f t="shared" ref="BR59:BY59" si="142">+BR45/BQ45-1</f>
+        <f t="shared" ref="BR59:BY59" si="146">+BR45/BQ45-1</f>
         <v>-6.0859642449600626E-2</v>
       </c>
       <c r="BS59" s="33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>-3.8755661106815387E-2</v>
       </c>
       <c r="BT59" s="33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>1.1735679344958339E-2</v>
       </c>
       <c r="BU59" s="33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>-2.7359590464653749E-2</v>
       </c>
       <c r="BV59" s="33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>-1.8093734690504681E-2</v>
       </c>
       <c r="BW59" s="33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>-3.6839851869464701E-2</v>
       </c>
       <c r="BX59" s="33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>-1.2596444581474686E-2</v>
       </c>
       <c r="BY59" s="33">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>-0.2867429708938527</v>
       </c>
       <c r="CA59" s="51" t="s">
@@ -13652,99 +13654,99 @@
       <c r="AC61" s="30"/>
       <c r="AD61" s="30"/>
       <c r="AE61" s="30">
-        <f t="shared" ref="AE61:AY61" si="143">+AE5/AA5-1</f>
+        <f t="shared" ref="AE61:AY61" si="147">+AE5/AA5-1</f>
         <v>-5.5850499044383106E-2</v>
       </c>
       <c r="AF61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-6.0752169720347138E-2</v>
       </c>
       <c r="AG61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-3.669008587041378E-2</v>
       </c>
       <c r="AH61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-2.0333468889788264E-4</v>
       </c>
       <c r="AI61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>5.7804768331084055E-2</v>
       </c>
       <c r="AJ61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-6.7761806981520012E-3</v>
       </c>
       <c r="AK61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>4.1329011345218714E-2</v>
       </c>
       <c r="AL61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>4.7793369941020902E-2</v>
       </c>
       <c r="AM61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>3.4871358707208255E-2</v>
       </c>
       <c r="AN61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>4.7756874095513657E-2</v>
       </c>
       <c r="AO61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>5.5447470817120648E-2</v>
       </c>
       <c r="AP61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>3.5326086956521729E-2</v>
       </c>
       <c r="AQ61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-2.6915964659954827E-2</v>
       </c>
       <c r="AR61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>5.8208366219415941E-2</v>
       </c>
       <c r="AS61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>2.4700460829493176E-2</v>
       </c>
       <c r="AT61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>4.5931758530183719E-2</v>
       </c>
       <c r="AU61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-0.25232263513513509</v>
       </c>
       <c r="AV61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-0.25191124370688045</v>
       </c>
       <c r="AW61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-0.36193559992804458</v>
       </c>
       <c r="AX61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-0.40777917189460477</v>
       </c>
       <c r="AY61" s="30">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>-0.35893815306410615</v>
       </c>
       <c r="AZ61" s="30">
-        <f t="shared" ref="AZ61" si="144">+AZ5/AV5-1</f>
+        <f t="shared" ref="AZ61" si="148">+AZ5/AV5-1</f>
         <v>-0.5</v>
       </c>
       <c r="BA61" s="30">
-        <f t="shared" ref="BA61" si="145">+BA5/AW5-1</f>
+        <f t="shared" ref="BA61" si="149">+BA5/AW5-1</f>
         <v>-0.4</v>
       </c>
       <c r="BB61" s="30">
-        <f t="shared" ref="BB61" si="146">+BB5/AX5-1</f>
+        <f t="shared" ref="BB61" si="150">+BB5/AX5-1</f>
         <v>-0.4</v>
       </c>
       <c r="BC61" s="30"/>
@@ -13759,51 +13761,51 @@
       <c r="BL61" s="30"/>
       <c r="BM61" s="30"/>
       <c r="BN61" s="30">
-        <f t="shared" ref="BN61:BY61" si="147">+BN5/BM5-1</f>
+        <f t="shared" ref="BN61:BY61" si="151">+BN5/BM5-1</f>
         <v>-3.8473113964687E-2</v>
       </c>
       <c r="BO61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>3.4587093745109376E-2</v>
       </c>
       <c r="BP61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>4.3465106897942807E-2</v>
       </c>
       <c r="BQ61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>2.623948970716139E-2</v>
       </c>
       <c r="BR61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-0.32174977633375712</v>
       </c>
       <c r="BS61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-0.41775895584559841</v>
       </c>
       <c r="BT61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BU61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="BV61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="BW61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-0.5</v>
       </c>
       <c r="BX61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-0.5</v>
       </c>
       <c r="BY61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>-0.5</v>
       </c>
       <c r="CA61" s="32" t="s">
@@ -13847,99 +13849,99 @@
       <c r="AC62" s="30"/>
       <c r="AD62" s="30"/>
       <c r="AE62" s="30">
-        <f t="shared" ref="AE62:AY62" si="148">+AE7/AA7-1</f>
+        <f t="shared" ref="AE62:AY62" si="152">+AE7/AA7-1</f>
         <v>0.34120734908136474</v>
       </c>
       <c r="AF62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.29294117647058826</v>
       </c>
       <c r="AG62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.29320987654320985</v>
       </c>
       <c r="AH62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.28827037773359843</v>
       </c>
       <c r="AI62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.20547945205479445</v>
       </c>
       <c r="AJ62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>0.17197452229299359</v>
       </c>
       <c r="AK62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>8.9896579156722334E-2</v>
       </c>
       <c r="AL62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="AM62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>2.9220779220779258E-2</v>
       </c>
       <c r="AN62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>7.2204968944099335E-2</v>
       </c>
       <c r="AO62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>2.9197080291971655E-3</v>
       </c>
       <c r="AP62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-2.73876404494382E-2</v>
       </c>
       <c r="AQ62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-7.4921135646687675E-2</v>
       </c>
       <c r="AR62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-0.17089065894279509</v>
       </c>
       <c r="AS62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-0.17394468704512378</v>
       </c>
       <c r="AT62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-0.19494584837545126</v>
       </c>
       <c r="AU62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-0.25149190110826936</v>
       </c>
       <c r="AV62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-0.20786026200873364</v>
       </c>
       <c r="AW62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="AX62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-0.19013452914798201</v>
       </c>
       <c r="AY62" s="30">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>-4.5558086560364419E-2</v>
       </c>
       <c r="AZ62" s="30">
-        <f t="shared" ref="AZ62:AZ63" si="149">+AZ7/AV7-1</f>
+        <f t="shared" ref="AZ62:AZ63" si="153">+AZ7/AV7-1</f>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="BA62" s="30">
-        <f t="shared" ref="BA62:BA63" si="150">+BA7/AW7-1</f>
+        <f t="shared" ref="BA62:BA63" si="154">+BA7/AW7-1</f>
         <v>-5.0000000000000155E-2</v>
       </c>
       <c r="BB62" s="30">
-        <f t="shared" ref="BB62:BB63" si="151">+BB7/AX7-1</f>
+        <f t="shared" ref="BB62:BB63" si="155">+BB7/AX7-1</f>
         <v>-5.0000000000000155E-2</v>
       </c>
       <c r="BC62" s="30"/>
@@ -13954,51 +13956,51 @@
       <c r="BL62" s="30"/>
       <c r="BM62" s="30"/>
       <c r="BN62" s="30">
-        <f t="shared" ref="BN62:BY62" si="152">+BN7/BM7-1</f>
+        <f t="shared" ref="BN62:BY62" si="156">+BN7/BM7-1</f>
         <v>0.30194986072423391</v>
       </c>
       <c r="BO62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>0.13692768506632436</v>
       </c>
       <c r="BP62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>1.7689123071132906E-2</v>
       </c>
       <c r="BQ62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>-0.15532544378698221</v>
       </c>
       <c r="BR62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>-0.21278458844133097</v>
       </c>
       <c r="BS62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>-4.8915461624026713E-2</v>
       </c>
       <c r="BT62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BU62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="BV62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BW62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="BX62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BY62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CA62" s="51" t="s">
@@ -14073,79 +14075,79 @@
         <v>203</v>
       </c>
       <c r="AJ63" s="30">
-        <f t="shared" ref="AJ63:AY63" si="153">+AJ8/AF8-1</f>
+        <f t="shared" ref="AJ63:AY63" si="157">+AJ8/AF8-1</f>
         <v>5.875</v>
       </c>
       <c r="AK63" s="30">
+        <f t="shared" si="157"/>
+        <v>3.7802197802197801</v>
+      </c>
+      <c r="AL63" s="30">
+        <f t="shared" si="157"/>
+        <v>1.4305555555555554</v>
+      </c>
+      <c r="AM63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.91333333333333333</v>
+      </c>
+      <c r="AN63" s="30">
+        <f t="shared" si="157"/>
+        <v>1.0424242424242425</v>
+      </c>
+      <c r="AO63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.8298850574712644</v>
+      </c>
+      <c r="AP63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.7047619047619047</v>
+      </c>
+      <c r="AQ63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.63763066202090601</v>
+      </c>
+      <c r="AR63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.85756676557863498</v>
+      </c>
+      <c r="AS63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.75502512562814061</v>
+      </c>
+      <c r="AT63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.76089385474860327</v>
+      </c>
+      <c r="AU63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.44680851063829796</v>
+      </c>
+      <c r="AV63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.5039936102236422</v>
+      </c>
+      <c r="AW63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.52183249821045097</v>
+      </c>
+      <c r="AX63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.51903553299492389</v>
+      </c>
+      <c r="AY63" s="30">
+        <f t="shared" si="157"/>
+        <v>0.4764705882352942</v>
+      </c>
+      <c r="AZ63" s="30">
         <f t="shared" si="153"/>
-        <v>3.7802197802197801</v>
-      </c>
-      <c r="AL63" s="30">
-        <f t="shared" si="153"/>
-        <v>1.4305555555555554</v>
-      </c>
-      <c r="AM63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.91333333333333333</v>
-      </c>
-      <c r="AN63" s="30">
-        <f t="shared" si="153"/>
-        <v>1.0424242424242425</v>
-      </c>
-      <c r="AO63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.8298850574712644</v>
-      </c>
-      <c r="AP63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.7047619047619047</v>
-      </c>
-      <c r="AQ63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.63763066202090601</v>
-      </c>
-      <c r="AR63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.85756676557863498</v>
-      </c>
-      <c r="AS63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.75502512562814061</v>
-      </c>
-      <c r="AT63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.76089385474860327</v>
-      </c>
-      <c r="AU63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.44680851063829796</v>
-      </c>
-      <c r="AV63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.5039936102236422</v>
-      </c>
-      <c r="AW63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.52183249821045097</v>
-      </c>
-      <c r="AX63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.51903553299492389</v>
-      </c>
-      <c r="AY63" s="30">
-        <f t="shared" si="153"/>
-        <v>0.4764705882352942</v>
-      </c>
-      <c r="AZ63" s="30">
-        <f t="shared" si="149"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BA63" s="30">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>0.25</v>
       </c>
       <c r="BB63" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BC63" s="30"/>
@@ -14163,47 +14165,47 @@
         <v>203</v>
       </c>
       <c r="BO63" s="30">
-        <f t="shared" ref="BO63:BY63" si="154">+BO8/BN8-1</f>
+        <f t="shared" ref="BO63:BY63" si="158">+BO8/BN8-1</f>
         <v>3.47887323943662</v>
       </c>
       <c r="BP63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.84842767295597477</v>
       </c>
       <c r="BQ63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.75740047635250085</v>
       </c>
       <c r="BR63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.50300096805421113</v>
       </c>
       <c r="BS63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.28638412984670869</v>
       </c>
       <c r="BT63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BU63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BV63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BW63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BX63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BY63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -14240,99 +14242,99 @@
       <c r="AC64" s="30"/>
       <c r="AD64" s="30"/>
       <c r="AE64" s="30">
-        <f t="shared" ref="AE64:AY64" si="155">+AE3/AA3-1</f>
+        <f t="shared" ref="AE64:AY64" si="159">+AE3/AA3-1</f>
         <v>-5.5850499044383106E-2</v>
       </c>
       <c r="AF64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>-5.1494696239151372E-2</v>
       </c>
       <c r="AG64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>-1.6198282591725177E-2</v>
       </c>
       <c r="AH64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>5.0427002846685554E-2</v>
       </c>
       <c r="AI64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.14462438146648671</v>
       </c>
       <c r="AJ64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>8.0927206181374611E-2</v>
       </c>
       <c r="AK64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.14858163062884344</v>
       </c>
       <c r="AL64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.1533101045296168</v>
       </c>
       <c r="AM64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.1287089801532717</v>
       </c>
       <c r="AN64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.15124153498871329</v>
       </c>
       <c r="AO64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.15267702936096716</v>
       </c>
       <c r="AP64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.13225914736488753</v>
       </c>
       <c r="AQ64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>6.9115598885793883E-2</v>
       </c>
       <c r="AR64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.17761437908496736</v>
       </c>
       <c r="AS64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.14638897213065638</v>
       </c>
       <c r="AT64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>0.17477023421286697</v>
       </c>
       <c r="AU64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>-9.0213320306139044E-2</v>
       </c>
       <c r="AV64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>-5.4669071735812369E-2</v>
       </c>
       <c r="AW64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>-0.11344922232387922</v>
       </c>
       <c r="AX64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>-0.12264984227129339</v>
       </c>
       <c r="AY64" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>-3.8661177734025443E-2</v>
       </c>
       <c r="AZ64" s="30">
-        <f t="shared" ref="AZ64" si="156">+AZ3/AV3-1</f>
+        <f t="shared" ref="AZ64" si="160">+AZ3/AV3-1</f>
         <v>-0.18457360927638333</v>
       </c>
       <c r="BA64" s="30">
-        <f t="shared" ref="BA64" si="157">+BA3/AW3-1</f>
+        <f t="shared" ref="BA64" si="161">+BA3/AW3-1</f>
         <v>-9.8083443903877354E-2</v>
       </c>
       <c r="BB64" s="30">
-        <f t="shared" ref="BB64" si="158">+BB3/AX3-1</f>
+        <f t="shared" ref="BB64" si="162">+BB3/AX3-1</f>
         <v>-8.5114339134186756E-2</v>
       </c>
       <c r="BC64" s="30"/>
@@ -14471,63 +14473,63 @@
         <v>203</v>
       </c>
       <c r="AN65" s="30">
-        <f t="shared" ref="AN65:AY66" si="159">AN9/AJ9-1</f>
+        <f t="shared" ref="AN65:AY66" si="163">AN9/AJ9-1</f>
         <v>1.584070796460177</v>
       </c>
       <c r="AO65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.38676844783715003</v>
       </c>
       <c r="AP65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.26977687626774838</v>
       </c>
       <c r="AQ65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.34381551362683438</v>
       </c>
       <c r="AR65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.19006849315068486</v>
       </c>
       <c r="AS65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.16880733944954129</v>
       </c>
       <c r="AT65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>2.5559105431310014E-2</v>
       </c>
       <c r="AU65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>2.808112324492984E-2</v>
       </c>
       <c r="AV65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>-1.4388489208633115E-2</v>
       </c>
       <c r="AW65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>-2.6687598116169498E-2</v>
       </c>
       <c r="AX65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.11838006230529596</v>
       </c>
       <c r="AY65" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>-3.9453717754172946E-2</v>
       </c>
       <c r="AZ65" s="30">
-        <f t="shared" ref="AZ65:AZ66" si="160">AZ9/AV9-1</f>
+        <f t="shared" ref="AZ65:AZ66" si="164">AZ9/AV9-1</f>
         <v>-3.0000000000000138E-2</v>
       </c>
       <c r="BA65" s="30">
-        <f t="shared" ref="BA65:BA66" si="161">BA9/AW9-1</f>
+        <f t="shared" ref="BA65:BA66" si="165">BA9/AW9-1</f>
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="BB65" s="30">
-        <f t="shared" ref="BB65:BB66" si="162">BB9/AX9-1</f>
+        <f t="shared" ref="BB65:BB66" si="166">BB9/AX9-1</f>
         <v>-2.9999999999999916E-2</v>
       </c>
       <c r="BC65" s="30"/>
@@ -14629,63 +14631,63 @@
         <v>203</v>
       </c>
       <c r="AN66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>1.0303030303030303</v>
       </c>
       <c r="AO66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.23326959847036322</v>
       </c>
       <c r="AP66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.18342151675485008</v>
       </c>
       <c r="AQ66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.15413533834586457</v>
       </c>
       <c r="AR66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.12437810945273631</v>
       </c>
       <c r="AS66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>8.3720930232558111E-2</v>
       </c>
       <c r="AT66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>8.4947839046199736E-2</v>
       </c>
       <c r="AU66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.17100977198697076</v>
       </c>
       <c r="AV66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>0.10324483775811211</v>
       </c>
       <c r="AW66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>7.0100143061516462E-2</v>
       </c>
       <c r="AX66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>6.5934065934065922E-2</v>
       </c>
       <c r="AY66" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>4.0333796940194677E-2</v>
       </c>
       <c r="AZ66" s="30">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BA66" s="30">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BB66" s="30">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BC66" s="30"/>
@@ -14778,75 +14780,75 @@
         <v>203</v>
       </c>
       <c r="AK67" s="30">
-        <f t="shared" ref="AK67:AY67" si="163">AK12/AG12-1</f>
+        <f t="shared" ref="AK67:AY67" si="167">AK12/AG12-1</f>
         <v>14.357142857142858</v>
       </c>
       <c r="AL67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>7.5151515151515156</v>
       </c>
       <c r="AM67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>2.5232558139534884</v>
       </c>
       <c r="AN67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>1.5369127516778525</v>
       </c>
       <c r="AO67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>1.1069767441860465</v>
       </c>
       <c r="AP67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.83985765124555156</v>
       </c>
       <c r="AQ67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.53465346534653468</v>
       </c>
       <c r="AR67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.56613756613756605</v>
       </c>
       <c r="AS67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.53421633554083892</v>
       </c>
       <c r="AT67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.4893617021276595</v>
       </c>
       <c r="AU67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.47526881720430114</v>
       </c>
       <c r="AV67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.55067567567567566</v>
       </c>
       <c r="AW67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.59712230215827344</v>
       </c>
       <c r="AX67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.62987012987012991</v>
       </c>
       <c r="AY67" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>0.59329446064139946</v>
       </c>
       <c r="AZ67" s="30">
-        <f t="shared" ref="AZ67" si="164">AZ12/AV12-1</f>
+        <f t="shared" ref="AZ67" si="168">AZ12/AV12-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BA67" s="30">
-        <f t="shared" ref="BA67" si="165">BA12/AW12-1</f>
+        <f t="shared" ref="BA67" si="169">BA12/AW12-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BB67" s="30">
-        <f t="shared" ref="BB67" si="166">BB12/AX12-1</f>
+        <f t="shared" ref="BB67" si="170">BB12/AX12-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BC67" s="30"/>
@@ -14976,39 +14978,39 @@
       <c r="W69" s="30"/>
       <c r="X69" s="30"/>
       <c r="Y69" s="30">
-        <f t="shared" ref="Y69" si="167">+Y47/Y45</f>
+        <f t="shared" ref="Y69" si="171">+Y47/Y45</f>
         <v>0.80814867762687637</v>
       </c>
       <c r="Z69" s="30">
-        <f t="shared" ref="Z69" si="168">+Z47/Z45</f>
+        <f t="shared" ref="Z69" si="172">+Z47/Z45</f>
         <v>0.78989533531464018</v>
       </c>
       <c r="AA69" s="30">
-        <f t="shared" ref="AA69" si="169">+AA47/AA45</f>
+        <f t="shared" ref="AA69" si="173">+AA47/AA45</f>
         <v>0.80186538946307029</v>
       </c>
       <c r="AB69" s="30">
-        <f t="shared" ref="AB69:AG69" si="170">+AB47/AB45</f>
+        <f t="shared" ref="AB69:AG69" si="174">+AB47/AB45</f>
         <v>0.80540082344393316</v>
       </c>
       <c r="AC69" s="30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.81677999028654691</v>
       </c>
       <c r="AD69" s="30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.79843467790487654</v>
       </c>
       <c r="AE69" s="30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.83354624425140522</v>
       </c>
       <c r="AF69" s="30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.8271350696547547</v>
       </c>
       <c r="AG69" s="30">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.82014388489208634</v>
       </c>
       <c r="AH69" s="30">
@@ -15028,31 +15030,31 @@
         <v>0.81664337835739786</v>
       </c>
       <c r="AL69" s="30">
-        <f t="shared" ref="AL69:AT69" si="171">+AL47/AL45</f>
+        <f t="shared" ref="AL69:AT69" si="175">+AL47/AL45</f>
         <v>0.81793909655072883</v>
       </c>
       <c r="AM69" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>0.83880943177425593</v>
       </c>
       <c r="AN69" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>0.82240848198295002</v>
       </c>
       <c r="AO69" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>0.83175289359921911</v>
       </c>
       <c r="AP69" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>0.83555018137847648</v>
       </c>
       <c r="AQ69" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>0.84465947702762589</v>
       </c>
       <c r="AR69" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>0.85140231776726327</v>
       </c>
       <c r="AS69" s="30">
@@ -15060,39 +15062,39 @@
         <v>0.85369970294355924</v>
       </c>
       <c r="AT69" s="30">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>0.85</v>
       </c>
       <c r="AU69" s="30">
-        <f t="shared" ref="AU69:AX69" si="172">+AU47/AU45</f>
+        <f t="shared" ref="AU69:AX69" si="176">+AU47/AU45</f>
         <v>0.84204498977505116</v>
       </c>
       <c r="AV69" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0.84731337901190051</v>
       </c>
       <c r="AW69" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0.83478135994830183</v>
       </c>
       <c r="AX69" s="30">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>0.83938186140829307</v>
       </c>
       <c r="AY69" s="30">
-        <f t="shared" ref="AY69:BB69" si="173">+AY47/AY45</f>
+        <f t="shared" ref="AY69:BB69" si="177">+AY47/AY45</f>
         <v>0.82875710804224212</v>
       </c>
       <c r="AZ69" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="BA69" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.83</v>
       </c>
       <c r="BB69" s="30">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>0.82999999999999985</v>
       </c>
       <c r="BC69" s="30"/>
@@ -15126,23 +15128,23 @@
         <v>0.84949081918461911</v>
       </c>
       <c r="BR69" s="30">
-        <f t="shared" ref="BR69:BV69" si="174">+BR47/BR45</f>
+        <f t="shared" ref="BR69:BV69" si="178">+BR47/BR45</f>
         <v>0.84082624544349938</v>
       </c>
       <c r="BS69" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.85</v>
       </c>
       <c r="BT69" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.85</v>
       </c>
       <c r="BU69" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.85</v>
       </c>
       <c r="BV69" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="178"/>
         <v>0.85</v>
       </c>
       <c r="BW69" s="30"/>
@@ -15175,39 +15177,39 @@
       <c r="W70" s="30"/>
       <c r="X70" s="30"/>
       <c r="Y70" s="30">
-        <f t="shared" ref="Y70" si="175">+Y54/Y53</f>
+        <f t="shared" ref="Y70" si="179">+Y54/Y53</f>
         <v>0.18934280639431617</v>
       </c>
       <c r="Z70" s="30">
-        <f t="shared" ref="Z70" si="176">+Z54/Z53</f>
+        <f t="shared" ref="Z70" si="180">+Z54/Z53</f>
         <v>0.18853848762292302</v>
       </c>
       <c r="AA70" s="30">
-        <f t="shared" ref="AA70" si="177">+AA54/AA53</f>
+        <f t="shared" ref="AA70" si="181">+AA54/AA53</f>
         <v>7.6450721522873813E-2</v>
       </c>
       <c r="AB70" s="30">
-        <f t="shared" ref="AB70:AG70" si="178">+AB54/AB53</f>
+        <f t="shared" ref="AB70:AG70" si="182">+AB54/AB53</f>
         <v>9.0040532715691957E-2</v>
       </c>
       <c r="AC70" s="30">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>9.1036023457134879E-2</v>
       </c>
       <c r="AD70" s="30">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>9.1716915264995244E-2</v>
       </c>
       <c r="AE70" s="30">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>7.8917050691244245E-2</v>
       </c>
       <c r="AF70" s="30">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>8.7567567567567561E-2</v>
       </c>
       <c r="AG70" s="30">
-        <f t="shared" si="178"/>
+        <f t="shared" si="182"/>
         <v>8.7848500789058384E-2</v>
       </c>
       <c r="AH70" s="30">
@@ -15227,31 +15229,31 @@
         <v>9.6755504055619931E-2</v>
       </c>
       <c r="AL70" s="30">
-        <f t="shared" ref="AL70:AT70" si="179">+AL54/AL53</f>
+        <f t="shared" ref="AL70:AT70" si="183">+AL54/AL53</f>
         <v>9.6443132292984679E-2</v>
       </c>
       <c r="AM70" s="30">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.1234113712374582</v>
       </c>
       <c r="AN70" s="30">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.12653834017040075</v>
       </c>
       <c r="AO70" s="30">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.12783291364242336</v>
       </c>
       <c r="AP70" s="30">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.12496302868973676</v>
       </c>
       <c r="AQ70" s="30">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.11802184466019418</v>
       </c>
       <c r="AR70" s="30">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.12982644961657475</v>
       </c>
       <c r="AS70" s="30">
@@ -15259,39 +15261,39 @@
         <v>0.1274432118330692</v>
       </c>
       <c r="AT70" s="30">
-        <f t="shared" si="179"/>
+        <f t="shared" si="183"/>
         <v>0.15</v>
       </c>
       <c r="AU70" s="30">
-        <f t="shared" ref="AU70:AX70" si="180">+AU54/AU53</f>
+        <f t="shared" ref="AU70:AX70" si="184">+AU54/AU53</f>
         <v>0.1364907375043691</v>
       </c>
       <c r="AV70" s="30">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>9.4106311225309144E-2</v>
       </c>
       <c r="AW70" s="30">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>2.767235926628716E-2</v>
       </c>
       <c r="AX70" s="30">
-        <f t="shared" si="180"/>
+        <f t="shared" si="184"/>
         <v>6.2390017597184454E-2</v>
       </c>
       <c r="AY70" s="30">
-        <f t="shared" ref="AY70:BB70" si="181">+AY54/AY53</f>
+        <f t="shared" ref="AY70:BB70" si="185">+AY54/AY53</f>
         <v>0.14282860567319217</v>
       </c>
       <c r="AZ70" s="30">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.1</v>
       </c>
       <c r="BA70" s="30">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.1</v>
       </c>
       <c r="BB70" s="30">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>0.1</v>
       </c>
       <c r="BC70" s="30"/>
@@ -15305,43 +15307,43 @@
       <c r="BK70" s="30"/>
       <c r="BL70" s="30"/>
       <c r="BM70" s="30">
-        <f t="shared" ref="BM70" si="182">+BM54/BM53</f>
+        <f t="shared" ref="BM70" si="186">+BM54/BM53</f>
         <v>8.7406084951275761E-2</v>
       </c>
       <c r="BN70" s="30">
-        <f t="shared" ref="BN70:BV70" si="183">+BN54/BN53</f>
+        <f t="shared" ref="BN70:BV70" si="187">+BN54/BN53</f>
         <v>8.5823964902659713E-2</v>
       </c>
       <c r="BO70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.10015614543832255</v>
       </c>
       <c r="BP70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.12574038945453136</v>
       </c>
       <c r="BQ70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.13260849871780578</v>
       </c>
       <c r="BR70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>7.8779970641004726E-2</v>
       </c>
       <c r="BS70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
       <c r="BT70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
       <c r="BU70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
       <c r="BV70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="187"/>
         <v>0.15</v>
       </c>
       <c r="BW70" s="30"/>
@@ -15352,39 +15354,39 @@
         <v>145</v>
       </c>
       <c r="AQ72" s="16">
-        <f t="shared" ref="AQ72:AY72" si="184">AQ73-AQ82</f>
+        <f t="shared" ref="AQ72:AY72" si="188">AQ73-AQ82</f>
         <v>-65642</v>
       </c>
       <c r="AR72" s="16">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-62727</v>
       </c>
       <c r="AS72" s="16">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-57492</v>
       </c>
       <c r="AT72" s="16">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="AU72" s="16">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-55114</v>
       </c>
       <c r="AV72" s="16">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-51961</v>
       </c>
       <c r="AW72" s="16">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-47181</v>
       </c>
       <c r="AX72" s="16">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-46265</v>
       </c>
       <c r="AY72" s="16">
-        <f t="shared" si="184"/>
+        <f t="shared" si="188"/>
         <v>-55627</v>
       </c>
       <c r="AZ72" s="16">

--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0B7A3-07B2-41AE-B306-5566C2622E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D863190B-88DD-4D9E-A303-FA0E2939F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51360" yWindow="1125" windowWidth="22860" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50895" yWindow="840" windowWidth="24900" windowHeight="19155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Botox" sheetId="8" r:id="rId7"/>
     <sheet name="Skyrizi" sheetId="6" r:id="rId8"/>
     <sheet name="Elahere" sheetId="9" r:id="rId9"/>
+    <sheet name="Epkinly" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +91,8 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Q124: raises to 11.13-11.33 from 10.97-11.17 including 0.08 IPR&amp;D</t>
+    Q224: raises to 10.71-10.91 (incl 60c - 11.31-11.51)
+Q124: raises to 11.13-11.33 from 10.97-11.17 including 0.08 IPR&amp;D - 11.21-11.41</t>
       </text>
     </comment>
   </commentList>
@@ -98,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="432">
   <si>
     <t>Humira</t>
   </si>
@@ -718,9 +720,6 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>CEO: Richard Gonzalez</t>
-  </si>
-  <si>
     <t>Parkinson's Disease</t>
   </si>
   <si>
@@ -754,9 +753,6 @@
     <t>Crohn's Phase III</t>
   </si>
   <si>
-    <t>GCA Phase III</t>
-  </si>
-  <si>
     <t>Rheumatoid Arthritis approved (US, EU)</t>
   </si>
   <si>
@@ -781,9 +777,6 @@
     <t>IL-23</t>
   </si>
   <si>
-    <t>Crohn's, Psoriasis, Psoriatic Arthritis</t>
-  </si>
-  <si>
     <t>ABBV-0805</t>
   </si>
   <si>
@@ -1138,9 +1131,6 @@
     <t>1,494</t>
   </si>
   <si>
-    <t>1,435</t>
-  </si>
-  <si>
     <t>1,372</t>
   </si>
   <si>
@@ -1310,19 +1300,121 @@
   </si>
   <si>
     <t>ABT-333, dasabuvir</t>
+  </si>
+  <si>
+    <t>CEO: Robert Michael succeeded Richard Gonzalez.</t>
+  </si>
+  <si>
+    <t>1,543</t>
+  </si>
+  <si>
+    <t>Crohn's, Psoriasis, Psoriatic Arthritis, UC (FDA approved, CHMP positive opinion)</t>
+  </si>
+  <si>
+    <t>Boehringer Ingelheim</t>
+  </si>
+  <si>
+    <t>GCA FDA/EMA filed</t>
+  </si>
+  <si>
+    <t>Phase III "SEQUENCE" vs Stelara Crohn's</t>
+  </si>
+  <si>
+    <t>Phase III "INSPIRE" UC induction</t>
+  </si>
+  <si>
+    <t>Phase III "COMMAND" UC maintenance</t>
+  </si>
+  <si>
+    <t>ABBV-113 (NX-13)</t>
+  </si>
+  <si>
+    <t>UC/Crohn's</t>
+  </si>
+  <si>
+    <t>Acquired Landos</t>
+  </si>
+  <si>
+    <t>FG-M701</t>
+  </si>
+  <si>
+    <t>IBD</t>
+  </si>
+  <si>
+    <t>TL1A mab</t>
+  </si>
+  <si>
+    <t>FutureGen</t>
+  </si>
+  <si>
+    <t>CEL383</t>
+  </si>
+  <si>
+    <t>TREM1 mab</t>
+  </si>
+  <si>
+    <t>Acquired Celsius</t>
+  </si>
+  <si>
+    <t>Epkinly, Tepkinly</t>
+  </si>
+  <si>
+    <t>epcoritamab</t>
+  </si>
+  <si>
+    <t>r/r (3L+) FL</t>
+  </si>
+  <si>
+    <t>FDA approval 2024, CHMP positive opinion 2024</t>
+  </si>
+  <si>
+    <t>Phase I/I "EPCORE NHL-1" r/r FL</t>
+  </si>
+  <si>
+    <t>ovarian cancer</t>
+  </si>
+  <si>
+    <t>Phase II "PICCOLO" monotherapy Fralpha+ platinum-sensitive OC</t>
+  </si>
+  <si>
+    <t>52% ORR, 8.25m DOR</t>
+  </si>
+  <si>
+    <t>ABBV-400</t>
+  </si>
+  <si>
+    <t>mCRC</t>
+  </si>
+  <si>
+    <t>c-Met ADC</t>
+  </si>
+  <si>
+    <t>ABBV-706</t>
+  </si>
+  <si>
+    <t>SEZ6 ADC</t>
+  </si>
+  <si>
+    <t>SCLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1574,194 +1666,204 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2302,7 +2404,8 @@
     <text>Q422: 2023 guidance of 10.70-11.10</text>
   </threadedComment>
   <threadedComment ref="BS56" dT="2024-05-27T03:06:54.34" personId="{FC08182D-8126-43D2-AFE1-095FC8F8A0A3}" id="{02664013-DB26-4B95-A2F2-AE1243BDA9A3}">
-    <text>Q124: raises to 11.13-11.33 from 10.97-11.17 including 0.08 IPR&amp;D</text>
+    <text>Q224: raises to 10.71-10.91 (incl 60c - 11.31-11.51)
+Q124: raises to 11.13-11.33 from 10.97-11.17 including 0.08 IPR&amp;D - 11.21-11.41</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2481,10 +2584,10 @@
         <v>67</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2495,12 +2598,88 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F078BD72-886F-4F39-AAAC-D8E6C0595ABA}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="86" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{C8688A8B-4341-4B3B-A91A-5830382CFC1F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L63"/>
+  <dimension ref="B2:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2542,7 +2721,7 @@
         <v>48</v>
       </c>
       <c r="K2" s="14">
-        <v>157.06</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -2550,7 +2729,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D3" s="19">
         <v>37621</v>
@@ -2573,38 +2752,38 @@
       <c r="K3" s="15">
         <v>1765.8677809999999</v>
       </c>
-      <c r="L3" s="79" t="s">
-        <v>331</v>
+      <c r="L3" s="78" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="65">
+        <v>210</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="64">
         <v>33581</v>
       </c>
-      <c r="E4" s="58" t="s">
-        <v>274</v>
+      <c r="E4" s="57" t="s">
+        <v>271</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="H4" s="59" t="s">
-        <v>275</v>
+      <c r="H4" s="58" t="s">
+        <v>272</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="15">
         <f>+K3*K2</f>
-        <v>277347.19368386001</v>
+        <v>335514.87838999997</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -2612,14 +2791,14 @@
       <c r="B5" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>270</v>
+      <c r="C5" s="57" t="s">
+        <v>267</v>
       </c>
       <c r="D5" s="19">
         <v>41591</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>271</v>
+      <c r="E5" s="57" t="s">
+        <v>268</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>162</v>
@@ -2627,7 +2806,7 @@
       <c r="G5" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="60">
         <v>46566</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2636,30 +2815,30 @@
       <c r="K5" s="15">
         <v>18374</v>
       </c>
-      <c r="L5" s="88" t="s">
-        <v>331</v>
+      <c r="L5" s="87" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>263</v>
+      <c r="C6" s="57" t="s">
+        <v>260</v>
       </c>
       <c r="D6" s="19">
         <v>43578</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -2668,12 +2847,12 @@
       <c r="K6" s="15">
         <v>74001</v>
       </c>
-      <c r="L6" s="88" t="s">
-        <v>331</v>
+      <c r="L6" s="87" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>164</v>
       </c>
       <c r="C7" s="36" t="s">
@@ -2691,33 +2870,33 @@
       <c r="G7" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="59" t="s">
-        <v>276</v>
+      <c r="H7" s="58" t="s">
+        <v>273</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K7" s="15">
         <f>+K4-K5+K6</f>
-        <v>332974.19368386001</v>
+        <v>391141.87838999997</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>278</v>
+      <c r="B8" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>275</v>
       </c>
       <c r="D8" s="19">
         <v>32534</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>280</v>
+      <c r="F8" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>277</v>
       </c>
       <c r="H8" s="11"/>
     </row>
@@ -2725,8 +2904,8 @@
       <c r="B9" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>257</v>
+      <c r="C9" s="57" t="s">
+        <v>254</v>
       </c>
       <c r="D9" s="19">
         <v>44636</v>
@@ -2740,23 +2919,23 @@
       <c r="G9" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="59" t="s">
-        <v>258</v>
+      <c r="H9" s="58" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="62" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>283</v>
+      <c r="B10" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>280</v>
       </c>
       <c r="D10" s="19">
         <v>37461</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="85" t="s">
-        <v>344</v>
+      <c r="F10" s="84" t="s">
+        <v>341</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>188</v>
@@ -2764,16 +2943,16 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>282</v>
+      <c r="C11" s="57" t="s">
+        <v>279</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="85" t="s">
-        <v>344</v>
+      <c r="F11" s="84" t="s">
+        <v>341</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>188</v>
@@ -2781,39 +2960,39 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>286</v>
+      <c r="B12" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>283</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="58" t="s">
-        <v>288</v>
+      <c r="G12" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>207</v>
+      <c r="B13" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>206</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="11"/>
-      <c r="J13" s="41" t="s">
-        <v>206</v>
+      <c r="J13" s="90" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="62" t="s">
-        <v>272</v>
+      <c r="B14" s="61" t="s">
+        <v>269</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>34</v>
@@ -2827,25 +3006,25 @@
         <v>188</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="J14" s="63" t="s">
-        <v>325</v>
+      <c r="J14" s="62" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>210</v>
-      </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="58" t="s">
-        <v>287</v>
+      <c r="E15" s="57" t="s">
+        <v>284</v>
       </c>
       <c r="F15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="57" t="s">
         <v>188</v>
       </c>
       <c r="H15" s="11"/>
@@ -2869,14 +3048,14 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="84" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="85" t="s">
-        <v>341</v>
+      <c r="E17" s="84" t="s">
+        <v>338</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="38"/>
@@ -2884,70 +3063,70 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>213</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>214</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="58" t="s">
-        <v>288</v>
+      <c r="G18" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>343</v>
+      <c r="B19" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>340</v>
       </c>
       <c r="D19" s="36"/>
-      <c r="E19" s="69" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>319</v>
+      <c r="E19" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>316</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>293</v>
+      <c r="B20" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>290</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="58" t="s">
-        <v>294</v>
+      <c r="E20" s="57" t="s">
+        <v>291</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>215</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>216</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="58" t="s">
-        <v>288</v>
+      <c r="G21" s="57" t="s">
+        <v>285</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="J21" s="90"/>
+      <c r="J21" s="89"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>180</v>
@@ -2973,16 +3152,16 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="85" t="s">
-        <v>358</v>
-      </c>
-      <c r="E24" s="85" t="s">
-        <v>359</v>
+        <v>206</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>355</v>
       </c>
       <c r="F24" s="10">
         <v>1</v>
@@ -2991,85 +3170,83 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="E25" s="85" t="s">
-        <v>400</v>
-      </c>
-      <c r="F25" s="68"/>
+      <c r="B25" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>395</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="67"/>
       <c r="G25" s="9"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="84" t="s">
-        <v>355</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>356</v>
-      </c>
-      <c r="D26" s="85" t="s">
+      <c r="B26" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="85" t="s">
-        <v>357</v>
-      </c>
-      <c r="F26" s="68"/>
+      <c r="E26" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="F26" s="67"/>
       <c r="G26" s="9"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="67" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="D27" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="68"/>
+      <c r="B27" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27" s="68"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="9"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
+      <c r="B28" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>395</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="35" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>64</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F29" s="10">
         <v>1</v>
@@ -3078,17 +3255,17 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="76" t="s">
-        <v>330</v>
-      </c>
-      <c r="C30" s="38" t="s">
+      <c r="B30" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="38" t="s">
-        <v>177</v>
+      <c r="E30" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="F30" s="10">
         <v>1</v>
@@ -3097,87 +3274,87 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="84" t="s">
-        <v>386</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="B31" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
+      <c r="B32" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="10"/>
       <c r="G32" s="9"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="39" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="84" t="s">
         <v>64</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>194</v>
+        <v>182</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="84" t="s">
-        <v>401</v>
-      </c>
-      <c r="C34" s="85" t="s">
-        <v>402</v>
+      <c r="B34" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>176</v>
       </c>
       <c r="D34" s="38" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1</v>
+        <v>195</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>194</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>207</v>
+      <c r="B35" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>398</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="F35" s="10">
         <v>1</v>
@@ -3186,351 +3363,436 @@
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="84" t="s">
-        <v>387</v>
-      </c>
-      <c r="C36" s="85" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="85" t="s">
+      <c r="B36" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E36" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="F36" s="10"/>
+      <c r="E36" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="84" t="s">
-        <v>389</v>
-      </c>
-      <c r="C37" s="85" t="s">
+      <c r="B37" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="C37" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="D37" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="85" t="s">
-        <v>390</v>
+      <c r="D37" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>384</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="84" t="s">
-        <v>368</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="85" t="s">
+      <c r="B38" s="83" t="s">
+        <v>385</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="85" t="s">
-        <v>369</v>
+      <c r="E38" s="84" t="s">
+        <v>386</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9"/>
       <c r="H38" s="11"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="84" t="s">
-        <v>370</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="85" t="s">
-        <v>371</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="B39" s="92" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="93" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="94" t="s">
+        <v>410</v>
+      </c>
       <c r="G39" s="9"/>
       <c r="H39" s="11"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="84" t="s">
-        <v>372</v>
-      </c>
-      <c r="C40" s="85" t="s">
-        <v>373</v>
-      </c>
-      <c r="D40" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40" s="85" t="s">
-        <v>374</v>
-      </c>
-      <c r="F40" s="89" t="s">
-        <v>375</v>
+      <c r="B40" s="92" t="s">
+        <v>411</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="D40" s="84"/>
+      <c r="E40" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="F40" s="94" t="s">
+        <v>414</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="84" t="s">
-        <v>380</v>
-      </c>
-      <c r="C41" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="F41" s="89" t="s">
-        <v>382</v>
+      <c r="B41" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="93" t="s">
+        <v>416</v>
+      </c>
+      <c r="F41" s="94" t="s">
+        <v>417</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="84" t="s">
-        <v>383</v>
-      </c>
-      <c r="C42" s="85" t="s">
-        <v>384</v>
-      </c>
-      <c r="D42" s="85" t="s">
+      <c r="B42" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="85" t="s">
-        <v>385</v>
-      </c>
-      <c r="F42" s="89"/>
+      <c r="E42" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="F42" s="10"/>
       <c r="G42" s="9"/>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="84" t="s">
-        <v>376</v>
-      </c>
-      <c r="C43" s="85" t="s">
-        <v>377</v>
-      </c>
-      <c r="D43" s="85" t="s">
+      <c r="B43" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="85" t="s">
-        <v>378</v>
-      </c>
-      <c r="F43" s="89" t="s">
-        <v>379</v>
-      </c>
+      <c r="E43" s="84" t="s">
+        <v>367</v>
+      </c>
+      <c r="F43" s="10"/>
       <c r="G43" s="9"/>
       <c r="H43" s="11"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="84" t="s">
-        <v>363</v>
-      </c>
-      <c r="C44" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>369</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>371</v>
+      </c>
       <c r="G44" s="9"/>
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="84" t="s">
-        <v>364</v>
-      </c>
-      <c r="C45" s="85" t="s">
-        <v>367</v>
-      </c>
-      <c r="D45" s="85" t="s">
+      <c r="B45" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="85" t="s">
-        <v>365</v>
-      </c>
-      <c r="F45" s="85" t="s">
-        <v>366</v>
+      <c r="E45" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="F45" s="88" t="s">
+        <v>378</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="84" t="s">
-        <v>361</v>
-      </c>
-      <c r="C46" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="B46" s="83" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="84" t="s">
+        <v>381</v>
+      </c>
+      <c r="F46" s="88"/>
       <c r="G46" s="9"/>
       <c r="H46" s="11"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="B47" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="F47" s="88" t="s">
+        <v>375</v>
+      </c>
       <c r="G47" s="9"/>
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>290</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="E48" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="F48" s="10">
-        <v>1</v>
-      </c>
+      <c r="B48" s="83" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="11"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="B49" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>363</v>
+      </c>
+      <c r="D49" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1</v>
+      <c r="E49" s="84" t="s">
+        <v>361</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>362</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="84" t="s">
-        <v>394</v>
-      </c>
-      <c r="C50" s="85" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="85" t="s">
-        <v>395</v>
-      </c>
+      <c r="B50" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="84" t="s">
-        <v>396</v>
-      </c>
-      <c r="C51" s="85" t="s">
-        <v>397</v>
-      </c>
-      <c r="D51" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="E51" s="85" t="s">
-        <v>398</v>
-      </c>
+      <c r="B51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="11"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="84" t="s">
-        <v>391</v>
-      </c>
-      <c r="C52" s="85" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="85" t="s">
-        <v>392</v>
-      </c>
-      <c r="F52" s="85" t="s">
-        <v>393</v>
-      </c>
+      <c r="B52" s="92" t="s">
+        <v>426</v>
+      </c>
+      <c r="C52" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="D52" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="B53" s="92" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="93" t="s">
+        <v>431</v>
+      </c>
+      <c r="D53" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="93" t="s">
+        <v>430</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="84" t="s">
+        <v>391</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="F57" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E56" s="86" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E61" s="85" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E62" s="85" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E63" s="85" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E57" s="86" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E58" s="86" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E59" s="56" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E61" s="87" t="s">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E64" s="56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E62" s="86" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E63" s="86" t="s">
-        <v>403</v>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="85" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="85" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3541,6 +3803,7 @@
     <hyperlink ref="B5" location="Imbruvica!A1" display="Imbruvica (ibrutinib)" xr:uid="{7FDB0815-D4AE-4D2E-8346-C8D60CD6ADD5}"/>
     <hyperlink ref="B4" location="Botox!A1" display="Botox (onabotulinumtoxinA)" xr:uid="{F1A298F7-9913-43DD-BAC4-B7C5601805BB}"/>
     <hyperlink ref="B17" location="Elahere!A1" display="Elahere (mirvetuximab soravtansine)" xr:uid="{99CBA26C-AFD6-49C3-84DC-20B5E8248965}"/>
+    <hyperlink ref="B19" location="Epkinly!A1" display="Epkinly (epcoritamab)" xr:uid="{389431BE-2174-48A3-AE52-85ACFEBF6548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3551,10 +3814,10 @@
   <dimension ref="A1:GV113"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BR41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY73" sqref="AY73"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3567,8 +3830,8 @@
     <col min="81" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3706,28 +3969,28 @@
         <v>113</v>
       </c>
       <c r="AU2" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV2" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW2" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX2" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="AV2" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="AW2" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="AX2" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="AY2" s="79" t="s">
+      <c r="AY2" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="AZ2" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA2" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="AZ2" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="BA2" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="BB2" s="79" t="s">
-        <v>333</v>
+      <c r="BB2" s="78" t="s">
+        <v>330</v>
       </c>
       <c r="BC2" s="44"/>
       <c r="BD2" s="44"/>
@@ -3812,7 +4075,7 @@
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
@@ -3820,121 +4083,121 @@
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72">
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71">
         <f t="shared" ref="AA3:AF3" si="1">+AA5+AA8+AA12</f>
         <v>4709</v>
       </c>
-      <c r="AB3" s="72">
+      <c r="AB3" s="71">
         <f t="shared" si="1"/>
         <v>5185</v>
       </c>
-      <c r="AC3" s="72">
+      <c r="AC3" s="71">
         <f t="shared" si="1"/>
         <v>5124</v>
       </c>
-      <c r="AD3" s="72">
+      <c r="AD3" s="71">
         <f t="shared" si="1"/>
         <v>4918</v>
       </c>
-      <c r="AE3" s="72">
+      <c r="AE3" s="71">
         <f t="shared" si="1"/>
         <v>4446</v>
       </c>
-      <c r="AF3" s="72">
+      <c r="AF3" s="71">
         <f t="shared" si="1"/>
         <v>4918</v>
       </c>
-      <c r="AG3" s="72">
+      <c r="AG3" s="71">
         <f t="shared" ref="AG3:AL3" si="2">+AG5+AG8+AG12</f>
         <v>5041</v>
       </c>
-      <c r="AH3" s="72">
+      <c r="AH3" s="71">
         <f t="shared" si="2"/>
         <v>5166</v>
       </c>
-      <c r="AI3" s="72">
+      <c r="AI3" s="71">
         <f t="shared" si="2"/>
         <v>5089</v>
       </c>
-      <c r="AJ3" s="72">
+      <c r="AJ3" s="71">
         <f t="shared" si="2"/>
         <v>5316</v>
       </c>
-      <c r="AK3" s="72">
+      <c r="AK3" s="71">
         <f t="shared" si="2"/>
         <v>5790</v>
       </c>
-      <c r="AL3" s="72">
+      <c r="AL3" s="71">
         <f t="shared" si="2"/>
         <v>5958</v>
       </c>
-      <c r="AM3" s="72">
+      <c r="AM3" s="71">
         <f t="shared" ref="AM3:AS3" si="3">+AM5+AM8+AM12</f>
         <v>5744</v>
       </c>
-      <c r="AN3" s="72">
+      <c r="AN3" s="71">
         <f t="shared" si="3"/>
         <v>6120</v>
       </c>
-      <c r="AO3" s="72">
+      <c r="AO3" s="71">
         <f t="shared" si="3"/>
         <v>6674</v>
       </c>
-      <c r="AP3" s="72">
+      <c r="AP3" s="71">
         <f t="shared" si="3"/>
         <v>6746</v>
       </c>
-      <c r="AQ3" s="72">
+      <c r="AQ3" s="71">
         <f t="shared" si="3"/>
         <v>6141</v>
       </c>
-      <c r="AR3" s="72">
+      <c r="AR3" s="71">
         <f t="shared" si="3"/>
         <v>7207</v>
       </c>
-      <c r="AS3" s="72">
+      <c r="AS3" s="71">
         <f t="shared" si="3"/>
         <v>7651</v>
       </c>
-      <c r="AT3" s="72">
+      <c r="AT3" s="71">
         <f t="shared" ref="AT3:BB3" si="4">+AT5+AT8+AT12</f>
         <v>7925</v>
       </c>
-      <c r="AU3" s="72">
+      <c r="AU3" s="71">
         <f t="shared" si="4"/>
         <v>5587</v>
       </c>
-      <c r="AV3" s="72">
+      <c r="AV3" s="71">
         <f t="shared" si="4"/>
         <v>6813</v>
       </c>
-      <c r="AW3" s="72">
+      <c r="AW3" s="71">
         <f t="shared" si="4"/>
         <v>6783</v>
       </c>
-      <c r="AX3" s="72">
+      <c r="AX3" s="71">
         <f t="shared" si="4"/>
         <v>6953</v>
       </c>
-      <c r="AY3" s="72">
+      <c r="AY3" s="71">
         <f t="shared" si="4"/>
         <v>5371</v>
       </c>
-      <c r="AZ3" s="72">
+      <c r="AZ3" s="71">
         <f t="shared" si="4"/>
-        <v>5555.5</v>
-      </c>
-      <c r="BA3" s="72">
+        <v>6971</v>
+      </c>
+      <c r="BA3" s="71">
         <f t="shared" si="4"/>
         <v>6117.7</v>
       </c>
-      <c r="BB3" s="72">
+      <c r="BB3" s="71">
         <f t="shared" si="4"/>
         <v>6361.2</v>
       </c>
-      <c r="BC3" s="72"/>
+      <c r="BC3" s="71"/>
       <c r="BD3" s="44"/>
       <c r="BE3" s="44"/>
       <c r="BM3" s="16">
@@ -3963,31 +4226,31 @@
       </c>
       <c r="BS3" s="16">
         <f t="shared" si="5"/>
-        <v>23405.4</v>
+        <v>24820.9</v>
       </c>
       <c r="BT3" s="16">
         <f t="shared" si="5"/>
-        <v>25713.578000000001</v>
+        <v>27141.86</v>
       </c>
       <c r="BU3" s="16">
         <f t="shared" si="5"/>
-        <v>24748.959140000003</v>
+        <v>26052.833600000002</v>
       </c>
       <c r="BV3" s="16">
         <f t="shared" si="5"/>
-        <v>24102.606954200004</v>
+        <v>25311.792848000005</v>
       </c>
       <c r="BW3" s="16">
         <f t="shared" si="5"/>
-        <v>22265.423914826002</v>
+        <v>23264.219145440002</v>
       </c>
       <c r="BX3" s="16">
         <f t="shared" si="5"/>
-        <v>21653.256008270782</v>
+        <v>22558.6819758032</v>
       </c>
       <c r="BY3" s="16">
         <f t="shared" si="5"/>
-        <v>16237.017059639278</v>
+        <v>16753.883032617559</v>
       </c>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.2">
@@ -4143,8 +4406,7 @@
         <v>2270</v>
       </c>
       <c r="AZ5" s="16">
-        <f>+AV5*0.5</f>
-        <v>2006</v>
+        <v>2814</v>
       </c>
       <c r="BA5" s="16">
         <f>+AW5*0.6</f>
@@ -4190,31 +4452,31 @@
       </c>
       <c r="BS5" s="16">
         <f>SUM(AY5:BB5)</f>
-        <v>8386.6</v>
+        <v>9194.6</v>
       </c>
       <c r="BT5" s="16">
         <f>+BS5*0.9</f>
-        <v>7547.9400000000005</v>
+        <v>8275.1400000000012</v>
       </c>
       <c r="BU5" s="16">
         <f>+BT5*0.8</f>
-        <v>6038.3520000000008</v>
+        <v>6620.112000000001</v>
       </c>
       <c r="BV5" s="16">
         <f>+BU5*0.8</f>
-        <v>4830.6816000000008</v>
+        <v>5296.0896000000012</v>
       </c>
       <c r="BW5" s="16">
         <f t="shared" ref="BW5:BY5" si="6">+BV5*0.5</f>
-        <v>2415.3408000000004</v>
+        <v>2648.0448000000006</v>
       </c>
       <c r="BX5" s="16">
         <f t="shared" si="6"/>
-        <v>1207.6704000000002</v>
+        <v>1324.0224000000003</v>
       </c>
       <c r="BY5" s="16">
         <f t="shared" si="6"/>
-        <v>603.8352000000001</v>
+        <v>662.01120000000014</v>
       </c>
     </row>
     <row r="6" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4273,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="47" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AK6" s="42" t="s">
         <v>201</v>
@@ -4300,34 +4562,34 @@
         <v>202</v>
       </c>
       <c r="AS6" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="AT6" s="73" t="s">
-        <v>327</v>
-      </c>
-      <c r="AU6" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="AV6" s="83" t="s">
-        <v>339</v>
-      </c>
-      <c r="AW6" s="83" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX6" s="83" t="s">
-        <v>345</v>
-      </c>
-      <c r="AY6" s="81" t="s">
-        <v>337</v>
-      </c>
-      <c r="AZ6" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="BA6" s="83" t="s">
-        <v>347</v>
-      </c>
-      <c r="BB6" s="83" t="s">
-        <v>348</v>
+        <v>249</v>
+      </c>
+      <c r="AT6" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU6" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="AV6" s="82" t="s">
+        <v>336</v>
+      </c>
+      <c r="AW6" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="AX6" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="AY6" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="AZ6" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="BA6" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="BB6" s="82" t="s">
+        <v>344</v>
       </c>
       <c r="BC6" s="16"/>
       <c r="BD6" s="16"/>
@@ -4348,16 +4610,16 @@
         <v>0</v>
       </c>
       <c r="BO6" s="47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="BP6" s="47" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="BQ6" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="BR6" s="83" t="s">
-        <v>349</v>
+        <v>242</v>
+      </c>
+      <c r="BR6" s="82" t="s">
+        <v>345</v>
       </c>
       <c r="BS6" s="16"/>
       <c r="BT6" s="16"/>
@@ -4470,8 +4732,7 @@
         <v>838</v>
       </c>
       <c r="AZ7" s="16">
-        <f>+AV7*0.95</f>
-        <v>861.65</v>
+        <v>833</v>
       </c>
       <c r="BA7" s="16">
         <f>+AW7*0.95</f>
@@ -4517,31 +4778,31 @@
       </c>
       <c r="BS7" s="16">
         <f t="shared" ref="BS7:BS29" si="13">SUM(AY7:BB7)</f>
-        <v>3420.1</v>
+        <v>3391.45</v>
       </c>
       <c r="BT7" s="16">
         <f t="shared" ref="BT7:BY7" si="14">+BS7*0.9</f>
-        <v>3078.09</v>
+        <v>3052.3049999999998</v>
       </c>
       <c r="BU7" s="16">
         <f t="shared" si="14"/>
-        <v>2770.2810000000004</v>
+        <v>2747.0744999999997</v>
       </c>
       <c r="BV7" s="16">
         <f t="shared" si="14"/>
-        <v>2493.2529000000004</v>
+        <v>2472.3670499999998</v>
       </c>
       <c r="BW7" s="16">
         <f t="shared" si="14"/>
-        <v>2243.9276100000006</v>
+        <v>2225.130345</v>
       </c>
       <c r="BX7" s="16">
         <f t="shared" si="14"/>
-        <v>2019.5348490000006</v>
+        <v>2002.6173105</v>
       </c>
       <c r="BY7" s="16">
         <f t="shared" si="14"/>
-        <v>1817.5813641000007</v>
+        <v>1802.3555794500001</v>
       </c>
     </row>
     <row r="8" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4648,8 +4909,7 @@
         <v>2008</v>
       </c>
       <c r="AZ8" s="16">
-        <f>+AV8*1.3</f>
-        <v>2447.9</v>
+        <v>2727</v>
       </c>
       <c r="BA8" s="16">
         <f>+AW8*1.25</f>
@@ -4695,31 +4955,31 @@
       </c>
       <c r="BS8" s="16">
         <f t="shared" si="13"/>
-        <v>9986.1999999999989</v>
+        <v>10265.299999999999</v>
       </c>
       <c r="BT8" s="16">
         <f>+BS8*1.3</f>
-        <v>12982.06</v>
+        <v>13344.89</v>
       </c>
       <c r="BU8" s="16">
         <f>+BT8*1.03</f>
-        <v>13371.5218</v>
+        <v>13745.236699999999</v>
       </c>
       <c r="BV8" s="16">
         <f t="shared" ref="BV8:BY8" si="15">+BU8*1.03</f>
-        <v>13772.667454</v>
+        <v>14157.593800999999</v>
       </c>
       <c r="BW8" s="16">
         <f t="shared" si="15"/>
-        <v>14185.84747762</v>
+        <v>14582.32161503</v>
       </c>
       <c r="BX8" s="16">
         <f t="shared" si="15"/>
-        <v>14611.422901948601</v>
+        <v>15019.7912634809</v>
       </c>
       <c r="BY8" s="16">
         <f t="shared" si="15"/>
-        <v>15049.76558900706</v>
+        <v>15470.385001385328</v>
       </c>
     </row>
     <row r="9" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4827,8 +5087,7 @@
         <v>633</v>
       </c>
       <c r="AZ9" s="16">
-        <f>+AV9*0.97</f>
-        <v>664.44999999999993</v>
+        <v>729</v>
       </c>
       <c r="BA9" s="16">
         <f>+AW9*0.97</f>
@@ -4874,31 +5133,31 @@
       </c>
       <c r="BS9" s="16">
         <f t="shared" si="13"/>
-        <v>2595.31</v>
+        <v>2659.86</v>
       </c>
       <c r="BT9" s="16">
         <f t="shared" ref="BT9:BY9" si="16">+BS9*1.05</f>
-        <v>2725.0754999999999</v>
+        <v>2792.8530000000001</v>
       </c>
       <c r="BU9" s="16">
         <f t="shared" si="16"/>
-        <v>2861.3292750000001</v>
+        <v>2932.4956500000003</v>
       </c>
       <c r="BV9" s="16">
         <f t="shared" si="16"/>
-        <v>3004.39573875</v>
+        <v>3079.1204325000003</v>
       </c>
       <c r="BW9" s="16">
         <f t="shared" si="16"/>
-        <v>3154.6155256874999</v>
+        <v>3233.0764541250005</v>
       </c>
       <c r="BX9" s="16">
         <f t="shared" si="16"/>
-        <v>3312.3463019718752</v>
+        <v>3394.7302768312506</v>
       </c>
       <c r="BY9" s="16">
         <f t="shared" si="16"/>
-        <v>3477.9636170704689</v>
+        <v>3564.4667906728132</v>
       </c>
     </row>
     <row r="10" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5006,8 +5265,7 @@
         <v>748</v>
       </c>
       <c r="AZ10" s="16">
-        <f>+AV10*1.03</f>
-        <v>770.44</v>
+        <v>814</v>
       </c>
       <c r="BA10" s="16">
         <f>+AW10*1.03</f>
@@ -5053,35 +5311,35 @@
       </c>
       <c r="BS10" s="16">
         <f t="shared" si="13"/>
-        <v>3088.16</v>
+        <v>3131.7200000000003</v>
       </c>
       <c r="BT10" s="16">
         <f t="shared" ref="BT10:BY10" si="17">+BS10*1.05</f>
-        <v>3242.5680000000002</v>
+        <v>3288.3060000000005</v>
       </c>
       <c r="BU10" s="16">
         <f t="shared" si="17"/>
-        <v>3404.6964000000003</v>
+        <v>3452.7213000000006</v>
       </c>
       <c r="BV10" s="16">
         <f t="shared" si="17"/>
-        <v>3574.9312200000004</v>
+        <v>3625.3573650000008</v>
       </c>
       <c r="BW10" s="16">
         <f t="shared" si="17"/>
-        <v>3753.6777810000008</v>
+        <v>3806.6252332500007</v>
       </c>
       <c r="BX10" s="16">
         <f t="shared" si="17"/>
-        <v>3941.3616700500011</v>
+        <v>3996.9564949125011</v>
       </c>
       <c r="BY10" s="16">
         <f t="shared" si="17"/>
-        <v>4138.4297535525011</v>
+        <v>4196.8043196581266</v>
       </c>
     </row>
     <row r="11" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>117</v>
       </c>
       <c r="C11" s="16"/>
@@ -5184,8 +5442,7 @@
         <v>614</v>
       </c>
       <c r="AZ11" s="16">
-        <f>+AV11*1.1</f>
-        <v>628.1</v>
+        <v>637</v>
       </c>
       <c r="BA11" s="16">
         <f>+AW11*1.1</f>
@@ -5231,31 +5488,31 @@
       </c>
       <c r="BS11" s="16">
         <f t="shared" si="13"/>
-        <v>2539</v>
+        <v>2547.9</v>
       </c>
       <c r="BT11" s="16">
         <f t="shared" ref="BT11:BX11" si="18">+BS11*1.03</f>
-        <v>2615.17</v>
+        <v>2624.337</v>
       </c>
       <c r="BU11" s="16">
         <f t="shared" si="18"/>
-        <v>2693.6251000000002</v>
+        <v>2703.06711</v>
       </c>
       <c r="BV11" s="16">
         <f t="shared" si="18"/>
-        <v>2774.4338530000005</v>
+        <v>2784.1591232999999</v>
       </c>
       <c r="BW11" s="16">
         <f t="shared" si="18"/>
-        <v>2857.6668685900004</v>
+        <v>2867.6838969989999</v>
       </c>
       <c r="BX11" s="16">
         <f t="shared" si="18"/>
-        <v>2943.3968746477003</v>
+        <v>2953.7144139089701</v>
       </c>
       <c r="BY11" s="15">
         <f>+BX11*0.1</f>
-        <v>294.33968746477007</v>
+        <v>295.37144139089702</v>
       </c>
     </row>
     <row r="12" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5362,8 +5619,7 @@
         <v>1093</v>
       </c>
       <c r="AZ12" s="16">
-        <f>+AV12*1.2</f>
-        <v>1101.5999999999999</v>
+        <v>1430</v>
       </c>
       <c r="BA12" s="16">
         <f>+AW12*1.2</f>
@@ -5409,31 +5665,31 @@
       </c>
       <c r="BS12" s="16">
         <f t="shared" si="13"/>
-        <v>5032.6000000000004</v>
+        <v>5361</v>
       </c>
       <c r="BT12" s="16">
         <f t="shared" ref="BT12:BX12" si="19">+BS12*1.03</f>
-        <v>5183.5780000000004</v>
+        <v>5521.83</v>
       </c>
       <c r="BU12" s="16">
         <f t="shared" si="19"/>
-        <v>5339.0853400000005</v>
+        <v>5687.4849000000004</v>
       </c>
       <c r="BV12" s="16">
         <f t="shared" si="19"/>
-        <v>5499.2579002000011</v>
+        <v>5858.1094470000007</v>
       </c>
       <c r="BW12" s="16">
         <f t="shared" si="19"/>
-        <v>5664.2356372060012</v>
+        <v>6033.8527304100007</v>
       </c>
       <c r="BX12" s="16">
         <f t="shared" si="19"/>
-        <v>5834.1627063221813</v>
+        <v>6214.8683123223009</v>
       </c>
       <c r="BY12" s="15">
         <f t="shared" ref="BY12:BY13" si="20">+BX12*0.1</f>
-        <v>583.41627063221813</v>
+        <v>621.48683123223009</v>
       </c>
     </row>
     <row r="13" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5540,8 +5796,7 @@
         <v>694</v>
       </c>
       <c r="AZ13" s="16">
-        <f>+AV13*1.05</f>
-        <v>690.9</v>
+        <v>774</v>
       </c>
       <c r="BA13" s="16">
         <f>+AW13*1.05</f>
@@ -5587,31 +5842,31 @@
       </c>
       <c r="BS13" s="16">
         <f t="shared" si="13"/>
-        <v>3001.9000000000005</v>
+        <v>3085</v>
       </c>
       <c r="BT13" s="16">
         <f t="shared" ref="BT13:BX13" si="21">+BS13*1.03</f>
-        <v>3091.9570000000008</v>
+        <v>3177.55</v>
       </c>
       <c r="BU13" s="16">
         <f t="shared" si="21"/>
-        <v>3184.7157100000009</v>
+        <v>3272.8765000000003</v>
       </c>
       <c r="BV13" s="16">
         <f t="shared" si="21"/>
-        <v>3280.2571813000009</v>
+        <v>3371.0627950000003</v>
       </c>
       <c r="BW13" s="16">
         <f t="shared" si="21"/>
-        <v>3378.6648967390011</v>
+        <v>3472.1946788500004</v>
       </c>
       <c r="BX13" s="16">
         <f t="shared" si="21"/>
-        <v>3480.0248436411712</v>
+        <v>3576.3605192155005</v>
       </c>
       <c r="BY13" s="15">
         <f t="shared" si="20"/>
-        <v>348.00248436411715</v>
+        <v>357.63605192155006</v>
       </c>
     </row>
     <row r="14" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5718,8 +5973,7 @@
         <v>297</v>
       </c>
       <c r="AZ14" s="16">
-        <f>+AV14*0.9</f>
-        <v>331.2</v>
+        <v>343</v>
       </c>
       <c r="BA14" s="16">
         <f>+AW14*0.9</f>
@@ -5765,31 +6019,31 @@
       </c>
       <c r="BS14" s="16">
         <f t="shared" si="13"/>
-        <v>1217.7000000000003</v>
+        <v>1229.5</v>
       </c>
       <c r="BT14" s="16">
         <f t="shared" ref="BT14:BY14" si="22">+BS14*1.05</f>
-        <v>1278.5850000000003</v>
+        <v>1290.9750000000001</v>
       </c>
       <c r="BU14" s="16">
         <f t="shared" si="22"/>
-        <v>1342.5142500000004</v>
+        <v>1355.5237500000003</v>
       </c>
       <c r="BV14" s="16">
         <f t="shared" si="22"/>
-        <v>1409.6399625000006</v>
+        <v>1423.2999375000004</v>
       </c>
       <c r="BW14" s="16">
         <f t="shared" si="22"/>
-        <v>1480.1219606250006</v>
+        <v>1494.4649343750004</v>
       </c>
       <c r="BX14" s="16">
         <f t="shared" si="22"/>
-        <v>1554.1280586562507</v>
+        <v>1569.1881810937505</v>
       </c>
       <c r="BY14" s="16">
         <f t="shared" si="22"/>
-        <v>1631.8344615890633</v>
+        <v>1647.647590148438</v>
       </c>
     </row>
     <row r="15" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5896,11 +6150,10 @@
         <v>349</v>
       </c>
       <c r="AZ15" s="16">
-        <f t="shared" ref="AZ15:BB15" si="23">+AV15*0.9</f>
-        <v>348.3</v>
+        <v>369</v>
       </c>
       <c r="BA15" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AZ15:BB15" si="23">+AW15*0.9</f>
         <v>333</v>
       </c>
       <c r="BB15" s="16">
@@ -5943,31 +6196,31 @@
       </c>
       <c r="BS15" s="16">
         <f t="shared" si="13"/>
-        <v>1308.4000000000001</v>
+        <v>1329.1</v>
       </c>
       <c r="BT15" s="16">
         <f t="shared" ref="BT15:BY15" si="24">+BS15*0.7</f>
-        <v>915.88</v>
+        <v>930.36999999999989</v>
       </c>
       <c r="BU15" s="16">
         <f t="shared" si="24"/>
-        <v>641.11599999999999</v>
+        <v>651.2589999999999</v>
       </c>
       <c r="BV15" s="16">
         <f t="shared" si="24"/>
-        <v>448.78119999999996</v>
+        <v>455.8812999999999</v>
       </c>
       <c r="BW15" s="16">
         <f t="shared" si="24"/>
-        <v>314.14683999999994</v>
+        <v>319.1169099999999</v>
       </c>
       <c r="BX15" s="16">
         <f t="shared" si="24"/>
-        <v>219.90278799999996</v>
+        <v>223.38183699999993</v>
       </c>
       <c r="BY15" s="16">
         <f t="shared" si="24"/>
-        <v>153.93195159999996</v>
+        <v>156.36728589999996</v>
       </c>
     </row>
     <row r="16" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -6074,11 +6327,10 @@
         <v>319</v>
       </c>
       <c r="AZ16" s="16">
-        <f t="shared" ref="AZ16:BB18" si="25">+AV16</f>
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="BA16" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="AZ16:BB18" si="25">+AW16</f>
         <v>298</v>
       </c>
       <c r="BB16" s="16">
@@ -6121,31 +6373,31 @@
       </c>
       <c r="BS16" s="16">
         <f t="shared" si="13"/>
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="BT16" s="16">
         <f t="shared" ref="BT16:BY16" si="26">+BS16*0.9</f>
-        <v>1140.3</v>
+        <v>1128.6000000000001</v>
       </c>
       <c r="BU16" s="16">
         <f t="shared" si="26"/>
-        <v>1026.27</v>
+        <v>1015.7400000000001</v>
       </c>
       <c r="BV16" s="16">
         <f t="shared" si="26"/>
-        <v>923.64300000000003</v>
+        <v>914.16600000000017</v>
       </c>
       <c r="BW16" s="16">
         <f t="shared" si="26"/>
-        <v>831.27870000000007</v>
+        <v>822.74940000000015</v>
       </c>
       <c r="BX16" s="16">
         <f t="shared" si="26"/>
-        <v>748.15083000000004</v>
+        <v>740.47446000000014</v>
       </c>
       <c r="BY16" s="16">
         <f t="shared" si="26"/>
-        <v>673.33574700000008</v>
+        <v>666.4270140000001</v>
       </c>
     </row>
     <row r="17" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -6260,8 +6512,7 @@
         <v>285</v>
       </c>
       <c r="AZ17" s="16">
-        <f t="shared" si="25"/>
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="BA17" s="16">
         <f t="shared" si="25"/>
@@ -6307,31 +6558,31 @@
       </c>
       <c r="BS17" s="16">
         <f t="shared" si="13"/>
-        <v>1248</v>
+        <v>1338</v>
       </c>
       <c r="BT17" s="16">
         <f t="shared" ref="BT17:BY17" si="27">+BS17*1.03</f>
-        <v>1285.44</v>
+        <v>1378.14</v>
       </c>
       <c r="BU17" s="16">
         <f t="shared" si="27"/>
-        <v>1324.0032000000001</v>
+        <v>1419.4842000000001</v>
       </c>
       <c r="BV17" s="16">
         <f t="shared" si="27"/>
-        <v>1363.7232960000001</v>
+        <v>1462.0687260000002</v>
       </c>
       <c r="BW17" s="16">
         <f t="shared" si="27"/>
-        <v>1404.6349948800002</v>
+        <v>1505.9307877800002</v>
       </c>
       <c r="BX17" s="16">
         <f t="shared" si="27"/>
-        <v>1446.7740447264002</v>
+        <v>1551.1087114134002</v>
       </c>
       <c r="BY17" s="16">
         <f t="shared" si="27"/>
-        <v>1490.1772660681922</v>
+        <v>1597.6419727558023</v>
       </c>
     </row>
     <row r="18" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -6439,8 +6690,7 @@
         <v>200</v>
       </c>
       <c r="AZ18" s="16">
-        <f t="shared" si="25"/>
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="BA18" s="16">
         <f t="shared" si="25"/>
@@ -6486,31 +6736,31 @@
       </c>
       <c r="BS18" s="16">
         <f t="shared" si="13"/>
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="BT18" s="16">
         <f t="shared" ref="BT18:BY18" si="28">+BS18*0.9</f>
-        <v>722.7</v>
+        <v>731.7</v>
       </c>
       <c r="BU18" s="16">
         <f t="shared" si="28"/>
-        <v>650.43000000000006</v>
+        <v>658.53000000000009</v>
       </c>
       <c r="BV18" s="16">
         <f t="shared" si="28"/>
-        <v>585.38700000000006</v>
+        <v>592.67700000000013</v>
       </c>
       <c r="BW18" s="16">
         <f t="shared" si="28"/>
-        <v>526.84830000000011</v>
+        <v>533.40930000000014</v>
       </c>
       <c r="BX18" s="16">
         <f t="shared" si="28"/>
-        <v>474.16347000000013</v>
+        <v>480.06837000000013</v>
       </c>
       <c r="BY18" s="16">
         <f t="shared" si="28"/>
-        <v>426.7471230000001</v>
+        <v>432.06153300000011</v>
       </c>
     </row>
     <row r="19" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -6617,16 +6867,15 @@
         <v>57</v>
       </c>
       <c r="AZ19" s="16">
-        <f>+AY19-3</f>
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="BA19" s="16">
         <f>+AZ19-3</f>
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="BB19" s="16">
         <f>+BA19-3</f>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="BC19" s="16"/>
       <c r="BD19" s="16"/>
@@ -6664,31 +6913,31 @@
       </c>
       <c r="BS19" s="16">
         <f t="shared" si="13"/>
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="BT19" s="16">
         <f t="shared" ref="BT19:BY19" si="29">+BS19*0.9</f>
-        <v>189</v>
+        <v>129.6</v>
       </c>
       <c r="BU19" s="16">
         <f t="shared" si="29"/>
-        <v>170.1</v>
+        <v>116.64</v>
       </c>
       <c r="BV19" s="16">
         <f t="shared" si="29"/>
-        <v>153.09</v>
+        <v>104.976</v>
       </c>
       <c r="BW19" s="16">
         <f t="shared" si="29"/>
-        <v>137.78100000000001</v>
+        <v>94.478400000000008</v>
       </c>
       <c r="BX19" s="16">
         <f t="shared" si="29"/>
-        <v>124.00290000000001</v>
+        <v>85.030560000000008</v>
       </c>
       <c r="BY19" s="16">
         <f t="shared" si="29"/>
-        <v>111.60261000000001</v>
+        <v>76.527504000000008</v>
       </c>
     </row>
     <row r="20" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -6795,11 +7044,10 @@
         <v>266</v>
       </c>
       <c r="AZ20" s="16">
-        <f t="shared" ref="AZ20:BB21" si="30">+AV20</f>
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="BA20" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="AZ20:BB21" si="30">+AW20</f>
         <v>288</v>
       </c>
       <c r="BB20" s="16">
@@ -6842,31 +7090,31 @@
       </c>
       <c r="BS20" s="16">
         <f t="shared" si="13"/>
-        <v>1115</v>
+        <v>1058</v>
       </c>
       <c r="BT20" s="16">
         <f t="shared" ref="BT20:BY20" si="31">+BS20*0.5</f>
-        <v>557.5</v>
+        <v>529</v>
       </c>
       <c r="BU20" s="16">
         <f t="shared" si="31"/>
-        <v>278.75</v>
+        <v>264.5</v>
       </c>
       <c r="BV20" s="16">
         <f t="shared" si="31"/>
-        <v>139.375</v>
+        <v>132.25</v>
       </c>
       <c r="BW20" s="16">
         <f t="shared" si="31"/>
-        <v>69.6875</v>
+        <v>66.125</v>
       </c>
       <c r="BX20" s="16">
         <f t="shared" si="31"/>
-        <v>34.84375</v>
+        <v>33.0625</v>
       </c>
       <c r="BY20" s="16">
         <f t="shared" si="31"/>
-        <v>17.421875</v>
+        <v>16.53125</v>
       </c>
     </row>
     <row r="21" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -6973,8 +7221,7 @@
         <v>74</v>
       </c>
       <c r="AZ21" s="16">
-        <f t="shared" si="30"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BA21" s="16">
         <f t="shared" si="30"/>
@@ -7020,31 +7267,31 @@
       </c>
       <c r="BS21" s="16">
         <f t="shared" si="13"/>
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="BT21" s="16">
         <f t="shared" ref="BT21:BY21" si="32">+BS21*0.9</f>
-        <v>243.9</v>
+        <v>252.9</v>
       </c>
       <c r="BU21" s="16">
         <f t="shared" si="32"/>
-        <v>219.51000000000002</v>
+        <v>227.61</v>
       </c>
       <c r="BV21" s="16">
         <f t="shared" si="32"/>
-        <v>197.55900000000003</v>
+        <v>204.84900000000002</v>
       </c>
       <c r="BW21" s="16">
         <f t="shared" si="32"/>
-        <v>177.80310000000003</v>
+        <v>184.36410000000001</v>
       </c>
       <c r="BX21" s="16">
         <f t="shared" si="32"/>
-        <v>160.02279000000004</v>
+        <v>165.92769000000001</v>
       </c>
       <c r="BY21" s="16">
         <f t="shared" si="32"/>
-        <v>144.02051100000006</v>
+        <v>149.33492100000001</v>
       </c>
     </row>
     <row r="22" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7151,16 +7398,15 @@
         <v>91</v>
       </c>
       <c r="AZ22" s="16">
-        <f>+AY22-1</f>
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="BA22" s="16">
         <f>+AZ22-1</f>
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="BB22" s="16">
         <f>+BA22-1</f>
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="BC22" s="16"/>
       <c r="BD22" s="16"/>
@@ -7198,31 +7444,31 @@
       </c>
       <c r="BS22" s="16">
         <f t="shared" si="13"/>
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="BT22" s="16">
         <f t="shared" ref="BT22:BY22" si="33">+BS22*0.9</f>
-        <v>322.2</v>
+        <v>357.3</v>
       </c>
       <c r="BU22" s="16">
         <f t="shared" si="33"/>
-        <v>289.98</v>
+        <v>321.57</v>
       </c>
       <c r="BV22" s="16">
         <f t="shared" si="33"/>
-        <v>260.98200000000003</v>
+        <v>289.41300000000001</v>
       </c>
       <c r="BW22" s="16">
         <f t="shared" si="33"/>
-        <v>234.88380000000004</v>
+        <v>260.4717</v>
       </c>
       <c r="BX22" s="16">
         <f t="shared" si="33"/>
-        <v>211.39542000000003</v>
+        <v>234.42453</v>
       </c>
       <c r="BY22" s="16">
         <f t="shared" si="33"/>
-        <v>190.25587800000002</v>
+        <v>210.982077</v>
       </c>
     </row>
     <row r="23" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7329,8 +7575,7 @@
         <v>203</v>
       </c>
       <c r="AZ23" s="16">
-        <f>+AV23*1.1</f>
-        <v>215.60000000000002</v>
+        <v>231</v>
       </c>
       <c r="BA23" s="16">
         <f>+AW23*1.1</f>
@@ -7376,31 +7621,31 @@
       </c>
       <c r="BS23" s="16">
         <f t="shared" si="13"/>
-        <v>932.30000000000018</v>
+        <v>947.7</v>
       </c>
       <c r="BT23" s="16">
         <f>+BS23*1.2</f>
-        <v>1118.7600000000002</v>
+        <v>1137.24</v>
       </c>
       <c r="BU23" s="16">
         <f>+BT23*1.2</f>
-        <v>1342.5120000000002</v>
+        <v>1364.6879999999999</v>
       </c>
       <c r="BV23" s="16">
         <f>+BU23*1.1</f>
-        <v>1476.7632000000003</v>
+        <v>1501.1568</v>
       </c>
       <c r="BW23" s="16">
         <f>+BV23*1.1</f>
-        <v>1624.4395200000006</v>
+        <v>1651.2724800000001</v>
       </c>
       <c r="BX23" s="16">
         <f>+BW23*1.03</f>
-        <v>1673.1727056000007</v>
+        <v>1700.8106544000002</v>
       </c>
       <c r="BY23" s="15">
         <f>+BX23*0.1</f>
-        <v>167.31727056000008</v>
+        <v>170.08106544000003</v>
       </c>
     </row>
     <row r="24" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7515,8 +7760,7 @@
         <v>115</v>
       </c>
       <c r="AZ24" s="16">
-        <f>+AV24</f>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="BA24" s="16">
         <f>+AW24</f>
@@ -7562,31 +7806,31 @@
       </c>
       <c r="BS24" s="16">
         <f t="shared" si="13"/>
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="BT24" s="16">
         <f t="shared" ref="BT24:BY24" si="34">+BS24*0.9</f>
-        <v>418.5</v>
+        <v>414.90000000000003</v>
       </c>
       <c r="BU24" s="16">
         <f t="shared" si="34"/>
-        <v>376.65000000000003</v>
+        <v>373.41</v>
       </c>
       <c r="BV24" s="16">
         <f t="shared" si="34"/>
-        <v>338.98500000000001</v>
+        <v>336.06900000000002</v>
       </c>
       <c r="BW24" s="16">
         <f t="shared" si="34"/>
-        <v>305.0865</v>
+        <v>302.46210000000002</v>
       </c>
       <c r="BX24" s="16">
         <f t="shared" si="34"/>
-        <v>274.57785000000001</v>
+        <v>272.21589</v>
       </c>
       <c r="BY24" s="16">
         <f t="shared" si="34"/>
-        <v>247.12006500000001</v>
+        <v>244.99430100000001</v>
       </c>
     </row>
     <row r="25" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7693,16 +7937,15 @@
         <v>59</v>
       </c>
       <c r="AZ25" s="16">
-        <f>+AY25-1</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="BA25" s="16">
         <f>+AZ25-1</f>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="BB25" s="16">
         <f>+BA25-1</f>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BC25" s="16"/>
       <c r="BD25" s="16"/>
@@ -7740,31 +7983,31 @@
       </c>
       <c r="BS25" s="16">
         <f t="shared" si="13"/>
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="BT25" s="16">
         <f t="shared" ref="BT25:BY25" si="35">+BS25*0.9</f>
-        <v>207</v>
+        <v>182.70000000000002</v>
       </c>
       <c r="BU25" s="16">
         <f t="shared" si="35"/>
-        <v>186.3</v>
+        <v>164.43</v>
       </c>
       <c r="BV25" s="16">
         <f t="shared" si="35"/>
-        <v>167.67000000000002</v>
+        <v>147.98700000000002</v>
       </c>
       <c r="BW25" s="16">
         <f t="shared" si="35"/>
-        <v>150.90300000000002</v>
+        <v>133.18830000000003</v>
       </c>
       <c r="BX25" s="16">
         <f t="shared" si="35"/>
-        <v>135.81270000000004</v>
+        <v>119.86947000000002</v>
       </c>
       <c r="BY25" s="16">
         <f t="shared" si="35"/>
-        <v>122.23143000000003</v>
+        <v>107.88252300000002</v>
       </c>
     </row>
     <row r="26" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -7871,8 +8114,7 @@
         <v>131</v>
       </c>
       <c r="AZ26" s="16">
-        <f>+AV26*1.3</f>
-        <v>124.80000000000001</v>
+        <v>150</v>
       </c>
       <c r="BA26" s="16">
         <f>+AW26*1.3</f>
@@ -7918,36 +8160,36 @@
       </c>
       <c r="BS26" s="16">
         <f t="shared" si="13"/>
-        <v>575.6</v>
+        <v>600.80000000000007</v>
       </c>
       <c r="BT26" s="16">
         <f>+BS26*1.2</f>
-        <v>690.72</v>
+        <v>720.96</v>
       </c>
       <c r="BU26" s="16">
         <f>+BT26*1.2</f>
-        <v>828.86400000000003</v>
+        <v>865.15200000000004</v>
       </c>
       <c r="BV26" s="16">
         <f>+BU26*1.1</f>
-        <v>911.75040000000013</v>
+        <v>951.66720000000009</v>
       </c>
       <c r="BW26" s="16">
         <f>+BV26*1.1</f>
-        <v>1002.9254400000002</v>
+        <v>1046.8339200000003</v>
       </c>
       <c r="BX26" s="16">
         <f>+BW26*1.03</f>
-        <v>1033.0132032000001</v>
+        <v>1078.2389376000003</v>
       </c>
       <c r="BY26" s="15">
         <f>+BX26*0.1</f>
-        <v>103.30132032000002</v>
+        <v>107.82389376000003</v>
       </c>
     </row>
     <row r="27" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="80" t="s">
-        <v>335</v>
+      <c r="B27" s="79" t="s">
+        <v>332</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -8001,15 +8243,15 @@
         <v>64</v>
       </c>
       <c r="AZ27" s="16">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="BA27" s="16">
         <f>+AZ27+2</f>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="BB27" s="16">
         <f>+BA27+2</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BC27" s="16"/>
       <c r="BD27" s="16"/>
@@ -8029,36 +8271,36 @@
       <c r="BR27" s="16"/>
       <c r="BS27" s="16">
         <f t="shared" si="13"/>
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="BT27" s="16">
         <f>+BS27*1.1</f>
-        <v>489.50000000000006</v>
+        <v>499.40000000000003</v>
       </c>
       <c r="BU27" s="16">
         <f>+BT27*1.1</f>
-        <v>538.45000000000016</v>
+        <v>549.34</v>
       </c>
       <c r="BV27" s="16">
         <f>+BU27*1.1</f>
-        <v>592.29500000000019</v>
+        <v>604.27400000000011</v>
       </c>
       <c r="BW27" s="16">
         <f>+BV27*1.1</f>
-        <v>651.52450000000022</v>
+        <v>664.70140000000015</v>
       </c>
       <c r="BX27" s="16">
         <f>+BW27*1.1</f>
-        <v>716.67695000000026</v>
+        <v>731.17154000000028</v>
       </c>
       <c r="BY27" s="16">
         <f>+BX27*1.1</f>
-        <v>788.34464500000036</v>
+        <v>804.28869400000042</v>
       </c>
     </row>
     <row r="28" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="80" t="s">
-        <v>336</v>
+      <c r="B28" s="79" t="s">
+        <v>333</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -8116,16 +8358,15 @@
         <v>27</v>
       </c>
       <c r="AZ28" s="16">
-        <f>+AY28+3</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="BA28" s="16">
         <f>+AZ28+3</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="BB28" s="16">
         <f>+BA28+3</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BC28" s="16"/>
       <c r="BD28" s="16"/>
@@ -8148,7 +8389,7 @@
       </c>
       <c r="BS28" s="16">
         <f t="shared" si="13"/>
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="BT28" s="16"/>
       <c r="BU28" s="16"/>
@@ -8157,8 +8398,8 @@
       <c r="BX28" s="16"/>
     </row>
     <row r="29" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="75" t="s">
-        <v>329</v>
+      <c r="B29" s="74" t="s">
+        <v>326</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -8224,7 +8465,6 @@
         <v>131</v>
       </c>
       <c r="AZ29" s="16">
-        <f>+AV29+5</f>
         <v>124</v>
       </c>
       <c r="BA29" s="16">
@@ -8266,7 +8506,7 @@
     </row>
     <row r="30" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -8374,7 +8614,7 @@
     </row>
     <row r="31" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -8714,7 +8954,7 @@
     </row>
     <row r="34" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="48" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -9278,7 +9518,7 @@
     </row>
     <row r="39" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -9970,8 +10210,8 @@
         <v>744</v>
       </c>
       <c r="AZ44" s="16">
-        <f>+AV44</f>
-        <v>741</v>
+        <f>14462-SUM(AZ5:AZ29)</f>
+        <v>810</v>
       </c>
       <c r="BA44" s="16">
         <f>+AW44</f>
@@ -10017,36 +10257,36 @@
       </c>
       <c r="BS44" s="16">
         <f>SUM(AY44:BB44)</f>
-        <v>3088</v>
+        <v>3157</v>
       </c>
       <c r="BT44" s="16">
         <f t="shared" ref="BT44:BY44" si="39">+BS44*0.9</f>
-        <v>2779.2000000000003</v>
+        <v>2841.3</v>
       </c>
       <c r="BU44" s="16">
         <f t="shared" si="39"/>
-        <v>2501.2800000000002</v>
+        <v>2557.17</v>
       </c>
       <c r="BV44" s="16">
         <f t="shared" si="39"/>
-        <v>2251.152</v>
+        <v>2301.453</v>
       </c>
       <c r="BW44" s="16">
         <f t="shared" si="39"/>
-        <v>2026.0368000000001</v>
+        <v>2071.3076999999998</v>
       </c>
       <c r="BX44" s="16">
         <f t="shared" si="39"/>
-        <v>1823.4331200000001</v>
+        <v>1864.1769299999999</v>
       </c>
       <c r="BY44" s="16">
         <f t="shared" si="39"/>
-        <v>1641.0898080000002</v>
+        <v>1677.759237</v>
       </c>
     </row>
     <row r="45" spans="2:77" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -10192,15 +10432,15 @@
       </c>
       <c r="AZ45" s="18">
         <f t="shared" si="40"/>
-        <v>12705.94</v>
+        <v>14462</v>
       </c>
       <c r="BA45" s="18">
         <f t="shared" si="40"/>
-        <v>13380.489999999998</v>
+        <v>13371.489999999998</v>
       </c>
       <c r="BB45" s="18">
         <f t="shared" si="40"/>
-        <v>13816.44</v>
+        <v>13807.44</v>
       </c>
       <c r="BC45" s="18"/>
       <c r="BD45" s="18"/>
@@ -10238,31 +10478,31 @@
       </c>
       <c r="BS45" s="18">
         <f t="shared" si="41"/>
-        <v>52212.87</v>
+        <v>53950.93</v>
       </c>
       <c r="BT45" s="18">
         <f t="shared" si="41"/>
-        <v>52825.623500000002</v>
+        <v>54602.296000000002</v>
       </c>
       <c r="BU45" s="18">
         <f t="shared" si="41"/>
-        <v>51380.336075000014</v>
+        <v>53066.115609999993</v>
       </c>
       <c r="BV45" s="18">
         <f t="shared" si="41"/>
-        <v>50450.673905749994</v>
+        <v>52066.047577300007</v>
       </c>
       <c r="BW45" s="18">
         <f t="shared" si="41"/>
-        <v>48592.078552347499</v>
+        <v>50019.80618581899</v>
       </c>
       <c r="BX45" s="18">
         <f t="shared" si="41"/>
-        <v>47979.991127764188</v>
+        <v>49332.211252678564</v>
       </c>
       <c r="BY45" s="18">
         <f t="shared" si="41"/>
-        <v>34222.065928328389</v>
+        <v>35036.868077715189</v>
       </c>
     </row>
     <row r="46" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -10385,16 +10625,15 @@
         <v>2108</v>
       </c>
       <c r="AZ46" s="16">
-        <f>+AZ45-AZ47</f>
-        <v>2160.0097999999998</v>
+        <v>2135</v>
       </c>
       <c r="BA46" s="16">
         <f>+BA45-BA47</f>
-        <v>2274.6833000000006</v>
+        <v>2273.1532999999999</v>
       </c>
       <c r="BB46" s="16">
         <f>+BB45-BB47</f>
-        <v>2348.7948000000015</v>
+        <v>2347.2648000000008</v>
       </c>
       <c r="BC46" s="16"/>
       <c r="BD46" s="16"/>
@@ -10432,31 +10671,31 @@
       </c>
       <c r="BS46" s="16">
         <f t="shared" ref="BS46:BY46" si="46">+BS45-BS47</f>
-        <v>7831.9305000000022</v>
+        <v>8092.6395000000048</v>
       </c>
       <c r="BT46" s="16">
         <f t="shared" si="46"/>
-        <v>7923.8435250000039</v>
+        <v>8190.3444000000018</v>
       </c>
       <c r="BU46" s="16">
         <f t="shared" si="46"/>
-        <v>7707.0504112500057</v>
+        <v>7959.9173414999968</v>
       </c>
       <c r="BV46" s="16">
         <f t="shared" si="46"/>
-        <v>7567.6010858625013</v>
+        <v>7809.9071365950003</v>
       </c>
       <c r="BW46" s="16">
         <f t="shared" si="46"/>
-        <v>7288.8117828521281</v>
+        <v>7502.9709278728478</v>
       </c>
       <c r="BX46" s="16">
         <f t="shared" si="46"/>
-        <v>7196.9986691646263</v>
+        <v>7399.8316879017875</v>
       </c>
       <c r="BY46" s="16">
         <f t="shared" si="46"/>
-        <v>5133.3098892492599</v>
+        <v>5255.5302116572784</v>
       </c>
     </row>
     <row r="47" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -10609,16 +10848,16 @@
         <v>10202</v>
       </c>
       <c r="AZ47" s="16">
-        <f>+AZ45*0.83</f>
-        <v>10545.930200000001</v>
+        <f>+AZ45-AZ46</f>
+        <v>12327</v>
       </c>
       <c r="BA47" s="16">
         <f>+BA45*0.83</f>
-        <v>11105.806699999997</v>
+        <v>11098.336699999998</v>
       </c>
       <c r="BB47" s="16">
         <f>+BB45*0.83</f>
-        <v>11467.645199999999</v>
+        <v>11460.1752</v>
       </c>
       <c r="BC47" s="16"/>
       <c r="BD47" s="16"/>
@@ -10656,31 +10895,31 @@
       </c>
       <c r="BS47" s="16">
         <f t="shared" ref="BS47:BY47" si="56">+BS45*0.85</f>
-        <v>44380.9395</v>
+        <v>45858.290499999996</v>
       </c>
       <c r="BT47" s="16">
         <f t="shared" si="56"/>
-        <v>44901.779974999998</v>
+        <v>46411.9516</v>
       </c>
       <c r="BU47" s="16">
         <f t="shared" si="56"/>
-        <v>43673.285663750008</v>
+        <v>45106.198268499997</v>
       </c>
       <c r="BV47" s="16">
         <f t="shared" si="56"/>
-        <v>42883.072819887493</v>
+        <v>44256.140440705007</v>
       </c>
       <c r="BW47" s="16">
         <f t="shared" si="56"/>
-        <v>41303.266769495371</v>
+        <v>42516.835257946143</v>
       </c>
       <c r="BX47" s="16">
         <f t="shared" si="56"/>
-        <v>40782.992458599561</v>
+        <v>41932.379564776777</v>
       </c>
       <c r="BY47" s="16">
         <f t="shared" si="56"/>
-        <v>29088.75603907913</v>
+        <v>29781.337866057911</v>
       </c>
     </row>
     <row r="48" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -10803,8 +11042,7 @@
         <v>3032</v>
       </c>
       <c r="AZ48" s="16">
-        <f>+AV48*0.98</f>
-        <v>3153.64</v>
+        <v>3315</v>
       </c>
       <c r="BA48" s="16">
         <f>+AW48*0.98</f>
@@ -10854,27 +11092,27 @@
       </c>
       <c r="BT48" s="16">
         <f t="shared" ref="BT48:BY48" si="61">+BT45*0.2</f>
-        <v>10565.1247</v>
+        <v>10920.459200000001</v>
       </c>
       <c r="BU48" s="16">
         <f t="shared" si="61"/>
-        <v>10276.067215000003</v>
+        <v>10613.223121999999</v>
       </c>
       <c r="BV48" s="16">
         <f t="shared" si="61"/>
-        <v>10090.13478115</v>
+        <v>10413.209515460003</v>
       </c>
       <c r="BW48" s="16">
         <f t="shared" si="61"/>
-        <v>9718.4157104695005</v>
+        <v>10003.9612371638</v>
       </c>
       <c r="BX48" s="16">
         <f t="shared" si="61"/>
-        <v>9595.9982255528375</v>
+        <v>9866.4422505357143</v>
       </c>
       <c r="BY48" s="16">
         <f t="shared" si="61"/>
-        <v>6844.4131856656786</v>
+        <v>7007.3736155430379</v>
       </c>
     </row>
     <row r="49" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -10997,8 +11235,7 @@
         <v>1811</v>
       </c>
       <c r="AZ49" s="16">
-        <f>+AV49</f>
-        <v>1730</v>
+        <v>1917</v>
       </c>
       <c r="BA49" s="16">
         <f>+AW49</f>
@@ -11203,7 +11440,7 @@
       </c>
       <c r="AZ50" s="16">
         <f t="shared" ref="AZ50:BB50" si="71">+AZ48+AZ49</f>
-        <v>4883.6399999999994</v>
+        <v>5232</v>
       </c>
       <c r="BA50" s="16">
         <f t="shared" si="71"/>
@@ -11253,27 +11490,27 @@
       </c>
       <c r="BT50" s="16">
         <f t="shared" si="74"/>
-        <v>10565.1247</v>
+        <v>10920.459200000001</v>
       </c>
       <c r="BU50" s="16">
         <f t="shared" si="74"/>
-        <v>10276.067215000003</v>
+        <v>10613.223121999999</v>
       </c>
       <c r="BV50" s="16">
         <f t="shared" si="74"/>
-        <v>10090.13478115</v>
+        <v>10413.209515460003</v>
       </c>
       <c r="BW50" s="16">
         <f t="shared" si="74"/>
-        <v>9718.4157104695005</v>
+        <v>10003.9612371638</v>
       </c>
       <c r="BX50" s="16">
         <f t="shared" si="74"/>
-        <v>9595.9982255528375</v>
+        <v>9866.4422505357143</v>
       </c>
       <c r="BY50" s="16">
         <f t="shared" si="74"/>
-        <v>6844.4131856656786</v>
+        <v>7007.3736155430379</v>
       </c>
     </row>
     <row r="51" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11427,15 +11664,15 @@
       </c>
       <c r="AZ51" s="16">
         <f t="shared" ref="AZ51:BB51" si="84">+AZ47-AZ50</f>
-        <v>5662.2902000000013</v>
+        <v>7095</v>
       </c>
       <c r="BA51" s="16">
         <f t="shared" si="84"/>
-        <v>6122.4066999999977</v>
+        <v>6114.9366999999984</v>
       </c>
       <c r="BB51" s="16">
         <f t="shared" si="84"/>
-        <v>6006.4451999999992</v>
+        <v>5998.9751999999999</v>
       </c>
       <c r="BC51" s="16"/>
       <c r="BD51" s="16"/>
@@ -11473,31 +11710,31 @@
       </c>
       <c r="BS51" s="16">
         <f t="shared" si="87"/>
-        <v>24411.6495</v>
+        <v>25889.000499999995</v>
       </c>
       <c r="BT51" s="16">
         <f t="shared" si="87"/>
-        <v>34336.655274999997</v>
+        <v>35491.492400000003</v>
       </c>
       <c r="BU51" s="16">
         <f t="shared" si="87"/>
-        <v>33397.218448750005</v>
+        <v>34492.975146500001</v>
       </c>
       <c r="BV51" s="16">
         <f t="shared" si="87"/>
-        <v>32792.938038737491</v>
+        <v>33842.930925245004</v>
       </c>
       <c r="BW51" s="16">
         <f t="shared" si="87"/>
-        <v>31584.85105902587</v>
+        <v>32512.874020782343</v>
       </c>
       <c r="BX51" s="16">
         <f t="shared" si="87"/>
-        <v>31186.994233046724</v>
+        <v>32065.937314241062</v>
       </c>
       <c r="BY51" s="16">
         <f t="shared" si="87"/>
-        <v>22244.342853413451</v>
+        <v>22773.964250514873</v>
       </c>
     </row>
     <row r="52" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -11642,16 +11879,16 @@
         <v>-353</v>
       </c>
       <c r="AZ52" s="16">
-        <f>+AY52</f>
-        <v>-353</v>
+        <f>153-506-1</f>
+        <v>-354</v>
       </c>
       <c r="BA52" s="16">
         <f>+AZ52</f>
-        <v>-353</v>
+        <v>-354</v>
       </c>
       <c r="BB52" s="16">
         <f>+BA52</f>
-        <v>-353</v>
+        <v>-354</v>
       </c>
       <c r="BC52" s="16"/>
       <c r="BD52" s="16"/>
@@ -11867,15 +12104,15 @@
       </c>
       <c r="AZ53" s="16">
         <f>+AZ51+AZ52</f>
-        <v>5309.2902000000013</v>
+        <v>6741</v>
       </c>
       <c r="BA53" s="16">
         <f>+BA51+BA52</f>
-        <v>5769.4066999999977</v>
+        <v>5760.9366999999984</v>
       </c>
       <c r="BB53" s="16">
         <f>+BB51+BB52</f>
-        <v>5653.4451999999992</v>
+        <v>5644.9751999999999</v>
       </c>
       <c r="BC53" s="16"/>
       <c r="BD53" s="16"/>
@@ -11913,31 +12150,31 @@
       </c>
       <c r="BS53" s="16">
         <f t="shared" si="103"/>
-        <v>23734.6495</v>
+        <v>25212.000499999995</v>
       </c>
       <c r="BT53" s="16">
         <f t="shared" si="103"/>
-        <v>33959.655274999997</v>
+        <v>35114.492400000003</v>
       </c>
       <c r="BU53" s="16">
         <f t="shared" si="103"/>
-        <v>33320.218448750005</v>
+        <v>34415.975146500001</v>
       </c>
       <c r="BV53" s="16">
         <f t="shared" si="103"/>
-        <v>33015.938038737491</v>
+        <v>34065.930925245004</v>
       </c>
       <c r="BW53" s="16">
         <f t="shared" si="103"/>
-        <v>32107.85105902587</v>
+        <v>33035.874020782343</v>
       </c>
       <c r="BX53" s="16">
         <f t="shared" si="103"/>
-        <v>32009.994233046724</v>
+        <v>32888.937314241062</v>
       </c>
       <c r="BY53" s="16">
         <f t="shared" si="103"/>
-        <v>23367.342853413451</v>
+        <v>23896.964250514873</v>
       </c>
     </row>
     <row r="54" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -12050,7 +12287,7 @@
         <f>6422-5641</f>
         <v>781</v>
       </c>
-      <c r="AV54" s="82">
+      <c r="AV54" s="81">
         <f>583+3</f>
         <v>586</v>
       </c>
@@ -12066,16 +12303,15 @@
         <v>715</v>
       </c>
       <c r="AZ54" s="16">
-        <f>+AZ53*0.1</f>
-        <v>530.92902000000015</v>
+        <v>1091</v>
       </c>
       <c r="BA54" s="16">
         <f>+BA53*0.1</f>
-        <v>576.94066999999984</v>
+        <v>576.09366999999986</v>
       </c>
       <c r="BB54" s="16">
         <f>+BB53*0.1</f>
-        <v>565.34451999999999</v>
+        <v>564.49752000000001</v>
       </c>
       <c r="BC54" s="16"/>
       <c r="BD54" s="16"/>
@@ -12113,31 +12349,31 @@
       </c>
       <c r="BS54" s="16">
         <f t="shared" ref="BS54:BY54" si="108">+BS53*0.15</f>
-        <v>3560.1974249999998</v>
+        <v>3781.8000749999992</v>
       </c>
       <c r="BT54" s="16">
         <f t="shared" si="108"/>
-        <v>5093.9482912499998</v>
+        <v>5267.1738599999999</v>
       </c>
       <c r="BU54" s="16">
         <f t="shared" si="108"/>
-        <v>4998.0327673125003</v>
+        <v>5162.3962719749998</v>
       </c>
       <c r="BV54" s="16">
         <f t="shared" si="108"/>
-        <v>4952.3907058106233</v>
+        <v>5109.8896387867508</v>
       </c>
       <c r="BW54" s="16">
         <f t="shared" si="108"/>
-        <v>4816.1776588538805</v>
+        <v>4955.3811031173509</v>
       </c>
       <c r="BX54" s="16">
         <f t="shared" si="108"/>
-        <v>4801.4991349570082</v>
+        <v>4933.340597136159</v>
       </c>
       <c r="BY54" s="16">
         <f t="shared" si="108"/>
-        <v>3505.1014280120175</v>
+        <v>3584.5446375772308</v>
       </c>
     </row>
     <row r="55" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -12291,15 +12527,15 @@
       </c>
       <c r="AZ55" s="16">
         <f t="shared" si="117"/>
-        <v>4778.3611800000008</v>
+        <v>5650</v>
       </c>
       <c r="BA55" s="16">
         <f t="shared" ref="BA55:BB55" si="118">BA53-BA54</f>
-        <v>5192.4660299999978</v>
+        <v>5184.8430299999982</v>
       </c>
       <c r="BB55" s="16">
         <f t="shared" si="118"/>
-        <v>5088.1006799999996</v>
+        <v>5080.47768</v>
       </c>
       <c r="BC55" s="16"/>
       <c r="BD55" s="16"/>
@@ -12337,539 +12573,539 @@
       </c>
       <c r="BS55" s="16">
         <f t="shared" ref="BS55:BY55" si="120">+BS53-BS54</f>
-        <v>20174.452075000001</v>
+        <v>21430.200424999995</v>
       </c>
       <c r="BT55" s="16">
         <f t="shared" si="120"/>
-        <v>28865.706983749998</v>
+        <v>29847.318540000004</v>
       </c>
       <c r="BU55" s="16">
         <f t="shared" si="120"/>
-        <v>28322.185681437506</v>
+        <v>29253.578874525003</v>
       </c>
       <c r="BV55" s="16">
         <f t="shared" si="120"/>
-        <v>28063.547332926868</v>
+        <v>28956.041286458254</v>
       </c>
       <c r="BW55" s="16">
         <f t="shared" si="120"/>
-        <v>27291.673400171989</v>
+        <v>28080.492917664993</v>
       </c>
       <c r="BX55" s="16">
         <f t="shared" si="120"/>
-        <v>27208.495098089716</v>
+        <v>27955.596717104905</v>
       </c>
       <c r="BY55" s="16">
         <f t="shared" si="120"/>
-        <v>19862.241425401433</v>
+        <v>20312.419612937643</v>
       </c>
       <c r="BZ55" s="15">
         <f>BY55*(1+$CB$58)</f>
-        <v>19663.619011147417</v>
+        <v>20109.295416808265</v>
       </c>
       <c r="CA55" s="15">
         <f t="shared" ref="CA55:EL55" si="121">BZ55*(1+$CB$58)</f>
-        <v>19466.982821035941</v>
+        <v>19908.202462640184</v>
       </c>
       <c r="CB55" s="15">
         <f t="shared" si="121"/>
-        <v>19272.31299282558</v>
+        <v>19709.120438013782</v>
       </c>
       <c r="CC55" s="15">
         <f t="shared" si="121"/>
-        <v>19079.589862897323</v>
+        <v>19512.029233633646</v>
       </c>
       <c r="CD55" s="15">
         <f t="shared" si="121"/>
-        <v>18888.793964268349</v>
+        <v>19316.908941297308</v>
       </c>
       <c r="CE55" s="15">
         <f t="shared" si="121"/>
-        <v>18699.906024625667</v>
+        <v>19123.739851884337</v>
       </c>
       <c r="CF55" s="15">
         <f t="shared" si="121"/>
-        <v>18512.90696437941</v>
+        <v>18932.502453365494</v>
       </c>
       <c r="CG55" s="15">
         <f t="shared" si="121"/>
-        <v>18327.777894735616</v>
+        <v>18743.177428831837</v>
       </c>
       <c r="CH55" s="15">
         <f t="shared" si="121"/>
-        <v>18144.500115788262</v>
+        <v>18555.74565454352</v>
       </c>
       <c r="CI55" s="15">
         <f t="shared" si="121"/>
-        <v>17963.055114630381</v>
+        <v>18370.188197998083</v>
       </c>
       <c r="CJ55" s="15">
         <f t="shared" si="121"/>
-        <v>17783.424563484077</v>
+        <v>18186.486316018101</v>
       </c>
       <c r="CK55" s="15">
         <f t="shared" si="121"/>
-        <v>17605.590317849237</v>
+        <v>18004.621452857918</v>
       </c>
       <c r="CL55" s="15">
         <f t="shared" si="121"/>
-        <v>17429.534414670743</v>
+        <v>17824.57523832934</v>
       </c>
       <c r="CM55" s="15">
         <f t="shared" si="121"/>
-        <v>17255.239070524036</v>
+        <v>17646.329485946047</v>
       </c>
       <c r="CN55" s="15">
         <f t="shared" si="121"/>
-        <v>17082.686679818795</v>
+        <v>17469.866191086589</v>
       </c>
       <c r="CO55" s="15">
         <f t="shared" si="121"/>
-        <v>16911.859813020608</v>
+        <v>17295.167529175724</v>
       </c>
       <c r="CP55" s="15">
         <f t="shared" si="121"/>
-        <v>16742.7412148904</v>
+        <v>17122.215853883965</v>
       </c>
       <c r="CQ55" s="15">
         <f t="shared" si="121"/>
-        <v>16575.313802741497</v>
+        <v>16950.993695345125</v>
       </c>
       <c r="CR55" s="15">
         <f t="shared" si="121"/>
-        <v>16409.560664714081</v>
+        <v>16781.483758391674</v>
       </c>
       <c r="CS55" s="15">
         <f t="shared" si="121"/>
-        <v>16245.46505806694</v>
+        <v>16613.668920807759</v>
       </c>
       <c r="CT55" s="15">
         <f t="shared" si="121"/>
-        <v>16083.01040748627</v>
+        <v>16447.532231599682</v>
       </c>
       <c r="CU55" s="15">
         <f t="shared" si="121"/>
-        <v>15922.180303411407</v>
+        <v>16283.056909283685</v>
       </c>
       <c r="CV55" s="15">
         <f t="shared" si="121"/>
-        <v>15762.958500377294</v>
+        <v>16120.226340190848</v>
       </c>
       <c r="CW55" s="15">
         <f t="shared" si="121"/>
-        <v>15605.32891537352</v>
+        <v>15959.024076788939</v>
       </c>
       <c r="CX55" s="15">
         <f t="shared" si="121"/>
-        <v>15449.275626219785</v>
+        <v>15799.43383602105</v>
       </c>
       <c r="CY55" s="15">
         <f t="shared" si="121"/>
-        <v>15294.782869957588</v>
+        <v>15641.439497660838</v>
       </c>
       <c r="CZ55" s="15">
         <f t="shared" si="121"/>
-        <v>15141.835041258011</v>
+        <v>15485.025102684229</v>
       </c>
       <c r="DA55" s="15">
         <f t="shared" si="121"/>
-        <v>14990.416690845432</v>
+        <v>15330.174851657386</v>
       </c>
       <c r="DB55" s="15">
         <f t="shared" si="121"/>
-        <v>14840.512523936977</v>
+        <v>15176.873103140812</v>
       </c>
       <c r="DC55" s="15">
         <f t="shared" si="121"/>
-        <v>14692.107398697608</v>
+        <v>15025.104372109403</v>
       </c>
       <c r="DD55" s="15">
         <f t="shared" si="121"/>
-        <v>14545.186324710632</v>
+        <v>14874.853328388308</v>
       </c>
       <c r="DE55" s="15">
         <f t="shared" si="121"/>
-        <v>14399.734461463526</v>
+        <v>14726.104795104426</v>
       </c>
       <c r="DF55" s="15">
         <f t="shared" si="121"/>
-        <v>14255.73711684889</v>
+        <v>14578.843747153382</v>
       </c>
       <c r="DG55" s="15">
         <f t="shared" si="121"/>
-        <v>14113.179745680402</v>
+        <v>14433.055309681848</v>
       </c>
       <c r="DH55" s="15">
         <f t="shared" si="121"/>
-        <v>13972.047948223597</v>
+        <v>14288.724756585028</v>
       </c>
       <c r="DI55" s="15">
         <f t="shared" si="121"/>
-        <v>13832.327468741361</v>
+        <v>14145.837509019178</v>
       </c>
       <c r="DJ55" s="15">
         <f t="shared" si="121"/>
-        <v>13694.004194053947</v>
+        <v>14004.379133928987</v>
       </c>
       <c r="DK55" s="15">
         <f t="shared" si="121"/>
-        <v>13557.064152113408</v>
+        <v>13864.335342589697</v>
       </c>
       <c r="DL55" s="15">
         <f t="shared" si="121"/>
-        <v>13421.493510592274</v>
+        <v>13725.691989163799</v>
       </c>
       <c r="DM55" s="15">
         <f t="shared" si="121"/>
-        <v>13287.278575486351</v>
+        <v>13588.43506927216</v>
       </c>
       <c r="DN55" s="15">
         <f t="shared" si="121"/>
-        <v>13154.405789731487</v>
+        <v>13452.550718579438</v>
       </c>
       <c r="DO55" s="15">
         <f t="shared" si="121"/>
-        <v>13022.861731834171</v>
+        <v>13318.025211393644</v>
       </c>
       <c r="DP55" s="15">
         <f t="shared" si="121"/>
-        <v>12892.633114515829</v>
+        <v>13184.844959279708</v>
       </c>
       <c r="DQ55" s="15">
         <f t="shared" si="121"/>
-        <v>12763.706783370671</v>
+        <v>13052.996509686911</v>
       </c>
       <c r="DR55" s="15">
         <f t="shared" si="121"/>
-        <v>12636.069715536965</v>
+        <v>12922.466544590041</v>
       </c>
       <c r="DS55" s="15">
         <f t="shared" si="121"/>
-        <v>12509.709018381596</v>
+        <v>12793.24187914414</v>
       </c>
       <c r="DT55" s="15">
         <f t="shared" si="121"/>
-        <v>12384.611928197781</v>
+        <v>12665.309460352699</v>
       </c>
       <c r="DU55" s="15">
         <f t="shared" si="121"/>
-        <v>12260.765808915803</v>
+        <v>12538.656365749172</v>
       </c>
       <c r="DV55" s="15">
         <f t="shared" si="121"/>
-        <v>12138.158150826644</v>
+        <v>12413.26980209168</v>
       </c>
       <c r="DW55" s="15">
         <f t="shared" si="121"/>
-        <v>12016.776569318377</v>
+        <v>12289.137104070762</v>
       </c>
       <c r="DX55" s="15">
         <f t="shared" si="121"/>
-        <v>11896.608803625193</v>
+        <v>12166.245733030055</v>
       </c>
       <c r="DY55" s="15">
         <f t="shared" si="121"/>
-        <v>11777.642715588941</v>
+        <v>12044.583275699753</v>
       </c>
       <c r="DZ55" s="15">
         <f t="shared" si="121"/>
-        <v>11659.866288433052</v>
+        <v>11924.137442942756</v>
       </c>
       <c r="EA55" s="15">
         <f t="shared" si="121"/>
-        <v>11543.26762554872</v>
+        <v>11804.896068513328</v>
       </c>
       <c r="EB55" s="15">
         <f t="shared" si="121"/>
-        <v>11427.834949293234</v>
+        <v>11686.847107828195</v>
       </c>
       <c r="EC55" s="15">
         <f t="shared" si="121"/>
-        <v>11313.556599800302</v>
+        <v>11569.978636749913</v>
       </c>
       <c r="ED55" s="15">
         <f t="shared" si="121"/>
-        <v>11200.421033802299</v>
+        <v>11454.278850382414</v>
       </c>
       <c r="EE55" s="15">
         <f t="shared" si="121"/>
-        <v>11088.416823464275</v>
+        <v>11339.73606187859</v>
       </c>
       <c r="EF55" s="15">
         <f t="shared" si="121"/>
-        <v>10977.532655229632</v>
+        <v>11226.338701259803</v>
       </c>
       <c r="EG55" s="15">
         <f t="shared" si="121"/>
-        <v>10867.757328677335</v>
+        <v>11114.075314247206</v>
       </c>
       <c r="EH55" s="15">
         <f t="shared" si="121"/>
-        <v>10759.079755390561</v>
+        <v>11002.934561104734</v>
       </c>
       <c r="EI55" s="15">
         <f t="shared" si="121"/>
-        <v>10651.488957836656</v>
+        <v>10892.905215493687</v>
       </c>
       <c r="EJ55" s="15">
         <f t="shared" si="121"/>
-        <v>10544.974068258291</v>
+        <v>10783.97616333875</v>
       </c>
       <c r="EK55" s="15">
         <f t="shared" si="121"/>
-        <v>10439.524327575708</v>
+        <v>10676.136401705362</v>
       </c>
       <c r="EL55" s="15">
         <f t="shared" si="121"/>
-        <v>10335.12908429995</v>
+        <v>10569.375037688309</v>
       </c>
       <c r="EM55" s="15">
         <f t="shared" ref="EM55:GV55" si="122">EL55*(1+$CB$58)</f>
-        <v>10231.777793456949</v>
+        <v>10463.681287311425</v>
       </c>
       <c r="EN55" s="15">
         <f t="shared" si="122"/>
-        <v>10129.46001552238</v>
+        <v>10359.044474438311</v>
       </c>
       <c r="EO55" s="15">
         <f t="shared" si="122"/>
-        <v>10028.165415367155</v>
+        <v>10255.454029693929</v>
       </c>
       <c r="EP55" s="15">
         <f t="shared" si="122"/>
-        <v>9927.883761213483</v>
+        <v>10152.899489396988</v>
       </c>
       <c r="EQ55" s="15">
         <f t="shared" si="122"/>
-        <v>9828.6049236013478</v>
+        <v>10051.370494503019</v>
       </c>
       <c r="ER55" s="15">
         <f t="shared" si="122"/>
-        <v>9730.3188743653336</v>
+        <v>9950.856789557989</v>
       </c>
       <c r="ES55" s="15">
         <f t="shared" si="122"/>
-        <v>9633.0156856216799</v>
+        <v>9851.3482216624088</v>
       </c>
       <c r="ET55" s="15">
         <f t="shared" si="122"/>
-        <v>9536.6855287654635</v>
+        <v>9752.8347394457851</v>
       </c>
       <c r="EU55" s="15">
         <f t="shared" si="122"/>
-        <v>9441.3186734778083</v>
+        <v>9655.3063920513268</v>
       </c>
       <c r="EV55" s="15">
         <f t="shared" si="122"/>
-        <v>9346.9054867430295</v>
+        <v>9558.7533281308133</v>
       </c>
       <c r="EW55" s="15">
         <f t="shared" si="122"/>
-        <v>9253.4364318755997</v>
+        <v>9463.1657948495049</v>
       </c>
       <c r="EX55" s="15">
         <f t="shared" si="122"/>
-        <v>9160.9020675568445</v>
+        <v>9368.5341369010093</v>
       </c>
       <c r="EY55" s="15">
         <f t="shared" si="122"/>
-        <v>9069.2930468812756</v>
+        <v>9274.8487955319997</v>
       </c>
       <c r="EZ55" s="15">
         <f t="shared" si="122"/>
-        <v>8978.6001164124627</v>
+        <v>9182.1003075766803</v>
       </c>
       <c r="FA55" s="15">
         <f t="shared" si="122"/>
-        <v>8888.8141152483386</v>
+        <v>9090.279304500913</v>
       </c>
       <c r="FB55" s="15">
         <f t="shared" si="122"/>
-        <v>8799.9259740958551</v>
+        <v>8999.3765114559046</v>
       </c>
       <c r="FC55" s="15">
         <f t="shared" si="122"/>
-        <v>8711.9267143548968</v>
+        <v>8909.3827463413454</v>
       </c>
       <c r="FD55" s="15">
         <f t="shared" si="122"/>
-        <v>8624.8074472113476</v>
+        <v>8820.2889188779318</v>
       </c>
       <c r="FE55" s="15">
         <f t="shared" si="122"/>
-        <v>8538.5593727392334</v>
+        <v>8732.0860296891533</v>
       </c>
       <c r="FF55" s="15">
         <f t="shared" si="122"/>
-        <v>8453.1737790118405</v>
+        <v>8644.7651693922617</v>
       </c>
       <c r="FG55" s="15">
         <f t="shared" si="122"/>
-        <v>8368.6420412217212</v>
+        <v>8558.3175176983386</v>
       </c>
       <c r="FH55" s="15">
         <f t="shared" si="122"/>
-        <v>8284.9556208095037</v>
+        <v>8472.7343425213548</v>
       </c>
       <c r="FI55" s="15">
         <f t="shared" si="122"/>
-        <v>8202.1060646014084</v>
+        <v>8388.006999096142</v>
       </c>
       <c r="FJ55" s="15">
         <f t="shared" si="122"/>
-        <v>8120.0850039553943</v>
+        <v>8304.1269291051813</v>
       </c>
       <c r="FK55" s="15">
         <f t="shared" si="122"/>
-        <v>8038.8841539158402</v>
+        <v>8221.085659814129</v>
       </c>
       <c r="FL55" s="15">
         <f t="shared" si="122"/>
-        <v>7958.4953123766818</v>
+        <v>8138.8748032159874</v>
       </c>
       <c r="FM55" s="15">
         <f t="shared" si="122"/>
-        <v>7878.9103592529145</v>
+        <v>8057.4860551838274</v>
       </c>
       <c r="FN55" s="15">
         <f t="shared" si="122"/>
-        <v>7800.121255660385</v>
+        <v>7976.911194631989</v>
       </c>
       <c r="FO55" s="15">
         <f t="shared" si="122"/>
-        <v>7722.1200431037814</v>
+        <v>7897.1420826856693</v>
       </c>
       <c r="FP55" s="15">
         <f t="shared" si="122"/>
-        <v>7644.8988426727437</v>
+        <v>7818.1706618588123</v>
       </c>
       <c r="FQ55" s="15">
         <f t="shared" si="122"/>
-        <v>7568.449854246016</v>
+        <v>7739.9889552402237</v>
       </c>
       <c r="FR55" s="15">
         <f t="shared" si="122"/>
-        <v>7492.7653557035555</v>
+        <v>7662.5890656878219</v>
       </c>
       <c r="FS55" s="15">
         <f t="shared" si="122"/>
-        <v>7417.8377021465203</v>
+        <v>7585.9631750309436</v>
       </c>
       <c r="FT55" s="15">
         <f t="shared" si="122"/>
-        <v>7343.6593251250551</v>
+        <v>7510.1035432806339</v>
       </c>
       <c r="FU55" s="15">
         <f t="shared" si="122"/>
-        <v>7270.2227318738042</v>
+        <v>7435.0025078478275</v>
       </c>
       <c r="FV55" s="15">
         <f t="shared" si="122"/>
-        <v>7197.5205045550656</v>
+        <v>7360.6524827693493</v>
       </c>
       <c r="FW55" s="15">
         <f t="shared" si="122"/>
-        <v>7125.5452995095147</v>
+        <v>7287.0459579416556</v>
       </c>
       <c r="FX55" s="15">
         <f t="shared" si="122"/>
-        <v>7054.2898465144199</v>
+        <v>7214.1754983622386</v>
       </c>
       <c r="FY55" s="15">
         <f t="shared" si="122"/>
-        <v>6983.7469480492755</v>
+        <v>7142.0337433786162</v>
       </c>
       <c r="FZ55" s="15">
         <f t="shared" si="122"/>
-        <v>6913.909478568783</v>
+        <v>7070.6134059448304</v>
       </c>
       <c r="GA55" s="15">
         <f t="shared" si="122"/>
-        <v>6844.770383783095</v>
+        <v>6999.9072718853822</v>
       </c>
       <c r="GB55" s="15">
         <f t="shared" si="122"/>
-        <v>6776.3226799452641</v>
+        <v>6929.908199166528</v>
       </c>
       <c r="GC55" s="15">
         <f t="shared" si="122"/>
-        <v>6708.5594531458109</v>
+        <v>6860.6091171748631</v>
       </c>
       <c r="GD55" s="15">
         <f t="shared" si="122"/>
-        <v>6641.473858614353</v>
+        <v>6792.0030260031144</v>
       </c>
       <c r="GE55" s="15">
         <f t="shared" si="122"/>
-        <v>6575.0591200282097</v>
+        <v>6724.0829957430833</v>
       </c>
       <c r="GF55" s="15">
         <f t="shared" si="122"/>
-        <v>6509.3085288279271</v>
+        <v>6656.8421657856525</v>
       </c>
       <c r="GG55" s="15">
         <f t="shared" si="122"/>
-        <v>6444.2154435396478</v>
+        <v>6590.2737441277959</v>
       </c>
       <c r="GH55" s="15">
         <f t="shared" si="122"/>
-        <v>6379.7732891042515</v>
+        <v>6524.3710066865178</v>
       </c>
       <c r="GI55" s="15">
         <f t="shared" si="122"/>
-        <v>6315.9755562132086</v>
+        <v>6459.127296619653</v>
       </c>
       <c r="GJ55" s="15">
         <f t="shared" si="122"/>
-        <v>6252.8158006510766</v>
+        <v>6394.5360236534561</v>
       </c>
       <c r="GK55" s="15">
         <f t="shared" si="122"/>
-        <v>6190.2876426445655</v>
+        <v>6330.5906634169214</v>
       </c>
       <c r="GL55" s="15">
         <f t="shared" si="122"/>
-        <v>6128.3847662181197</v>
+        <v>6267.2847567827521</v>
       </c>
       <c r="GM55" s="15">
         <f t="shared" si="122"/>
-        <v>6067.1009185559387</v>
+        <v>6204.6119092149247</v>
       </c>
       <c r="GN55" s="15">
         <f t="shared" si="122"/>
-        <v>6006.4299093703794</v>
+        <v>6142.5657901227751</v>
       </c>
       <c r="GO55" s="15">
         <f t="shared" si="122"/>
-        <v>5946.3656102766754</v>
+        <v>6081.140132221547</v>
       </c>
       <c r="GP55" s="15">
         <f t="shared" si="122"/>
-        <v>5886.901954173909</v>
+        <v>6020.3287308993313</v>
       </c>
       <c r="GQ55" s="15">
         <f t="shared" si="122"/>
-        <v>5828.0329346321696</v>
+        <v>5960.1254435903384</v>
       </c>
       <c r="GR55" s="15">
         <f t="shared" si="122"/>
-        <v>5769.7526052858475</v>
+        <v>5900.5241891544347</v>
       </c>
       <c r="GS55" s="15">
         <f t="shared" si="122"/>
-        <v>5712.0550792329886</v>
+        <v>5841.5189472628899</v>
       </c>
       <c r="GT55" s="15">
         <f t="shared" si="122"/>
-        <v>5654.9345284406591</v>
+        <v>5783.1037577902607</v>
       </c>
       <c r="GU55" s="15">
         <f t="shared" si="122"/>
-        <v>5598.3851831562524</v>
+        <v>5725.2727202123579</v>
       </c>
       <c r="GV55" s="15">
         <f t="shared" si="122"/>
-        <v>5542.4013313246896</v>
+        <v>5668.0199930102344</v>
       </c>
     </row>
     <row r="56" spans="2:204" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -13023,15 +13259,15 @@
       </c>
       <c r="AZ56" s="3">
         <f t="shared" si="132"/>
-        <v>2.6965920880361178</v>
+        <v>3.1884875846501131</v>
       </c>
       <c r="BA56" s="3">
         <f t="shared" ref="BA56:BB56" si="133">BA55/BA57</f>
-        <v>2.9302855699774253</v>
+        <v>2.925983651241534</v>
       </c>
       <c r="BB56" s="3">
         <f t="shared" si="133"/>
-        <v>2.8713886455981941</v>
+        <v>2.8670867268623024</v>
       </c>
       <c r="BC56" s="3"/>
       <c r="BD56" s="3"/>
@@ -13069,31 +13305,31 @@
       </c>
       <c r="BS56" s="3">
         <f t="shared" ref="BS56:BY56" si="135">+BS55/BS57</f>
-        <v>11.385130967832957</v>
+        <v>12.093792564898417</v>
       </c>
       <c r="BT56" s="3">
         <f t="shared" si="135"/>
-        <v>16.28990236103273</v>
+        <v>16.843859221218963</v>
       </c>
       <c r="BU56" s="3">
         <f t="shared" si="135"/>
-        <v>15.983174763790917</v>
+        <v>16.508791689912531</v>
       </c>
       <c r="BV56" s="3">
         <f t="shared" si="135"/>
-        <v>15.837216327836833</v>
+        <v>16.340881087166057</v>
       </c>
       <c r="BW56" s="3">
         <f t="shared" si="135"/>
-        <v>15.401621557659135</v>
+        <v>15.846779298908009</v>
       </c>
       <c r="BX56" s="3">
         <f t="shared" si="135"/>
-        <v>15.354681206596904</v>
+        <v>15.776296115747689</v>
       </c>
       <c r="BY56" s="3">
         <f t="shared" si="135"/>
-        <v>11.208939856321351</v>
+        <v>11.462990752222145</v>
       </c>
     </row>
     <row r="57" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -13289,7 +13525,7 @@
         <v>1772</v>
       </c>
       <c r="CA57" s="48" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="CB57" s="29">
         <v>0.06</v>
@@ -13297,7 +13533,7 @@
     </row>
     <row r="58" spans="2:204" x14ac:dyDescent="0.2">
       <c r="CA58" s="45" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="CB58" s="29">
         <v>-0.01</v>
@@ -13433,15 +13669,15 @@
       </c>
       <c r="AZ59" s="33">
         <f t="shared" si="145"/>
-        <v>-8.359610530111794E-2</v>
+        <v>4.3058059862964404E-2</v>
       </c>
       <c r="BA59" s="33">
         <f t="shared" si="145"/>
-        <v>-3.9241042579162944E-2</v>
+        <v>-3.9887269332950503E-2</v>
       </c>
       <c r="BB59" s="33">
         <f t="shared" si="145"/>
-        <v>-3.3882945248583929E-2</v>
+        <v>-3.4512271869099997E-2</v>
       </c>
       <c r="BC59" s="33"/>
       <c r="BD59" s="33"/>
@@ -13476,34 +13712,34 @@
       </c>
       <c r="BS59" s="33">
         <f t="shared" si="146"/>
-        <v>-3.8755661106815387E-2</v>
+        <v>-6.7577966788173738E-3</v>
       </c>
       <c r="BT59" s="33">
         <f t="shared" si="146"/>
-        <v>1.1735679344958339E-2</v>
+        <v>1.2073304389748296E-2</v>
       </c>
       <c r="BU59" s="33">
         <f t="shared" si="146"/>
-        <v>-2.7359590464653749E-2</v>
+        <v>-2.8133988907719343E-2</v>
       </c>
       <c r="BV59" s="33">
         <f t="shared" si="146"/>
-        <v>-1.8093734690504681E-2</v>
+        <v>-1.8845698826908897E-2</v>
       </c>
       <c r="BW59" s="33">
         <f t="shared" si="146"/>
-        <v>-3.6839851869464701E-2</v>
+        <v>-3.9300878147953466E-2</v>
       </c>
       <c r="BX59" s="33">
         <f t="shared" si="146"/>
-        <v>-1.2596444581474686E-2</v>
+        <v>-1.3746453366613953E-2</v>
       </c>
       <c r="BY59" s="33">
         <f t="shared" si="146"/>
-        <v>-0.2867429708938527</v>
+        <v>-0.28977706070670384</v>
       </c>
       <c r="CA59" s="51" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="CB59" s="33" t="s">
         <v>203</v>
@@ -13511,7 +13747,7 @@
     </row>
     <row r="60" spans="2:204" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
@@ -13592,7 +13828,9 @@
       <c r="AY60" s="33">
         <v>1.6E-2</v>
       </c>
-      <c r="AZ60" s="33"/>
+      <c r="AZ60" s="33">
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="BA60" s="33"/>
       <c r="BB60" s="33"/>
       <c r="BC60" s="33"/>
@@ -13739,7 +13977,7 @@
       </c>
       <c r="AZ61" s="30">
         <f t="shared" ref="AZ61" si="148">+AZ5/AV5-1</f>
-        <v>-0.5</v>
+        <v>-0.29860418743768691</v>
       </c>
       <c r="BA61" s="30">
         <f t="shared" ref="BA61" si="149">+BA5/AW5-1</f>
@@ -13782,11 +14020,11 @@
       </c>
       <c r="BS61" s="30">
         <f t="shared" si="151"/>
-        <v>-0.41775895584559841</v>
+        <v>-0.36166342682588171</v>
       </c>
       <c r="BT61" s="30">
         <f t="shared" si="151"/>
-        <v>-9.9999999999999978E-2</v>
+        <v>-9.9999999999999867E-2</v>
       </c>
       <c r="BU61" s="30">
         <f t="shared" si="151"/>
@@ -13809,11 +14047,11 @@
         <v>-0.5</v>
       </c>
       <c r="CA61" s="32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="CB61" s="17">
         <f>NPV(CB57,BR55:GV55)+Main!K5-Main!K6</f>
-        <v>277294.33971321181</v>
+        <v>285970.13603923819</v>
       </c>
     </row>
     <row r="62" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13934,7 +14172,7 @@
       </c>
       <c r="AZ62" s="30">
         <f t="shared" ref="AZ62:AZ63" si="153">+AZ7/AV7-1</f>
-        <v>-5.0000000000000044E-2</v>
+        <v>-8.158765159867698E-2</v>
       </c>
       <c r="BA62" s="30">
         <f t="shared" ref="BA62:BA63" si="154">+BA7/AW7-1</f>
@@ -13977,7 +14215,7 @@
       </c>
       <c r="BS62" s="30">
         <f t="shared" si="156"/>
-        <v>-4.8915461624026713E-2</v>
+        <v>-5.6882647385984475E-2</v>
       </c>
       <c r="BT62" s="30">
         <f t="shared" si="156"/>
@@ -13985,7 +14223,7 @@
       </c>
       <c r="BU62" s="30">
         <f t="shared" si="156"/>
-        <v>-9.9999999999999867E-2</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="BV62" s="30">
         <f t="shared" si="156"/>
@@ -13993,7 +14231,7 @@
       </c>
       <c r="BW62" s="30">
         <f t="shared" si="156"/>
-        <v>-9.9999999999999867E-2</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BX62" s="30">
         <f t="shared" si="156"/>
@@ -14004,11 +14242,11 @@
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CA62" s="51" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="CB62" s="14">
         <f>CB61/Main!K3</f>
-        <v>157.03006912339822</v>
+        <v>161.94311891080264</v>
       </c>
     </row>
     <row r="63" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -14035,43 +14273,43 @@
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
       <c r="V63" s="30"/>
-      <c r="W63" s="70" t="s">
+      <c r="W63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="X63" s="70" t="s">
+      <c r="X63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="Y63" s="70" t="s">
+      <c r="Y63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="Z63" s="70" t="s">
+      <c r="Z63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AA63" s="70" t="s">
+      <c r="AA63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AB63" s="70" t="s">
+      <c r="AB63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AC63" s="70" t="s">
+      <c r="AC63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AD63" s="70" t="s">
+      <c r="AD63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AE63" s="70" t="s">
+      <c r="AE63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AF63" s="70" t="s">
+      <c r="AF63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AG63" s="70" t="s">
+      <c r="AG63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AH63" s="70" t="s">
+      <c r="AH63" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AI63" s="70" t="s">
+      <c r="AI63" s="69" t="s">
         <v>203</v>
       </c>
       <c r="AJ63" s="30">
@@ -14140,7 +14378,7 @@
       </c>
       <c r="AZ63" s="30">
         <f t="shared" si="153"/>
-        <v>0.30000000000000004</v>
+        <v>0.44822092405735536</v>
       </c>
       <c r="BA63" s="30">
         <f t="shared" si="154"/>
@@ -14161,7 +14399,7 @@
       <c r="BK63" s="30"/>
       <c r="BL63" s="30"/>
       <c r="BM63" s="30"/>
-      <c r="BN63" s="70" t="s">
+      <c r="BN63" s="69" t="s">
         <v>203</v>
       </c>
       <c r="BO63" s="30">
@@ -14182,7 +14420,7 @@
       </c>
       <c r="BS63" s="30">
         <f t="shared" si="158"/>
-        <v>0.28638412984670869</v>
+        <v>0.32233672549272185</v>
       </c>
       <c r="BT63" s="30">
         <f t="shared" si="158"/>
@@ -14210,8 +14448,8 @@
       </c>
     </row>
     <row r="64" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="71" t="s">
-        <v>326</v>
+      <c r="B64" s="70" t="s">
+        <v>323</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="30"/>
@@ -14327,7 +14565,7 @@
       </c>
       <c r="AZ64" s="30">
         <f t="shared" ref="AZ64" si="160">+AZ3/AV3-1</f>
-        <v>-0.18457360927638333</v>
+        <v>2.3190958461764222E-2</v>
       </c>
       <c r="BA64" s="30">
         <f t="shared" ref="BA64" si="161">+BA3/AW3-1</f>
@@ -14370,31 +14608,31 @@
       </c>
       <c r="BS64" s="30">
         <f>+Model!BS3/Model!BR3-1</f>
-        <v>-0.10447658402203852</v>
+        <v>-5.0317569635751402E-2</v>
       </c>
       <c r="BT64" s="30">
         <f>+Model!BT3/Model!BS3-1</f>
-        <v>9.8617327625248885E-2</v>
+        <v>9.3508293414017896E-2</v>
       </c>
       <c r="BU64" s="30">
         <f>+Model!BU3/Model!BT3-1</f>
-        <v>-3.7513988134984522E-2</v>
+        <v>-4.0123499273815422E-2</v>
       </c>
       <c r="BV64" s="30">
         <f>+Model!BV3/Model!BU3-1</f>
-        <v>-2.6116338151584872E-2</v>
+        <v>-2.8443767897861072E-2</v>
       </c>
       <c r="BW64" s="30">
         <f>+Model!BW3/Model!BV3-1</f>
-        <v>-7.6223416116979914E-2</v>
+        <v>-8.0894060521745748E-2</v>
       </c>
       <c r="BX64" s="30">
         <f>+Model!BX3/Model!BW3-1</f>
-        <v>-2.7494105160404847E-2</v>
+        <v>-3.0327137361715106E-2</v>
       </c>
       <c r="BY64" s="30">
         <f>+Model!BY3/Model!BX3-1</f>
-        <v>-0.25013508114265548</v>
+        <v>-0.25731995111292227</v>
       </c>
     </row>
     <row r="65" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -14522,7 +14760,7 @@
       </c>
       <c r="AZ65" s="30">
         <f t="shared" ref="AZ65:AZ66" si="164">AZ9/AV9-1</f>
-        <v>-3.0000000000000138E-2</v>
+        <v>6.4233576642335866E-2</v>
       </c>
       <c r="BA65" s="30">
         <f t="shared" ref="BA65:BA66" si="165">BA9/AW9-1</f>
@@ -14680,7 +14918,7 @@
       </c>
       <c r="AZ66" s="30">
         <f t="shared" si="164"/>
-        <v>3.0000000000000027E-2</v>
+        <v>8.8235294117646967E-2</v>
       </c>
       <c r="BA66" s="30">
         <f t="shared" si="165"/>
@@ -14715,7 +14953,7 @@
     </row>
     <row r="67" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="53" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -14841,7 +15079,7 @@
       </c>
       <c r="AZ67" s="30">
         <f t="shared" ref="AZ67" si="168">AZ12/AV12-1</f>
-        <v>0.19999999999999996</v>
+        <v>0.55773420479302827</v>
       </c>
       <c r="BA67" s="30">
         <f t="shared" ref="BA67" si="169">BA12/AW12-1</f>
@@ -15087,7 +15325,7 @@
       </c>
       <c r="AZ69" s="30">
         <f t="shared" si="177"/>
-        <v>0.83000000000000007</v>
+        <v>0.85237173281703771</v>
       </c>
       <c r="BA69" s="30">
         <f t="shared" si="177"/>
@@ -15095,7 +15333,7 @@
       </c>
       <c r="BB69" s="30">
         <f t="shared" si="177"/>
-        <v>0.82999999999999985</v>
+        <v>0.83</v>
       </c>
       <c r="BC69" s="30"/>
       <c r="BD69" s="30"/>
@@ -15133,7 +15371,7 @@
       </c>
       <c r="BS69" s="30">
         <f t="shared" si="178"/>
-        <v>0.85</v>
+        <v>0.84999999999999987</v>
       </c>
       <c r="BT69" s="30">
         <f t="shared" si="178"/>
@@ -15141,7 +15379,7 @@
       </c>
       <c r="BU69" s="30">
         <f t="shared" si="178"/>
-        <v>0.85</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="BV69" s="30">
         <f t="shared" si="178"/>
@@ -15286,7 +15524,7 @@
       </c>
       <c r="AZ70" s="30">
         <f t="shared" si="185"/>
-        <v>0.1</v>
+        <v>0.16184542352766651</v>
       </c>
       <c r="BA70" s="30">
         <f t="shared" si="185"/>
@@ -15391,15 +15629,15 @@
       </c>
       <c r="AZ72" s="16">
         <f>+AY72+AZ55</f>
-        <v>-50848.63882</v>
+        <v>-49977</v>
       </c>
       <c r="BA72" s="16">
         <f>+AZ72+BA55</f>
-        <v>-45656.172790000004</v>
+        <v>-44792.156970000004</v>
       </c>
       <c r="BB72" s="16">
         <f>+BA72+BB55</f>
-        <v>-40568.072110000008</v>
+        <v>-39711.67929</v>
       </c>
     </row>
     <row r="73" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -16773,8 +17011,8 @@
       <c r="BX87" s="16"/>
     </row>
     <row r="89" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="66" t="s">
-        <v>301</v>
+      <c r="B89" s="65" t="s">
+        <v>298</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -16867,8 +17105,8 @@
       <c r="BX89" s="16"/>
     </row>
     <row r="90" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="66" t="s">
-        <v>302</v>
+      <c r="B90" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -16959,8 +17197,8 @@
       <c r="BX90" s="16"/>
     </row>
     <row r="91" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="66" t="s">
-        <v>303</v>
+      <c r="B91" s="65" t="s">
+        <v>300</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -17051,8 +17289,8 @@
       <c r="BX91" s="16"/>
     </row>
     <row r="92" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="66" t="s">
-        <v>304</v>
+      <c r="B92" s="65" t="s">
+        <v>301</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -17143,7 +17381,7 @@
       <c r="BX92" s="16"/>
     </row>
     <row r="93" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="66" t="s">
+      <c r="B93" s="65" t="s">
         <v>141</v>
       </c>
       <c r="C93" s="16"/>
@@ -17235,8 +17473,8 @@
       <c r="BX93" s="16"/>
     </row>
     <row r="94" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="66" t="s">
-        <v>305</v>
+      <c r="B94" s="65" t="s">
+        <v>302</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -17327,8 +17565,8 @@
       <c r="BX94" s="16"/>
     </row>
     <row r="95" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="66" t="s">
-        <v>306</v>
+      <c r="B95" s="65" t="s">
+        <v>303</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -17419,8 +17657,8 @@
       <c r="BX95" s="16"/>
     </row>
     <row r="96" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B96" s="63" t="s">
-        <v>309</v>
+      <c r="B96" s="62" t="s">
+        <v>306</v>
       </c>
       <c r="AQ96" s="16">
         <v>145</v>
@@ -17443,7 +17681,7 @@
       </c>
     </row>
     <row r="97" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B97" s="63" t="s">
+      <c r="B97" s="62" t="s">
         <v>12</v>
       </c>
       <c r="AQ97" s="16">
@@ -17466,8 +17704,8 @@
       </c>
     </row>
     <row r="98" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B98" s="63" t="s">
-        <v>308</v>
+      <c r="B98" s="62" t="s">
+        <v>305</v>
       </c>
       <c r="AQ98" s="16">
         <f>-785-385-285-258+438</f>
@@ -17491,8 +17729,8 @@
       </c>
     </row>
     <row r="99" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B99" s="63" t="s">
-        <v>307</v>
+      <c r="B99" s="62" t="s">
+        <v>304</v>
       </c>
       <c r="AQ99" s="16">
         <f>SUM(AQ90:AQ98)</f>
@@ -17516,8 +17754,8 @@
       </c>
     </row>
     <row r="101" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="66" t="s">
-        <v>311</v>
+      <c r="B101" s="65" t="s">
+        <v>308</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -17610,8 +17848,8 @@
       <c r="BX101" s="16"/>
     </row>
     <row r="102" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="66" t="s">
-        <v>312</v>
+      <c r="B102" s="65" t="s">
+        <v>309</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -17702,8 +17940,8 @@
       <c r="BX102" s="16"/>
     </row>
     <row r="103" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="66" t="s">
-        <v>310</v>
+      <c r="B103" s="65" t="s">
+        <v>307</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -17796,7 +18034,7 @@
       <c r="BX103" s="16"/>
     </row>
     <row r="105" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B105" s="63" t="s">
+      <c r="B105" s="62" t="s">
         <v>51</v>
       </c>
       <c r="AQ105" s="16">
@@ -17820,8 +18058,8 @@
       </c>
     </row>
     <row r="106" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B106" s="63" t="s">
-        <v>313</v>
+      <c r="B106" s="62" t="s">
+        <v>310</v>
       </c>
       <c r="AQ106" s="16">
         <v>-2526</v>
@@ -17843,8 +18081,8 @@
       </c>
     </row>
     <row r="107" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B107" s="63" t="s">
-        <v>317</v>
+      <c r="B107" s="62" t="s">
+        <v>314</v>
       </c>
       <c r="AQ107" s="16">
         <v>-1470</v>
@@ -17866,8 +18104,8 @@
       </c>
     </row>
     <row r="108" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B108" s="63" t="s">
-        <v>318</v>
+      <c r="B108" s="62" t="s">
+        <v>315</v>
       </c>
       <c r="AQ108" s="16">
         <v>128</v>
@@ -17889,8 +18127,8 @@
       </c>
     </row>
     <row r="109" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B109" s="63" t="s">
-        <v>305</v>
+      <c r="B109" s="62" t="s">
+        <v>302</v>
       </c>
       <c r="AQ109" s="16">
         <v>-246</v>
@@ -17912,7 +18150,7 @@
       </c>
     </row>
     <row r="110" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B110" s="63" t="s">
+      <c r="B110" s="62" t="s">
         <v>12</v>
       </c>
       <c r="AQ110" s="16">
@@ -17935,8 +18173,8 @@
       </c>
     </row>
     <row r="111" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B111" s="63" t="s">
-        <v>316</v>
+      <c r="B111" s="62" t="s">
+        <v>313</v>
       </c>
       <c r="AQ111" s="16">
         <f>SUM(AQ105:AQ110)</f>
@@ -17960,8 +18198,8 @@
       </c>
     </row>
     <row r="112" spans="2:76" x14ac:dyDescent="0.2">
-      <c r="B112" s="63" t="s">
-        <v>315</v>
+      <c r="B112" s="62" t="s">
+        <v>312</v>
       </c>
       <c r="AQ112" s="16">
         <v>7</v>
@@ -17983,8 +18221,8 @@
       </c>
     </row>
     <row r="113" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B113" s="63" t="s">
-        <v>314</v>
+      <c r="B113" s="62" t="s">
+        <v>311</v>
       </c>
       <c r="AQ113" s="16">
         <f>+AQ112+AQ111+AQ103+AQ99</f>
@@ -18048,7 +18286,7 @@
         <v>190</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -18056,7 +18294,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -18072,7 +18310,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -18124,10 +18362,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -18152,7 +18390,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -18203,7 +18441,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -18214,52 +18452,52 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="41" t="s">
-        <v>218</v>
+      <c r="C7" s="90" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="56" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="56" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -18280,9 +18518,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="5" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -18291,48 +18529,48 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="63">
+        <v>33581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="62" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="63" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="62" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>297</v>
-      </c>
-      <c r="C5" s="64">
-        <v>33581</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -18345,14 +18583,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2D5731-AABB-421F-B236-A216837D7AE2}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="41"/>
+    <col min="2" max="2" width="12.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -18365,7 +18604,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -18373,7 +18612,7 @@
         <v>190</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -18381,15 +18620,43 @@
         <v>33</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>227</v>
+      <c r="C5" s="90" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="86" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="86" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="86" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -18402,15 +18669,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EED8B5-3D39-447E-8536-C3957701F927}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="86" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="86"/>
+    <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -18419,29 +18686,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="86" t="s">
-        <v>335</v>
+      <c r="C2" s="85" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>351</v>
+      <c r="C3" s="85" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="86" t="s">
-        <v>232</v>
+      <c r="B4" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="87" t="s">
-        <v>352</v>
+      <c r="B5" s="85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="86" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="86" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="90" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D863190B-88DD-4D9E-A303-FA0E2939F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE54CD40-D139-6543-B61E-3B93D3561586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50895" yWindow="840" windowWidth="24900" windowHeight="19155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5080" yWindow="760" windowWidth="28660" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -1668,7 +1668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1846,9 +1846,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1863,6 +1860,10 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1888,14 +1889,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>33087</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>39771</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>33087</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>39771</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1912,8 +1913,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31641048" y="0"/>
-          <a:ext cx="0" cy="18818392"/>
+          <a:off x="36996771" y="0"/>
+          <a:ext cx="0" cy="19570366"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2421,19 +2422,19 @@
       <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="27"/>
+    <col min="2" max="2" width="18.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="27" t="s">
         <v>147</v>
@@ -2451,25 +2452,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="20"/>
       <c r="B3" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="20"/>
       <c r="B5" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="41" t="s">
         <v>199</v>
@@ -2487,13 +2488,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2501,22 +2502,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="41" t="s">
         <v>38</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="41" t="s">
         <v>191</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C18" s="27" t="s">
         <v>28</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="37" t="s">
         <v>171</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="37" t="s">
         <v>29</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="41" t="s">
         <v>69</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="41" t="s">
         <v>67</v>
       </c>
@@ -2604,64 +2605,64 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="90" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="90"/>
+    <col min="1" max="1" width="5.5" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="90" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="89" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="90" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="89" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="90" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="89" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="90" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="89" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="90" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="89" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="90" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="89" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="86" t="s">
         <v>422</v>
       </c>
@@ -2679,23 +2680,23 @@
   <dimension ref="B2:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
@@ -2721,10 +2722,10 @@
         <v>48</v>
       </c>
       <c r="K2" s="14">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="21" t="s">
         <v>73</v>
       </c>
@@ -2750,13 +2751,13 @@
         <v>14</v>
       </c>
       <c r="K3" s="15">
-        <v>1765.8677809999999</v>
-      </c>
-      <c r="L3" s="78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1771</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4" s="21" t="s">
         <v>210</v>
       </c>
@@ -2783,11 +2784,11 @@
       </c>
       <c r="K4" s="15">
         <f>+K3*K2</f>
-        <v>335514.87838999997</v>
+        <v>345345</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="21" t="s">
         <v>160</v>
       </c>
@@ -2812,14 +2813,15 @@
       <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="15">
-        <v>18374</v>
-      </c>
-      <c r="L5" s="87" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K5" s="94">
+        <f>Model!AZ73</f>
+        <v>13429</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="21" t="s">
         <v>163</v>
       </c>
@@ -2845,13 +2847,14 @@
         <v>51</v>
       </c>
       <c r="K6" s="15">
-        <v>74001</v>
-      </c>
-      <c r="L6" s="87" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+        <f>Model!AZ82</f>
+        <v>70634</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="77" t="s">
         <v>164</v>
       </c>
@@ -2878,10 +2881,10 @@
       </c>
       <c r="K7" s="15">
         <f>+K4-K5+K6</f>
-        <v>391141.87838999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>402550</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="61" t="s">
         <v>274</v>
       </c>
@@ -2900,7 +2903,7 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9" s="21" t="s">
         <v>179</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10" s="61" t="s">
         <v>278</v>
       </c>
@@ -2942,7 +2945,7 @@
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="77" t="s">
         <v>6</v>
       </c>
@@ -2959,7 +2962,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12" s="61" t="s">
         <v>282</v>
       </c>
@@ -2974,7 +2977,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="61" t="s">
         <v>281</v>
       </c>
@@ -2986,11 +2989,11 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="11"/>
-      <c r="J13" s="90" t="s">
+      <c r="J13" s="89" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14" s="61" t="s">
         <v>269</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="39" t="s">
         <v>208</v>
       </c>
@@ -3029,7 +3032,7 @@
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="39" t="s">
         <v>185</v>
       </c>
@@ -3046,7 +3049,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="21" t="s">
         <v>337</v>
       </c>
@@ -3061,7 +3064,7 @@
       <c r="G17" s="38"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="39" t="s">
         <v>212</v>
       </c>
@@ -3076,7 +3079,7 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="21" t="s">
         <v>339</v>
       </c>
@@ -3093,7 +3096,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="61" t="s">
         <v>289</v>
       </c>
@@ -3108,7 +3111,7 @@
       <c r="G20" s="57"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="39" t="s">
         <v>214</v>
       </c>
@@ -3122,9 +3125,9 @@
         <v>285</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="J21" s="89"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="88"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="39" t="s">
         <v>211</v>
       </c>
@@ -3139,7 +3142,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
@@ -3150,7 +3153,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="39" t="s">
         <v>207</v>
       </c>
@@ -3169,7 +3172,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="66" t="s">
         <v>318</v>
       </c>
@@ -3186,7 +3189,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="83" t="s">
         <v>351</v>
       </c>
@@ -3203,7 +3206,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="66" t="s">
         <v>320</v>
       </c>
@@ -3218,14 +3221,14 @@
       <c r="G27" s="9"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="83" t="s">
         <v>392</v>
       </c>
       <c r="C28" s="84" t="s">
         <v>393</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="92" t="s">
         <v>395</v>
       </c>
       <c r="E28" s="84" t="s">
@@ -3235,7 +3238,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29" s="35" t="s">
         <v>168</v>
       </c>
@@ -3254,7 +3257,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="35" t="s">
         <v>175</v>
       </c>
@@ -3273,7 +3276,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B31" s="75" t="s">
         <v>327</v>
       </c>
@@ -3292,7 +3295,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32" s="83" t="s">
         <v>382</v>
       </c>
@@ -3305,7 +3308,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="39" t="s">
         <v>181</v>
       </c>
@@ -3324,7 +3327,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="39" t="s">
         <v>193</v>
       </c>
@@ -3343,7 +3346,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="83" t="s">
         <v>397</v>
       </c>
@@ -3362,7 +3365,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="39" t="s">
         <v>225</v>
       </c>
@@ -3381,7 +3384,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="83" t="s">
         <v>383</v>
       </c>
@@ -3398,7 +3401,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="83" t="s">
         <v>385</v>
       </c>
@@ -3415,56 +3418,56 @@
       <c r="G38" s="9"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="92" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="91" t="s">
         <v>408</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="92" t="s">
         <v>409</v>
       </c>
       <c r="D39" s="84"/>
       <c r="E39" s="84"/>
-      <c r="F39" s="94" t="s">
+      <c r="F39" s="93" t="s">
         <v>410</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="92" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="91" t="s">
         <v>411</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="92" t="s">
         <v>412</v>
       </c>
       <c r="D40" s="84"/>
-      <c r="E40" s="93" t="s">
+      <c r="E40" s="92" t="s">
         <v>413</v>
       </c>
-      <c r="F40" s="94" t="s">
+      <c r="F40" s="93" t="s">
         <v>414</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="92" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="91" t="s">
         <v>415</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93" t="s">
+      <c r="C41" s="92"/>
+      <c r="D41" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="E41" s="93" t="s">
+      <c r="E41" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="F41" s="94" t="s">
+      <c r="F41" s="93" t="s">
         <v>417</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="83" t="s">
         <v>364</v>
       </c>
@@ -3481,7 +3484,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="83" t="s">
         <v>366</v>
       </c>
@@ -3498,7 +3501,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="83" t="s">
         <v>368</v>
       </c>
@@ -3511,13 +3514,13 @@
       <c r="E44" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="F44" s="88" t="s">
+      <c r="F44" s="87" t="s">
         <v>371</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="83" t="s">
         <v>376</v>
       </c>
@@ -3530,13 +3533,13 @@
       <c r="E45" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="F45" s="88" t="s">
+      <c r="F45" s="87" t="s">
         <v>378</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="83" t="s">
         <v>379</v>
       </c>
@@ -3549,11 +3552,11 @@
       <c r="E46" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="F46" s="88"/>
+      <c r="F46" s="87"/>
       <c r="G46" s="9"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="83" t="s">
         <v>372</v>
       </c>
@@ -3566,13 +3569,13 @@
       <c r="E47" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="F47" s="88" t="s">
+      <c r="F47" s="87" t="s">
         <v>375</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="83" t="s">
         <v>359</v>
       </c>
@@ -3585,7 +3588,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="83" t="s">
         <v>360</v>
       </c>
@@ -3604,7 +3607,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="83" t="s">
         <v>357</v>
       </c>
@@ -3617,7 +3620,7 @@
       <c r="G50" s="9"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
         <v>40</v>
       </c>
@@ -3630,41 +3633,41 @@
       <c r="G51" s="9"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="92" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="91" t="s">
         <v>426</v>
       </c>
-      <c r="C52" s="93" t="s">
+      <c r="C52" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="D52" s="93" t="s">
+      <c r="D52" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="93" t="s">
+      <c r="E52" s="92" t="s">
         <v>428</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="92" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="91" t="s">
         <v>429</v>
       </c>
-      <c r="C53" s="93" t="s">
+      <c r="C53" s="92" t="s">
         <v>431</v>
       </c>
-      <c r="D53" s="93" t="s">
+      <c r="D53" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="93" t="s">
+      <c r="E53" s="92" t="s">
         <v>430</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="61" t="s">
         <v>286</v>
       </c>
@@ -3683,7 +3686,7 @@
       <c r="G54" s="9"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>42</v>
       </c>
@@ -3702,7 +3705,7 @@
       <c r="G55" s="9"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="83" t="s">
         <v>390</v>
       </c>
@@ -3719,7 +3722,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="83" t="s">
         <v>387</v>
       </c>
@@ -3736,7 +3739,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
@@ -3749,7 +3752,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="5" t="s">
         <v>47</v>
       </c>
@@ -3760,37 +3763,37 @@
       <c r="G59" s="12"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E61" s="85" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E62" s="85" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E63" s="85" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="E64" s="56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E66" s="86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E67" s="85" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E68" s="85" t="s">
         <v>399</v>
       </c>
@@ -3814,28 +3817,28 @@
   <dimension ref="A1:GV113"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BR41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AR70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AZ74" sqref="AZ74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="76" width="9.140625" style="2"/>
-    <col min="77" max="79" width="9.140625" style="1"/>
-    <col min="80" max="80" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="76" width="9.1640625" style="2"/>
+    <col min="77" max="79" width="9.1640625" style="1"/>
+    <col min="80" max="80" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.15">
       <c r="B3" s="55" t="s">
         <v>251</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>16753.883032617559</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.15">
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
@@ -4294,7 +4297,7 @@
       <c r="BD4" s="44"/>
       <c r="BE4" s="44"/>
     </row>
-    <row r="5" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>662.01120000000014</v>
       </c>
     </row>
-    <row r="6" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="23" t="s">
         <v>123</v>
       </c>
@@ -4582,7 +4585,7 @@
       <c r="AY6" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="AZ6" s="91" t="s">
+      <c r="AZ6" s="90" t="s">
         <v>401</v>
       </c>
       <c r="BA6" s="82" t="s">
@@ -4628,7 +4631,7 @@
       <c r="BW6" s="16"/>
       <c r="BX6" s="16"/>
     </row>
-    <row r="7" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="23" t="s">
         <v>116</v>
       </c>
@@ -4805,7 +4808,7 @@
         <v>1802.3555794500001</v>
       </c>
     </row>
-    <row r="8" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23" t="s">
         <v>114</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>15470.385001385328</v>
       </c>
     </row>
-    <row r="9" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23" t="s">
         <v>118</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>3564.4667906728132</v>
       </c>
     </row>
-    <row r="10" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
         <v>121</v>
       </c>
@@ -5338,7 +5341,7 @@
         <v>4196.8043196581266</v>
       </c>
     </row>
-    <row r="11" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="76" t="s">
         <v>117</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>295.37144139089702</v>
       </c>
     </row>
-    <row r="12" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="23" t="s">
         <v>115</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>621.48683123223009</v>
       </c>
     </row>
-    <row r="13" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="23" t="s">
         <v>124</v>
       </c>
@@ -5869,7 +5872,7 @@
         <v>357.63605192155006</v>
       </c>
     </row>
-    <row r="14" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
         <v>119</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>1647.647590148438</v>
       </c>
     </row>
-    <row r="15" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="23" t="s">
         <v>132</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>369</v>
       </c>
       <c r="BA15" s="16">
-        <f t="shared" ref="AZ15:BB15" si="23">+AW15*0.9</f>
+        <f t="shared" ref="BA15:BB15" si="23">+AW15*0.9</f>
         <v>333</v>
       </c>
       <c r="BB15" s="16">
@@ -6223,7 +6226,7 @@
         <v>156.36728589999996</v>
       </c>
     </row>
-    <row r="16" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23" t="s">
         <v>120</v>
       </c>
@@ -6330,7 +6333,7 @@
         <v>318</v>
       </c>
       <c r="BA16" s="16">
-        <f t="shared" ref="AZ16:BB18" si="25">+AW16</f>
+        <f t="shared" ref="BA16:BB18" si="25">+AW16</f>
         <v>298</v>
       </c>
       <c r="BB16" s="16">
@@ -6400,7 +6403,7 @@
         <v>666.4270140000001</v>
       </c>
     </row>
-    <row r="17" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
         <v>6</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>1597.6419727558023</v>
       </c>
     </row>
-    <row r="18" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="23" t="s">
         <v>131</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>432.06153300000011</v>
       </c>
     </row>
-    <row r="19" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="23" t="s">
         <v>130</v>
       </c>
@@ -6940,7 +6943,7 @@
         <v>76.527504000000008</v>
       </c>
     </row>
-    <row r="20" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="23" t="s">
         <v>133</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>221</v>
       </c>
       <c r="BA20" s="16">
-        <f t="shared" ref="AZ20:BB21" si="30">+AW20</f>
+        <f t="shared" ref="BA20:BB21" si="30">+AW20</f>
         <v>288</v>
       </c>
       <c r="BB20" s="16">
@@ -7117,7 +7120,7 @@
         <v>16.53125</v>
       </c>
     </row>
-    <row r="21" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="23" t="s">
         <v>127</v>
       </c>
@@ -7294,7 +7297,7 @@
         <v>149.33492100000001</v>
       </c>
     </row>
-    <row r="22" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="23" t="s">
         <v>128</v>
       </c>
@@ -7471,7 +7474,7 @@
         <v>210.982077</v>
       </c>
     </row>
-    <row r="23" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="23" t="s">
         <v>125</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>170.08106544000003</v>
       </c>
     </row>
-    <row r="24" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="15" t="s">
         <v>4</v>
       </c>
@@ -7833,7 +7836,7 @@
         <v>244.99430100000001</v>
       </c>
     </row>
-    <row r="25" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>129</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>107.88252300000002</v>
       </c>
     </row>
-    <row r="26" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>126</v>
       </c>
@@ -8187,7 +8190,7 @@
         <v>107.82389376000003</v>
       </c>
     </row>
-    <row r="27" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="79" t="s">
         <v>332</v>
       </c>
@@ -8298,7 +8301,7 @@
         <v>804.28869400000042</v>
       </c>
     </row>
-    <row r="28" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="79" t="s">
         <v>333</v>
       </c>
@@ -8397,7 +8400,7 @@
       <c r="BW28" s="16"/>
       <c r="BX28" s="16"/>
     </row>
-    <row r="29" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="74" t="s">
         <v>326</v>
       </c>
@@ -8504,7 +8507,7 @@
       <c r="BW29" s="16"/>
       <c r="BX29" s="16"/>
     </row>
-    <row r="30" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="48" t="s">
         <v>232</v>
       </c>
@@ -8612,7 +8615,7 @@
       <c r="BW30" s="16"/>
       <c r="BX30" s="16"/>
     </row>
-    <row r="31" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="48" t="s">
         <v>233</v>
       </c>
@@ -8720,7 +8723,7 @@
       <c r="BW31" s="16"/>
       <c r="BX31" s="16"/>
     </row>
-    <row r="32" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="15" t="s">
         <v>9</v>
       </c>
@@ -8836,7 +8839,7 @@
       <c r="BW32" s="16"/>
       <c r="BX32" s="16"/>
     </row>
-    <row r="33" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="15" t="s">
         <v>7</v>
       </c>
@@ -8952,7 +8955,7 @@
       <c r="BW33" s="16"/>
       <c r="BX33" s="16"/>
     </row>
-    <row r="34" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="48" t="s">
         <v>234</v>
       </c>
@@ -9060,7 +9063,7 @@
       <c r="BW34" s="16"/>
       <c r="BX34" s="16"/>
     </row>
-    <row r="35" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="15" t="s">
         <v>2</v>
       </c>
@@ -9174,7 +9177,7 @@
       <c r="BW35" s="16"/>
       <c r="BX35" s="16"/>
     </row>
-    <row r="36" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="15" t="s">
         <v>3</v>
       </c>
@@ -9288,7 +9291,7 @@
       <c r="BW36" s="16"/>
       <c r="BX36" s="16"/>
     </row>
-    <row r="37" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="15" t="s">
         <v>11</v>
       </c>
@@ -9402,7 +9405,7 @@
       <c r="BW37" s="16"/>
       <c r="BX37" s="16"/>
     </row>
-    <row r="38" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
@@ -9516,7 +9519,7 @@
       <c r="BW38" s="16"/>
       <c r="BX38" s="16"/>
     </row>
-    <row r="39" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="48" t="s">
         <v>235</v>
       </c>
@@ -9622,7 +9625,7 @@
       <c r="BW39" s="16"/>
       <c r="BX39" s="16"/>
     </row>
-    <row r="40" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -9736,7 +9739,7 @@
       <c r="BW40" s="16"/>
       <c r="BX40" s="16"/>
     </row>
-    <row r="41" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
         <v>63</v>
       </c>
@@ -9848,7 +9851,7 @@
       <c r="BW41" s="16"/>
       <c r="BX41" s="16"/>
     </row>
-    <row r="42" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
         <v>5</v>
       </c>
@@ -9962,7 +9965,7 @@
       <c r="BW42" s="16"/>
       <c r="BX42" s="16"/>
     </row>
-    <row r="43" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="15" t="s">
         <v>13</v>
       </c>
@@ -10080,7 +10083,7 @@
       <c r="BW43" s="16"/>
       <c r="BX43" s="16"/>
     </row>
-    <row r="44" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
         <v>12</v>
       </c>
@@ -10284,7 +10287,7 @@
         <v>1677.759237</v>
       </c>
     </row>
-    <row r="45" spans="2:77" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:77" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="17" t="s">
         <v>243</v>
       </c>
@@ -10505,7 +10508,7 @@
         <v>35036.868077715189</v>
       </c>
     </row>
-    <row r="46" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="15" t="s">
         <v>25</v>
       </c>
@@ -10698,7 +10701,7 @@
         <v>5255.5302116572784</v>
       </c>
     </row>
-    <row r="47" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="15" t="s">
         <v>24</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>29781.337866057911</v>
       </c>
     </row>
-    <row r="48" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
         <v>23</v>
       </c>
@@ -11115,7 +11118,7 @@
         <v>7007.3736155430379</v>
       </c>
     </row>
-    <row r="49" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="15" t="s">
         <v>22</v>
       </c>
@@ -11289,7 +11292,7 @@
       <c r="BW49" s="16"/>
       <c r="BX49" s="16"/>
     </row>
-    <row r="50" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="15" t="s">
         <v>20</v>
       </c>
@@ -11513,7 +11516,7 @@
         <v>7007.3736155430379</v>
       </c>
     </row>
-    <row r="51" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="15" t="s">
         <v>21</v>
       </c>
@@ -11737,7 +11740,7 @@
         <v>22773.964250514873</v>
       </c>
     </row>
-    <row r="52" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="15" t="s">
         <v>19</v>
       </c>
@@ -11953,7 +11956,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="53" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="15" t="s">
         <v>18</v>
       </c>
@@ -12177,7 +12180,7 @@
         <v>23896.964250514873</v>
       </c>
     </row>
-    <row r="54" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="15" t="s">
         <v>17</v>
       </c>
@@ -12376,7 +12379,7 @@
         <v>3584.5446375772308</v>
       </c>
     </row>
-    <row r="55" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="15" t="s">
         <v>16</v>
       </c>
@@ -13108,7 +13111,7 @@
         <v>5668.0199930102344</v>
       </c>
     </row>
-    <row r="56" spans="2:204" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:204" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="14" t="s">
         <v>15</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>11.462990752222145</v>
       </c>
     </row>
-    <row r="57" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="15" t="s">
         <v>14</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="58" spans="2:204" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:204" x14ac:dyDescent="0.15">
       <c r="CA58" s="45" t="s">
         <v>245</v>
       </c>
@@ -13539,7 +13542,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="59" spans="2:204" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:204" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="32" t="s">
         <v>157</v>
       </c>
@@ -13745,7 +13748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="2:204" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:204" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="32" t="s">
         <v>252</v>
       </c>
@@ -13859,7 +13862,7 @@
       <c r="CA60" s="51"/>
       <c r="CB60" s="33"/>
     </row>
-    <row r="61" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="31" t="s">
         <v>156</v>
       </c>
@@ -14051,10 +14054,10 @@
       </c>
       <c r="CB61" s="17">
         <f>NPV(CB57,BR55:GV55)+Main!K5-Main!K6</f>
-        <v>285970.13603923819</v>
-      </c>
-    </row>
-    <row r="62" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
+        <v>284392.13603923819</v>
+      </c>
+    </row>
+    <row r="62" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="31" t="s">
         <v>158</v>
       </c>
@@ -14246,10 +14249,10 @@
       </c>
       <c r="CB62" s="14">
         <f>CB61/Main!K3</f>
-        <v>161.94311891080264</v>
-      </c>
-    </row>
-    <row r="63" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
+        <v>160.58279844112829</v>
+      </c>
+    </row>
+    <row r="63" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="31" t="s">
         <v>155</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="70" t="s">
         <v>323</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>-0.25731995111292227</v>
       </c>
     </row>
-    <row r="65" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="43" t="s">
         <v>118</v>
       </c>
@@ -14793,7 +14796,7 @@
       <c r="BW65" s="30"/>
       <c r="BX65" s="30"/>
     </row>
-    <row r="66" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="43" t="s">
         <v>121</v>
       </c>
@@ -14951,7 +14954,7 @@
       <c r="BW66" s="30"/>
       <c r="BX66" s="30"/>
     </row>
-    <row r="67" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="53" t="s">
         <v>250</v>
       </c>
@@ -15112,7 +15115,7 @@
       <c r="BW67" s="30"/>
       <c r="BX67" s="30"/>
     </row>
-    <row r="68" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="43"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -15189,7 +15192,7 @@
       <c r="BW68" s="30"/>
       <c r="BX68" s="30"/>
     </row>
-    <row r="69" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="43" t="s">
         <v>204</v>
       </c>
@@ -15388,7 +15391,7 @@
       <c r="BW69" s="30"/>
       <c r="BX69" s="30"/>
     </row>
-    <row r="70" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="43" t="s">
         <v>205</v>
       </c>
@@ -15587,7 +15590,7 @@
       <c r="BW70" s="30"/>
       <c r="BX70" s="30"/>
     </row>
-    <row r="72" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B72" s="25" t="s">
         <v>145</v>
       </c>
@@ -15640,7 +15643,7 @@
         <v>-39711.67929</v>
       </c>
     </row>
-    <row r="73" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="23" t="s">
         <v>50</v>
       </c>
@@ -15717,7 +15720,10 @@
         <f>18069+305</f>
         <v>18374</v>
       </c>
-      <c r="AZ73" s="16"/>
+      <c r="AZ73" s="16">
+        <f>13130+27+272</f>
+        <v>13429</v>
+      </c>
       <c r="BA73" s="16"/>
       <c r="BB73" s="16"/>
       <c r="BC73" s="16"/>
@@ -15743,7 +15749,7 @@
       <c r="BW73" s="16"/>
       <c r="BX73" s="16"/>
     </row>
-    <row r="74" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="23" t="s">
         <v>135</v>
       </c>
@@ -15812,7 +15818,9 @@
       <c r="AY74" s="16">
         <v>11949</v>
       </c>
-      <c r="AZ74" s="16"/>
+      <c r="AZ74" s="16">
+        <v>11724</v>
+      </c>
       <c r="BA74" s="16"/>
       <c r="BB74" s="16"/>
       <c r="BC74" s="16"/>
@@ -15838,7 +15846,7 @@
       <c r="BW74" s="16"/>
       <c r="BX74" s="16"/>
     </row>
-    <row r="75" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="23" t="s">
         <v>136</v>
       </c>
@@ -15907,7 +15915,9 @@
       <c r="AY75" s="16">
         <v>4245</v>
       </c>
-      <c r="AZ75" s="16"/>
+      <c r="AZ75" s="16">
+        <v>4218</v>
+      </c>
       <c r="BA75" s="16"/>
       <c r="BB75" s="16"/>
       <c r="BC75" s="16"/>
@@ -15933,7 +15943,7 @@
       <c r="BW75" s="16"/>
       <c r="BX75" s="16"/>
     </row>
-    <row r="76" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="23" t="s">
         <v>137</v>
       </c>
@@ -16002,7 +16012,9 @@
       <c r="AY76" s="16">
         <v>4608</v>
       </c>
-      <c r="AZ76" s="16"/>
+      <c r="AZ76" s="16">
+        <v>4717</v>
+      </c>
       <c r="BA76" s="16"/>
       <c r="BB76" s="16"/>
       <c r="BC76" s="16"/>
@@ -16028,7 +16040,7 @@
       <c r="BW76" s="16"/>
       <c r="BX76" s="16"/>
     </row>
-    <row r="77" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="23" t="s">
         <v>138</v>
       </c>
@@ -16097,7 +16109,9 @@
       <c r="AY77" s="16">
         <v>4980</v>
       </c>
-      <c r="AZ77" s="16"/>
+      <c r="AZ77" s="16">
+        <v>5023</v>
+      </c>
       <c r="BA77" s="16"/>
       <c r="BB77" s="16"/>
       <c r="BC77" s="16"/>
@@ -16123,7 +16137,7 @@
       <c r="BW77" s="16"/>
       <c r="BX77" s="16"/>
     </row>
-    <row r="78" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="23" t="s">
         <v>139</v>
       </c>
@@ -16200,7 +16214,10 @@
         <f>62225+33426</f>
         <v>95651</v>
       </c>
-      <c r="AZ78" s="16"/>
+      <c r="AZ78" s="16">
+        <f>60243+33386</f>
+        <v>93629</v>
+      </c>
       <c r="BA78" s="16"/>
       <c r="BB78" s="16"/>
       <c r="BC78" s="16"/>
@@ -16226,7 +16243,7 @@
       <c r="BW78" s="16"/>
       <c r="BX78" s="16"/>
     </row>
-    <row r="79" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="23" t="s">
         <v>12</v>
       </c>
@@ -16295,7 +16312,9 @@
       <c r="AY79" s="16">
         <v>9067</v>
       </c>
-      <c r="AZ79" s="16"/>
+      <c r="AZ79" s="16">
+        <v>9197</v>
+      </c>
       <c r="BA79" s="16"/>
       <c r="BB79" s="16"/>
       <c r="BC79" s="16"/>
@@ -16321,7 +16340,7 @@
       <c r="BW79" s="16"/>
       <c r="BX79" s="16"/>
     </row>
-    <row r="80" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="23" t="s">
         <v>134</v>
       </c>
@@ -16398,7 +16417,10 @@
         <f>SUM(AY73:AY79)</f>
         <v>148874</v>
       </c>
-      <c r="AZ80" s="16"/>
+      <c r="AZ80" s="16">
+        <f>SUM(AZ73:AZ79)</f>
+        <v>141937</v>
+      </c>
       <c r="BA80" s="16"/>
       <c r="BB80" s="16"/>
       <c r="BC80" s="16"/>
@@ -16424,7 +16446,7 @@
       <c r="BW80" s="16"/>
       <c r="BX80" s="16"/>
     </row>
-    <row r="82" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="23" t="s">
         <v>51</v>
       </c>
@@ -16501,7 +16523,10 @@
         <f>3+63805+10193</f>
         <v>74001</v>
       </c>
-      <c r="AZ82" s="16"/>
+      <c r="AZ82" s="16">
+        <f>12586+58048</f>
+        <v>70634</v>
+      </c>
       <c r="BA82" s="16"/>
       <c r="BB82" s="16"/>
       <c r="BC82" s="16"/>
@@ -16527,7 +16552,7 @@
       <c r="BW82" s="16"/>
       <c r="BX82" s="16"/>
     </row>
-    <row r="83" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="23" t="s">
         <v>140</v>
       </c>
@@ -16596,7 +16621,9 @@
       <c r="AY83" s="16">
         <v>31326</v>
       </c>
-      <c r="AZ83" s="16"/>
+      <c r="AZ83" s="16">
+        <v>29329</v>
+      </c>
       <c r="BA83" s="16"/>
       <c r="BB83" s="16"/>
       <c r="BC83" s="16"/>
@@ -16622,7 +16649,7 @@
       <c r="BW83" s="16"/>
       <c r="BX83" s="16"/>
     </row>
-    <row r="84" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B84" s="23" t="s">
         <v>141</v>
       </c>
@@ -16691,7 +16718,9 @@
       <c r="AY84" s="16">
         <v>2722</v>
       </c>
-      <c r="AZ84" s="16"/>
+      <c r="AZ84" s="16">
+        <v>2726</v>
+      </c>
       <c r="BA84" s="16"/>
       <c r="BB84" s="16"/>
       <c r="BC84" s="16"/>
@@ -16717,7 +16746,7 @@
       <c r="BW84" s="16"/>
       <c r="BX84" s="16"/>
     </row>
-    <row r="85" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="23" t="s">
         <v>142</v>
       </c>
@@ -16786,7 +16815,9 @@
       <c r="AY85" s="16">
         <v>32778</v>
       </c>
-      <c r="AZ85" s="16"/>
+      <c r="AZ85" s="16">
+        <v>32427</v>
+      </c>
       <c r="BA85" s="16"/>
       <c r="BB85" s="16"/>
       <c r="BC85" s="16"/>
@@ -16812,7 +16843,7 @@
       <c r="BW85" s="16"/>
       <c r="BX85" s="16"/>
     </row>
-    <row r="86" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="23" t="s">
         <v>143</v>
       </c>
@@ -16881,7 +16912,9 @@
       <c r="AY86" s="16">
         <v>8047</v>
       </c>
-      <c r="AZ86" s="16"/>
+      <c r="AZ86" s="16">
+        <v>6821</v>
+      </c>
       <c r="BA86" s="16"/>
       <c r="BB86" s="16"/>
       <c r="BC86" s="16"/>
@@ -16907,7 +16940,7 @@
       <c r="BW86" s="16"/>
       <c r="BX86" s="16"/>
     </row>
-    <row r="87" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="23" t="s">
         <v>144</v>
       </c>
@@ -16984,7 +17017,10 @@
         <f>SUM(AY82:AY86)</f>
         <v>148874</v>
       </c>
-      <c r="AZ87" s="16"/>
+      <c r="AZ87" s="16">
+        <f>SUM(AZ82:AZ86)</f>
+        <v>141937</v>
+      </c>
       <c r="BA87" s="16"/>
       <c r="BB87" s="16"/>
       <c r="BC87" s="16"/>
@@ -17010,7 +17046,7 @@
       <c r="BW87" s="16"/>
       <c r="BX87" s="16"/>
     </row>
-    <row r="89" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="65" t="s">
         <v>298</v>
       </c>
@@ -17104,7 +17140,7 @@
       <c r="BW89" s="16"/>
       <c r="BX89" s="16"/>
     </row>
-    <row r="90" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="65" t="s">
         <v>299</v>
       </c>
@@ -17196,7 +17232,7 @@
       <c r="BW90" s="16"/>
       <c r="BX90" s="16"/>
     </row>
-    <row r="91" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="65" t="s">
         <v>300</v>
       </c>
@@ -17288,7 +17324,7 @@
       <c r="BW91" s="16"/>
       <c r="BX91" s="16"/>
     </row>
-    <row r="92" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="65" t="s">
         <v>301</v>
       </c>
@@ -17380,7 +17416,7 @@
       <c r="BW92" s="16"/>
       <c r="BX92" s="16"/>
     </row>
-    <row r="93" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="65" t="s">
         <v>141</v>
       </c>
@@ -17472,7 +17508,7 @@
       <c r="BW93" s="16"/>
       <c r="BX93" s="16"/>
     </row>
-    <row r="94" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="65" t="s">
         <v>302</v>
       </c>
@@ -17564,7 +17600,7 @@
       <c r="BW94" s="16"/>
       <c r="BX94" s="16"/>
     </row>
-    <row r="95" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="65" t="s">
         <v>303</v>
       </c>
@@ -17656,7 +17692,7 @@
       <c r="BW95" s="16"/>
       <c r="BX95" s="16"/>
     </row>
-    <row r="96" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B96" s="62" t="s">
         <v>306</v>
       </c>
@@ -17680,7 +17716,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B97" s="62" t="s">
         <v>12</v>
       </c>
@@ -17703,7 +17739,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="98" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B98" s="62" t="s">
         <v>305</v>
       </c>
@@ -17728,7 +17764,7 @@
         <v>-2162</v>
       </c>
     </row>
-    <row r="99" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B99" s="62" t="s">
         <v>304</v>
       </c>
@@ -17753,7 +17789,7 @@
         <v>4753</v>
       </c>
     </row>
-    <row r="101" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="65" t="s">
         <v>308</v>
       </c>
@@ -17847,7 +17883,7 @@
       <c r="BW101" s="16"/>
       <c r="BX101" s="16"/>
     </row>
-    <row r="102" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="65" t="s">
         <v>309</v>
       </c>
@@ -17939,7 +17975,7 @@
       <c r="BW102" s="16"/>
       <c r="BX102" s="16"/>
     </row>
-    <row r="103" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="65" t="s">
         <v>307</v>
       </c>
@@ -18033,7 +18069,7 @@
       <c r="BW103" s="16"/>
       <c r="BX103" s="16"/>
     </row>
-    <row r="105" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B105" s="62" t="s">
         <v>51</v>
       </c>
@@ -18057,7 +18093,7 @@
         <v>-1832</v>
       </c>
     </row>
-    <row r="106" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B106" s="62" t="s">
         <v>310</v>
       </c>
@@ -18080,7 +18116,7 @@
         <v>-2626</v>
       </c>
     </row>
-    <row r="107" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B107" s="62" t="s">
         <v>314</v>
       </c>
@@ -18103,7 +18139,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="108" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B108" s="62" t="s">
         <v>315</v>
       </c>
@@ -18126,7 +18162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B109" s="62" t="s">
         <v>302</v>
       </c>
@@ -18149,7 +18185,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="110" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B110" s="62" t="s">
         <v>12</v>
       </c>
@@ -18172,7 +18208,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="111" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B111" s="62" t="s">
         <v>313</v>
       </c>
@@ -18197,7 +18233,7 @@
         <v>-4449</v>
       </c>
     </row>
-    <row r="112" spans="2:76" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:76" x14ac:dyDescent="0.15">
       <c r="B112" s="62" t="s">
         <v>312</v>
       </c>
@@ -18220,7 +18256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:50" x14ac:dyDescent="0.15">
       <c r="B113" s="62" t="s">
         <v>311</v>
       </c>
@@ -18262,18 +18298,18 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="56"/>
+    <col min="2" max="16384" width="9.1640625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="56" t="s">
         <v>147</v>
       </c>
@@ -18281,7 +18317,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" s="56" t="s">
         <v>190</v>
       </c>
@@ -18289,7 +18325,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B4" s="56" t="s">
         <v>27</v>
       </c>
@@ -18297,7 +18333,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" s="56" t="s">
         <v>33</v>
       </c>
@@ -18305,7 +18341,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" s="56" t="s">
         <v>53</v>
       </c>
@@ -18313,7 +18349,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="E7"/>
     </row>
   </sheetData>
@@ -18331,20 +18367,20 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
@@ -18352,7 +18388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
@@ -18360,7 +18396,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="45" t="s">
         <v>227</v>
       </c>
@@ -18368,7 +18404,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>33</v>
       </c>
@@ -18376,19 +18412,19 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="45" t="s">
         <v>229</v>
       </c>
@@ -18408,19 +18444,19 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="41" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="5.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="41" t="s">
         <v>147</v>
       </c>
@@ -18428,7 +18464,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="41" t="s">
         <v>190</v>
       </c>
@@ -18436,7 +18472,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
@@ -18444,58 +18480,58 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="90" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="89" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="41" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="41" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="41" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="56" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="56" t="s">
         <v>262</v>
       </c>
@@ -18516,19 +18552,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="62"/>
+    <col min="3" max="16384" width="9.1640625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="62" t="s">
         <v>147</v>
       </c>
@@ -18536,7 +18572,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="62" t="s">
         <v>190</v>
       </c>
@@ -18544,12 +18580,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="62" t="s">
         <v>294</v>
       </c>
@@ -18557,7 +18593,7 @@
         <v>33581</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="62" t="s">
         <v>33</v>
       </c>
@@ -18565,7 +18601,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="62" t="s">
         <v>296</v>
       </c>
@@ -18587,19 +18623,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="41"/>
+    <col min="2" max="2" width="12.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="41" t="s">
         <v>147</v>
       </c>
@@ -18607,7 +18643,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="41" t="s">
         <v>190</v>
       </c>
@@ -18615,7 +18651,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
@@ -18623,38 +18659,38 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="89" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="90" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="89" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="90" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="89" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="86" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="86" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="86" t="s">
         <v>405</v>
       </c>
@@ -18673,19 +18709,19 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="85"/>
+    <col min="2" max="2" width="13.1640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="85" t="s">
         <v>75</v>
       </c>
@@ -18693,7 +18729,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="85" t="s">
         <v>76</v>
       </c>
@@ -18701,31 +18737,31 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="90" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="89" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="85" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="86" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="90" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="89" t="s">
         <v>425</v>
       </c>
     </row>

--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE54CD40-D139-6543-B61E-3B93D3561586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C09D3-894F-47F4-9B2C-65D035140C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="760" windowWidth="28660" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -2422,19 +2422,19 @@
       <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="27"/>
+    <col min="2" max="2" width="18.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="27" t="s">
         <v>147</v>
@@ -2452,25 +2452,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="27" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="41" t="s">
         <v>199</v>
@@ -2488,13 +2488,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2502,22 +2502,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="41" t="s">
         <v>38</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="41" t="s">
         <v>191</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
         <v>28</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="37" t="s">
         <v>171</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="s">
         <v>29</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="41" t="s">
         <v>69</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="41" t="s">
         <v>67</v>
       </c>
@@ -2605,19 +2605,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="89" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="89"/>
+    <col min="1" max="1" width="5.42578125" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="89" t="s">
         <v>147</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="89" t="s">
         <v>190</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="89" t="s">
         <v>294</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="89" t="s">
         <v>36</v>
       </c>
@@ -2657,12 +2657,12 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="89" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="86" t="s">
         <v>422</v>
       </c>
@@ -2679,24 +2679,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>73</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
         <v>210</v>
       </c>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>160</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
         <v>163</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="77" t="s">
         <v>164</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>402550</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="61" t="s">
         <v>274</v>
       </c>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
         <v>179</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="61" t="s">
         <v>278</v>
       </c>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="77" t="s">
         <v>6</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="61" t="s">
         <v>282</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="61" t="s">
         <v>281</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="61" t="s">
         <v>269</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="39" t="s">
         <v>208</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
         <v>185</v>
       </c>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
         <v>337</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="G17" s="38"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>212</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="s">
         <v>339</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="61" t="s">
         <v>289</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="G20" s="57"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="39" t="s">
         <v>214</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="H21" s="11"/>
       <c r="J21" s="88"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="39" t="s">
         <v>211</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
@@ -3153,7 +3153,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="39" t="s">
         <v>207</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="66" t="s">
         <v>318</v>
       </c>
@@ -3189,7 +3189,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="83" t="s">
         <v>351</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="66" t="s">
         <v>320</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="83" t="s">
         <v>392</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="35" t="s">
         <v>168</v>
       </c>
@@ -3257,7 +3257,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
         <v>175</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="75" t="s">
         <v>327</v>
       </c>
@@ -3295,7 +3295,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="83" t="s">
         <v>382</v>
       </c>
@@ -3308,7 +3308,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="39" t="s">
         <v>181</v>
       </c>
@@ -3327,7 +3327,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="39" t="s">
         <v>193</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="83" t="s">
         <v>397</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="39" t="s">
         <v>225</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="83" t="s">
         <v>383</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="83" t="s">
         <v>385</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="G38" s="9"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="91" t="s">
         <v>408</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="91" t="s">
         <v>411</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="91" t="s">
         <v>415</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="83" t="s">
         <v>364</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="G42" s="9"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="83" t="s">
         <v>366</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="83" t="s">
         <v>368</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="G44" s="9"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="83" t="s">
         <v>376</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="G45" s="9"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="83" t="s">
         <v>379</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="83" t="s">
         <v>372</v>
       </c>
@@ -3575,7 +3575,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="83" t="s">
         <v>359</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="G48" s="9"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="83" t="s">
         <v>360</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="83" t="s">
         <v>357</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="G50" s="9"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>40</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="G51" s="9"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="91" t="s">
         <v>426</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="G52" s="9"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="91" t="s">
         <v>429</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="G53" s="9"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="61" t="s">
         <v>286</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="G54" s="9"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>42</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="G55" s="9"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="83" t="s">
         <v>390</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="G56" s="9"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="83" t="s">
         <v>387</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
         <v>47</v>
       </c>
@@ -3763,37 +3763,37 @@
       <c r="G59" s="12"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E61" s="85" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E62" s="85" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E63" s="85" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E64" s="56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E66" s="86" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E67" s="85" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E68" s="85" t="s">
         <v>399</v>
       </c>
@@ -3816,29 +3816,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GV113"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AR70" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AR33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ74" sqref="AZ74"/>
+      <selection pane="bottomRight" activeCell="AZ46" sqref="AZ46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="76" width="9.1640625" style="2"/>
-    <col min="77" max="79" width="9.1640625" style="1"/>
-    <col min="80" max="80" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="76" width="9.140625" style="2"/>
+    <col min="77" max="79" width="9.140625" style="1"/>
+    <col min="80" max="80" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B3" s="55" t="s">
         <v>251</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>16753.883032617559</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
@@ -4297,7 +4297,7 @@
       <c r="BD4" s="44"/>
       <c r="BE4" s="44"/>
     </row>
-    <row r="5" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>662.01120000000014</v>
       </c>
     </row>
-    <row r="6" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
         <v>123</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="BW6" s="16"/>
       <c r="BX6" s="16"/>
     </row>
-    <row r="7" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
         <v>116</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>1802.3555794500001</v>
       </c>
     </row>
-    <row r="8" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
         <v>114</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>15470.385001385328</v>
       </c>
     </row>
-    <row r="9" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
         <v>118</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>3564.4667906728132</v>
       </c>
     </row>
-    <row r="10" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
         <v>121</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>4196.8043196581266</v>
       </c>
     </row>
-    <row r="11" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="76" t="s">
         <v>117</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>295.37144139089702</v>
       </c>
     </row>
-    <row r="12" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
         <v>115</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>621.48683123223009</v>
       </c>
     </row>
-    <row r="13" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>124</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>357.63605192155006</v>
       </c>
     </row>
-    <row r="14" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>119</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>1647.647590148438</v>
       </c>
     </row>
-    <row r="15" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>132</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>156.36728589999996</v>
       </c>
     </row>
-    <row r="16" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>120</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>666.4270140000001</v>
       </c>
     </row>
-    <row r="17" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>6</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>1597.6419727558023</v>
       </c>
     </row>
-    <row r="18" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
         <v>131</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>432.06153300000011</v>
       </c>
     </row>
-    <row r="19" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
         <v>130</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>76.527504000000008</v>
       </c>
     </row>
-    <row r="20" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="23" t="s">
         <v>133</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>16.53125</v>
       </c>
     </row>
-    <row r="21" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="23" t="s">
         <v>127</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>149.33492100000001</v>
       </c>
     </row>
-    <row r="22" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
         <v>128</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>210.982077</v>
       </c>
     </row>
-    <row r="23" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
         <v>125</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>170.08106544000003</v>
       </c>
     </row>
-    <row r="24" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>4</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>244.99430100000001</v>
       </c>
     </row>
-    <row r="25" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="23" t="s">
         <v>129</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>107.88252300000002</v>
       </c>
     </row>
-    <row r="26" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="23" t="s">
         <v>126</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>107.82389376000003</v>
       </c>
     </row>
-    <row r="27" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="79" t="s">
         <v>332</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>804.28869400000042</v>
       </c>
     </row>
-    <row r="28" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="79" t="s">
         <v>333</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="BW28" s="16"/>
       <c r="BX28" s="16"/>
     </row>
-    <row r="29" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="74" t="s">
         <v>326</v>
       </c>
@@ -8507,7 +8507,7 @@
       <c r="BW29" s="16"/>
       <c r="BX29" s="16"/>
     </row>
-    <row r="30" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="48" t="s">
         <v>232</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="BW30" s="16"/>
       <c r="BX30" s="16"/>
     </row>
-    <row r="31" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="48" t="s">
         <v>233</v>
       </c>
@@ -8723,7 +8723,7 @@
       <c r="BW31" s="16"/>
       <c r="BX31" s="16"/>
     </row>
-    <row r="32" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>9</v>
       </c>
@@ -8839,7 +8839,7 @@
       <c r="BW32" s="16"/>
       <c r="BX32" s="16"/>
     </row>
-    <row r="33" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>7</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="BW33" s="16"/>
       <c r="BX33" s="16"/>
     </row>
-    <row r="34" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="48" t="s">
         <v>234</v>
       </c>
@@ -9063,7 +9063,7 @@
       <c r="BW34" s="16"/>
       <c r="BX34" s="16"/>
     </row>
-    <row r="35" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
         <v>2</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="BW35" s="16"/>
       <c r="BX35" s="16"/>
     </row>
-    <row r="36" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="15" t="s">
         <v>3</v>
       </c>
@@ -9291,7 +9291,7 @@
       <c r="BW36" s="16"/>
       <c r="BX36" s="16"/>
     </row>
-    <row r="37" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
         <v>11</v>
       </c>
@@ -9405,7 +9405,7 @@
       <c r="BW37" s="16"/>
       <c r="BX37" s="16"/>
     </row>
-    <row r="38" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
@@ -9519,7 +9519,7 @@
       <c r="BW38" s="16"/>
       <c r="BX38" s="16"/>
     </row>
-    <row r="39" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="48" t="s">
         <v>235</v>
       </c>
@@ -9625,7 +9625,7 @@
       <c r="BW39" s="16"/>
       <c r="BX39" s="16"/>
     </row>
-    <row r="40" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -9739,7 +9739,7 @@
       <c r="BW40" s="16"/>
       <c r="BX40" s="16"/>
     </row>
-    <row r="41" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
         <v>63</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="BW41" s="16"/>
       <c r="BX41" s="16"/>
     </row>
-    <row r="42" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
         <v>5</v>
       </c>
@@ -9965,7 +9965,7 @@
       <c r="BW42" s="16"/>
       <c r="BX42" s="16"/>
     </row>
-    <row r="43" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
         <v>13</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="BW43" s="16"/>
       <c r="BX43" s="16"/>
     </row>
-    <row r="44" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
         <v>12</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>1677.759237</v>
       </c>
     </row>
-    <row r="45" spans="2:77" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:77" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="17" t="s">
         <v>243</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>12310</v>
       </c>
       <c r="AZ45" s="18">
-        <f t="shared" si="40"/>
+        <f>SUM(AZ5:AZ44)</f>
         <v>14462</v>
       </c>
       <c r="BA45" s="18">
@@ -10508,7 +10508,7 @@
         <v>35036.868077715189</v>
       </c>
     </row>
-    <row r="46" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="15" t="s">
         <v>25</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>5255.5302116572784</v>
       </c>
     </row>
-    <row r="47" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
         <v>24</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>29781.337866057911</v>
       </c>
     </row>
-    <row r="48" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:77" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="15" t="s">
         <v>23</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>7007.3736155430379</v>
       </c>
     </row>
-    <row r="49" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="15" t="s">
         <v>22</v>
       </c>
@@ -11292,7 +11292,7 @@
       <c r="BW49" s="16"/>
       <c r="BX49" s="16"/>
     </row>
-    <row r="50" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="15" t="s">
         <v>20</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>7007.3736155430379</v>
       </c>
     </row>
-    <row r="51" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
         <v>21</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>22773.964250514873</v>
       </c>
     </row>
-    <row r="52" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="15" t="s">
         <v>19</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="53" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="15" t="s">
         <v>18</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>23896.964250514873</v>
       </c>
     </row>
-    <row r="54" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="15" t="s">
         <v>17</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>3584.5446375772308</v>
       </c>
     </row>
-    <row r="55" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
         <v>16</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>5668.0199930102344</v>
       </c>
     </row>
-    <row r="56" spans="2:204" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:204" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="14" t="s">
         <v>15</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>11.462990752222145</v>
       </c>
     </row>
-    <row r="57" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:204" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
         <v>14</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="58" spans="2:204" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:204" x14ac:dyDescent="0.2">
       <c r="CA58" s="45" t="s">
         <v>245</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="59" spans="2:204" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:204" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="32" t="s">
         <v>157</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="2:204" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:204" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="32" t="s">
         <v>252</v>
       </c>
@@ -13862,7 +13862,7 @@
       <c r="CA60" s="51"/>
       <c r="CB60" s="33"/>
     </row>
-    <row r="61" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="31" t="s">
         <v>156</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>284392.13603923819</v>
       </c>
     </row>
-    <row r="62" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="31" t="s">
         <v>158</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>160.58279844112829</v>
       </c>
     </row>
-    <row r="63" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="31" t="s">
         <v>155</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:204" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="70" t="s">
         <v>323</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>-0.25731995111292227</v>
       </c>
     </row>
-    <row r="65" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="43" t="s">
         <v>118</v>
       </c>
@@ -14796,7 +14796,7 @@
       <c r="BW65" s="30"/>
       <c r="BX65" s="30"/>
     </row>
-    <row r="66" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="43" t="s">
         <v>121</v>
       </c>
@@ -14954,7 +14954,7 @@
       <c r="BW66" s="30"/>
       <c r="BX66" s="30"/>
     </row>
-    <row r="67" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="53" t="s">
         <v>250</v>
       </c>
@@ -15115,7 +15115,7 @@
       <c r="BW67" s="30"/>
       <c r="BX67" s="30"/>
     </row>
-    <row r="68" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="43"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -15192,7 +15192,7 @@
       <c r="BW68" s="30"/>
       <c r="BX68" s="30"/>
     </row>
-    <row r="69" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="43" t="s">
         <v>204</v>
       </c>
@@ -15391,7 +15391,7 @@
       <c r="BW69" s="30"/>
       <c r="BX69" s="30"/>
     </row>
-    <row r="70" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:76" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="43" t="s">
         <v>205</v>
       </c>
@@ -15590,7 +15590,7 @@
       <c r="BW70" s="30"/>
       <c r="BX70" s="30"/>
     </row>
-    <row r="72" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
         <v>145</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>-39711.67929</v>
       </c>
     </row>
-    <row r="73" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="23" t="s">
         <v>50</v>
       </c>
@@ -15749,7 +15749,7 @@
       <c r="BW73" s="16"/>
       <c r="BX73" s="16"/>
     </row>
-    <row r="74" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="23" t="s">
         <v>135</v>
       </c>
@@ -15846,7 +15846,7 @@
       <c r="BW74" s="16"/>
       <c r="BX74" s="16"/>
     </row>
-    <row r="75" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="23" t="s">
         <v>136</v>
       </c>
@@ -15943,7 +15943,7 @@
       <c r="BW75" s="16"/>
       <c r="BX75" s="16"/>
     </row>
-    <row r="76" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="23" t="s">
         <v>137</v>
       </c>
@@ -16040,7 +16040,7 @@
       <c r="BW76" s="16"/>
       <c r="BX76" s="16"/>
     </row>
-    <row r="77" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="23" t="s">
         <v>138</v>
       </c>
@@ -16137,7 +16137,7 @@
       <c r="BW77" s="16"/>
       <c r="BX77" s="16"/>
     </row>
-    <row r="78" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="23" t="s">
         <v>139</v>
       </c>
@@ -16243,7 +16243,7 @@
       <c r="BW78" s="16"/>
       <c r="BX78" s="16"/>
     </row>
-    <row r="79" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="23" t="s">
         <v>12</v>
       </c>
@@ -16340,7 +16340,7 @@
       <c r="BW79" s="16"/>
       <c r="BX79" s="16"/>
     </row>
-    <row r="80" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="23" t="s">
         <v>134</v>
       </c>
@@ -16398,27 +16398,27 @@
       </c>
       <c r="AT80" s="16"/>
       <c r="AU80" s="16">
-        <f>SUM(AU73:AU79)</f>
+        <f t="shared" ref="AU80:AZ80" si="189">SUM(AU73:AU79)</f>
         <v>134544</v>
       </c>
       <c r="AV80" s="16">
-        <f>SUM(AV73:AV79)</f>
+        <f t="shared" si="189"/>
         <v>135367</v>
       </c>
       <c r="AW80" s="16">
-        <f>SUM(AW73:AW79)</f>
+        <f t="shared" si="189"/>
         <v>136221</v>
       </c>
       <c r="AX80" s="16">
-        <f>SUM(AX73:AX79)</f>
+        <f t="shared" si="189"/>
         <v>134711</v>
       </c>
       <c r="AY80" s="16">
-        <f>SUM(AY73:AY79)</f>
+        <f t="shared" si="189"/>
         <v>148874</v>
       </c>
       <c r="AZ80" s="16">
-        <f>SUM(AZ73:AZ79)</f>
+        <f t="shared" si="189"/>
         <v>141937</v>
       </c>
       <c r="BA80" s="16"/>
@@ -16446,7 +16446,7 @@
       <c r="BW80" s="16"/>
       <c r="BX80" s="16"/>
     </row>
-    <row r="82" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="23" t="s">
         <v>51</v>
       </c>
@@ -16552,7 +16552,7 @@
       <c r="BW82" s="16"/>
       <c r="BX82" s="16"/>
     </row>
-    <row r="83" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="23" t="s">
         <v>140</v>
       </c>
@@ -16649,7 +16649,7 @@
       <c r="BW83" s="16"/>
       <c r="BX83" s="16"/>
     </row>
-    <row r="84" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="23" t="s">
         <v>141</v>
       </c>
@@ -16746,7 +16746,7 @@
       <c r="BW84" s="16"/>
       <c r="BX84" s="16"/>
     </row>
-    <row r="85" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="23" t="s">
         <v>142</v>
       </c>
@@ -16843,7 +16843,7 @@
       <c r="BW85" s="16"/>
       <c r="BX85" s="16"/>
     </row>
-    <row r="86" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="23" t="s">
         <v>143</v>
       </c>
@@ -16940,7 +16940,7 @@
       <c r="BW86" s="16"/>
       <c r="BX86" s="16"/>
     </row>
-    <row r="87" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="23" t="s">
         <v>144</v>
       </c>
@@ -16998,27 +16998,27 @@
       </c>
       <c r="AT87" s="16"/>
       <c r="AU87" s="16">
-        <f>SUM(AU82:AU86)</f>
+        <f t="shared" ref="AU87:AZ87" si="190">SUM(AU82:AU86)</f>
         <v>134544</v>
       </c>
       <c r="AV87" s="16">
-        <f>SUM(AV82:AV86)</f>
+        <f t="shared" si="190"/>
         <v>135367</v>
       </c>
       <c r="AW87" s="16">
-        <f>SUM(AW82:AW86)</f>
+        <f t="shared" si="190"/>
         <v>136221</v>
       </c>
       <c r="AX87" s="16">
-        <f>SUM(AX82:AX86)</f>
+        <f t="shared" si="190"/>
         <v>134711</v>
       </c>
       <c r="AY87" s="16">
-        <f>SUM(AY82:AY86)</f>
+        <f t="shared" si="190"/>
         <v>148874</v>
       </c>
       <c r="AZ87" s="16">
-        <f>SUM(AZ82:AZ86)</f>
+        <f t="shared" si="190"/>
         <v>141937</v>
       </c>
       <c r="BA87" s="16"/>
@@ -17046,7 +17046,7 @@
       <c r="BW87" s="16"/>
       <c r="BX87" s="16"/>
     </row>
-    <row r="89" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="65" t="s">
         <v>298</v>
       </c>
@@ -17140,7 +17140,7 @@
       <c r="BW89" s="16"/>
       <c r="BX89" s="16"/>
     </row>
-    <row r="90" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="65" t="s">
         <v>299</v>
       </c>
@@ -17232,7 +17232,7 @@
       <c r="BW90" s="16"/>
       <c r="BX90" s="16"/>
     </row>
-    <row r="91" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="65" t="s">
         <v>300</v>
       </c>
@@ -17324,7 +17324,7 @@
       <c r="BW91" s="16"/>
       <c r="BX91" s="16"/>
     </row>
-    <row r="92" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="65" t="s">
         <v>301</v>
       </c>
@@ -17416,7 +17416,7 @@
       <c r="BW92" s="16"/>
       <c r="BX92" s="16"/>
     </row>
-    <row r="93" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="65" t="s">
         <v>141</v>
       </c>
@@ -17508,7 +17508,7 @@
       <c r="BW93" s="16"/>
       <c r="BX93" s="16"/>
     </row>
-    <row r="94" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="65" t="s">
         <v>302</v>
       </c>
@@ -17600,7 +17600,7 @@
       <c r="BW94" s="16"/>
       <c r="BX94" s="16"/>
     </row>
-    <row r="95" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="65" t="s">
         <v>303</v>
       </c>
@@ -17692,7 +17692,7 @@
       <c r="BW95" s="16"/>
       <c r="BX95" s="16"/>
     </row>
-    <row r="96" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B96" s="62" t="s">
         <v>306</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B97" s="62" t="s">
         <v>12</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="98" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B98" s="62" t="s">
         <v>305</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>-2162</v>
       </c>
     </row>
-    <row r="99" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B99" s="62" t="s">
         <v>304</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>4753</v>
       </c>
     </row>
-    <row r="101" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="65" t="s">
         <v>308</v>
       </c>
@@ -17883,7 +17883,7 @@
       <c r="BW101" s="16"/>
       <c r="BX101" s="16"/>
     </row>
-    <row r="102" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="65" t="s">
         <v>309</v>
       </c>
@@ -17975,7 +17975,7 @@
       <c r="BW102" s="16"/>
       <c r="BX102" s="16"/>
     </row>
-    <row r="103" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:76" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="65" t="s">
         <v>307</v>
       </c>
@@ -18069,7 +18069,7 @@
       <c r="BW103" s="16"/>
       <c r="BX103" s="16"/>
     </row>
-    <row r="105" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B105" s="62" t="s">
         <v>51</v>
       </c>
@@ -18093,7 +18093,7 @@
         <v>-1832</v>
       </c>
     </row>
-    <row r="106" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B106" s="62" t="s">
         <v>310</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>-2626</v>
       </c>
     </row>
-    <row r="107" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B107" s="62" t="s">
         <v>314</v>
       </c>
@@ -18139,7 +18139,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="108" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B108" s="62" t="s">
         <v>315</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B109" s="62" t="s">
         <v>302</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="110" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B110" s="62" t="s">
         <v>12</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="111" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B111" s="62" t="s">
         <v>313</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>-4449</v>
       </c>
     </row>
-    <row r="112" spans="2:76" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:76" x14ac:dyDescent="0.2">
       <c r="B112" s="62" t="s">
         <v>312</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B113" s="62" t="s">
         <v>311</v>
       </c>
@@ -18298,18 +18298,18 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="56"/>
+    <col min="2" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="56" t="s">
         <v>147</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="56" t="s">
         <v>190</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="56" t="s">
         <v>27</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="56" t="s">
         <v>33</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>53</v>
       </c>
@@ -18349,7 +18349,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="E7"/>
     </row>
   </sheetData>
@@ -18367,20 +18367,20 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>75</v>
       </c>
@@ -18388,7 +18388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
         <v>227</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
         <v>33</v>
       </c>
@@ -18412,19 +18412,19 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="45" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="45" t="s">
         <v>229</v>
       </c>
@@ -18444,19 +18444,19 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="41" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="41"/>
+    <col min="1" max="1" width="5.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="41" t="s">
         <v>147</v>
       </c>
@@ -18464,7 +18464,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="41" t="s">
         <v>190</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
@@ -18480,58 +18480,58 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="89" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="41" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="41" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="41" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="56" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="56" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="56" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="56" t="s">
         <v>262</v>
       </c>
@@ -18552,19 +18552,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="62"/>
+    <col min="3" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="62" t="s">
         <v>147</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="62" t="s">
         <v>190</v>
       </c>
@@ -18580,12 +18580,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="62" t="s">
         <v>294</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>33581</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="62" t="s">
         <v>33</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="62" t="s">
         <v>296</v>
       </c>
@@ -18623,19 +18623,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="41"/>
+    <col min="2" max="2" width="12.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="41" t="s">
         <v>147</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="41" t="s">
         <v>190</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="41" t="s">
         <v>33</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="41" t="s">
         <v>27</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="89" t="s">
         <v>36</v>
       </c>
@@ -18675,22 +18675,22 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="89" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="86" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="86" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="86" t="s">
         <v>405</v>
       </c>
@@ -18709,19 +18709,19 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="85"/>
+    <col min="2" max="2" width="13.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="85" t="s">
         <v>75</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="85" t="s">
         <v>76</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
@@ -18745,22 +18745,22 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="85" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="86" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="86" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="89" t="s">
         <v>425</v>
       </c>

--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C09D3-894F-47F4-9B2C-65D035140C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C50E633-892A-475F-87D2-AC6DC85C5218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45525" yWindow="2340" windowWidth="31350" windowHeight="17865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="4" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="432">
   <si>
     <t>Humira</t>
   </si>
@@ -3816,11 +3816,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GV113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AR33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ46" sqref="AZ46"/>
+      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4081,123 +4081,144 @@
         <v>251</v>
       </c>
       <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
+      <c r="T3" s="71">
+        <f t="shared" ref="T3:AA3" si="1">+T5+T8+T12</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="71">
+        <f t="shared" si="1"/>
+        <v>4118</v>
+      </c>
+      <c r="X3" s="71">
+        <f t="shared" si="1"/>
+        <v>4716</v>
+      </c>
+      <c r="Y3" s="71">
+        <f t="shared" si="1"/>
+        <v>4701</v>
+      </c>
+      <c r="Z3" s="71">
+        <f t="shared" si="1"/>
+        <v>4892</v>
+      </c>
       <c r="AA3" s="71">
-        <f t="shared" ref="AA3:AF3" si="1">+AA5+AA8+AA12</f>
+        <f t="shared" ref="AA3:AF3" si="2">+AA5+AA8+AA12</f>
         <v>4709</v>
       </c>
       <c r="AB3" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5185</v>
       </c>
       <c r="AC3" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5124</v>
       </c>
       <c r="AD3" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4918</v>
       </c>
       <c r="AE3" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4446</v>
       </c>
       <c r="AF3" s="71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4918</v>
       </c>
       <c r="AG3" s="71">
-        <f t="shared" ref="AG3:AL3" si="2">+AG5+AG8+AG12</f>
+        <f t="shared" ref="AG3:AL3" si="3">+AG5+AG8+AG12</f>
         <v>5041</v>
       </c>
       <c r="AH3" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5166</v>
       </c>
       <c r="AI3" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5089</v>
       </c>
       <c r="AJ3" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5316</v>
       </c>
       <c r="AK3" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5790</v>
       </c>
       <c r="AL3" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5958</v>
       </c>
       <c r="AM3" s="71">
-        <f t="shared" ref="AM3:AS3" si="3">+AM5+AM8+AM12</f>
+        <f t="shared" ref="AM3:AS3" si="4">+AM5+AM8+AM12</f>
         <v>5744</v>
       </c>
       <c r="AN3" s="71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6120</v>
       </c>
       <c r="AO3" s="71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6674</v>
       </c>
       <c r="AP3" s="71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6746</v>
       </c>
       <c r="AQ3" s="71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6141</v>
       </c>
       <c r="AR3" s="71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7207</v>
       </c>
       <c r="AS3" s="71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7651</v>
       </c>
       <c r="AT3" s="71">
-        <f t="shared" ref="AT3:BB3" si="4">+AT5+AT8+AT12</f>
+        <f t="shared" ref="AT3:BB3" si="5">+AT5+AT8+AT12</f>
         <v>7925</v>
       </c>
       <c r="AU3" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5587</v>
       </c>
       <c r="AV3" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6813</v>
       </c>
       <c r="AW3" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6783</v>
       </c>
       <c r="AX3" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6953</v>
       </c>
       <c r="AY3" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5371</v>
       </c>
       <c r="AZ3" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6971</v>
       </c>
       <c r="BA3" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6117.7</v>
       </c>
       <c r="BB3" s="71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6361.2</v>
       </c>
       <c r="BC3" s="71"/>
@@ -4216,43 +4237,43 @@
         <v>22153</v>
       </c>
       <c r="BP3" s="16">
-        <f t="shared" ref="BP3:BY3" si="5">+BP5+BP8+BP12</f>
+        <f t="shared" ref="BP3:BY3" si="6">+BP5+BP8+BP12</f>
         <v>25284</v>
       </c>
       <c r="BQ3" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28924</v>
       </c>
       <c r="BR3" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26136</v>
       </c>
       <c r="BS3" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24820.9</v>
       </c>
       <c r="BT3" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27141.86</v>
       </c>
       <c r="BU3" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26052.833600000002</v>
       </c>
       <c r="BV3" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25311.792848000005</v>
       </c>
       <c r="BW3" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23264.219145440002</v>
       </c>
       <c r="BX3" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22558.6819758032</v>
       </c>
       <c r="BY3" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16753.883032617559</v>
       </c>
     </row>
@@ -4329,10 +4350,18 @@
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
+      <c r="W5" s="16">
+        <v>4118</v>
+      </c>
+      <c r="X5" s="16">
+        <v>4716</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>4701</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>4892</v>
+      </c>
       <c r="AA5" s="16">
         <v>4709</v>
       </c>
@@ -4470,15 +4499,15 @@
         <v>5296.0896000000012</v>
       </c>
       <c r="BW5" s="16">
-        <f t="shared" ref="BW5:BY5" si="6">+BV5*0.5</f>
+        <f t="shared" ref="BW5:BY5" si="7">+BV5*0.5</f>
         <v>2648.0448000000006</v>
       </c>
       <c r="BX5" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1324.0224000000003</v>
       </c>
       <c r="BY5" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>662.01120000000014</v>
       </c>
     </row>
@@ -4506,10 +4535,18 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
+      <c r="W6" s="16">
+        <v>0</v>
+      </c>
+      <c r="X6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>0</v>
+      </c>
       <c r="AA6" s="16">
         <v>0</v>
       </c>
@@ -4605,11 +4642,11 @@
       <c r="BK6" s="16"/>
       <c r="BL6" s="16"/>
       <c r="BM6" s="16">
-        <f t="shared" ref="BM6:BM49" si="7">SUM(AA6:AD6)</f>
+        <f t="shared" ref="BM6:BM49" si="8">SUM(AA6:AD6)</f>
         <v>0</v>
       </c>
       <c r="BN6" s="16">
-        <f t="shared" ref="BN6:BN43" si="8">SUM(AE6:AH6)</f>
+        <f t="shared" ref="BN6:BN43" si="9">SUM(AE6:AH6)</f>
         <v>0</v>
       </c>
       <c r="BO6" s="47" t="s">
@@ -4655,10 +4692,18 @@
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
+      <c r="W7" s="16">
+        <v>551</v>
+      </c>
+      <c r="X7" s="16">
+        <v>626</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>688</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>708</v>
+      </c>
       <c r="AA7" s="16">
         <v>762</v>
       </c>
@@ -4756,55 +4801,55 @@
       <c r="BK7" s="16"/>
       <c r="BL7" s="16"/>
       <c r="BM7" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3590</v>
       </c>
       <c r="BN7" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4674</v>
       </c>
       <c r="BO7" s="16">
-        <f t="shared" ref="BO7:BO43" si="9">SUM(AI7:AL7)</f>
+        <f t="shared" ref="BO7:BO43" si="10">SUM(AI7:AL7)</f>
         <v>5314</v>
       </c>
       <c r="BP7" s="16">
-        <f t="shared" ref="BP7:BP44" si="10">SUM(AM7:AP7)</f>
+        <f t="shared" ref="BP7:BP44" si="11">SUM(AM7:AP7)</f>
         <v>5408</v>
       </c>
       <c r="BQ7" s="16">
-        <f t="shared" ref="BQ7:BQ44" si="11">SUM(AQ7:AT7)</f>
+        <f t="shared" ref="BQ7:BQ44" si="12">SUM(AQ7:AT7)</f>
         <v>4568</v>
       </c>
       <c r="BR7" s="16">
-        <f t="shared" ref="BR7:BR26" si="12">SUM(AU7:AX7)</f>
+        <f t="shared" ref="BR7:BR26" si="13">SUM(AU7:AX7)</f>
         <v>3596</v>
       </c>
       <c r="BS7" s="16">
-        <f t="shared" ref="BS7:BS29" si="13">SUM(AY7:BB7)</f>
+        <f t="shared" ref="BS7:BS29" si="14">SUM(AY7:BB7)</f>
         <v>3391.45</v>
       </c>
       <c r="BT7" s="16">
-        <f t="shared" ref="BT7:BY7" si="14">+BS7*0.9</f>
+        <f t="shared" ref="BT7:BY7" si="15">+BS7*0.9</f>
         <v>3052.3049999999998</v>
       </c>
       <c r="BU7" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2747.0744999999997</v>
       </c>
       <c r="BV7" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2472.3670499999998</v>
       </c>
       <c r="BW7" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2225.130345</v>
       </c>
       <c r="BX7" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2002.6173105</v>
       </c>
       <c r="BY7" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1802.3555794500001</v>
       </c>
     </row>
@@ -4832,10 +4877,18 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
       <c r="AA8" s="16">
         <v>0</v>
       </c>
@@ -4933,31 +4986,31 @@
       <c r="BK8" s="16"/>
       <c r="BL8" s="16"/>
       <c r="BM8" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN8" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>355</v>
       </c>
       <c r="BO8" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1590</v>
       </c>
       <c r="BP8" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2939</v>
       </c>
       <c r="BQ8" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5165</v>
       </c>
       <c r="BR8" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7763</v>
       </c>
       <c r="BS8" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10265.299999999999</v>
       </c>
       <c r="BT8" s="16">
@@ -4969,19 +5022,19 @@
         <v>13745.236699999999</v>
       </c>
       <c r="BV8" s="16">
-        <f t="shared" ref="BV8:BY8" si="15">+BU8*1.03</f>
+        <f t="shared" ref="BV8:BY8" si="16">+BU8*1.03</f>
         <v>14157.593800999999</v>
       </c>
       <c r="BW8" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14582.32161503</v>
       </c>
       <c r="BX8" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15019.7912634809</v>
       </c>
       <c r="BY8" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15470.385001385328</v>
       </c>
     </row>
@@ -5009,10 +5062,18 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0</v>
+      </c>
       <c r="AA9" s="16">
         <v>0</v>
       </c>
@@ -5111,55 +5172,55 @@
       <c r="BK9" s="16"/>
       <c r="BL9" s="16"/>
       <c r="BM9" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN9" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO9" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1112</v>
       </c>
       <c r="BP9" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2232</v>
       </c>
       <c r="BQ9" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2615</v>
       </c>
       <c r="BR9" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2682</v>
       </c>
       <c r="BS9" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2659.86</v>
       </c>
       <c r="BT9" s="16">
-        <f t="shared" ref="BT9:BY9" si="16">+BS9*1.05</f>
+        <f t="shared" ref="BT9:BY9" si="17">+BS9*1.05</f>
         <v>2792.8530000000001</v>
       </c>
       <c r="BU9" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2932.4956500000003</v>
       </c>
       <c r="BV9" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3079.1204325000003</v>
       </c>
       <c r="BW9" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3233.0764541250005</v>
       </c>
       <c r="BX9" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3394.7302768312506</v>
       </c>
       <c r="BY9" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3564.4667906728132</v>
       </c>
     </row>
@@ -5187,10 +5248,18 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>0</v>
+      </c>
       <c r="AA10" s="16">
         <v>0</v>
       </c>
@@ -5289,55 +5358,55 @@
       <c r="BK10" s="16"/>
       <c r="BL10" s="16"/>
       <c r="BM10" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN10" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO10" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1387</v>
       </c>
       <c r="BP10" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2451</v>
       </c>
       <c r="BQ10" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2719</v>
       </c>
       <c r="BR10" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2991</v>
       </c>
       <c r="BS10" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3131.7200000000003</v>
       </c>
       <c r="BT10" s="16">
-        <f t="shared" ref="BT10:BY10" si="17">+BS10*1.05</f>
+        <f t="shared" ref="BT10:BY10" si="18">+BS10*1.05</f>
         <v>3288.3060000000005</v>
       </c>
       <c r="BU10" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3452.7213000000006</v>
       </c>
       <c r="BV10" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3625.3573650000008</v>
       </c>
       <c r="BW10" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3806.6252332500007</v>
       </c>
       <c r="BX10" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3996.9564949125011</v>
       </c>
       <c r="BY10" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4196.8043196581266</v>
       </c>
     </row>
@@ -5365,10 +5434,18 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
+      <c r="W11" s="16">
+        <v>0</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>0</v>
+      </c>
       <c r="AA11" s="16">
         <v>0</v>
       </c>
@@ -5466,51 +5543,51 @@
       <c r="BK11" s="16"/>
       <c r="BL11" s="16"/>
       <c r="BM11" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="BN11" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>792</v>
       </c>
       <c r="BO11" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="BP11" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1820</v>
       </c>
       <c r="BQ11" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2009</v>
       </c>
       <c r="BR11" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2288</v>
       </c>
       <c r="BS11" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2547.9</v>
       </c>
       <c r="BT11" s="16">
-        <f t="shared" ref="BT11:BX11" si="18">+BS11*1.03</f>
+        <f t="shared" ref="BT11:BX11" si="19">+BS11*1.03</f>
         <v>2624.337</v>
       </c>
       <c r="BU11" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2703.06711</v>
       </c>
       <c r="BV11" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2784.1591232999999</v>
       </c>
       <c r="BW11" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2867.6838969989999</v>
       </c>
       <c r="BX11" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2953.7144139089701</v>
       </c>
       <c r="BY11" s="15">
@@ -5542,10 +5619,18 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
+      <c r="W12" s="16">
+        <v>0</v>
+      </c>
+      <c r="X12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>0</v>
+      </c>
       <c r="AA12" s="16">
         <v>0</v>
       </c>
@@ -5643,55 +5728,55 @@
       <c r="BK12" s="16"/>
       <c r="BL12" s="16"/>
       <c r="BM12" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN12" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="BO12" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>731</v>
       </c>
       <c r="BP12" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1651</v>
       </c>
       <c r="BQ12" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2522</v>
       </c>
       <c r="BR12" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3969</v>
       </c>
       <c r="BS12" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5361</v>
       </c>
       <c r="BT12" s="16">
-        <f t="shared" ref="BT12:BX12" si="19">+BS12*1.03</f>
+        <f t="shared" ref="BT12:BX12" si="20">+BS12*1.03</f>
         <v>5521.83</v>
       </c>
       <c r="BU12" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5687.4849000000004</v>
       </c>
       <c r="BV12" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5858.1094470000007</v>
       </c>
       <c r="BW12" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6033.8527304100007</v>
       </c>
       <c r="BX12" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6214.8683123223009</v>
       </c>
       <c r="BY12" s="15">
-        <f t="shared" ref="BY12:BY13" si="20">+BX12*0.1</f>
+        <f t="shared" ref="BY12:BY13" si="21">+BX12*0.1</f>
         <v>621.48683123223009</v>
       </c>
     </row>
@@ -5719,10 +5804,18 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
+      <c r="W13" s="16">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>0</v>
+      </c>
       <c r="AA13" s="16">
         <v>0</v>
       </c>
@@ -5820,55 +5913,55 @@
       <c r="BK13" s="16"/>
       <c r="BL13" s="16"/>
       <c r="BM13" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN13" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO13" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>951</v>
       </c>
       <c r="BP13" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1728</v>
       </c>
       <c r="BQ13" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2038</v>
       </c>
       <c r="BR13" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2759</v>
       </c>
       <c r="BS13" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3085</v>
       </c>
       <c r="BT13" s="16">
-        <f t="shared" ref="BT13:BX13" si="21">+BS13*1.03</f>
+        <f t="shared" ref="BT13:BX13" si="22">+BS13*1.03</f>
         <v>3177.55</v>
       </c>
       <c r="BU13" s="16">
+        <f t="shared" si="22"/>
+        <v>3272.8765000000003</v>
+      </c>
+      <c r="BV13" s="16">
+        <f t="shared" si="22"/>
+        <v>3371.0627950000003</v>
+      </c>
+      <c r="BW13" s="16">
+        <f t="shared" si="22"/>
+        <v>3472.1946788500004</v>
+      </c>
+      <c r="BX13" s="16">
+        <f t="shared" si="22"/>
+        <v>3576.3605192155005</v>
+      </c>
+      <c r="BY13" s="15">
         <f t="shared" si="21"/>
-        <v>3272.8765000000003</v>
-      </c>
-      <c r="BV13" s="16">
-        <f t="shared" si="21"/>
-        <v>3371.0627950000003</v>
-      </c>
-      <c r="BW13" s="16">
-        <f t="shared" si="21"/>
-        <v>3472.1946788500004</v>
-      </c>
-      <c r="BX13" s="16">
-        <f t="shared" si="21"/>
-        <v>3576.3605192155005</v>
-      </c>
-      <c r="BY13" s="15">
-        <f t="shared" si="20"/>
         <v>357.63605192155006</v>
       </c>
     </row>
@@ -5896,10 +5989,18 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
+      <c r="W14" s="16">
+        <v>0</v>
+      </c>
+      <c r="X14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>0</v>
+      </c>
       <c r="AA14" s="16">
         <v>0</v>
       </c>
@@ -5997,55 +6098,55 @@
       <c r="BK14" s="16"/>
       <c r="BL14" s="16"/>
       <c r="BM14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN14" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO14" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>718</v>
       </c>
       <c r="BP14" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1355</v>
       </c>
       <c r="BQ14" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1428</v>
       </c>
       <c r="BR14" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1378</v>
       </c>
       <c r="BS14" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1229.5</v>
       </c>
       <c r="BT14" s="16">
-        <f t="shared" ref="BT14:BY14" si="22">+BS14*1.05</f>
+        <f t="shared" ref="BT14:BY14" si="23">+BS14*1.05</f>
         <v>1290.9750000000001</v>
       </c>
       <c r="BU14" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1355.5237500000003</v>
       </c>
       <c r="BV14" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1423.2999375000004</v>
       </c>
       <c r="BW14" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1494.4649343750004</v>
       </c>
       <c r="BX14" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1569.1881810937505</v>
       </c>
       <c r="BY14" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1647.647590148438</v>
       </c>
     </row>
@@ -6073,10 +6174,18 @@
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
+      <c r="W15" s="16">
+        <v>0</v>
+      </c>
+      <c r="X15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>276</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>510</v>
+      </c>
       <c r="AA15" s="16">
         <v>919</v>
       </c>
@@ -6156,11 +6265,11 @@
         <v>369</v>
       </c>
       <c r="BA15" s="16">
-        <f t="shared" ref="BA15:BB15" si="23">+AW15*0.9</f>
+        <f t="shared" ref="BA15:BB15" si="24">+AW15*0.9</f>
         <v>333</v>
       </c>
       <c r="BB15" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>278.10000000000002</v>
       </c>
       <c r="BC15" s="16"/>
@@ -6174,55 +6283,55 @@
       <c r="BK15" s="16"/>
       <c r="BL15" s="16"/>
       <c r="BM15" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3550</v>
       </c>
       <c r="BN15" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2893</v>
       </c>
       <c r="BO15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1830</v>
       </c>
       <c r="BP15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1710</v>
       </c>
       <c r="BQ15" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1541</v>
       </c>
       <c r="BR15" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1430</v>
       </c>
       <c r="BS15" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1329.1</v>
       </c>
       <c r="BT15" s="16">
-        <f t="shared" ref="BT15:BY15" si="24">+BS15*0.7</f>
+        <f t="shared" ref="BT15:BY15" si="25">+BS15*0.7</f>
         <v>930.36999999999989</v>
       </c>
       <c r="BU15" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>651.2589999999999</v>
       </c>
       <c r="BV15" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>455.8812999999999</v>
       </c>
       <c r="BW15" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>319.1169099999999</v>
       </c>
       <c r="BX15" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>223.38183699999993</v>
       </c>
       <c r="BY15" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>156.36728589999996</v>
       </c>
     </row>
@@ -6250,10 +6359,18 @@
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
+      <c r="W16" s="16">
+        <v>0</v>
+      </c>
+      <c r="X16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>0</v>
+      </c>
       <c r="AA16" s="16">
         <v>0</v>
       </c>
@@ -6333,11 +6450,11 @@
         <v>318</v>
       </c>
       <c r="BA16" s="16">
-        <f t="shared" ref="BA16:BB18" si="25">+AW16</f>
+        <f t="shared" ref="BA16:BB18" si="26">+AW16</f>
         <v>298</v>
       </c>
       <c r="BB16" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>319</v>
       </c>
       <c r="BC16" s="16"/>
@@ -6351,55 +6468,55 @@
       <c r="BK16" s="16"/>
       <c r="BL16" s="16"/>
       <c r="BM16" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN16" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO16" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>760</v>
       </c>
       <c r="BP16" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1466</v>
       </c>
       <c r="BQ16" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1290</v>
       </c>
       <c r="BR16" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1234</v>
       </c>
       <c r="BS16" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1254</v>
       </c>
       <c r="BT16" s="16">
-        <f t="shared" ref="BT16:BY16" si="26">+BS16*0.9</f>
+        <f t="shared" ref="BT16:BY16" si="27">+BS16*0.9</f>
         <v>1128.6000000000001</v>
       </c>
       <c r="BU16" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1015.7400000000001</v>
       </c>
       <c r="BV16" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>914.16600000000017</v>
       </c>
       <c r="BW16" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>822.74940000000015</v>
       </c>
       <c r="BX16" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>740.47446000000014</v>
       </c>
       <c r="BY16" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>666.4270140000001</v>
       </c>
     </row>
@@ -6435,10 +6552,18 @@
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
+      <c r="W17" s="16">
+        <v>185</v>
+      </c>
+      <c r="X17" s="16">
+        <v>196</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>215</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>235</v>
+      </c>
       <c r="AA17" s="16">
         <v>209</v>
       </c>
@@ -6518,11 +6643,11 @@
         <v>372</v>
       </c>
       <c r="BA17" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>305</v>
       </c>
       <c r="BB17" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>376</v>
       </c>
       <c r="BC17" s="16"/>
@@ -6536,55 +6661,55 @@
       <c r="BK17" s="16"/>
       <c r="BL17" s="16"/>
       <c r="BM17" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>928</v>
       </c>
       <c r="BN17" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1041</v>
       </c>
       <c r="BO17" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1114</v>
       </c>
       <c r="BP17" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1191</v>
       </c>
       <c r="BQ17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1278</v>
       </c>
       <c r="BR17" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1268</v>
       </c>
       <c r="BS17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1338</v>
       </c>
       <c r="BT17" s="16">
-        <f t="shared" ref="BT17:BY17" si="27">+BS17*1.03</f>
+        <f t="shared" ref="BT17:BY17" si="28">+BS17*1.03</f>
         <v>1378.14</v>
       </c>
       <c r="BU17" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1419.4842000000001</v>
       </c>
       <c r="BV17" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1462.0687260000002</v>
       </c>
       <c r="BW17" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1505.9307877800002</v>
       </c>
       <c r="BX17" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1551.1087114134002</v>
       </c>
       <c r="BY17" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1597.6419727558023</v>
       </c>
     </row>
@@ -6612,10 +6737,18 @@
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
+      <c r="W18" s="16">
+        <v>0</v>
+      </c>
+      <c r="X18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>0</v>
+      </c>
       <c r="AA18" s="16">
         <v>0</v>
       </c>
@@ -6696,11 +6829,11 @@
         <v>225</v>
       </c>
       <c r="BA18" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>207</v>
       </c>
       <c r="BB18" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>181</v>
       </c>
       <c r="BC18" s="16"/>
@@ -6714,55 +6847,55 @@
       <c r="BK18" s="16"/>
       <c r="BL18" s="16"/>
       <c r="BM18" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN18" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO18" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>693</v>
       </c>
       <c r="BP18" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1169</v>
       </c>
       <c r="BQ18" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>959</v>
       </c>
       <c r="BR18" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>803</v>
       </c>
       <c r="BS18" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>813</v>
       </c>
       <c r="BT18" s="16">
-        <f t="shared" ref="BT18:BY18" si="28">+BS18*0.9</f>
+        <f t="shared" ref="BT18:BY18" si="29">+BS18*0.9</f>
         <v>731.7</v>
       </c>
       <c r="BU18" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>658.53000000000009</v>
       </c>
       <c r="BV18" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>592.67700000000013</v>
       </c>
       <c r="BW18" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>533.40930000000014</v>
       </c>
       <c r="BX18" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>480.06837000000013</v>
       </c>
       <c r="BY18" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>432.06153300000011</v>
       </c>
     </row>
@@ -6790,10 +6923,18 @@
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
+      <c r="W19" s="16">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>0</v>
+      </c>
       <c r="AA19" s="16">
         <v>0</v>
       </c>
@@ -6891,55 +7032,55 @@
       <c r="BK19" s="16"/>
       <c r="BL19" s="16"/>
       <c r="BM19" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN19" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO19" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>787</v>
       </c>
       <c r="BP19" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1290</v>
       </c>
       <c r="BQ19" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>666</v>
       </c>
       <c r="BR19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>436</v>
       </c>
       <c r="BS19" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>144</v>
       </c>
       <c r="BT19" s="16">
-        <f t="shared" ref="BT19:BY19" si="29">+BS19*0.9</f>
+        <f t="shared" ref="BT19:BY19" si="30">+BS19*0.9</f>
         <v>129.6</v>
       </c>
       <c r="BU19" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>116.64</v>
       </c>
       <c r="BV19" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>104.976</v>
       </c>
       <c r="BW19" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>94.478400000000008</v>
       </c>
       <c r="BX19" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>85.030560000000008</v>
       </c>
       <c r="BY19" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>76.527504000000008</v>
       </c>
     </row>
@@ -6967,10 +7108,18 @@
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
       <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
+      <c r="W20" s="16">
+        <v>0</v>
+      </c>
+      <c r="X20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>0</v>
+      </c>
       <c r="AA20" s="16">
         <v>0</v>
       </c>
@@ -7050,11 +7199,11 @@
         <v>221</v>
       </c>
       <c r="BA20" s="16">
-        <f t="shared" ref="BA20:BB21" si="30">+AW20</f>
+        <f t="shared" ref="BA20:BB21" si="31">+AW20</f>
         <v>288</v>
       </c>
       <c r="BB20" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>283</v>
       </c>
       <c r="BC20" s="16"/>
@@ -7068,55 +7217,55 @@
       <c r="BK20" s="16"/>
       <c r="BL20" s="16"/>
       <c r="BM20" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN20" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO20" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>667</v>
       </c>
       <c r="BP20" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1038</v>
       </c>
       <c r="BQ20" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1035</v>
       </c>
       <c r="BR20" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1108</v>
       </c>
       <c r="BS20" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1058</v>
       </c>
       <c r="BT20" s="16">
-        <f t="shared" ref="BT20:BY20" si="31">+BS20*0.5</f>
+        <f t="shared" ref="BT20:BY20" si="32">+BS20*0.5</f>
         <v>529</v>
       </c>
       <c r="BU20" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>264.5</v>
       </c>
       <c r="BV20" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>132.25</v>
       </c>
       <c r="BW20" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>66.125</v>
       </c>
       <c r="BX20" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>33.0625</v>
       </c>
       <c r="BY20" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>16.53125</v>
       </c>
     </row>
@@ -7144,10 +7293,18 @@
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
       <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
+      <c r="X21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>0</v>
+      </c>
       <c r="AA21" s="16">
         <v>0</v>
       </c>
@@ -7227,11 +7384,11 @@
         <v>80</v>
       </c>
       <c r="BA21" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>61</v>
       </c>
       <c r="BB21" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>66</v>
       </c>
       <c r="BC21" s="16"/>
@@ -7245,55 +7402,55 @@
       <c r="BK21" s="16"/>
       <c r="BL21" s="16"/>
       <c r="BM21" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN21" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO21" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>539</v>
       </c>
       <c r="BP21" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>685</v>
       </c>
       <c r="BQ21" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>475</v>
       </c>
       <c r="BR21" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>276</v>
       </c>
       <c r="BS21" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>281</v>
       </c>
       <c r="BT21" s="16">
-        <f t="shared" ref="BT21:BY21" si="32">+BS21*0.9</f>
+        <f t="shared" ref="BT21:BY21" si="33">+BS21*0.9</f>
         <v>252.9</v>
       </c>
       <c r="BU21" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>227.61</v>
       </c>
       <c r="BV21" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>204.84900000000002</v>
       </c>
       <c r="BW21" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>184.36410000000001</v>
       </c>
       <c r="BX21" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>165.92769000000001</v>
       </c>
       <c r="BY21" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>149.33492100000001</v>
       </c>
     </row>
@@ -7321,10 +7478,18 @@
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
       <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
+      <c r="W22" s="16">
+        <v>0</v>
+      </c>
+      <c r="X22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="16">
+        <v>0</v>
+      </c>
       <c r="AA22" s="16">
         <v>0</v>
       </c>
@@ -7422,55 +7587,55 @@
       <c r="BK22" s="16"/>
       <c r="BL22" s="16"/>
       <c r="BM22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN22" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO22" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>378</v>
       </c>
       <c r="BP22" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>579</v>
       </c>
       <c r="BQ22" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>514</v>
       </c>
       <c r="BR22" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>432</v>
       </c>
       <c r="BS22" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>397</v>
       </c>
       <c r="BT22" s="16">
-        <f t="shared" ref="BT22:BY22" si="33">+BS22*0.9</f>
+        <f t="shared" ref="BT22:BY22" si="34">+BS22*0.9</f>
         <v>357.3</v>
       </c>
       <c r="BU22" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>321.57</v>
       </c>
       <c r="BV22" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>289.41300000000001</v>
       </c>
       <c r="BW22" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>260.4717</v>
       </c>
       <c r="BX22" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>234.42453</v>
       </c>
       <c r="BY22" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>210.982077</v>
       </c>
     </row>
@@ -7498,10 +7663,18 @@
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
+      <c r="W23" s="16">
+        <v>0</v>
+      </c>
+      <c r="X23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>0</v>
+      </c>
       <c r="AA23" s="16">
         <v>0</v>
       </c>
@@ -7599,31 +7772,31 @@
       <c r="BK23" s="16"/>
       <c r="BL23" s="16"/>
       <c r="BM23" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN23" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO23" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="BP23" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>552</v>
       </c>
       <c r="BQ23" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>680</v>
       </c>
       <c r="BR23" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>815</v>
       </c>
       <c r="BS23" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>947.7</v>
       </c>
       <c r="BT23" s="16">
@@ -7683,10 +7856,18 @@
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
+      <c r="W24" s="16">
+        <v>80</v>
+      </c>
+      <c r="X24" s="16">
+        <v>81</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>94</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>100</v>
+      </c>
       <c r="AA24" s="16">
         <v>103</v>
       </c>
@@ -7784,55 +7965,55 @@
       <c r="BK24" s="16"/>
       <c r="BL24" s="16"/>
       <c r="BM24" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>430</v>
       </c>
       <c r="BN24" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>461</v>
       </c>
       <c r="BO24" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>494</v>
       </c>
       <c r="BP24" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>511</v>
       </c>
       <c r="BQ24" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>458</v>
       </c>
       <c r="BR24" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>468</v>
       </c>
       <c r="BS24" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>461</v>
       </c>
       <c r="BT24" s="16">
-        <f t="shared" ref="BT24:BY24" si="34">+BS24*0.9</f>
+        <f t="shared" ref="BT24:BY24" si="35">+BS24*0.9</f>
         <v>414.90000000000003</v>
       </c>
       <c r="BU24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>373.41</v>
       </c>
       <c r="BV24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>336.06900000000002</v>
       </c>
       <c r="BW24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>302.46210000000002</v>
       </c>
       <c r="BX24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>272.21589</v>
       </c>
       <c r="BY24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>244.99430100000001</v>
       </c>
     </row>
@@ -7860,10 +8041,18 @@
       <c r="T25" s="16"/>
       <c r="U25" s="16"/>
       <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
+      <c r="W25" s="16">
+        <v>0</v>
+      </c>
+      <c r="X25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="16">
+        <v>0</v>
+      </c>
       <c r="AA25" s="16">
         <v>0</v>
       </c>
@@ -7961,55 +8150,55 @@
       <c r="BK25" s="16"/>
       <c r="BL25" s="16"/>
       <c r="BM25" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN25" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO25" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>326</v>
       </c>
       <c r="BP25" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>529</v>
       </c>
       <c r="BQ25" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>346</v>
       </c>
       <c r="BR25" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>272</v>
       </c>
       <c r="BS25" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>203</v>
       </c>
       <c r="BT25" s="16">
-        <f t="shared" ref="BT25:BY25" si="35">+BS25*0.9</f>
+        <f t="shared" ref="BT25:BY25" si="36">+BS25*0.9</f>
         <v>182.70000000000002</v>
       </c>
       <c r="BU25" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>164.43</v>
       </c>
       <c r="BV25" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>147.98700000000002</v>
       </c>
       <c r="BW25" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>133.18830000000003</v>
       </c>
       <c r="BX25" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>119.86947000000002</v>
       </c>
       <c r="BY25" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>107.88252300000002</v>
       </c>
     </row>
@@ -8037,10 +8226,18 @@
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
+      <c r="W26" s="16">
+        <v>0</v>
+      </c>
+      <c r="X26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>0</v>
+      </c>
       <c r="AA26" s="16">
         <v>0</v>
       </c>
@@ -8138,31 +8335,31 @@
       <c r="BK26" s="16"/>
       <c r="BL26" s="16"/>
       <c r="BM26" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN26" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP26" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="BQ26" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>158</v>
       </c>
       <c r="BR26" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>408</v>
       </c>
       <c r="BS26" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>600.80000000000007</v>
       </c>
       <c r="BT26" s="16">
@@ -8273,7 +8470,7 @@
       <c r="BQ27" s="16"/>
       <c r="BR27" s="16"/>
       <c r="BS27" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>454</v>
       </c>
       <c r="BT27" s="16">
@@ -8387,11 +8584,11 @@
       <c r="BP28" s="16"/>
       <c r="BQ28" s="16"/>
       <c r="BR28" s="16">
-        <f t="shared" ref="BR28:BR29" si="36">SUM(AU28:AX28)</f>
+        <f t="shared" ref="BR28:BR29" si="37">SUM(AU28:AX28)</f>
         <v>31</v>
       </c>
       <c r="BS28" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>144</v>
       </c>
       <c r="BT28" s="16"/>
@@ -8494,11 +8691,11 @@
       <c r="BP29" s="16"/>
       <c r="BQ29" s="16"/>
       <c r="BR29" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>472</v>
       </c>
       <c r="BS29" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>503</v>
       </c>
       <c r="BT29" s="16"/>
@@ -8531,10 +8728,18 @@
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
       <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
+      <c r="W30" s="16">
+        <v>0</v>
+      </c>
+      <c r="X30" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>0</v>
+      </c>
       <c r="AA30" s="16">
         <v>0</v>
       </c>
@@ -8594,15 +8799,15 @@
       <c r="BK30" s="16"/>
       <c r="BL30" s="16"/>
       <c r="BM30" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN30" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO30" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="BP30" s="16"/>
@@ -8639,10 +8844,18 @@
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
       <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
+      <c r="W31" s="16">
+        <v>0</v>
+      </c>
+      <c r="X31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>0</v>
+      </c>
       <c r="AA31" s="16">
         <v>0</v>
       </c>
@@ -8702,15 +8915,15 @@
       <c r="BK31" s="16"/>
       <c r="BL31" s="16"/>
       <c r="BM31" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN31" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="BO31" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="BP31" s="16"/>
@@ -8755,10 +8968,18 @@
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
       <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
+      <c r="W32" s="16">
+        <v>194</v>
+      </c>
+      <c r="X32" s="16">
+        <v>210</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>201</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>224</v>
+      </c>
       <c r="AA32" s="16">
         <v>219</v>
       </c>
@@ -8818,15 +9039,15 @@
       <c r="BK32" s="16"/>
       <c r="BL32" s="16"/>
       <c r="BM32" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>892</v>
       </c>
       <c r="BN32" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>887</v>
       </c>
       <c r="BO32" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>438</v>
       </c>
       <c r="BP32" s="16"/>
@@ -8871,10 +9092,18 @@
       <c r="T33" s="16"/>
       <c r="U33" s="16"/>
       <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
+      <c r="W33" s="16">
+        <v>192</v>
+      </c>
+      <c r="X33" s="16">
+        <v>193</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>191</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>205</v>
+      </c>
       <c r="AA33" s="16">
         <v>182</v>
       </c>
@@ -8934,15 +9163,15 @@
       <c r="BK33" s="16"/>
       <c r="BL33" s="16"/>
       <c r="BM33" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>776</v>
       </c>
       <c r="BN33" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>786</v>
       </c>
       <c r="BO33" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>388</v>
       </c>
       <c r="BP33" s="16"/>
@@ -8979,10 +9208,18 @@
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
+      <c r="W34" s="16">
+        <v>0</v>
+      </c>
+      <c r="X34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="16">
+        <v>0</v>
+      </c>
       <c r="AA34" s="16">
         <v>0</v>
       </c>
@@ -9042,15 +9279,15 @@
       <c r="BK34" s="16"/>
       <c r="BL34" s="16"/>
       <c r="BM34" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN34" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO34" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="BP34" s="16"/>
@@ -9095,10 +9332,18 @@
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
       <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="16"/>
+      <c r="W35" s="16">
+        <v>300</v>
+      </c>
+      <c r="X35" s="16">
+        <v>40</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>116</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>282</v>
+      </c>
       <c r="AA35" s="16">
         <v>321</v>
       </c>
@@ -9156,15 +9401,15 @@
       <c r="BK35" s="16"/>
       <c r="BL35" s="16"/>
       <c r="BM35" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>726</v>
       </c>
       <c r="BN35" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>718</v>
       </c>
       <c r="BO35" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="BP35" s="16"/>
@@ -9209,10 +9454,18 @@
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
       <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
+      <c r="W36" s="16">
+        <v>136</v>
+      </c>
+      <c r="X36" s="16">
+        <v>154</v>
+      </c>
+      <c r="Y36" s="16">
+        <v>147</v>
+      </c>
+      <c r="Z36" s="16">
+        <v>140</v>
+      </c>
       <c r="AA36" s="16">
         <v>130</v>
       </c>
@@ -9270,15 +9523,15 @@
       <c r="BK36" s="16"/>
       <c r="BL36" s="16"/>
       <c r="BM36" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>469</v>
       </c>
       <c r="BN36" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>172</v>
       </c>
       <c r="BO36" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="BP36" s="16"/>
@@ -9323,10 +9576,18 @@
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
+      <c r="W37" s="16">
+        <v>115</v>
+      </c>
+      <c r="X37" s="16">
+        <v>110</v>
+      </c>
+      <c r="Y37" s="16">
+        <v>85</v>
+      </c>
+      <c r="Z37" s="16">
+        <v>113</v>
+      </c>
       <c r="AA37" s="16">
         <v>73</v>
       </c>
@@ -9384,15 +9645,15 @@
       <c r="BK37" s="16"/>
       <c r="BL37" s="16"/>
       <c r="BM37" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>336</v>
       </c>
       <c r="BN37" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>283</v>
       </c>
       <c r="BO37" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="BP37" s="16"/>
@@ -9437,10 +9698,18 @@
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
+      <c r="W38" s="16">
+        <v>0</v>
+      </c>
+      <c r="X38" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="16">
+        <v>0</v>
+      </c>
       <c r="AA38" s="16">
         <v>0</v>
       </c>
@@ -9498,15 +9767,15 @@
       <c r="BK38" s="16"/>
       <c r="BL38" s="16"/>
       <c r="BM38" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN38" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO38" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP38" s="16"/>
@@ -9543,10 +9812,18 @@
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="16"/>
-      <c r="Z39" s="16"/>
+      <c r="W39" s="16">
+        <v>263</v>
+      </c>
+      <c r="X39" s="16">
+        <v>225</v>
+      </c>
+      <c r="Y39" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="16">
+        <v>0</v>
+      </c>
       <c r="AA39" s="16">
         <v>0</v>
       </c>
@@ -9604,15 +9881,15 @@
       <c r="BK39" s="16"/>
       <c r="BL39" s="16"/>
       <c r="BM39" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="BN39" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="BO39" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="BP39" s="16"/>
@@ -9657,10 +9934,18 @@
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
       <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
+      <c r="W40" s="16">
+        <v>0</v>
+      </c>
+      <c r="X40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="16">
+        <v>0</v>
+      </c>
       <c r="AA40" s="16">
         <v>0</v>
       </c>
@@ -9718,15 +10003,15 @@
       <c r="BK40" s="16"/>
       <c r="BL40" s="16"/>
       <c r="BM40" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN40" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO40" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP40" s="16"/>
@@ -9769,10 +10054,18 @@
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
       <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
+      <c r="W41" s="16">
+        <v>107</v>
+      </c>
+      <c r="X41" s="16">
+        <v>104</v>
+      </c>
+      <c r="Y41" s="16">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="16">
+        <v>99</v>
+      </c>
       <c r="AA41" s="16">
         <v>106</v>
       </c>
@@ -9830,15 +10123,15 @@
       <c r="BK41" s="16"/>
       <c r="BL41" s="16"/>
       <c r="BM41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>391</v>
       </c>
       <c r="BN41" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>348</v>
       </c>
       <c r="BO41" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="BP41" s="16"/>
@@ -9883,10 +10176,18 @@
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
+      <c r="W42" s="16">
+        <v>0</v>
+      </c>
+      <c r="X42" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="16">
+        <v>0</v>
+      </c>
       <c r="AA42" s="16">
         <v>0</v>
       </c>
@@ -9944,15 +10245,15 @@
       <c r="BK42" s="16"/>
       <c r="BL42" s="16"/>
       <c r="BM42" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN42" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO42" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP42" s="16"/>
@@ -10001,10 +10302,18 @@
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
+      <c r="W43" s="16">
+        <v>0</v>
+      </c>
+      <c r="X43" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="16">
+        <v>0</v>
+      </c>
       <c r="AA43" s="16">
         <v>0</v>
       </c>
@@ -10062,15 +10371,15 @@
       <c r="BK43" s="16"/>
       <c r="BL43" s="16"/>
       <c r="BM43" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BN43" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BO43" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BP43" s="16"/>
@@ -10117,10 +10426,22 @@
       <c r="T44" s="16"/>
       <c r="U44" s="16"/>
       <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="16"/>
+      <c r="W44" s="16">
+        <f>6538-SUM(W5:W43)</f>
+        <v>297</v>
+      </c>
+      <c r="X44" s="16">
+        <f>6944-SUM(X5:X43)</f>
+        <v>289</v>
+      </c>
+      <c r="Y44" s="16">
+        <f>6995-SUM(Y5:Y43)</f>
+        <v>181</v>
+      </c>
+      <c r="Z44" s="16">
+        <f>7739-SUM(Z5:Z43)</f>
+        <v>231</v>
+      </c>
       <c r="AA44" s="16">
         <f>7934-7733</f>
         <v>201</v>
@@ -10235,23 +10556,23 @@
       <c r="BK44" s="16"/>
       <c r="BL44" s="16"/>
       <c r="BM44" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>423</v>
       </c>
       <c r="BN44" s="16">
-        <f t="shared" ref="BN44" si="37">SUM(AE44:AH44)</f>
+        <f t="shared" ref="BN44" si="38">SUM(AE44:AH44)</f>
         <v>524</v>
       </c>
       <c r="BO44" s="16">
-        <f t="shared" ref="BO44" si="38">SUM(AI44:AL44)</f>
+        <f t="shared" ref="BO44" si="39">SUM(AI44:AL44)</f>
         <v>3647</v>
       </c>
       <c r="BP44" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5124</v>
       </c>
       <c r="BQ44" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4137</v>
       </c>
       <c r="BR44" s="16">
@@ -10263,27 +10584,27 @@
         <v>3157</v>
       </c>
       <c r="BT44" s="16">
-        <f t="shared" ref="BT44:BY44" si="39">+BS44*0.9</f>
+        <f t="shared" ref="BT44:BY44" si="40">+BS44*0.9</f>
         <v>2841.3</v>
       </c>
       <c r="BU44" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2557.17</v>
       </c>
       <c r="BV44" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2301.453</v>
       </c>
       <c r="BW44" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2071.3076999999998</v>
       </c>
       <c r="BX44" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1864.1769299999999</v>
       </c>
       <c r="BY44" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1677.759237</v>
       </c>
     </row>
@@ -10318,10 +10639,18 @@
       <c r="P45" s="18"/>
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
+      <c r="S45" s="18">
+        <v>5958</v>
+      </c>
+      <c r="T45" s="18">
+        <v>6452</v>
+      </c>
+      <c r="U45" s="18">
+        <v>6432</v>
+      </c>
+      <c r="V45" s="18">
+        <v>6784</v>
+      </c>
       <c r="W45" s="18">
         <v>6538</v>
       </c>
@@ -10332,105 +10661,106 @@
         <v>6995</v>
       </c>
       <c r="Z45" s="18">
+        <f>SUM(Z5:Z44)</f>
         <v>7739</v>
       </c>
       <c r="AA45" s="18">
         <v>7934</v>
       </c>
       <c r="AB45" s="18">
-        <f t="shared" ref="AB45:BB45" si="40">SUM(AB5:AB44)</f>
+        <f t="shared" ref="AB45:BB45" si="41">SUM(AB5:AB44)</f>
         <v>8258</v>
       </c>
       <c r="AC45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8236</v>
       </c>
       <c r="AD45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8305</v>
       </c>
       <c r="AE45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>7828</v>
       </c>
       <c r="AF45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8255</v>
       </c>
       <c r="AG45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8479</v>
       </c>
       <c r="AH45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8704</v>
       </c>
       <c r="AI45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8619</v>
       </c>
       <c r="AJ45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>10425</v>
       </c>
       <c r="AK45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12882</v>
       </c>
       <c r="AL45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13858</v>
       </c>
       <c r="AM45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12935</v>
       </c>
       <c r="AN45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13959</v>
       </c>
       <c r="AO45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14342</v>
       </c>
       <c r="AP45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14886</v>
       </c>
       <c r="AQ45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13538</v>
       </c>
       <c r="AR45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14583</v>
       </c>
       <c r="AS45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14812</v>
       </c>
       <c r="AT45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>15121</v>
       </c>
       <c r="AU45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12225</v>
       </c>
       <c r="AV45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13865</v>
       </c>
       <c r="AW45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13927</v>
       </c>
       <c r="AX45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14301</v>
       </c>
       <c r="AY45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12310</v>
       </c>
       <c r="AZ45" s="18">
@@ -10438,11 +10768,11 @@
         <v>14462</v>
       </c>
       <c r="BA45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13371.489999999998</v>
       </c>
       <c r="BB45" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13807.44</v>
       </c>
       <c r="BC45" s="18"/>
@@ -10456,55 +10786,55 @@
       <c r="BK45" s="18"/>
       <c r="BL45" s="18"/>
       <c r="BM45" s="18">
-        <f t="shared" ref="BM45:BY45" si="41">SUM(BM5:BM44)</f>
+        <f t="shared" ref="BM45:BY45" si="42">SUM(BM5:BM44)</f>
         <v>32733</v>
       </c>
       <c r="BN45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>33266</v>
       </c>
       <c r="BO45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>45784</v>
       </c>
       <c r="BP45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>56122</v>
       </c>
       <c r="BQ45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>57838</v>
       </c>
       <c r="BR45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>54318</v>
       </c>
       <c r="BS45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>53950.93</v>
       </c>
       <c r="BT45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>54602.296000000002</v>
       </c>
       <c r="BU45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>53066.115609999993</v>
       </c>
       <c r="BV45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>52066.047577300007</v>
       </c>
       <c r="BW45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>50019.80618581899</v>
       </c>
       <c r="BX45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>49332.211252678564</v>
       </c>
       <c r="BY45" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>35036.868077715189</v>
       </c>
     </row>
@@ -10535,21 +10865,29 @@
       <c r="P46" s="16"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
+      <c r="S46" s="16">
+        <v>1115</v>
+      </c>
+      <c r="T46" s="16">
+        <v>1405</v>
+      </c>
+      <c r="U46" s="16">
+        <v>1235</v>
+      </c>
+      <c r="V46" s="16">
+        <v>1287</v>
+      </c>
       <c r="W46" s="16">
         <v>1313</v>
       </c>
       <c r="X46" s="16">
-        <v>1529</v>
+        <v>1231</v>
       </c>
       <c r="Y46" s="16">
         <v>1342</v>
       </c>
       <c r="Z46" s="16">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="AA46" s="16">
         <v>1572</v>
@@ -10649,23 +10987,23 @@
       <c r="BK46" s="16"/>
       <c r="BL46" s="16"/>
       <c r="BM46" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6362</v>
       </c>
       <c r="BN46" s="16">
-        <f t="shared" ref="BN46" si="42">SUM(AE46:AH46)</f>
+        <f t="shared" ref="BN46" si="43">SUM(AE46:AH46)</f>
         <v>5860</v>
       </c>
       <c r="BO46" s="16">
-        <f t="shared" ref="BO46" si="43">SUM(AI46:AL46)</f>
+        <f t="shared" ref="BO46" si="44">SUM(AI46:AL46)</f>
         <v>8175</v>
       </c>
       <c r="BP46" s="16">
-        <f t="shared" ref="BP46" si="44">SUM(AM46:AP46)</f>
+        <f t="shared" ref="BP46" si="45">SUM(AM46:AP46)</f>
         <v>9425</v>
       </c>
       <c r="BQ46" s="16">
-        <f t="shared" ref="BQ46" si="45">SUM(AQ46:AT46)</f>
+        <f t="shared" ref="BQ46" si="46">SUM(AQ46:AT46)</f>
         <v>8705.15</v>
       </c>
       <c r="BR46" s="16">
@@ -10673,31 +11011,31 @@
         <v>8646</v>
       </c>
       <c r="BS46" s="16">
-        <f t="shared" ref="BS46:BY46" si="46">+BS45-BS47</f>
+        <f t="shared" ref="BS46:BY46" si="47">+BS45-BS47</f>
         <v>8092.6395000000048</v>
       </c>
       <c r="BT46" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>8190.3444000000018</v>
       </c>
       <c r="BU46" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>7959.9173414999968</v>
       </c>
       <c r="BV46" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>7809.9071365950003</v>
       </c>
       <c r="BW46" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>7502.9709278728478</v>
       </c>
       <c r="BX46" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>7399.8316879017875</v>
       </c>
       <c r="BY46" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5255.5302116572784</v>
       </c>
     </row>
@@ -10730,96 +11068,108 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
+      <c r="S47" s="16">
+        <f t="shared" ref="S47" si="48">+S45-S46</f>
+        <v>4843</v>
+      </c>
+      <c r="T47" s="16">
+        <f t="shared" ref="T47:U47" si="49">+T45-T46</f>
+        <v>5047</v>
+      </c>
+      <c r="U47" s="16">
+        <f t="shared" si="49"/>
+        <v>5197</v>
+      </c>
+      <c r="V47" s="16">
+        <f t="shared" ref="V47:W47" si="50">+V45-V46</f>
+        <v>5497</v>
+      </c>
       <c r="W47" s="16">
-        <f t="shared" ref="W47" si="47">+W45-W46</f>
+        <f t="shared" si="50"/>
         <v>5225</v>
       </c>
       <c r="X47" s="16">
-        <f t="shared" ref="X47:Y47" si="48">+X45-X46</f>
-        <v>5415</v>
+        <f t="shared" ref="X47:Y47" si="51">+X45-X46</f>
+        <v>5713</v>
       </c>
       <c r="Y47" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5653</v>
       </c>
       <c r="Z47" s="16">
-        <f t="shared" ref="Z47" si="49">+Z45-Z46</f>
-        <v>6113</v>
+        <f t="shared" ref="Z47" si="52">+Z45-Z46</f>
+        <v>6114</v>
       </c>
       <c r="AA47" s="16">
-        <f t="shared" ref="AA47:AF47" si="50">+AA45-AA46</f>
+        <f t="shared" ref="AA47:AF47" si="53">+AA45-AA46</f>
         <v>6362</v>
       </c>
       <c r="AB47" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>6651</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>6727</v>
       </c>
       <c r="AD47" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>6631</v>
       </c>
       <c r="AE47" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>6525</v>
       </c>
       <c r="AF47" s="16">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>6828</v>
       </c>
       <c r="AG47" s="16">
-        <f t="shared" ref="AG47:AH47" si="51">AG45-AG46</f>
+        <f t="shared" ref="AG47:AH47" si="54">AG45-AG46</f>
         <v>6954</v>
       </c>
       <c r="AH47" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>7099</v>
       </c>
       <c r="AI47" s="16">
-        <f t="shared" ref="AI47:AJ47" si="52">AI45-AI46</f>
+        <f t="shared" ref="AI47:AJ47" si="55">AI45-AI46</f>
         <v>7125</v>
       </c>
       <c r="AJ47" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>8629</v>
       </c>
       <c r="AK47" s="16">
-        <f t="shared" ref="AK47:AQ47" si="53">AK45-AK46</f>
+        <f t="shared" ref="AK47:AQ47" si="56">AK45-AK46</f>
         <v>10520</v>
       </c>
       <c r="AL47" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>11335</v>
       </c>
       <c r="AM47" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>10850</v>
       </c>
       <c r="AN47" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>11480</v>
       </c>
       <c r="AO47" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>11929</v>
       </c>
       <c r="AP47" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>12438</v>
       </c>
       <c r="AQ47" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>11435</v>
       </c>
       <c r="AR47" s="16">
-        <f t="shared" ref="AR47" si="54">AR45-AR46</f>
+        <f t="shared" ref="AR47" si="57">AR45-AR46</f>
         <v>12416</v>
       </c>
       <c r="AS47" s="16">
@@ -10873,15 +11223,15 @@
       <c r="BK47" s="16"/>
       <c r="BL47" s="16"/>
       <c r="BM47" s="16">
-        <f t="shared" ref="BM47:BO47" si="55">+BM45-BM46</f>
+        <f t="shared" ref="BM47:BO47" si="58">+BM45-BM46</f>
         <v>26371</v>
       </c>
       <c r="BN47" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>27406</v>
       </c>
       <c r="BO47" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>37609</v>
       </c>
       <c r="BP47" s="16">
@@ -10897,31 +11247,31 @@
         <v>45672</v>
       </c>
       <c r="BS47" s="16">
-        <f t="shared" ref="BS47:BY47" si="56">+BS45*0.85</f>
+        <f t="shared" ref="BS47:BY47" si="59">+BS45*0.85</f>
         <v>45858.290499999996</v>
       </c>
       <c r="BT47" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>46411.9516</v>
       </c>
       <c r="BU47" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>45106.198268499997</v>
       </c>
       <c r="BV47" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>44256.140440705007</v>
       </c>
       <c r="BW47" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>42516.835257946143</v>
       </c>
       <c r="BX47" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>41932.379564776777</v>
       </c>
       <c r="BY47" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>29781.337866057911</v>
       </c>
     </row>
@@ -10952,21 +11302,29 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
+      <c r="S48" s="16">
+        <v>1347</v>
+      </c>
+      <c r="T48" s="16">
+        <v>1466</v>
+      </c>
+      <c r="U48" s="16">
+        <v>1368</v>
+      </c>
+      <c r="V48" s="16">
+        <v>1625</v>
+      </c>
       <c r="W48" s="16">
         <v>1360</v>
       </c>
       <c r="X48" s="16">
-        <v>1509</v>
+        <v>1405</v>
       </c>
       <c r="Y48" s="16">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="Z48" s="16">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="AA48" s="16">
         <v>1670</v>
@@ -11066,23 +11424,23 @@
       <c r="BK48" s="16"/>
       <c r="BL48" s="16"/>
       <c r="BM48" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6685</v>
       </c>
       <c r="BN48" s="16">
-        <f t="shared" ref="BN48:BN49" si="57">SUM(AE48:AH48)</f>
+        <f t="shared" ref="BN48:BN49" si="60">SUM(AE48:AH48)</f>
         <v>6687</v>
       </c>
       <c r="BO48" s="16">
-        <f t="shared" ref="BO48:BO49" si="58">SUM(AI48:AL48)</f>
+        <f t="shared" ref="BO48:BO49" si="61">SUM(AI48:AL48)</f>
         <v>9803</v>
       </c>
       <c r="BP48" s="16">
-        <f t="shared" ref="BP48:BP49" si="59">SUM(AM48:AP48)</f>
+        <f t="shared" ref="BP48:BP49" si="62">SUM(AM48:AP48)</f>
         <v>11964</v>
       </c>
       <c r="BQ48" s="16">
-        <f t="shared" ref="BQ48:BQ49" si="60">SUM(AQ48:AT48)</f>
+        <f t="shared" ref="BQ48:BQ49" si="63">SUM(AQ48:AT48)</f>
         <v>12370.07</v>
       </c>
       <c r="BR48" s="16">
@@ -11094,27 +11452,27 @@
         <v>12941.28</v>
       </c>
       <c r="BT48" s="16">
-        <f t="shared" ref="BT48:BY48" si="61">+BT45*0.2</f>
+        <f t="shared" ref="BT48:BY48" si="64">+BT45*0.2</f>
         <v>10920.459200000001</v>
       </c>
       <c r="BU48" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>10613.223121999999</v>
       </c>
       <c r="BV48" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>10413.209515460003</v>
       </c>
       <c r="BW48" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>10003.9612371638</v>
       </c>
       <c r="BX48" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>9866.4422505357143</v>
       </c>
       <c r="BY48" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>7007.3736155430379</v>
       </c>
     </row>
@@ -11145,21 +11503,29 @@
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
+      <c r="S49" s="16">
+        <v>929</v>
+      </c>
+      <c r="T49" s="16">
+        <v>1124</v>
+      </c>
+      <c r="U49" s="16">
+        <v>1051</v>
+      </c>
+      <c r="V49" s="16">
+        <v>1175</v>
+      </c>
       <c r="W49" s="16">
         <v>1112</v>
       </c>
       <c r="X49" s="16">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="Y49" s="16">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="Z49" s="16">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="AA49" s="16">
         <v>1189</v>
@@ -11259,23 +11625,23 @@
       <c r="BK49" s="16"/>
       <c r="BL49" s="16"/>
       <c r="BM49" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5093</v>
       </c>
       <c r="BN49" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>4989</v>
       </c>
       <c r="BO49" s="16">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>5830</v>
       </c>
       <c r="BP49" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>6518</v>
       </c>
       <c r="BQ49" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>6509.98</v>
       </c>
       <c r="BR49" s="16">
@@ -11321,120 +11687,132 @@
       <c r="P50" s="16"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
+      <c r="S50" s="16">
+        <f t="shared" ref="S50" si="65">+S48+S49</f>
+        <v>2276</v>
+      </c>
+      <c r="T50" s="16">
+        <f t="shared" ref="T50:U50" si="66">+T48+T49</f>
+        <v>2590</v>
+      </c>
+      <c r="U50" s="16">
+        <f t="shared" si="66"/>
+        <v>2419</v>
+      </c>
+      <c r="V50" s="16">
+        <f t="shared" ref="V50:W50" si="67">+V48+V49</f>
+        <v>2800</v>
+      </c>
       <c r="W50" s="16">
-        <f t="shared" ref="W50" si="62">+W48+W49</f>
+        <f t="shared" si="67"/>
         <v>2472</v>
       </c>
       <c r="X50" s="16">
-        <f t="shared" ref="X50:Y50" si="63">+X48+X49</f>
-        <v>2738</v>
+        <f t="shared" ref="X50:Y50" si="68">+X48+X49</f>
+        <v>2617</v>
       </c>
       <c r="Y50" s="16">
-        <f t="shared" si="63"/>
-        <v>2649</v>
+        <f t="shared" si="68"/>
+        <v>2638</v>
       </c>
       <c r="Z50" s="16">
-        <f t="shared" ref="Z50" si="64">+Z48+Z49</f>
-        <v>2974</v>
+        <f t="shared" ref="Z50" si="69">+Z48+Z49</f>
+        <v>2963</v>
       </c>
       <c r="AA50" s="16">
-        <f t="shared" ref="AA50:AF50" si="65">+AA48+AA49</f>
+        <f t="shared" ref="AA50:AF50" si="70">+AA48+AA49</f>
         <v>2859</v>
       </c>
       <c r="AB50" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>2910</v>
       </c>
       <c r="AC50" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>2843</v>
       </c>
       <c r="AD50" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>3166</v>
       </c>
       <c r="AE50" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>2762</v>
       </c>
       <c r="AF50" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>2852</v>
       </c>
       <c r="AG50" s="16">
-        <f t="shared" ref="AG50:AH50" si="66">AG49+AG48</f>
+        <f t="shared" ref="AG50:AH50" si="71">AG49+AG48</f>
         <v>2848</v>
       </c>
       <c r="AH50" s="16">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>3214</v>
       </c>
       <c r="AI50" s="16">
-        <f t="shared" ref="AI50:AJ50" si="67">AI49+AI48</f>
+        <f t="shared" ref="AI50:AJ50" si="72">AI49+AI48</f>
         <v>2833</v>
       </c>
       <c r="AJ50" s="16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>3724</v>
       </c>
       <c r="AK50" s="16">
-        <f t="shared" ref="AK50:AQ50" si="68">AK49+AK48</f>
+        <f t="shared" ref="AK50:AQ50" si="73">AK49+AK48</f>
         <v>4236</v>
       </c>
       <c r="AL50" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>4840</v>
       </c>
       <c r="AM50" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>4248</v>
       </c>
       <c r="AN50" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>4536</v>
       </c>
       <c r="AO50" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>4593</v>
       </c>
       <c r="AP50" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>5105</v>
       </c>
       <c r="AQ50" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>4332</v>
       </c>
       <c r="AR50" s="16">
-        <f t="shared" ref="AR50:AT50" si="69">AR49+AR48</f>
+        <f t="shared" ref="AR50:AT50" si="74">AR49+AR48</f>
         <v>4696</v>
       </c>
       <c r="AS50" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>4696</v>
       </c>
       <c r="AT50" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>5156.05</v>
       </c>
       <c r="AU50" s="16">
-        <f t="shared" ref="AU50:AX50" si="70">AU49+AU48</f>
+        <f t="shared" ref="AU50:AX50" si="75">AU49+AU48</f>
         <v>4641</v>
       </c>
       <c r="AV50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>4948</v>
       </c>
       <c r="AW50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>5050</v>
       </c>
       <c r="AX50" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>5532</v>
       </c>
       <c r="AY50" s="16">
@@ -11442,15 +11820,15 @@
         <v>4843</v>
       </c>
       <c r="AZ50" s="16">
-        <f t="shared" ref="AZ50:BB50" si="71">+AZ48+AZ49</f>
+        <f t="shared" ref="AZ50:BB50" si="76">+AZ48+AZ49</f>
         <v>5232</v>
       </c>
       <c r="BA50" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>4983.3999999999996</v>
       </c>
       <c r="BB50" s="16">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>5461.2</v>
       </c>
       <c r="BC50" s="16"/>
@@ -11464,15 +11842,15 @@
       <c r="BK50" s="16"/>
       <c r="BL50" s="16"/>
       <c r="BM50" s="16">
-        <f t="shared" ref="BM50" si="72">+BM48+BM49</f>
+        <f t="shared" ref="BM50" si="77">+BM48+BM49</f>
         <v>11778</v>
       </c>
       <c r="BN50" s="16">
-        <f t="shared" ref="BN50:BO50" si="73">+BN48+BN49</f>
+        <f t="shared" ref="BN50:BO50" si="78">+BN48+BN49</f>
         <v>11676</v>
       </c>
       <c r="BO50" s="16">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>15633</v>
       </c>
       <c r="BP50" s="16">
@@ -11484,35 +11862,35 @@
         <v>18880.05</v>
       </c>
       <c r="BR50" s="16">
-        <f t="shared" ref="BR50:BY50" si="74">+BR48+BR49</f>
+        <f t="shared" ref="BR50:BY50" si="79">+BR48+BR49</f>
         <v>20171</v>
       </c>
       <c r="BS50" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>19969.29</v>
       </c>
       <c r="BT50" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>10920.459200000001</v>
       </c>
       <c r="BU50" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>10613.223121999999</v>
       </c>
       <c r="BV50" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>10413.209515460003</v>
       </c>
       <c r="BW50" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>10003.9612371638</v>
       </c>
       <c r="BX50" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>9866.4422505357143</v>
       </c>
       <c r="BY50" s="16">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>7007.3736155430379</v>
       </c>
     </row>
@@ -11545,120 +11923,132 @@
       <c r="P51" s="16"/>
       <c r="Q51" s="16"/>
       <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
+      <c r="S51" s="16">
+        <f t="shared" ref="S51" si="80">+S47-S50</f>
+        <v>2567</v>
+      </c>
+      <c r="T51" s="16">
+        <f t="shared" ref="T51:U51" si="81">+T47-T50</f>
+        <v>2457</v>
+      </c>
+      <c r="U51" s="16">
+        <f t="shared" si="81"/>
+        <v>2778</v>
+      </c>
+      <c r="V51" s="16">
+        <f t="shared" ref="V51:W51" si="82">+V47-V50</f>
+        <v>2697</v>
+      </c>
       <c r="W51" s="16">
-        <f t="shared" ref="W51" si="75">+W47-W50</f>
+        <f t="shared" si="82"/>
         <v>2753</v>
       </c>
       <c r="X51" s="16">
-        <f t="shared" ref="X51:Y51" si="76">+X47-X50</f>
-        <v>2677</v>
+        <f t="shared" ref="X51:Y51" si="83">+X47-X50</f>
+        <v>3096</v>
       </c>
       <c r="Y51" s="16">
-        <f t="shared" si="76"/>
-        <v>3004</v>
+        <f t="shared" si="83"/>
+        <v>3015</v>
       </c>
       <c r="Z51" s="16">
-        <f t="shared" ref="Z51" si="77">+Z47-Z50</f>
-        <v>3139</v>
+        <f t="shared" ref="Z51" si="84">+Z47-Z50</f>
+        <v>3151</v>
       </c>
       <c r="AA51" s="16">
-        <f t="shared" ref="AA51:AF51" si="78">+AA47-AA50</f>
+        <f t="shared" ref="AA51:AF51" si="85">+AA47-AA50</f>
         <v>3503</v>
       </c>
       <c r="AB51" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>3741</v>
       </c>
       <c r="AC51" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>3884</v>
       </c>
       <c r="AD51" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>3465</v>
       </c>
       <c r="AE51" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>3763</v>
       </c>
       <c r="AF51" s="16">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>3976</v>
       </c>
       <c r="AG51" s="16">
-        <f t="shared" ref="AG51:AH51" si="79">AG47-AG50</f>
+        <f t="shared" ref="AG51:AH51" si="86">AG47-AG50</f>
         <v>4106</v>
       </c>
       <c r="AH51" s="16">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>3885</v>
       </c>
       <c r="AI51" s="16">
-        <f t="shared" ref="AI51:AJ51" si="80">AI47-AI50</f>
+        <f t="shared" ref="AI51:AJ51" si="87">AI47-AI50</f>
         <v>4292</v>
       </c>
       <c r="AJ51" s="16">
-        <f t="shared" si="80"/>
+        <f t="shared" si="87"/>
         <v>4905</v>
       </c>
       <c r="AK51" s="16">
-        <f t="shared" ref="AK51:AQ51" si="81">AK47-AK50</f>
+        <f t="shared" ref="AK51:AQ51" si="88">AK47-AK50</f>
         <v>6284</v>
       </c>
       <c r="AL51" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>6495</v>
       </c>
       <c r="AM51" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>6602</v>
       </c>
       <c r="AN51" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>6944</v>
       </c>
       <c r="AO51" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>7336</v>
       </c>
       <c r="AP51" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>7333</v>
       </c>
       <c r="AQ51" s="16">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>7103</v>
       </c>
       <c r="AR51" s="16">
-        <f t="shared" ref="AR51:AT51" si="82">AR47-AR50</f>
+        <f t="shared" ref="AR51:AT51" si="89">AR47-AR50</f>
         <v>7720</v>
       </c>
       <c r="AS51" s="16">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>7949</v>
       </c>
       <c r="AT51" s="16">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>7696.8</v>
       </c>
       <c r="AU51" s="16">
-        <f t="shared" ref="AU51:AX51" si="83">AU47-AU50</f>
+        <f t="shared" ref="AU51:AX51" si="90">AU47-AU50</f>
         <v>5653</v>
       </c>
       <c r="AV51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>6800</v>
       </c>
       <c r="AW51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>6576</v>
       </c>
       <c r="AX51" s="16">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>6472</v>
       </c>
       <c r="AY51" s="16">
@@ -11666,15 +12056,15 @@
         <v>5359</v>
       </c>
       <c r="AZ51" s="16">
-        <f t="shared" ref="AZ51:BB51" si="84">+AZ47-AZ50</f>
+        <f t="shared" ref="AZ51:BB51" si="91">+AZ47-AZ50</f>
         <v>7095</v>
       </c>
       <c r="BA51" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>6114.9366999999984</v>
       </c>
       <c r="BB51" s="16">
-        <f t="shared" si="84"/>
+        <f t="shared" si="91"/>
         <v>5998.9751999999999</v>
       </c>
       <c r="BC51" s="16"/>
@@ -11688,15 +12078,15 @@
       <c r="BK51" s="16"/>
       <c r="BL51" s="16"/>
       <c r="BM51" s="16">
-        <f t="shared" ref="BM51" si="85">+BM47-BM50</f>
+        <f t="shared" ref="BM51" si="92">+BM47-BM50</f>
         <v>14593</v>
       </c>
       <c r="BN51" s="16">
-        <f t="shared" ref="BN51:BO51" si="86">+BN47-BN50</f>
+        <f t="shared" ref="BN51:BO51" si="93">+BN47-BN50</f>
         <v>15730</v>
       </c>
       <c r="BO51" s="16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="93"/>
         <v>21976</v>
       </c>
       <c r="BP51" s="16">
@@ -11708,35 +12098,35 @@
         <v>30252.799999999999</v>
       </c>
       <c r="BR51" s="16">
-        <f t="shared" ref="BR51:BY51" si="87">+BR47-BR50</f>
+        <f t="shared" ref="BR51:BY51" si="94">+BR47-BR50</f>
         <v>25501</v>
       </c>
       <c r="BS51" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>25889.000499999995</v>
       </c>
       <c r="BT51" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>35491.492400000003</v>
       </c>
       <c r="BU51" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>34492.975146500001</v>
       </c>
       <c r="BV51" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>33842.930925245004</v>
       </c>
       <c r="BW51" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>32512.874020782343</v>
       </c>
       <c r="BX51" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>32065.937314241062</v>
       </c>
       <c r="BY51" s="16">
-        <f t="shared" si="87"/>
+        <f t="shared" si="94"/>
         <v>22773.964250514873</v>
       </c>
     </row>
@@ -11769,10 +12159,22 @@
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
       <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
+      <c r="S52" s="16">
+        <f>-200+4</f>
+        <v>-196</v>
+      </c>
+      <c r="T52" s="16">
+        <f>-225-51</f>
+        <v>-276</v>
+      </c>
+      <c r="U52" s="16">
+        <f>-250+3</f>
+        <v>-247</v>
+      </c>
+      <c r="V52" s="16">
+        <f>-251+5</f>
+        <v>-246</v>
+      </c>
       <c r="W52" s="16">
         <f>-247+25</f>
         <v>-222</v>
@@ -11781,12 +12183,12 @@
         <v>-253</v>
       </c>
       <c r="Y52" s="16">
-        <f>-252+63</f>
-        <v>-189</v>
+        <f>-252+52</f>
+        <v>-200</v>
       </c>
       <c r="Z52" s="16">
-        <f>-252+62</f>
-        <v>-190</v>
+        <f>-252+50</f>
+        <v>-202</v>
       </c>
       <c r="AA52" s="16">
         <f>5-251</f>
@@ -11904,23 +12306,23 @@
       <c r="BK52" s="16"/>
       <c r="BL52" s="16"/>
       <c r="BM52" s="16">
-        <f t="shared" ref="BM52:BM54" si="88">SUM(AA52:AD52)</f>
+        <f t="shared" ref="BM52:BM54" si="95">SUM(AA52:AD52)</f>
         <v>-1150</v>
       </c>
       <c r="BN52" s="16">
-        <f t="shared" ref="BN52" si="89">SUM(AE52:AH52)</f>
+        <f t="shared" ref="BN52" si="96">SUM(AE52:AH52)</f>
         <v>-1142</v>
       </c>
       <c r="BO52" s="16">
-        <f t="shared" ref="BO52" si="90">SUM(AI52:AL52)</f>
+        <f t="shared" ref="BO52" si="97">SUM(AI52:AL52)</f>
         <v>439</v>
       </c>
       <c r="BP52" s="16">
-        <f t="shared" ref="BP52" si="91">SUM(AM52:AP52)</f>
+        <f t="shared" ref="BP52" si="98">SUM(AM52:AP52)</f>
         <v>-2384</v>
       </c>
       <c r="BQ52" s="16">
-        <f t="shared" ref="BQ52" si="92">SUM(AQ52:AT52)</f>
+        <f t="shared" ref="BQ52" si="99">SUM(AQ52:AT52)</f>
         <v>-1552</v>
       </c>
       <c r="BR52" s="16">
@@ -11928,31 +12330,31 @@
         <v>-977</v>
       </c>
       <c r="BS52" s="16">
-        <f t="shared" ref="BS52:BY52" si="93">+BR52+300</f>
+        <f t="shared" ref="BS52:BY52" si="100">+BR52+300</f>
         <v>-677</v>
       </c>
       <c r="BT52" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>-377</v>
       </c>
       <c r="BU52" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>-77</v>
       </c>
       <c r="BV52" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>223</v>
       </c>
       <c r="BW52" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>523</v>
       </c>
       <c r="BX52" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>823</v>
       </c>
       <c r="BY52" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="100"/>
         <v>1123</v>
       </c>
     </row>
@@ -11985,120 +12387,132 @@
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
+      <c r="S53" s="16">
+        <f t="shared" ref="S53" si="101">+S51+S52</f>
+        <v>2371</v>
+      </c>
+      <c r="T53" s="16">
+        <f t="shared" ref="T53:U53" si="102">+T51+T52</f>
+        <v>2181</v>
+      </c>
+      <c r="U53" s="16">
+        <f t="shared" si="102"/>
+        <v>2531</v>
+      </c>
+      <c r="V53" s="16">
+        <f t="shared" ref="V53:W53" si="103">+V51+V52</f>
+        <v>2451</v>
+      </c>
       <c r="W53" s="16">
-        <f t="shared" ref="W53" si="94">+W51+W52</f>
+        <f t="shared" si="103"/>
         <v>2531</v>
       </c>
       <c r="X53" s="16">
-        <f t="shared" ref="X53:Y53" si="95">+X51+X52</f>
-        <v>2424</v>
+        <f t="shared" ref="X53:Y53" si="104">+X51+X52</f>
+        <v>2843</v>
       </c>
       <c r="Y53" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="104"/>
         <v>2815</v>
       </c>
       <c r="Z53" s="16">
-        <f t="shared" ref="Z53:AF53" si="96">+Z51+Z52</f>
+        <f t="shared" ref="Z53:AF53" si="105">+Z51+Z52</f>
         <v>2949</v>
       </c>
       <c r="AA53" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>3257</v>
       </c>
       <c r="AB53" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>3454</v>
       </c>
       <c r="AC53" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>3581</v>
       </c>
       <c r="AD53" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>3151</v>
       </c>
       <c r="AE53" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>3472</v>
       </c>
       <c r="AF53" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>3700</v>
       </c>
       <c r="AG53" s="16">
-        <f t="shared" ref="AG53:AH53" si="97">AG51+AG52</f>
+        <f t="shared" ref="AG53:AH53" si="106">AG51+AG52</f>
         <v>3802</v>
       </c>
       <c r="AH53" s="16">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>3614</v>
       </c>
       <c r="AI53" s="16">
-        <f t="shared" ref="AI53:AJ53" si="98">AI51+AI52</f>
+        <f t="shared" ref="AI53:AJ53" si="107">AI51+AI52</f>
         <v>4003</v>
       </c>
       <c r="AJ53" s="16">
-        <f t="shared" si="98"/>
+        <f t="shared" si="107"/>
         <v>4395</v>
       </c>
       <c r="AK53" s="16">
-        <f t="shared" ref="AK53:AQ53" si="99">AK51+AK52</f>
+        <f t="shared" ref="AK53:AQ53" si="108">AK51+AK52</f>
         <v>6904</v>
       </c>
       <c r="AL53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>7113</v>
       </c>
       <c r="AM53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>5980</v>
       </c>
       <c r="AN53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>6338</v>
       </c>
       <c r="AO53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>6751</v>
       </c>
       <c r="AP53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>6762</v>
       </c>
       <c r="AQ53" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>6592</v>
       </c>
       <c r="AR53" s="16">
-        <f t="shared" ref="AR53:AT53" si="100">AR51+AR52</f>
+        <f t="shared" ref="AR53:AT53" si="109">AR51+AR52</f>
         <v>7433</v>
       </c>
       <c r="AS53" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>7572</v>
       </c>
       <c r="AT53" s="16">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>7319.8</v>
       </c>
       <c r="AU53" s="16">
-        <f t="shared" ref="AU53:AX53" si="101">AU51+AU52</f>
+        <f t="shared" ref="AU53:AX53" si="110">AU51+AU52</f>
         <v>5722</v>
       </c>
       <c r="AV53" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="110"/>
         <v>6227</v>
       </c>
       <c r="AW53" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="110"/>
         <v>6324</v>
       </c>
       <c r="AX53" s="16">
-        <f t="shared" si="101"/>
+        <f t="shared" si="110"/>
         <v>6251</v>
       </c>
       <c r="AY53" s="16">
@@ -12128,15 +12542,15 @@
       <c r="BK53" s="16"/>
       <c r="BL53" s="16"/>
       <c r="BM53" s="16">
-        <f t="shared" ref="BM53:BO53" si="102">+BM51+BM52</f>
+        <f t="shared" ref="BM53:BO53" si="111">+BM51+BM52</f>
         <v>13443</v>
       </c>
       <c r="BN53" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>14588</v>
       </c>
       <c r="BO53" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>22415</v>
       </c>
       <c r="BP53" s="16">
@@ -12148,35 +12562,35 @@
         <v>28700.799999999999</v>
       </c>
       <c r="BR53" s="16">
-        <f t="shared" ref="BR53:BY53" si="103">+BR51+BR52</f>
+        <f t="shared" ref="BR53:BY53" si="112">+BR51+BR52</f>
         <v>24524</v>
       </c>
       <c r="BS53" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>25212.000499999995</v>
       </c>
       <c r="BT53" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>35114.492400000003</v>
       </c>
       <c r="BU53" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>34415.975146500001</v>
       </c>
       <c r="BV53" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>34065.930925245004</v>
       </c>
       <c r="BW53" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>33035.874020782343</v>
       </c>
       <c r="BX53" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>32888.937314241062</v>
       </c>
       <c r="BY53" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="112"/>
         <v>23896.964250514873</v>
       </c>
     </row>
@@ -12206,15 +12620,23 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
+      <c r="S54" s="16">
+        <v>489</v>
+      </c>
+      <c r="T54" s="16">
+        <v>486</v>
+      </c>
+      <c r="U54" s="16">
+        <v>495</v>
+      </c>
+      <c r="V54" s="16">
+        <v>497</v>
+      </c>
       <c r="W54" s="16">
         <v>458</v>
       </c>
       <c r="X54" s="16">
-        <v>438</v>
+        <v>548</v>
       </c>
       <c r="Y54" s="16">
         <v>533</v>
@@ -12327,23 +12749,23 @@
       <c r="BK54" s="16"/>
       <c r="BL54" s="16"/>
       <c r="BM54" s="16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="95"/>
         <v>1175</v>
       </c>
       <c r="BN54" s="16">
-        <f t="shared" ref="BN54" si="104">SUM(AE54:AH54)</f>
+        <f t="shared" ref="BN54" si="113">SUM(AE54:AH54)</f>
         <v>1252</v>
       </c>
       <c r="BO54" s="16">
-        <f t="shared" ref="BO54" si="105">SUM(AI54:AL54)</f>
+        <f t="shared" ref="BO54" si="114">SUM(AI54:AL54)</f>
         <v>2245</v>
       </c>
       <c r="BP54" s="16">
-        <f t="shared" ref="BP54" si="106">SUM(AM54:AP54)</f>
+        <f t="shared" ref="BP54" si="115">SUM(AM54:AP54)</f>
         <v>3248</v>
       </c>
       <c r="BQ54" s="16">
-        <f t="shared" ref="BQ54" si="107">SUM(AQ54:AT54)</f>
+        <f t="shared" ref="BQ54" si="116">SUM(AQ54:AT54)</f>
         <v>3805.9700000000003</v>
       </c>
       <c r="BR54" s="16">
@@ -12351,31 +12773,31 @@
         <v>1932</v>
       </c>
       <c r="BS54" s="16">
-        <f t="shared" ref="BS54:BY54" si="108">+BS53*0.15</f>
+        <f t="shared" ref="BS54:BY54" si="117">+BS53*0.15</f>
         <v>3781.8000749999992</v>
       </c>
       <c r="BT54" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>5267.1738599999999</v>
       </c>
       <c r="BU54" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>5162.3962719749998</v>
       </c>
       <c r="BV54" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>5109.8896387867508</v>
       </c>
       <c r="BW54" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>4955.3811031173509</v>
       </c>
       <c r="BX54" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>4933.340597136159</v>
       </c>
       <c r="BY54" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>3584.5446375772308</v>
       </c>
     </row>
@@ -12408,136 +12830,148 @@
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
       <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
+      <c r="S55" s="16">
+        <f t="shared" ref="S55" si="118">+S53-S54</f>
+        <v>1882</v>
+      </c>
+      <c r="T55" s="16">
+        <f t="shared" ref="T55:U55" si="119">+T53-T54</f>
+        <v>1695</v>
+      </c>
+      <c r="U55" s="16">
+        <f t="shared" si="119"/>
+        <v>2036</v>
+      </c>
+      <c r="V55" s="16">
+        <f t="shared" ref="V55:W55" si="120">+V53-V54</f>
+        <v>1954</v>
+      </c>
       <c r="W55" s="16">
-        <f t="shared" ref="W55" si="109">+W53-W54</f>
+        <f t="shared" si="120"/>
         <v>2073</v>
       </c>
       <c r="X55" s="16">
-        <f t="shared" ref="X55:Y55" si="110">+X53-X54</f>
-        <v>1986</v>
+        <f t="shared" ref="X55:Y55" si="121">+X53-X54</f>
+        <v>2295</v>
       </c>
       <c r="Y55" s="16">
-        <f t="shared" si="110"/>
+        <f t="shared" si="121"/>
         <v>2282</v>
       </c>
       <c r="Z55" s="16">
-        <f t="shared" ref="Z55" si="111">+Z53-Z54</f>
+        <f t="shared" ref="Z55" si="122">+Z53-Z54</f>
         <v>2393</v>
       </c>
       <c r="AA55" s="16">
-        <f t="shared" ref="AA55:AF55" si="112">+AA53-AA54</f>
+        <f t="shared" ref="AA55:AF55" si="123">+AA53-AA54</f>
         <v>3008</v>
       </c>
       <c r="AB55" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>3143</v>
       </c>
       <c r="AC55" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>3255</v>
       </c>
       <c r="AD55" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>2862</v>
       </c>
       <c r="AE55" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>3198</v>
       </c>
       <c r="AF55" s="16">
-        <f t="shared" si="112"/>
+        <f t="shared" si="123"/>
         <v>3376</v>
       </c>
       <c r="AG55" s="16">
-        <f t="shared" ref="AG55:AH55" si="113">AG53-AG54</f>
+        <f t="shared" ref="AG55:AH55" si="124">AG53-AG54</f>
         <v>3468</v>
       </c>
       <c r="AH55" s="16">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>3294</v>
       </c>
       <c r="AI55" s="16">
-        <f t="shared" ref="AI55:AJ55" si="114">AI53-AI54</f>
+        <f t="shared" ref="AI55:AJ55" si="125">AI53-AI54</f>
         <v>3613</v>
       </c>
       <c r="AJ55" s="16">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>3894</v>
       </c>
       <c r="AK55" s="16">
-        <f t="shared" ref="AK55:AQ55" si="115">AK53-AK54</f>
+        <f t="shared" ref="AK55:AQ55" si="126">AK53-AK54</f>
         <v>6236</v>
       </c>
       <c r="AL55" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="126"/>
         <v>6427</v>
       </c>
       <c r="AM55" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="126"/>
         <v>5242</v>
       </c>
       <c r="AN55" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="126"/>
         <v>5536</v>
       </c>
       <c r="AO55" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="126"/>
         <v>5888</v>
       </c>
       <c r="AP55" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="126"/>
         <v>5917</v>
       </c>
       <c r="AQ55" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="126"/>
         <v>5814</v>
       </c>
       <c r="AR55" s="16">
-        <f t="shared" ref="AR55:AT55" si="116">AR53-AR54</f>
+        <f t="shared" ref="AR55:AT55" si="127">AR53-AR54</f>
         <v>6468</v>
       </c>
       <c r="AS55" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="127"/>
         <v>6607</v>
       </c>
       <c r="AT55" s="16">
-        <f t="shared" si="116"/>
+        <f t="shared" si="127"/>
         <v>6221.83</v>
       </c>
       <c r="AU55" s="16">
-        <f t="shared" ref="AU55:AZ55" si="117">AU53-AU54</f>
+        <f t="shared" ref="AU55:AZ55" si="128">AU53-AU54</f>
         <v>4941</v>
       </c>
       <c r="AV55" s="16">
-        <f t="shared" si="117"/>
+        <f t="shared" si="128"/>
         <v>5641</v>
       </c>
       <c r="AW55" s="16">
-        <f t="shared" si="117"/>
+        <f t="shared" si="128"/>
         <v>6149</v>
       </c>
       <c r="AX55" s="16">
-        <f t="shared" si="117"/>
+        <f t="shared" si="128"/>
         <v>5861</v>
       </c>
       <c r="AY55" s="16">
-        <f t="shared" si="117"/>
+        <f t="shared" si="128"/>
         <v>4291</v>
       </c>
       <c r="AZ55" s="16">
-        <f t="shared" si="117"/>
+        <f t="shared" si="128"/>
         <v>5650</v>
       </c>
       <c r="BA55" s="16">
-        <f t="shared" ref="BA55:BB55" si="118">BA53-BA54</f>
+        <f t="shared" ref="BA55:BB55" si="129">BA53-BA54</f>
         <v>5184.8430299999982</v>
       </c>
       <c r="BB55" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>5080.47768</v>
       </c>
       <c r="BC55" s="16"/>
@@ -12551,15 +12985,15 @@
       <c r="BK55" s="16"/>
       <c r="BL55" s="16"/>
       <c r="BM55" s="16">
-        <f t="shared" ref="BM55:BO55" si="119">+BM53-BM54</f>
+        <f t="shared" ref="BM55:BO55" si="130">+BM53-BM54</f>
         <v>12268</v>
       </c>
       <c r="BN55" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>13336</v>
       </c>
       <c r="BO55" s="16">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>20170</v>
       </c>
       <c r="BP55" s="16">
@@ -12575,31 +13009,31 @@
         <v>22592</v>
       </c>
       <c r="BS55" s="16">
-        <f t="shared" ref="BS55:BY55" si="120">+BS53-BS54</f>
+        <f t="shared" ref="BS55:BY55" si="131">+BS53-BS54</f>
         <v>21430.200424999995</v>
       </c>
       <c r="BT55" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="131"/>
         <v>29847.318540000004</v>
       </c>
       <c r="BU55" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="131"/>
         <v>29253.578874525003</v>
       </c>
       <c r="BV55" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="131"/>
         <v>28956.041286458254</v>
       </c>
       <c r="BW55" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="131"/>
         <v>28080.492917664993</v>
       </c>
       <c r="BX55" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="131"/>
         <v>27955.596717104905</v>
       </c>
       <c r="BY55" s="16">
-        <f t="shared" si="120"/>
+        <f t="shared" si="131"/>
         <v>20312.419612937643</v>
       </c>
       <c r="BZ55" s="15">
@@ -12607,507 +13041,507 @@
         <v>20109.295416808265</v>
       </c>
       <c r="CA55" s="15">
-        <f t="shared" ref="CA55:EL55" si="121">BZ55*(1+$CB$58)</f>
+        <f t="shared" ref="CA55:EL55" si="132">BZ55*(1+$CB$58)</f>
         <v>19908.202462640184</v>
       </c>
       <c r="CB55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>19709.120438013782</v>
       </c>
       <c r="CC55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>19512.029233633646</v>
       </c>
       <c r="CD55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>19316.908941297308</v>
       </c>
       <c r="CE55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>19123.739851884337</v>
       </c>
       <c r="CF55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>18932.502453365494</v>
       </c>
       <c r="CG55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>18743.177428831837</v>
       </c>
       <c r="CH55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>18555.74565454352</v>
       </c>
       <c r="CI55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>18370.188197998083</v>
       </c>
       <c r="CJ55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>18186.486316018101</v>
       </c>
       <c r="CK55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>18004.621452857918</v>
       </c>
       <c r="CL55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>17824.57523832934</v>
       </c>
       <c r="CM55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>17646.329485946047</v>
       </c>
       <c r="CN55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>17469.866191086589</v>
       </c>
       <c r="CO55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>17295.167529175724</v>
       </c>
       <c r="CP55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>17122.215853883965</v>
       </c>
       <c r="CQ55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>16950.993695345125</v>
       </c>
       <c r="CR55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>16781.483758391674</v>
       </c>
       <c r="CS55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>16613.668920807759</v>
       </c>
       <c r="CT55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>16447.532231599682</v>
       </c>
       <c r="CU55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>16283.056909283685</v>
       </c>
       <c r="CV55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>16120.226340190848</v>
       </c>
       <c r="CW55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>15959.024076788939</v>
       </c>
       <c r="CX55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>15799.43383602105</v>
       </c>
       <c r="CY55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>15641.439497660838</v>
       </c>
       <c r="CZ55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>15485.025102684229</v>
       </c>
       <c r="DA55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>15330.174851657386</v>
       </c>
       <c r="DB55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>15176.873103140812</v>
       </c>
       <c r="DC55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>15025.104372109403</v>
       </c>
       <c r="DD55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>14874.853328388308</v>
       </c>
       <c r="DE55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>14726.104795104426</v>
       </c>
       <c r="DF55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>14578.843747153382</v>
       </c>
       <c r="DG55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>14433.055309681848</v>
       </c>
       <c r="DH55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>14288.724756585028</v>
       </c>
       <c r="DI55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>14145.837509019178</v>
       </c>
       <c r="DJ55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>14004.379133928987</v>
       </c>
       <c r="DK55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>13864.335342589697</v>
       </c>
       <c r="DL55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>13725.691989163799</v>
       </c>
       <c r="DM55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>13588.43506927216</v>
       </c>
       <c r="DN55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>13452.550718579438</v>
       </c>
       <c r="DO55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>13318.025211393644</v>
       </c>
       <c r="DP55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>13184.844959279708</v>
       </c>
       <c r="DQ55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>13052.996509686911</v>
       </c>
       <c r="DR55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>12922.466544590041</v>
       </c>
       <c r="DS55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>12793.24187914414</v>
       </c>
       <c r="DT55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>12665.309460352699</v>
       </c>
       <c r="DU55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>12538.656365749172</v>
       </c>
       <c r="DV55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>12413.26980209168</v>
       </c>
       <c r="DW55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>12289.137104070762</v>
       </c>
       <c r="DX55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>12166.245733030055</v>
       </c>
       <c r="DY55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>12044.583275699753</v>
       </c>
       <c r="DZ55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>11924.137442942756</v>
       </c>
       <c r="EA55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>11804.896068513328</v>
       </c>
       <c r="EB55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>11686.847107828195</v>
       </c>
       <c r="EC55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>11569.978636749913</v>
       </c>
       <c r="ED55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>11454.278850382414</v>
       </c>
       <c r="EE55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>11339.73606187859</v>
       </c>
       <c r="EF55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>11226.338701259803</v>
       </c>
       <c r="EG55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>11114.075314247206</v>
       </c>
       <c r="EH55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>11002.934561104734</v>
       </c>
       <c r="EI55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>10892.905215493687</v>
       </c>
       <c r="EJ55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>10783.97616333875</v>
       </c>
       <c r="EK55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>10676.136401705362</v>
       </c>
       <c r="EL55" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="132"/>
         <v>10569.375037688309</v>
       </c>
       <c r="EM55" s="15">
-        <f t="shared" ref="EM55:GV55" si="122">EL55*(1+$CB$58)</f>
+        <f t="shared" ref="EM55:GV55" si="133">EL55*(1+$CB$58)</f>
         <v>10463.681287311425</v>
       </c>
       <c r="EN55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>10359.044474438311</v>
       </c>
       <c r="EO55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>10255.454029693929</v>
       </c>
       <c r="EP55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>10152.899489396988</v>
       </c>
       <c r="EQ55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>10051.370494503019</v>
       </c>
       <c r="ER55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9950.856789557989</v>
       </c>
       <c r="ES55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9851.3482216624088</v>
       </c>
       <c r="ET55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9752.8347394457851</v>
       </c>
       <c r="EU55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9655.3063920513268</v>
       </c>
       <c r="EV55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9558.7533281308133</v>
       </c>
       <c r="EW55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9463.1657948495049</v>
       </c>
       <c r="EX55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9368.5341369010093</v>
       </c>
       <c r="EY55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9274.8487955319997</v>
       </c>
       <c r="EZ55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9182.1003075766803</v>
       </c>
       <c r="FA55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>9090.279304500913</v>
       </c>
       <c r="FB55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8999.3765114559046</v>
       </c>
       <c r="FC55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8909.3827463413454</v>
       </c>
       <c r="FD55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8820.2889188779318</v>
       </c>
       <c r="FE55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8732.0860296891533</v>
       </c>
       <c r="FF55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8644.7651693922617</v>
       </c>
       <c r="FG55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8558.3175176983386</v>
       </c>
       <c r="FH55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8472.7343425213548</v>
       </c>
       <c r="FI55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8388.006999096142</v>
       </c>
       <c r="FJ55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8304.1269291051813</v>
       </c>
       <c r="FK55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8221.085659814129</v>
       </c>
       <c r="FL55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8138.8748032159874</v>
       </c>
       <c r="FM55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>8057.4860551838274</v>
       </c>
       <c r="FN55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7976.911194631989</v>
       </c>
       <c r="FO55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7897.1420826856693</v>
       </c>
       <c r="FP55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7818.1706618588123</v>
       </c>
       <c r="FQ55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7739.9889552402237</v>
       </c>
       <c r="FR55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7662.5890656878219</v>
       </c>
       <c r="FS55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7585.9631750309436</v>
       </c>
       <c r="FT55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7510.1035432806339</v>
       </c>
       <c r="FU55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7435.0025078478275</v>
       </c>
       <c r="FV55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7360.6524827693493</v>
       </c>
       <c r="FW55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7287.0459579416556</v>
       </c>
       <c r="FX55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7214.1754983622386</v>
       </c>
       <c r="FY55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7142.0337433786162</v>
       </c>
       <c r="FZ55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>7070.6134059448304</v>
       </c>
       <c r="GA55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6999.9072718853822</v>
       </c>
       <c r="GB55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6929.908199166528</v>
       </c>
       <c r="GC55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6860.6091171748631</v>
       </c>
       <c r="GD55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6792.0030260031144</v>
       </c>
       <c r="GE55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6724.0829957430833</v>
       </c>
       <c r="GF55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6656.8421657856525</v>
       </c>
       <c r="GG55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6590.2737441277959</v>
       </c>
       <c r="GH55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6524.3710066865178</v>
       </c>
       <c r="GI55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6459.127296619653</v>
       </c>
       <c r="GJ55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6394.5360236534561</v>
       </c>
       <c r="GK55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6330.5906634169214</v>
       </c>
       <c r="GL55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6267.2847567827521</v>
       </c>
       <c r="GM55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6204.6119092149247</v>
       </c>
       <c r="GN55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6142.5657901227751</v>
       </c>
       <c r="GO55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6081.140132221547</v>
       </c>
       <c r="GP55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>6020.3287308993313</v>
       </c>
       <c r="GQ55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>5960.1254435903384</v>
       </c>
       <c r="GR55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>5900.5241891544347</v>
       </c>
       <c r="GS55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>5841.5189472628899</v>
       </c>
       <c r="GT55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>5783.1037577902607</v>
       </c>
       <c r="GU55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>5725.2727202123579</v>
       </c>
       <c r="GV55" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="133"/>
         <v>5668.0199930102344</v>
       </c>
     </row>
@@ -13140,136 +13574,148 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
+      <c r="S56" s="3">
+        <f t="shared" ref="S56:T56" si="134">S55/S57</f>
+        <v>1.1581538461538461</v>
+      </c>
+      <c r="T56" s="3">
+        <f t="shared" si="134"/>
+        <v>1.0386029411764706</v>
+      </c>
+      <c r="U56" s="3">
+        <f t="shared" ref="U56:V56" si="135">U55/U57</f>
+        <v>1.2414634146341463</v>
+      </c>
+      <c r="V56" s="3">
+        <f t="shared" si="135"/>
+        <v>1.219725343320849</v>
+      </c>
       <c r="W56" s="3">
-        <f t="shared" ref="W56:X56" si="123">W55/W57</f>
+        <f t="shared" ref="W56:X56" si="136">W55/W57</f>
         <v>1.2932002495321273</v>
       </c>
       <c r="X56" s="3">
-        <f t="shared" si="123"/>
-        <v>1.24125</v>
+        <f t="shared" si="136"/>
+        <v>1.434375</v>
       </c>
       <c r="Y56" s="3">
-        <f t="shared" ref="Y56" si="124">Y55/Y57</f>
+        <f t="shared" ref="Y56" si="137">Y55/Y57</f>
         <v>1.4235807860262009</v>
       </c>
       <c r="Z56" s="3">
-        <f t="shared" ref="Z56:AA56" si="125">Z55/Z57</f>
+        <f t="shared" ref="Z56:AA56" si="138">Z55/Z57</f>
         <v>1.4937578027465668</v>
       </c>
       <c r="AA56" s="3">
-        <f t="shared" si="125"/>
+        <f t="shared" si="138"/>
         <v>1.8847117794486214</v>
       </c>
       <c r="AB56" s="3">
-        <f t="shared" ref="AB56:AC56" si="126">AB55/AB57</f>
+        <f t="shared" ref="AB56:AC56" si="139">AB55/AB57</f>
         <v>1.9993638676844783</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="139"/>
         <v>2.1485148514851486</v>
       </c>
       <c r="AD56" s="3">
-        <f t="shared" ref="AD56:AH56" si="127">AD55/AD57</f>
+        <f t="shared" ref="AD56:AH56" si="140">AD55/AD57</f>
         <v>1.9067288474350432</v>
       </c>
       <c r="AE56" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="140"/>
         <v>2.1564396493594065</v>
       </c>
       <c r="AF56" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="140"/>
         <v>2.2749326145552562</v>
       </c>
       <c r="AG56" s="3">
-        <f t="shared" ref="AG56" si="128">AG55/AG57</f>
+        <f t="shared" ref="AG56" si="141">AG55/AG57</f>
         <v>2.3385030343897504</v>
       </c>
       <c r="AH56" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="140"/>
         <v>2.2181818181818183</v>
       </c>
       <c r="AI56" s="3">
-        <f t="shared" ref="AI56:AJ56" si="129">AI55/AI57</f>
+        <f t="shared" ref="AI56:AJ56" si="142">AI55/AI57</f>
         <v>2.4346361185983829</v>
       </c>
       <c r="AJ56" s="3">
-        <f t="shared" si="129"/>
+        <f t="shared" si="142"/>
         <v>2.3642987249544625</v>
       </c>
       <c r="AK56" s="3">
-        <f t="shared" ref="AK56:AQ56" si="130">AK55/AK57</f>
+        <f t="shared" ref="AK56:AQ56" si="143">AK55/AK57</f>
         <v>3.5152198421645999</v>
       </c>
       <c r="AL56" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="143"/>
         <v>3.6188063063063063</v>
       </c>
       <c r="AM56" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="143"/>
         <v>2.9532394366197181</v>
       </c>
       <c r="AN56" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="143"/>
         <v>3.1171171171171173</v>
       </c>
       <c r="AO56" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="143"/>
         <v>3.3134496342149689</v>
       </c>
       <c r="AP56" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="143"/>
         <v>3.3278965129358831</v>
       </c>
       <c r="AQ56" s="3">
-        <f t="shared" si="130"/>
+        <f t="shared" si="143"/>
         <v>3.2699662542182226</v>
       </c>
       <c r="AR56" s="3">
-        <f t="shared" ref="AR56:AT56" si="131">AR55/AR57</f>
+        <f t="shared" ref="AR56:AT56" si="144">AR55/AR57</f>
         <v>3.6418918918918921</v>
       </c>
       <c r="AS56" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>3.7201576576576576</v>
       </c>
       <c r="AT56" s="3">
-        <f t="shared" si="131"/>
+        <f t="shared" si="144"/>
         <v>3.5032826576576577</v>
       </c>
       <c r="AU56" s="3">
-        <f t="shared" ref="AU56:AZ56" si="132">AU55/AU57</f>
+        <f t="shared" ref="AU56:AZ56" si="145">AU55/AU57</f>
         <v>2.7820945945945947</v>
       </c>
       <c r="AV56" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="145"/>
         <v>3.1852060982495765</v>
       </c>
       <c r="AW56" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="145"/>
         <v>3.4720496894409938</v>
       </c>
       <c r="AX56" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="145"/>
         <v>3.3075620767494356</v>
       </c>
       <c r="AY56" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="145"/>
         <v>2.4215575620767495</v>
       </c>
       <c r="AZ56" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="145"/>
         <v>3.1884875846501131</v>
       </c>
       <c r="BA56" s="3">
-        <f t="shared" ref="BA56:BB56" si="133">BA55/BA57</f>
+        <f t="shared" ref="BA56:BB56" si="146">BA55/BA57</f>
         <v>2.925983651241534</v>
       </c>
       <c r="BB56" s="3">
-        <f t="shared" si="133"/>
+        <f t="shared" si="146"/>
         <v>2.8670867268623024</v>
       </c>
       <c r="BC56" s="3"/>
@@ -13283,15 +13729,15 @@
       <c r="BK56" s="3"/>
       <c r="BL56" s="3"/>
       <c r="BM56" s="3">
-        <f t="shared" ref="BM56:BO56" si="134">+BM55/BM57</f>
+        <f t="shared" ref="BM56:BO56" si="147">+BM55/BM57</f>
         <v>7.9353169469598965</v>
       </c>
       <c r="BN56" s="3">
-        <f t="shared" si="134"/>
+        <f t="shared" si="147"/>
         <v>8.9880370682392581</v>
       </c>
       <c r="BO56" s="3">
-        <f t="shared" si="134"/>
+        <f t="shared" si="147"/>
         <v>12.076036521478821</v>
       </c>
       <c r="BP56" s="3">
@@ -13307,31 +13753,31 @@
         <v>12.745839210155149</v>
       </c>
       <c r="BS56" s="3">
-        <f t="shared" ref="BS56:BY56" si="135">+BS55/BS57</f>
+        <f t="shared" ref="BS56:BY56" si="148">+BS55/BS57</f>
         <v>12.093792564898417</v>
       </c>
       <c r="BT56" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>16.843859221218963</v>
       </c>
       <c r="BU56" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>16.508791689912531</v>
       </c>
       <c r="BV56" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>16.340881087166057</v>
       </c>
       <c r="BW56" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>15.846779298908009</v>
       </c>
       <c r="BX56" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>15.776296115747689</v>
       </c>
       <c r="BY56" s="3">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>11.462990752222145</v>
       </c>
     </row>
@@ -13361,10 +13807,18 @@
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
+      <c r="S57" s="16">
+        <v>1625</v>
+      </c>
+      <c r="T57" s="16">
+        <v>1632</v>
+      </c>
+      <c r="U57" s="16">
+        <v>1640</v>
+      </c>
+      <c r="V57" s="16">
+        <v>1602</v>
+      </c>
       <c r="W57" s="16">
         <v>1603</v>
       </c>
@@ -13458,11 +13912,11 @@
         <v>1772</v>
       </c>
       <c r="BA57" s="16">
-        <f t="shared" ref="BA57:BB57" si="136">+AZ57</f>
+        <f t="shared" ref="BA57:BB57" si="149">+AZ57</f>
         <v>1772</v>
       </c>
       <c r="BB57" s="16">
-        <f t="shared" si="136"/>
+        <f t="shared" si="149"/>
         <v>1772</v>
       </c>
       <c r="BC57" s="16"/>
@@ -13504,27 +13958,27 @@
         <v>1772</v>
       </c>
       <c r="BT57" s="16">
-        <f t="shared" ref="BT57:BY57" si="137">BS57</f>
+        <f t="shared" ref="BT57:BY57" si="150">BS57</f>
         <v>1772</v>
       </c>
       <c r="BU57" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="150"/>
         <v>1772</v>
       </c>
       <c r="BV57" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="150"/>
         <v>1772</v>
       </c>
       <c r="BW57" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="150"/>
         <v>1772</v>
       </c>
       <c r="BX57" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="150"/>
         <v>1772</v>
       </c>
       <c r="BY57" s="16">
-        <f t="shared" si="137"/>
+        <f t="shared" si="150"/>
         <v>1772</v>
       </c>
       <c r="CA57" s="48" t="s">
@@ -13566,72 +14020,84 @@
       <c r="T59" s="33"/>
       <c r="U59" s="33"/>
       <c r="V59" s="33"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
+      <c r="W59" s="33">
+        <f t="shared" ref="W59:AK59" si="151">+W45/S45-1</f>
+        <v>9.7348103390399565E-2</v>
+      </c>
+      <c r="X59" s="33">
+        <f t="shared" si="151"/>
+        <v>7.6255424674519512E-2</v>
+      </c>
+      <c r="Y59" s="33">
+        <f t="shared" si="151"/>
+        <v>8.7531094527363074E-2</v>
+      </c>
+      <c r="Z59" s="33">
+        <f t="shared" si="151"/>
+        <v>0.14077240566037741</v>
+      </c>
       <c r="AA59" s="33">
-        <f t="shared" ref="AA59:AK59" si="138">+AA45/W45-1</f>
+        <f t="shared" si="151"/>
         <v>0.21352095442031205</v>
       </c>
       <c r="AB59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>0.18922811059907829</v>
       </c>
       <c r="AC59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>0.1774124374553252</v>
       </c>
       <c r="AD59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>7.3136064090967734E-2</v>
       </c>
       <c r="AE59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>-1.3360221830098329E-2</v>
       </c>
       <c r="AF59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>-3.6328408815688995E-4</v>
       </c>
       <c r="AG59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>2.9504613890237952E-2</v>
       </c>
       <c r="AH59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>4.8043347381095725E-2</v>
       </c>
       <c r="AI59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>0.10104752171691356</v>
       </c>
       <c r="AJ59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>0.26287098728043601</v>
       </c>
       <c r="AK59" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="151"/>
         <v>0.51928293430829098</v>
       </c>
       <c r="AL59" s="33">
-        <f t="shared" ref="AL59:AP59" si="139">+AL45/AH45-1</f>
+        <f t="shared" ref="AL59:AP59" si="152">+AL45/AH45-1</f>
         <v>0.59214154411764697</v>
       </c>
       <c r="AM59" s="33">
-        <f t="shared" si="139"/>
+        <f t="shared" si="152"/>
         <v>0.50075414781297134</v>
       </c>
       <c r="AN59" s="33">
-        <f t="shared" si="139"/>
+        <f t="shared" si="152"/>
         <v>0.3389928057553957</v>
       </c>
       <c r="AO59" s="33">
-        <f t="shared" si="139"/>
+        <f t="shared" si="152"/>
         <v>0.11333643844123586</v>
       </c>
       <c r="AP59" s="33">
-        <f t="shared" si="139"/>
+        <f t="shared" si="152"/>
         <v>7.4180978496175554E-2</v>
       </c>
       <c r="AQ59" s="33">
@@ -13639,7 +14105,7 @@
         <v>4.6617703904135999E-2</v>
       </c>
       <c r="AR59" s="33">
-        <f t="shared" ref="AR59" si="140">+AR45/AN45-1</f>
+        <f t="shared" ref="AR59" si="153">+AR45/AN45-1</f>
         <v>4.4702342574683085E-2</v>
       </c>
       <c r="AS59" s="33">
@@ -13647,39 +14113,39 @@
         <v>3.2770882722074957E-2</v>
       </c>
       <c r="AT59" s="33">
-        <f t="shared" ref="AT59" si="141">+AT45/AP45-1</f>
+        <f t="shared" ref="AT59" si="154">+AT45/AP45-1</f>
         <v>1.5786645169958424E-2</v>
       </c>
       <c r="AU59" s="33">
-        <f t="shared" ref="AU59" si="142">+AU45/AQ45-1</f>
+        <f t="shared" ref="AU59" si="155">+AU45/AQ45-1</f>
         <v>-9.6986260895257748E-2</v>
       </c>
       <c r="AV59" s="33">
-        <f t="shared" ref="AV59" si="143">+AV45/AR45-1</f>
+        <f t="shared" ref="AV59" si="156">+AV45/AR45-1</f>
         <v>-4.9235411095110759E-2</v>
       </c>
       <c r="AW59" s="33">
-        <f t="shared" ref="AW59" si="144">+AW45/AS45-1</f>
+        <f t="shared" ref="AW59" si="157">+AW45/AS45-1</f>
         <v>-5.9748852281933607E-2</v>
       </c>
       <c r="AX59" s="33">
-        <f t="shared" ref="AX59:BB59" si="145">+AX45/AT45-1</f>
+        <f t="shared" ref="AX59:BB59" si="158">+AX45/AT45-1</f>
         <v>-5.4229217644335637E-2</v>
       </c>
       <c r="AY59" s="33">
-        <f t="shared" si="145"/>
+        <f t="shared" si="158"/>
         <v>6.952965235173858E-3</v>
       </c>
       <c r="AZ59" s="33">
-        <f t="shared" si="145"/>
+        <f t="shared" si="158"/>
         <v>4.3058059862964404E-2</v>
       </c>
       <c r="BA59" s="33">
-        <f t="shared" si="145"/>
+        <f t="shared" si="158"/>
         <v>-3.9887269332950503E-2</v>
       </c>
       <c r="BB59" s="33">
-        <f t="shared" si="145"/>
+        <f t="shared" si="158"/>
         <v>-3.4512271869099997E-2</v>
       </c>
       <c r="BC59" s="33"/>
@@ -13710,35 +14176,35 @@
         <v>3.0576244609956893E-2</v>
       </c>
       <c r="BR59" s="33">
-        <f t="shared" ref="BR59:BY59" si="146">+BR45/BQ45-1</f>
+        <f t="shared" ref="BR59:BY59" si="159">+BR45/BQ45-1</f>
         <v>-6.0859642449600626E-2</v>
       </c>
       <c r="BS59" s="33">
-        <f t="shared" si="146"/>
+        <f t="shared" si="159"/>
         <v>-6.7577966788173738E-3</v>
       </c>
       <c r="BT59" s="33">
-        <f t="shared" si="146"/>
+        <f t="shared" si="159"/>
         <v>1.2073304389748296E-2</v>
       </c>
       <c r="BU59" s="33">
-        <f t="shared" si="146"/>
+        <f t="shared" si="159"/>
         <v>-2.8133988907719343E-2</v>
       </c>
       <c r="BV59" s="33">
-        <f t="shared" si="146"/>
+        <f t="shared" si="159"/>
         <v>-1.8845698826908897E-2</v>
       </c>
       <c r="BW59" s="33">
-        <f t="shared" si="146"/>
+        <f t="shared" si="159"/>
         <v>-3.9300878147953466E-2</v>
       </c>
       <c r="BX59" s="33">
-        <f t="shared" si="146"/>
+        <f t="shared" si="159"/>
         <v>-1.3746453366613953E-2</v>
       </c>
       <c r="BY59" s="33">
-        <f t="shared" si="146"/>
+        <f t="shared" si="159"/>
         <v>-0.28977706070670384</v>
       </c>
       <c r="CA59" s="51" t="s">
@@ -13890,104 +14356,116 @@
       <c r="X61" s="30"/>
       <c r="Y61" s="30"/>
       <c r="Z61" s="30"/>
-      <c r="AA61" s="30"/>
-      <c r="AB61" s="30"/>
-      <c r="AC61" s="30"/>
-      <c r="AD61" s="30"/>
+      <c r="AA61" s="30">
+        <f t="shared" ref="AA61" si="160">+AA5/W5-1</f>
+        <v>0.14351627003399714</v>
+      </c>
+      <c r="AB61" s="30">
+        <f t="shared" ref="AB61" si="161">+AB5/X5-1</f>
+        <v>9.9448685326547936E-2</v>
+      </c>
+      <c r="AC61" s="30">
+        <f t="shared" ref="AC61" si="162">+AC5/Y5-1</f>
+        <v>8.9980855137204774E-2</v>
+      </c>
+      <c r="AD61" s="30">
+        <f t="shared" ref="AD61" si="163">+AD5/Z5-1</f>
+        <v>5.3147996729354663E-3</v>
+      </c>
       <c r="AE61" s="30">
-        <f t="shared" ref="AE61:AY61" si="147">+AE5/AA5-1</f>
+        <f t="shared" ref="AE61:AY61" si="164">+AE5/AA5-1</f>
         <v>-5.5850499044383106E-2</v>
       </c>
       <c r="AF61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-6.0752169720347138E-2</v>
       </c>
       <c r="AG61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-3.669008587041378E-2</v>
       </c>
       <c r="AH61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-2.0333468889788264E-4</v>
       </c>
       <c r="AI61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>5.7804768331084055E-2</v>
       </c>
       <c r="AJ61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-6.7761806981520012E-3</v>
       </c>
       <c r="AK61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>4.1329011345218714E-2</v>
       </c>
       <c r="AL61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>4.7793369941020902E-2</v>
       </c>
       <c r="AM61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>3.4871358707208255E-2</v>
       </c>
       <c r="AN61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>4.7756874095513657E-2</v>
       </c>
       <c r="AO61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>5.5447470817120648E-2</v>
       </c>
       <c r="AP61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>3.5326086956521729E-2</v>
       </c>
       <c r="AQ61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-2.6915964659954827E-2</v>
       </c>
       <c r="AR61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>5.8208366219415941E-2</v>
       </c>
       <c r="AS61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>2.4700460829493176E-2</v>
       </c>
       <c r="AT61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>4.5931758530183719E-2</v>
       </c>
       <c r="AU61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-0.25232263513513509</v>
       </c>
       <c r="AV61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-0.25191124370688045</v>
       </c>
       <c r="AW61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-0.36193559992804458</v>
       </c>
       <c r="AX61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-0.40777917189460477</v>
       </c>
       <c r="AY61" s="30">
-        <f t="shared" si="147"/>
+        <f t="shared" si="164"/>
         <v>-0.35893815306410615</v>
       </c>
       <c r="AZ61" s="30">
-        <f t="shared" ref="AZ61" si="148">+AZ5/AV5-1</f>
+        <f t="shared" ref="AZ61" si="165">+AZ5/AV5-1</f>
         <v>-0.29860418743768691</v>
       </c>
       <c r="BA61" s="30">
-        <f t="shared" ref="BA61" si="149">+BA5/AW5-1</f>
+        <f t="shared" ref="BA61" si="166">+BA5/AW5-1</f>
         <v>-0.4</v>
       </c>
       <c r="BB61" s="30">
-        <f t="shared" ref="BB61" si="150">+BB5/AX5-1</f>
+        <f t="shared" ref="BB61" si="167">+BB5/AX5-1</f>
         <v>-0.4</v>
       </c>
       <c r="BC61" s="30"/>
@@ -14002,51 +14480,51 @@
       <c r="BL61" s="30"/>
       <c r="BM61" s="30"/>
       <c r="BN61" s="30">
-        <f t="shared" ref="BN61:BY61" si="151">+BN5/BM5-1</f>
+        <f t="shared" ref="BN61:BY61" si="168">+BN5/BM5-1</f>
         <v>-3.8473113964687E-2</v>
       </c>
       <c r="BO61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>3.4587093745109376E-2</v>
       </c>
       <c r="BP61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>4.3465106897942807E-2</v>
       </c>
       <c r="BQ61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>2.623948970716139E-2</v>
       </c>
       <c r="BR61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>-0.32174977633375712</v>
       </c>
       <c r="BS61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>-0.36166342682588171</v>
       </c>
       <c r="BT61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="BU61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="BV61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="BW61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>-0.5</v>
       </c>
       <c r="BX61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>-0.5</v>
       </c>
       <c r="BY61" s="30">
-        <f t="shared" si="151"/>
+        <f t="shared" si="168"/>
         <v>-0.5</v>
       </c>
       <c r="CA61" s="32" t="s">
@@ -14085,104 +14563,116 @@
       <c r="X62" s="30"/>
       <c r="Y62" s="30"/>
       <c r="Z62" s="30"/>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="30"/>
+      <c r="AA62" s="30">
+        <f t="shared" ref="AA62" si="169">+AA7/W7-1</f>
+        <v>0.38294010889292207</v>
+      </c>
+      <c r="AB62" s="30">
+        <f t="shared" ref="AB62" si="170">+AB7/X7-1</f>
+        <v>0.35782747603833864</v>
+      </c>
+      <c r="AC62" s="30">
+        <f t="shared" ref="AC62" si="171">+AC7/Y7-1</f>
+        <v>0.41279069767441867</v>
+      </c>
+      <c r="AD62" s="30">
+        <f t="shared" ref="AD62" si="172">+AD7/Z7-1</f>
+        <v>0.42090395480225995</v>
+      </c>
       <c r="AE62" s="30">
-        <f t="shared" ref="AE62:AY62" si="152">+AE7/AA7-1</f>
+        <f t="shared" ref="AE62:AY62" si="173">+AE7/AA7-1</f>
         <v>0.34120734908136474</v>
       </c>
       <c r="AF62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>0.29294117647058826</v>
       </c>
       <c r="AG62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>0.29320987654320985</v>
       </c>
       <c r="AH62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>0.28827037773359843</v>
       </c>
       <c r="AI62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>0.20547945205479445</v>
       </c>
       <c r="AJ62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>0.17197452229299359</v>
       </c>
       <c r="AK62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>8.9896579156722334E-2</v>
       </c>
       <c r="AL62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>9.8765432098765427E-2</v>
       </c>
       <c r="AM62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>2.9220779220779258E-2</v>
       </c>
       <c r="AN62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>7.2204968944099335E-2</v>
       </c>
       <c r="AO62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>2.9197080291971655E-3</v>
       </c>
       <c r="AP62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-2.73876404494382E-2</v>
       </c>
       <c r="AQ62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-7.4921135646687675E-2</v>
       </c>
       <c r="AR62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-0.17089065894279509</v>
       </c>
       <c r="AS62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-0.17394468704512378</v>
       </c>
       <c r="AT62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-0.19494584837545126</v>
       </c>
       <c r="AU62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-0.25149190110826936</v>
       </c>
       <c r="AV62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-0.20786026200873364</v>
       </c>
       <c r="AW62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="AX62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-0.19013452914798201</v>
       </c>
       <c r="AY62" s="30">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>-4.5558086560364419E-2</v>
       </c>
       <c r="AZ62" s="30">
-        <f t="shared" ref="AZ62:AZ63" si="153">+AZ7/AV7-1</f>
+        <f t="shared" ref="AZ62:AZ63" si="174">+AZ7/AV7-1</f>
         <v>-8.158765159867698E-2</v>
       </c>
       <c r="BA62" s="30">
-        <f t="shared" ref="BA62:BA63" si="154">+BA7/AW7-1</f>
+        <f t="shared" ref="BA62:BA63" si="175">+BA7/AW7-1</f>
         <v>-5.0000000000000155E-2</v>
       </c>
       <c r="BB62" s="30">
-        <f t="shared" ref="BB62:BB63" si="155">+BB7/AX7-1</f>
+        <f t="shared" ref="BB62:BB63" si="176">+BB7/AX7-1</f>
         <v>-5.0000000000000155E-2</v>
       </c>
       <c r="BC62" s="30"/>
@@ -14197,51 +14687,51 @@
       <c r="BL62" s="30"/>
       <c r="BM62" s="30"/>
       <c r="BN62" s="30">
-        <f t="shared" ref="BN62:BY62" si="156">+BN7/BM7-1</f>
+        <f t="shared" ref="BN62:BY62" si="177">+BN7/BM7-1</f>
         <v>0.30194986072423391</v>
       </c>
       <c r="BO62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>0.13692768506632436</v>
       </c>
       <c r="BP62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>1.7689123071132906E-2</v>
       </c>
       <c r="BQ62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-0.15532544378698221</v>
       </c>
       <c r="BR62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-0.21278458844133097</v>
       </c>
       <c r="BS62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-5.6882647385984475E-2</v>
       </c>
       <c r="BT62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BU62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="BV62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BW62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BX62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BY62" s="30">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="CA62" s="51" t="s">
@@ -14275,7 +14765,9 @@
       <c r="S63" s="30"/>
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
+      <c r="V63" s="69" t="s">
+        <v>203</v>
+      </c>
       <c r="W63" s="69" t="s">
         <v>203</v>
       </c>
@@ -14316,79 +14808,79 @@
         <v>203</v>
       </c>
       <c r="AJ63" s="30">
-        <f t="shared" ref="AJ63:AY63" si="157">+AJ8/AF8-1</f>
+        <f t="shared" ref="AJ63:AY63" si="178">+AJ8/AF8-1</f>
         <v>5.875</v>
       </c>
       <c r="AK63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>3.7802197802197801</v>
       </c>
       <c r="AL63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>1.4305555555555554</v>
       </c>
       <c r="AM63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.91333333333333333</v>
       </c>
       <c r="AN63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>1.0424242424242425</v>
       </c>
       <c r="AO63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.8298850574712644</v>
       </c>
       <c r="AP63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.7047619047619047</v>
       </c>
       <c r="AQ63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.63763066202090601</v>
       </c>
       <c r="AR63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.85756676557863498</v>
       </c>
       <c r="AS63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.75502512562814061</v>
       </c>
       <c r="AT63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.76089385474860327</v>
       </c>
       <c r="AU63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.44680851063829796</v>
       </c>
       <c r="AV63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.5039936102236422</v>
       </c>
       <c r="AW63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.52183249821045097</v>
       </c>
       <c r="AX63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.51903553299492389</v>
       </c>
       <c r="AY63" s="30">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>0.4764705882352942</v>
       </c>
       <c r="AZ63" s="30">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>0.44822092405735536</v>
       </c>
       <c r="BA63" s="30">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>0.25</v>
       </c>
       <c r="BB63" s="30">
-        <f t="shared" si="155"/>
+        <f t="shared" si="176"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="BC63" s="30"/>
@@ -14406,47 +14898,47 @@
         <v>203</v>
       </c>
       <c r="BO63" s="30">
-        <f t="shared" ref="BO63:BY63" si="158">+BO8/BN8-1</f>
+        <f t="shared" ref="BO63:BY63" si="179">+BO8/BN8-1</f>
         <v>3.47887323943662</v>
       </c>
       <c r="BP63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>0.84842767295597477</v>
       </c>
       <c r="BQ63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>0.75740047635250085</v>
       </c>
       <c r="BR63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>0.50300096805421113</v>
       </c>
       <c r="BS63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>0.32233672549272185</v>
       </c>
       <c r="BT63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BU63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BV63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BW63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BX63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BY63" s="30">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -14483,99 +14975,99 @@
       <c r="AC64" s="30"/>
       <c r="AD64" s="30"/>
       <c r="AE64" s="30">
-        <f t="shared" ref="AE64:AY64" si="159">+AE3/AA3-1</f>
+        <f t="shared" ref="AE64:AY64" si="180">+AE3/AA3-1</f>
         <v>-5.5850499044383106E-2</v>
       </c>
       <c r="AF64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>-5.1494696239151372E-2</v>
       </c>
       <c r="AG64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>-1.6198282591725177E-2</v>
       </c>
       <c r="AH64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>5.0427002846685554E-2</v>
       </c>
       <c r="AI64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.14462438146648671</v>
       </c>
       <c r="AJ64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>8.0927206181374611E-2</v>
       </c>
       <c r="AK64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.14858163062884344</v>
       </c>
       <c r="AL64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.1533101045296168</v>
       </c>
       <c r="AM64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.1287089801532717</v>
       </c>
       <c r="AN64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.15124153498871329</v>
       </c>
       <c r="AO64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.15267702936096716</v>
       </c>
       <c r="AP64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.13225914736488753</v>
       </c>
       <c r="AQ64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>6.9115598885793883E-2</v>
       </c>
       <c r="AR64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.17761437908496736</v>
       </c>
       <c r="AS64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.14638897213065638</v>
       </c>
       <c r="AT64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>0.17477023421286697</v>
       </c>
       <c r="AU64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>-9.0213320306139044E-2</v>
       </c>
       <c r="AV64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>-5.4669071735812369E-2</v>
       </c>
       <c r="AW64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>-0.11344922232387922</v>
       </c>
       <c r="AX64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>-0.12264984227129339</v>
       </c>
       <c r="AY64" s="30">
-        <f t="shared" si="159"/>
+        <f t="shared" si="180"/>
         <v>-3.8661177734025443E-2</v>
       </c>
       <c r="AZ64" s="30">
-        <f t="shared" ref="AZ64" si="160">+AZ3/AV3-1</f>
+        <f t="shared" ref="AZ64" si="181">+AZ3/AV3-1</f>
         <v>2.3190958461764222E-2</v>
       </c>
       <c r="BA64" s="30">
-        <f t="shared" ref="BA64" si="161">+BA3/AW3-1</f>
+        <f t="shared" ref="BA64" si="182">+BA3/AW3-1</f>
         <v>-9.8083443903877354E-2</v>
       </c>
       <c r="BB64" s="30">
-        <f t="shared" ref="BB64" si="162">+BB3/AX3-1</f>
+        <f t="shared" ref="BB64" si="183">+BB3/AX3-1</f>
         <v>-8.5114339134186756E-2</v>
       </c>
       <c r="BC64" s="30"/>
@@ -14661,7 +15153,9 @@
       <c r="S65" s="30"/>
       <c r="T65" s="30"/>
       <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
+      <c r="V65" s="50" t="s">
+        <v>203</v>
+      </c>
       <c r="W65" s="50" t="s">
         <v>203</v>
       </c>
@@ -14714,63 +15208,63 @@
         <v>203</v>
       </c>
       <c r="AN65" s="30">
-        <f t="shared" ref="AN65:AY66" si="163">AN9/AJ9-1</f>
+        <f t="shared" ref="AN65:AY66" si="184">AN9/AJ9-1</f>
         <v>1.584070796460177</v>
       </c>
       <c r="AO65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.38676844783715003</v>
       </c>
       <c r="AP65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.26977687626774838</v>
       </c>
       <c r="AQ65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.34381551362683438</v>
       </c>
       <c r="AR65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.19006849315068486</v>
       </c>
       <c r="AS65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.16880733944954129</v>
       </c>
       <c r="AT65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>2.5559105431310014E-2</v>
       </c>
       <c r="AU65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>2.808112324492984E-2</v>
       </c>
       <c r="AV65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>-1.4388489208633115E-2</v>
       </c>
       <c r="AW65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>-2.6687598116169498E-2</v>
       </c>
       <c r="AX65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.11838006230529596</v>
       </c>
       <c r="AY65" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>-3.9453717754172946E-2</v>
       </c>
       <c r="AZ65" s="30">
-        <f t="shared" ref="AZ65:AZ66" si="164">AZ9/AV9-1</f>
+        <f t="shared" ref="AZ65:AZ66" si="185">AZ9/AV9-1</f>
         <v>6.4233576642335866E-2</v>
       </c>
       <c r="BA65" s="30">
-        <f t="shared" ref="BA65:BA66" si="165">BA9/AW9-1</f>
+        <f t="shared" ref="BA65:BA66" si="186">BA9/AW9-1</f>
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="BB65" s="30">
-        <f t="shared" ref="BB65:BB66" si="166">BB9/AX9-1</f>
+        <f t="shared" ref="BB65:BB66" si="187">BB9/AX9-1</f>
         <v>-2.9999999999999916E-2</v>
       </c>
       <c r="BC65" s="30"/>
@@ -14819,7 +15313,9 @@
       <c r="S66" s="30"/>
       <c r="T66" s="30"/>
       <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
+      <c r="V66" s="50" t="s">
+        <v>203</v>
+      </c>
       <c r="W66" s="50" t="s">
         <v>203</v>
       </c>
@@ -14872,63 +15368,63 @@
         <v>203</v>
       </c>
       <c r="AN66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>1.0303030303030303</v>
       </c>
       <c r="AO66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.23326959847036322</v>
       </c>
       <c r="AP66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.18342151675485008</v>
       </c>
       <c r="AQ66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.15413533834586457</v>
       </c>
       <c r="AR66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.12437810945273631</v>
       </c>
       <c r="AS66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>8.3720930232558111E-2</v>
       </c>
       <c r="AT66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>8.4947839046199736E-2</v>
       </c>
       <c r="AU66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.17100977198697076</v>
       </c>
       <c r="AV66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>0.10324483775811211</v>
       </c>
       <c r="AW66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>7.0100143061516462E-2</v>
       </c>
       <c r="AX66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>6.5934065934065922E-2</v>
       </c>
       <c r="AY66" s="30">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>4.0333796940194677E-2</v>
       </c>
       <c r="AZ66" s="30">
-        <f t="shared" si="164"/>
+        <f t="shared" si="185"/>
         <v>8.8235294117646967E-2</v>
       </c>
       <c r="BA66" s="30">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BB66" s="30">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BC66" s="30"/>
@@ -14977,7 +15473,9 @@
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
       <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
+      <c r="V67" s="54" t="s">
+        <v>203</v>
+      </c>
       <c r="W67" s="54" t="s">
         <v>203</v>
       </c>
@@ -15021,75 +15519,75 @@
         <v>203</v>
       </c>
       <c r="AK67" s="30">
-        <f t="shared" ref="AK67:AY67" si="167">AK12/AG12-1</f>
+        <f t="shared" ref="AK67:AY67" si="188">AK12/AG12-1</f>
         <v>14.357142857142858</v>
       </c>
       <c r="AL67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>7.5151515151515156</v>
       </c>
       <c r="AM67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>2.5232558139534884</v>
       </c>
       <c r="AN67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>1.5369127516778525</v>
       </c>
       <c r="AO67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>1.1069767441860465</v>
       </c>
       <c r="AP67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.83985765124555156</v>
       </c>
       <c r="AQ67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.53465346534653468</v>
       </c>
       <c r="AR67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.56613756613756605</v>
       </c>
       <c r="AS67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.53421633554083892</v>
       </c>
       <c r="AT67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.4893617021276595</v>
       </c>
       <c r="AU67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.47526881720430114</v>
       </c>
       <c r="AV67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.55067567567567566</v>
       </c>
       <c r="AW67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.59712230215827344</v>
       </c>
       <c r="AX67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.62987012987012991</v>
       </c>
       <c r="AY67" s="30">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>0.59329446064139946</v>
       </c>
       <c r="AZ67" s="30">
-        <f t="shared" ref="AZ67" si="168">AZ12/AV12-1</f>
+        <f t="shared" ref="AZ67" si="189">AZ12/AV12-1</f>
         <v>0.55773420479302827</v>
       </c>
       <c r="BA67" s="30">
-        <f t="shared" ref="BA67" si="169">BA12/AW12-1</f>
+        <f t="shared" ref="BA67" si="190">BA12/AW12-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BB67" s="30">
-        <f t="shared" ref="BB67" si="170">BB12/AX12-1</f>
+        <f t="shared" ref="BB67" si="191">BB12/AX12-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BC67" s="30"/>
@@ -15219,39 +15717,39 @@
       <c r="W69" s="30"/>
       <c r="X69" s="30"/>
       <c r="Y69" s="30">
-        <f t="shared" ref="Y69" si="171">+Y47/Y45</f>
+        <f t="shared" ref="Y69" si="192">+Y47/Y45</f>
         <v>0.80814867762687637</v>
       </c>
       <c r="Z69" s="30">
-        <f t="shared" ref="Z69" si="172">+Z47/Z45</f>
-        <v>0.78989533531464018</v>
+        <f t="shared" ref="Z69" si="193">+Z47/Z45</f>
+        <v>0.79002455097557822</v>
       </c>
       <c r="AA69" s="30">
-        <f t="shared" ref="AA69" si="173">+AA47/AA45</f>
+        <f t="shared" ref="AA69" si="194">+AA47/AA45</f>
         <v>0.80186538946307029</v>
       </c>
       <c r="AB69" s="30">
-        <f t="shared" ref="AB69:AG69" si="174">+AB47/AB45</f>
+        <f t="shared" ref="AB69:AG69" si="195">+AB47/AB45</f>
         <v>0.80540082344393316</v>
       </c>
       <c r="AC69" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="195"/>
         <v>0.81677999028654691</v>
       </c>
       <c r="AD69" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="195"/>
         <v>0.79843467790487654</v>
       </c>
       <c r="AE69" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="195"/>
         <v>0.83354624425140522</v>
       </c>
       <c r="AF69" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="195"/>
         <v>0.8271350696547547</v>
       </c>
       <c r="AG69" s="30">
-        <f t="shared" si="174"/>
+        <f t="shared" si="195"/>
         <v>0.82014388489208634</v>
       </c>
       <c r="AH69" s="30">
@@ -15271,31 +15769,31 @@
         <v>0.81664337835739786</v>
       </c>
       <c r="AL69" s="30">
-        <f t="shared" ref="AL69:AT69" si="175">+AL47/AL45</f>
+        <f t="shared" ref="AL69:AT69" si="196">+AL47/AL45</f>
         <v>0.81793909655072883</v>
       </c>
       <c r="AM69" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="196"/>
         <v>0.83880943177425593</v>
       </c>
       <c r="AN69" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="196"/>
         <v>0.82240848198295002</v>
       </c>
       <c r="AO69" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="196"/>
         <v>0.83175289359921911</v>
       </c>
       <c r="AP69" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="196"/>
         <v>0.83555018137847648</v>
       </c>
       <c r="AQ69" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="196"/>
         <v>0.84465947702762589</v>
       </c>
       <c r="AR69" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="196"/>
         <v>0.85140231776726327</v>
       </c>
       <c r="AS69" s="30">
@@ -15303,39 +15801,39 @@
         <v>0.85369970294355924</v>
       </c>
       <c r="AT69" s="30">
-        <f t="shared" si="175"/>
+        <f t="shared" si="196"/>
         <v>0.85</v>
       </c>
       <c r="AU69" s="30">
-        <f t="shared" ref="AU69:AX69" si="176">+AU47/AU45</f>
+        <f t="shared" ref="AU69:AX69" si="197">+AU47/AU45</f>
         <v>0.84204498977505116</v>
       </c>
       <c r="AV69" s="30">
-        <f t="shared" si="176"/>
+        <f t="shared" si="197"/>
         <v>0.84731337901190051</v>
       </c>
       <c r="AW69" s="30">
-        <f t="shared" si="176"/>
+        <f t="shared" si="197"/>
         <v>0.83478135994830183</v>
       </c>
       <c r="AX69" s="30">
-        <f t="shared" si="176"/>
+        <f t="shared" si="197"/>
         <v>0.83938186140829307</v>
       </c>
       <c r="AY69" s="30">
-        <f t="shared" ref="AY69:BB69" si="177">+AY47/AY45</f>
+        <f t="shared" ref="AY69:BB69" si="198">+AY47/AY45</f>
         <v>0.82875710804224212</v>
       </c>
       <c r="AZ69" s="30">
-        <f t="shared" si="177"/>
+        <f t="shared" si="198"/>
         <v>0.85237173281703771</v>
       </c>
       <c r="BA69" s="30">
-        <f t="shared" si="177"/>
+        <f t="shared" si="198"/>
         <v>0.83</v>
       </c>
       <c r="BB69" s="30">
-        <f t="shared" si="177"/>
+        <f t="shared" si="198"/>
         <v>0.83</v>
       </c>
       <c r="BC69" s="30"/>
@@ -15369,23 +15867,23 @@
         <v>0.84949081918461911</v>
       </c>
       <c r="BR69" s="30">
-        <f t="shared" ref="BR69:BV69" si="178">+BR47/BR45</f>
+        <f t="shared" ref="BR69:BV69" si="199">+BR47/BR45</f>
         <v>0.84082624544349938</v>
       </c>
       <c r="BS69" s="30">
-        <f t="shared" si="178"/>
+        <f t="shared" si="199"/>
         <v>0.84999999999999987</v>
       </c>
       <c r="BT69" s="30">
-        <f t="shared" si="178"/>
+        <f t="shared" si="199"/>
         <v>0.85</v>
       </c>
       <c r="BU69" s="30">
-        <f t="shared" si="178"/>
+        <f t="shared" si="199"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="BV69" s="30">
-        <f t="shared" si="178"/>
+        <f t="shared" si="199"/>
         <v>0.85</v>
       </c>
       <c r="BW69" s="30"/>
@@ -15418,39 +15916,39 @@
       <c r="W70" s="30"/>
       <c r="X70" s="30"/>
       <c r="Y70" s="30">
-        <f t="shared" ref="Y70" si="179">+Y54/Y53</f>
+        <f t="shared" ref="Y70" si="200">+Y54/Y53</f>
         <v>0.18934280639431617</v>
       </c>
       <c r="Z70" s="30">
-        <f t="shared" ref="Z70" si="180">+Z54/Z53</f>
+        <f t="shared" ref="Z70" si="201">+Z54/Z53</f>
         <v>0.18853848762292302</v>
       </c>
       <c r="AA70" s="30">
-        <f t="shared" ref="AA70" si="181">+AA54/AA53</f>
+        <f t="shared" ref="AA70" si="202">+AA54/AA53</f>
         <v>7.6450721522873813E-2</v>
       </c>
       <c r="AB70" s="30">
-        <f t="shared" ref="AB70:AG70" si="182">+AB54/AB53</f>
+        <f t="shared" ref="AB70:AG70" si="203">+AB54/AB53</f>
         <v>9.0040532715691957E-2</v>
       </c>
       <c r="AC70" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="203"/>
         <v>9.1036023457134879E-2</v>
       </c>
       <c r="AD70" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="203"/>
         <v>9.1716915264995244E-2</v>
       </c>
       <c r="AE70" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="203"/>
         <v>7.8917050691244245E-2</v>
       </c>
       <c r="AF70" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="203"/>
         <v>8.7567567567567561E-2</v>
       </c>
       <c r="AG70" s="30">
-        <f t="shared" si="182"/>
+        <f t="shared" si="203"/>
         <v>8.7848500789058384E-2</v>
       </c>
       <c r="AH70" s="30">
@@ -15470,31 +15968,31 @@
         <v>9.6755504055619931E-2</v>
       </c>
       <c r="AL70" s="30">
-        <f t="shared" ref="AL70:AT70" si="183">+AL54/AL53</f>
+        <f t="shared" ref="AL70:AT70" si="204">+AL54/AL53</f>
         <v>9.6443132292984679E-2</v>
       </c>
       <c r="AM70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="204"/>
         <v>0.1234113712374582</v>
       </c>
       <c r="AN70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="204"/>
         <v>0.12653834017040075</v>
       </c>
       <c r="AO70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="204"/>
         <v>0.12783291364242336</v>
       </c>
       <c r="AP70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="204"/>
         <v>0.12496302868973676</v>
       </c>
       <c r="AQ70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="204"/>
         <v>0.11802184466019418</v>
       </c>
       <c r="AR70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="204"/>
         <v>0.12982644961657475</v>
       </c>
       <c r="AS70" s="30">
@@ -15502,39 +16000,39 @@
         <v>0.1274432118330692</v>
       </c>
       <c r="AT70" s="30">
-        <f t="shared" si="183"/>
+        <f t="shared" si="204"/>
         <v>0.15</v>
       </c>
       <c r="AU70" s="30">
-        <f t="shared" ref="AU70:AX70" si="184">+AU54/AU53</f>
+        <f t="shared" ref="AU70:AX70" si="205">+AU54/AU53</f>
         <v>0.1364907375043691</v>
       </c>
       <c r="AV70" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="205"/>
         <v>9.4106311225309144E-2</v>
       </c>
       <c r="AW70" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="205"/>
         <v>2.767235926628716E-2</v>
       </c>
       <c r="AX70" s="30">
-        <f t="shared" si="184"/>
+        <f t="shared" si="205"/>
         <v>6.2390017597184454E-2</v>
       </c>
       <c r="AY70" s="30">
-        <f t="shared" ref="AY70:BB70" si="185">+AY54/AY53</f>
+        <f t="shared" ref="AY70:BB70" si="206">+AY54/AY53</f>
         <v>0.14282860567319217</v>
       </c>
       <c r="AZ70" s="30">
-        <f t="shared" si="185"/>
+        <f t="shared" si="206"/>
         <v>0.16184542352766651</v>
       </c>
       <c r="BA70" s="30">
-        <f t="shared" si="185"/>
+        <f t="shared" si="206"/>
         <v>0.1</v>
       </c>
       <c r="BB70" s="30">
-        <f t="shared" si="185"/>
+        <f t="shared" si="206"/>
         <v>0.1</v>
       </c>
       <c r="BC70" s="30"/>
@@ -15548,43 +16046,43 @@
       <c r="BK70" s="30"/>
       <c r="BL70" s="30"/>
       <c r="BM70" s="30">
-        <f t="shared" ref="BM70" si="186">+BM54/BM53</f>
+        <f t="shared" ref="BM70" si="207">+BM54/BM53</f>
         <v>8.7406084951275761E-2</v>
       </c>
       <c r="BN70" s="30">
-        <f t="shared" ref="BN70:BV70" si="187">+BN54/BN53</f>
+        <f t="shared" ref="BN70:BV70" si="208">+BN54/BN53</f>
         <v>8.5823964902659713E-2</v>
       </c>
       <c r="BO70" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>0.10015614543832255</v>
       </c>
       <c r="BP70" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>0.12574038945453136</v>
       </c>
       <c r="BQ70" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>0.13260849871780578</v>
       </c>
       <c r="BR70" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>7.8779970641004726E-2</v>
       </c>
       <c r="BS70" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>0.15</v>
       </c>
       <c r="BT70" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>0.15</v>
       </c>
       <c r="BU70" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>0.15</v>
       </c>
       <c r="BV70" s="30">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>0.15</v>
       </c>
       <c r="BW70" s="30"/>
@@ -15595,39 +16093,39 @@
         <v>145</v>
       </c>
       <c r="AQ72" s="16">
-        <f t="shared" ref="AQ72:AY72" si="188">AQ73-AQ82</f>
+        <f t="shared" ref="AQ72:AY72" si="209">AQ73-AQ82</f>
         <v>-65642</v>
       </c>
       <c r="AR72" s="16">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>-62727</v>
       </c>
       <c r="AS72" s="16">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>-57492</v>
       </c>
       <c r="AT72" s="16">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>0</v>
       </c>
       <c r="AU72" s="16">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>-55114</v>
       </c>
       <c r="AV72" s="16">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>-51961</v>
       </c>
       <c r="AW72" s="16">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>-47181</v>
       </c>
       <c r="AX72" s="16">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>-46265</v>
       </c>
       <c r="AY72" s="16">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>-55627</v>
       </c>
       <c r="AZ72" s="16">
@@ -16398,27 +16896,27 @@
       </c>
       <c r="AT80" s="16"/>
       <c r="AU80" s="16">
-        <f t="shared" ref="AU80:AZ80" si="189">SUM(AU73:AU79)</f>
+        <f t="shared" ref="AU80:AZ80" si="210">SUM(AU73:AU79)</f>
         <v>134544</v>
       </c>
       <c r="AV80" s="16">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>135367</v>
       </c>
       <c r="AW80" s="16">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>136221</v>
       </c>
       <c r="AX80" s="16">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>134711</v>
       </c>
       <c r="AY80" s="16">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>148874</v>
       </c>
       <c r="AZ80" s="16">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>141937</v>
       </c>
       <c r="BA80" s="16"/>
@@ -16998,27 +17496,27 @@
       </c>
       <c r="AT87" s="16"/>
       <c r="AU87" s="16">
-        <f t="shared" ref="AU87:AZ87" si="190">SUM(AU82:AU86)</f>
+        <f t="shared" ref="AU87:AZ87" si="211">SUM(AU82:AU86)</f>
         <v>134544</v>
       </c>
       <c r="AV87" s="16">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>135367</v>
       </c>
       <c r="AW87" s="16">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>136221</v>
       </c>
       <c r="AX87" s="16">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>134711</v>
       </c>
       <c r="AY87" s="16">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>148874</v>
       </c>
       <c r="AZ87" s="16">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>141937</v>
       </c>
       <c r="BA87" s="16"/>
